--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>yang yang</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>id|</t>
   </si>
@@ -343,6 +343,18 @@
   </si>
   <si>
     <t>恭喜您在龙虾兑换活动中获得了%s，请在活动结束后7个工作日内请关注公众号《畅游新世界》联系%s领取奖励，否则视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_start|天启点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_end|天幕点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_limit_day_num|日总兑换限量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -820,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -831,19 +843,19 @@
     <col min="1" max="1" width="7.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="23.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="27.25" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="33" style="4" customWidth="1"/>
-    <col min="11" max="12" width="20.375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="28.875" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="11" style="4"/>
+    <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="27.25" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="33" style="4" customWidth="1"/>
+    <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="18.625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="28.875" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1">
+    <row r="1" spans="1:16" ht="27" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,25 +869,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5">
+    <row r="2" spans="1:16" ht="16.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -888,28 +906,30 @@
       <c r="D2" s="1">
         <v>1592841599</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -922,26 +942,28 @@
       <c r="D3" s="1">
         <v>1593446399</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5">
+      <c r="L3" s="19"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -954,25 +976,27 @@
       <c r="D4" s="1">
         <v>1598284799</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
@@ -980,8 +1004,10 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
@@ -989,10 +1015,12 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
@@ -1000,10 +1028,12 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
@@ -1011,11 +1041,13 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
@@ -1023,11 +1055,13 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="6"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
@@ -1035,11 +1069,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="6"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
@@ -1047,11 +1083,13 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="6"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1059,10 +1097,12 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1070,133 +1110,169 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="16.5">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" s="13" customFormat="1" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" ht="16.5">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="15"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" ht="16.5">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" s="13" customFormat="1" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:14" customFormat="1"/>
-    <row r="18" spans="1:14" customFormat="1"/>
-    <row r="19" spans="1:14">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:16" customFormat="1"/>
+    <row r="18" spans="1:16" customFormat="1"/>
+    <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5">
       <c r="A21" s="1"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5">
       <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.5">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5">
       <c r="A23" s="1"/>
       <c r="B23" s="7"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:16">
       <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:16">
       <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1210,7 +1286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1339,13 +1415,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L179"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1358,12 +1434,12 @@
     <col min="7" max="7" width="22.25" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.875" style="1" customWidth="1"/>
     <col min="9" max="10" width="27.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="31.375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="1"/>
+    <col min="11" max="12" width="28.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36" customHeight="1">
+    <row r="1" spans="1:13" ht="36" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1398,10 +1474,13 @@
         <v>24</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1423,11 +1502,11 @@
       <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1449,11 +1528,11 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1476,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1496,7 +1575,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1519,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1542,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1565,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1591,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1614,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1637,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1661,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1686,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1711,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1735,7 +1814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3053,7 +3132,7 @@
       <c r="G144" s="22"/>
       <c r="H144" s="20"/>
     </row>
-    <row r="145" spans="1:11" s="9" customFormat="1">
+    <row r="145" spans="1:12" s="9" customFormat="1">
       <c r="A145" s="16"/>
       <c r="B145" s="20"/>
       <c r="C145" s="16"/>
@@ -3063,7 +3142,7 @@
       <c r="G145" s="22"/>
       <c r="H145" s="20"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:12">
       <c r="A146" s="16"/>
       <c r="B146" s="20"/>
       <c r="C146" s="16"/>
@@ -3073,7 +3152,7 @@
       <c r="G146" s="22"/>
       <c r="H146" s="20"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:12">
       <c r="A147" s="16"/>
       <c r="B147" s="20"/>
       <c r="C147" s="16"/>
@@ -3083,7 +3162,7 @@
       <c r="G147" s="22"/>
       <c r="H147" s="20"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:12">
       <c r="A148" s="16"/>
       <c r="B148" s="20"/>
       <c r="C148" s="16"/>
@@ -3093,7 +3172,7 @@
       <c r="G148" s="22"/>
       <c r="H148" s="20"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:12">
       <c r="A149" s="16"/>
       <c r="B149" s="20"/>
       <c r="C149" s="16"/>
@@ -3103,7 +3182,7 @@
       <c r="G149" s="22"/>
       <c r="H149" s="20"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:12">
       <c r="A150" s="16"/>
       <c r="B150" s="20"/>
       <c r="C150" s="16"/>
@@ -3113,7 +3192,7 @@
       <c r="G150" s="22"/>
       <c r="H150" s="20"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:12">
       <c r="A151" s="16"/>
       <c r="B151" s="20"/>
       <c r="C151" s="16"/>
@@ -3123,7 +3202,7 @@
       <c r="G151" s="22"/>
       <c r="H151" s="20"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:12">
       <c r="A152" s="16"/>
       <c r="B152" s="20"/>
       <c r="C152" s="16"/>
@@ -3133,7 +3212,7 @@
       <c r="G152" s="22"/>
       <c r="H152" s="20"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:12">
       <c r="A153" s="16"/>
       <c r="B153" s="20"/>
       <c r="C153" s="16"/>
@@ -3143,7 +3222,7 @@
       <c r="G153" s="22"/>
       <c r="H153" s="20"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:12">
       <c r="A154" s="16"/>
       <c r="B154" s="20"/>
       <c r="C154" s="16"/>
@@ -3153,7 +3232,7 @@
       <c r="G154" s="22"/>
       <c r="H154" s="20"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:12">
       <c r="A155" s="16"/>
       <c r="B155" s="20"/>
       <c r="C155" s="16"/>
@@ -3163,7 +3242,7 @@
       <c r="G155" s="22"/>
       <c r="H155" s="20"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:12">
       <c r="A156" s="16"/>
       <c r="B156" s="20"/>
       <c r="C156" s="16"/>
@@ -3173,7 +3252,7 @@
       <c r="G156" s="22"/>
       <c r="H156" s="20"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:12">
       <c r="A157" s="16"/>
       <c r="B157" s="20"/>
       <c r="C157" s="16"/>
@@ -3183,7 +3262,7 @@
       <c r="G157" s="22"/>
       <c r="H157" s="20"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:12">
       <c r="A158" s="16"/>
       <c r="B158" s="20"/>
       <c r="C158" s="16"/>
@@ -3195,8 +3274,9 @@
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158" s="9"/>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="16"/>
       <c r="B159" s="20"/>
       <c r="C159" s="16"/>
@@ -3208,8 +3288,9 @@
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
       <c r="K159" s="9"/>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="L159" s="9"/>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="16"/>
       <c r="B160" s="20"/>
       <c r="C160" s="16"/>
@@ -3221,8 +3302,9 @@
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="L160" s="9"/>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="16"/>
       <c r="B161" s="20"/>
       <c r="C161" s="16"/>
@@ -3234,8 +3316,9 @@
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="L161" s="9"/>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="16"/>
       <c r="B162" s="20"/>
       <c r="C162" s="16"/>
@@ -3247,8 +3330,9 @@
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="L162" s="9"/>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="16"/>
       <c r="B163" s="20"/>
       <c r="C163" s="16"/>
@@ -3260,8 +3344,9 @@
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
       <c r="K163" s="9"/>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="L163" s="9"/>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="16"/>
       <c r="B164" s="20"/>
       <c r="C164" s="16"/>
@@ -3273,8 +3358,9 @@
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
       <c r="K164" s="9"/>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="L164" s="9"/>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="16"/>
       <c r="B165" s="20"/>
       <c r="C165" s="16"/>
@@ -3286,8 +3372,9 @@
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
       <c r="K165" s="9"/>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="L165" s="9"/>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="16"/>
       <c r="B166" s="20"/>
       <c r="C166" s="16"/>
@@ -3299,8 +3386,9 @@
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="L166" s="9"/>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="16"/>
       <c r="B167" s="20"/>
       <c r="C167" s="16"/>
@@ -3312,8 +3400,9 @@
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
       <c r="K167" s="9"/>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="L167" s="9"/>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="16"/>
       <c r="B168" s="20"/>
       <c r="C168" s="16"/>
@@ -3325,8 +3414,9 @@
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="L168" s="9"/>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="16"/>
       <c r="B169" s="20"/>
       <c r="C169" s="16"/>
@@ -3338,8 +3428,9 @@
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
       <c r="K169" s="9"/>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="L169" s="9"/>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="16"/>
       <c r="B170" s="20"/>
       <c r="C170" s="16"/>
@@ -3351,8 +3442,9 @@
       <c r="I170" s="9"/>
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="L170" s="9"/>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="16"/>
       <c r="B171" s="20"/>
       <c r="C171" s="16"/>
@@ -3364,8 +3456,9 @@
       <c r="I171" s="9"/>
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="L171" s="9"/>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="16"/>
       <c r="B172" s="20"/>
       <c r="C172" s="16"/>
@@ -3375,7 +3468,7 @@
       <c r="G172" s="22"/>
       <c r="H172" s="20"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:12">
       <c r="A173" s="16"/>
       <c r="B173" s="20"/>
       <c r="C173" s="16"/>
@@ -3385,7 +3478,7 @@
       <c r="G173" s="22"/>
       <c r="H173" s="20"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:12">
       <c r="A174" s="16"/>
       <c r="B174" s="20"/>
       <c r="C174" s="16"/>
@@ -3395,7 +3488,7 @@
       <c r="G174" s="22"/>
       <c r="H174" s="20"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:12">
       <c r="A175" s="16"/>
       <c r="B175" s="20"/>
       <c r="C175" s="16"/>
@@ -3405,7 +3498,7 @@
       <c r="G175" s="22"/>
       <c r="H175" s="20"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:12">
       <c r="A176" s="16"/>
       <c r="B176" s="20"/>
       <c r="C176" s="16"/>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>id|</t>
   </si>
@@ -237,12 +237,108 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>prop_zongzi</t>
+    <t>恭喜您在龙虾兑换活动中获得了%s，请在活动结束后7个工作日内联系%s领取奖励，否则视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在香粽换好礼活动中获得了%s，请在活动结束后7个工作日内联系%s领取奖励，否则视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>粽情端午</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾草中药香包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_zongzi_convert</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾兑换</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾啤酒节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣龙虾尾4罐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三香龙虾3.6斤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪花啤酒12罐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxdh_025_notnew</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxdh_025_notnew</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在龙虾兑换活动中获得了%s，请在活动结束后7个工作日内请关注公众号《畅游新世界》联系%s领取奖励，否则视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_start|天启点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_end|天幕点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_limit_day_num|日总兑换限量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>prop_zongzi</t>
+      <t>12000</t>
     </r>
     <r>
       <rPr>
@@ -253,108 +349,206 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_1</t>
+      <t>,</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在龙虾兑换活动中获得了%s，请在活动结束后7个工作日内联系%s领取奖励，否则视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在香粽换好礼活动中获得了%s，请在活动结束后7个工作日内联系%s领取奖励，否则视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>粽情端午</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾草中药香包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_zongzi_convert</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙虾兑换</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙虾啤酒节</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻辣龙虾尾4罐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>十三香龙虾3.6斤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪花啤酒12罐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>lxdh_025_notnew</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>lxdh_025_notnew</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在龙虾兑换活动中获得了%s，请在活动结束后7个工作日内请关注公众号《畅游新世界》联系%s领取奖励，否则视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_start|天启点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_end|天幕点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>all_limit_day_num|日总兑换限量</t>
+    <r>
+      <t>6000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2300,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_zongzi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_zongzi_1",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"prop_fish_drop_act_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +1029,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -869,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>10</v>
@@ -909,7 +1103,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -945,7 +1139,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -968,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>1597707000</v>
@@ -978,8 +1172,8 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>53</v>
+      <c r="G4" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -991,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -1321,7 +1515,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -1332,10 +1526,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -1346,10 +1540,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -1421,7 +1615,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1474,7 +1668,7 @@
         <v>24</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>19</v>
@@ -1496,8 +1690,8 @@
       <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1">
-        <v>18000</v>
+      <c r="H2" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -1522,8 +1716,8 @@
       <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1">
-        <v>12000</v>
+      <c r="H3" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -1548,8 +1742,8 @@
       <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1">
-        <v>6000</v>
+      <c r="H4" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1571,8 +1765,8 @@
       <c r="G5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="1">
-        <v>12000</v>
+      <c r="H5" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1591,8 +1785,8 @@
       <c r="G6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="1">
-        <v>6000</v>
+      <c r="H6" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
@@ -1614,8 +1808,8 @@
       <c r="G7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="1">
-        <v>2300</v>
+      <c r="H7" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1632,13 +1826,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1200</v>
+        <v>54</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1655,16 +1849,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1681,13 +1875,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="1">
-        <v>888</v>
+        <v>48</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1704,13 +1898,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1200</v>
+        <v>54</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1727,14 +1921,14 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G12" s="21"/>
-      <c r="H12" s="1">
-        <v>13500</v>
+      <c r="H12" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1751,15 +1945,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="22">
-        <v>9000</v>
+      <c r="H13" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -1776,15 +1970,15 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="22">
-        <v>3500</v>
+      <c r="H14" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -1802,13 +1996,13 @@
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="22">
-        <v>12000</v>
+        <v>62</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="J15" s="1">
         <v>3</v>
@@ -1826,13 +2020,13 @@
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="22">
-        <v>6000</v>
+        <v>63</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
@@ -1850,13 +2044,13 @@
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="22">
-        <v>2300</v>
+      <c r="H17" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
     <sheet name="email|邮件" sheetId="4" r:id="rId2"/>
     <sheet name="award" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>id|</t>
   </si>
@@ -549,6 +549,94 @@
       </rPr>
       <t>",</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_031_aster",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双肩背包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>U型颈枕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐饼干</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2400,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_gqkl_031_aster_exchange</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆狂欢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在五星换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《畅游新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,6 +837,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,10 +1117,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1191,15 +1283,35 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1601335800</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1601913599</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="24">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="1"/>
@@ -1478,10 +1590,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1550,7 +1663,15 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="3"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" s="3"/>
@@ -1609,13 +1730,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2057,84 +2179,203 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="20"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20">
+        <v>4</v>
+      </c>
+      <c r="C18" s="20">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="20"/>
+      <c r="H18" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20">
+        <v>4</v>
+      </c>
+      <c r="C19" s="20">
+        <v>2</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="20"/>
+      <c r="H19" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="20"/>
+      <c r="H20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20">
+        <v>4</v>
+      </c>
+      <c r="C21" s="20">
+        <v>4</v>
+      </c>
       <c r="D21" s="16"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="20"/>
+      <c r="F21" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20">
+        <v>4</v>
+      </c>
+      <c r="C22" s="20">
+        <v>5</v>
+      </c>
       <c r="D22" s="16"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="20"/>
+      <c r="F22" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20">
+        <v>4</v>
+      </c>
+      <c r="C23" s="20">
+        <v>6</v>
+      </c>
       <c r="D23" s="16"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="20"/>
+      <c r="F23" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="16"/>
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20">
+        <v>4</v>
+      </c>
+      <c r="C24" s="20">
+        <v>7</v>
+      </c>
       <c r="D24" s="16"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="20"/>
+      <c r="F24" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20">
+        <v>4</v>
+      </c>
+      <c r="C25" s="20">
+        <v>8</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="E25" s="20"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="20"/>
+      <c r="F25" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="16"/>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
   <si>
     <t>id|</t>
   </si>
@@ -637,6 +637,139 @@
   </si>
   <si>
     <t>恭喜您在五星换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《畅游新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_gej_hj",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠抱枕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange</t>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange</t>
+  </si>
+  <si>
+    <t>金龙鱼玉米油4L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在火鸡换豪礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在火鸡换豪礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换豪礼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +851,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,6 +862,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -771,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,6 +984,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,7 +1292,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1314,28 +1485,68 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1606176000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1606751999</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="24">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:16" ht="16.5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1606176000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1606751999</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="24">
+        <v>6</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
@@ -1594,7 +1805,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1674,7 +1885,26 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="3"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
@@ -1737,7 +1967,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2377,167 +2607,421 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="16"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="16"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="16"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="16"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="16"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="16"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="16"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="16"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="20"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="16"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="16"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="20"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="16"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="20"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="16"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="20"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="16"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="20"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="16"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="20"/>
-    </row>
-    <row r="42" spans="1:8">
+    <row r="26" spans="1:10" s="25" customFormat="1">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="25" customFormat="1">
+      <c r="A27" s="25">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26">
+        <v>5</v>
+      </c>
+      <c r="C27" s="26">
+        <v>2</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="25" customFormat="1">
+      <c r="A28" s="25">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26">
+        <v>5</v>
+      </c>
+      <c r="C28" s="26">
+        <v>3</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="25" customFormat="1">
+      <c r="A29" s="25">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26">
+        <v>5</v>
+      </c>
+      <c r="C29" s="26">
+        <v>4</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="25" customFormat="1">
+      <c r="A30" s="25">
+        <v>29</v>
+      </c>
+      <c r="B30" s="26">
+        <v>5</v>
+      </c>
+      <c r="C30" s="26">
+        <v>5</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="25" customFormat="1">
+      <c r="A31" s="25">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26">
+        <v>5</v>
+      </c>
+      <c r="C31" s="26">
+        <v>6</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="J31" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="25" customFormat="1">
+      <c r="A32" s="25">
+        <v>31</v>
+      </c>
+      <c r="B32" s="26">
+        <v>5</v>
+      </c>
+      <c r="C32" s="26">
+        <v>7</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="25" customFormat="1">
+      <c r="A33" s="25">
+        <v>32</v>
+      </c>
+      <c r="B33" s="26">
+        <v>5</v>
+      </c>
+      <c r="C33" s="26">
+        <v>8</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="30" customFormat="1">
+      <c r="A34" s="25">
+        <v>33</v>
+      </c>
+      <c r="B34" s="31">
+        <v>6</v>
+      </c>
+      <c r="C34" s="31">
+        <v>1</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="30" customFormat="1">
+      <c r="A35" s="25">
+        <v>34</v>
+      </c>
+      <c r="B35" s="31">
+        <v>6</v>
+      </c>
+      <c r="C35" s="31">
+        <v>2</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="30" customFormat="1">
+      <c r="A36" s="25">
+        <v>35</v>
+      </c>
+      <c r="B36" s="31">
+        <v>6</v>
+      </c>
+      <c r="C36" s="31">
+        <v>3</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="30" customFormat="1">
+      <c r="A37" s="25">
+        <v>36</v>
+      </c>
+      <c r="B37" s="31">
+        <v>6</v>
+      </c>
+      <c r="C37" s="31">
+        <v>4</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="30" customFormat="1">
+      <c r="A38" s="25">
+        <v>37</v>
+      </c>
+      <c r="B38" s="31">
+        <v>6</v>
+      </c>
+      <c r="C38" s="31">
+        <v>5</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="30" customFormat="1">
+      <c r="A39" s="25">
+        <v>38</v>
+      </c>
+      <c r="B39" s="31">
+        <v>6</v>
+      </c>
+      <c r="C39" s="31">
+        <v>6</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="30" customFormat="1">
+      <c r="A40" s="25">
+        <v>39</v>
+      </c>
+      <c r="B40" s="31">
+        <v>6</v>
+      </c>
+      <c r="C40" s="31">
+        <v>7</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="30" customFormat="1">
+      <c r="A41" s="25">
+        <v>40</v>
+      </c>
+      <c r="B41" s="31">
+        <v>6</v>
+      </c>
+      <c r="C41" s="31">
+        <v>8</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J41" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="16"/>
       <c r="B42" s="20"/>
       <c r="C42" s="16"/>
@@ -2547,7 +3031,7 @@
       <c r="G42" s="22"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:10">
       <c r="A43" s="16"/>
       <c r="B43" s="20"/>
       <c r="C43" s="16"/>
@@ -2557,7 +3041,7 @@
       <c r="G43" s="22"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10">
       <c r="A44" s="16"/>
       <c r="B44" s="20"/>
       <c r="C44" s="16"/>
@@ -2567,7 +3051,7 @@
       <c r="G44" s="22"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10">
       <c r="A45" s="16"/>
       <c r="B45" s="20"/>
       <c r="C45" s="16"/>
@@ -2577,7 +3061,7 @@
       <c r="G45" s="22"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10">
       <c r="A46" s="16"/>
       <c r="B46" s="20"/>
       <c r="C46" s="16"/>
@@ -2587,7 +3071,7 @@
       <c r="G46" s="22"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:10">
       <c r="A47" s="16"/>
       <c r="B47" s="20"/>
       <c r="C47" s="16"/>
@@ -2597,7 +3081,7 @@
       <c r="G47" s="22"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:10">
       <c r="A48" s="16"/>
       <c r="B48" s="20"/>
       <c r="C48" s="16"/>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="146">
   <si>
     <t>id|</t>
   </si>
@@ -648,6 +648,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>仓鼠抱枕</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -730,7 +734,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>恭喜您在火鸡换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>火鸡换好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在火鸡换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -757,19 +769,103 @@
     <t>actp_cjj_gej_exchange</t>
   </si>
   <si>
+    <t>双十二换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二换好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥克斯煮蛋器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯影牛肉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prop_12_12_lh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prop_12_12_lh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>金龙鱼玉米油4L</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在火鸡换豪礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在火鸡换豪礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸡换豪礼</t>
+    <t>金龙鱼玉米油4L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼玉米油4L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二狂欢节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二狂欢节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在双十二狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在双十二狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -851,7 +947,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -873,6 +969,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,7 +1024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1010,6 +1118,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,8 +1434,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1522,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1">
         <v>1606176000</v>
@@ -1550,33 +1693,71 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="16.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="6"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+    <row r="8" spans="1:16" s="38" customFormat="1" ht="16.5">
+      <c r="A8" s="35">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1607385600</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1607961599</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="35">
+        <v>1</v>
+      </c>
+      <c r="I8" s="35">
+        <v>7</v>
+      </c>
+      <c r="J8" s="37">
+        <v>7</v>
+      </c>
+      <c r="K8" s="38">
+        <v>1</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+    </row>
+    <row r="9" spans="1:16" s="38" customFormat="1" ht="16.5">
+      <c r="A9" s="35">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="35">
+        <v>1607385600</v>
+      </c>
+      <c r="D9" s="35">
+        <v>1607961599</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="35">
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <v>8</v>
+      </c>
+      <c r="J9" s="37">
+        <v>8</v>
+      </c>
+      <c r="K9" s="38">
+        <v>1</v>
+      </c>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
     </row>
     <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="1"/>
@@ -1805,7 +1986,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1889,10 +2070,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1900,16 +2081,33 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
@@ -1964,10 +2162,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2618,15 +2816,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J26" s="25">
         <v>1</v>
@@ -2643,15 +2841,15 @@
         <v>2</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J27" s="25">
         <v>1</v>
@@ -2668,15 +2866,15 @@
         <v>3</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J28" s="25">
         <v>1</v>
@@ -2693,17 +2891,17 @@
         <v>4</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="25" customFormat="1">
@@ -2717,17 +2915,17 @@
         <v>5</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J30" s="25">
         <v>3</v>
@@ -2744,17 +2942,17 @@
         <v>6</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J31" s="25">
         <v>2</v>
@@ -2771,17 +2969,17 @@
         <v>7</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J32" s="25">
         <v>1</v>
@@ -2798,17 +2996,17 @@
         <v>8</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J33" s="25">
         <v>1</v>
@@ -2825,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -2850,10 +3048,10 @@
         <v>2</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -2875,10 +3073,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -2900,7 +3098,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="33" t="s">
@@ -2924,7 +3122,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="33" t="s">
@@ -2934,7 +3132,7 @@
         <v>62</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J38" s="30">
         <v>3</v>
@@ -2951,7 +3149,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="33" t="s">
@@ -2961,7 +3159,7 @@
         <v>63</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J39" s="30">
         <v>2</v>
@@ -2978,7 +3176,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="33" t="s">
@@ -2988,7 +3186,7 @@
         <v>56</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J40" s="30">
         <v>1</v>
@@ -3005,7 +3203,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="33" t="s">
@@ -3021,167 +3219,421 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="16"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="20"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="16"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="16"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="16"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="20"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="16"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="16"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="16"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="20"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="16"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="20"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="16"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="20"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="16"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="20"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="16"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="20"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="16"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="20"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="16"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="20"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="16"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="20"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="16"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="20"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="16"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="20"/>
-    </row>
-    <row r="58" spans="1:8">
+    <row r="42" spans="1:10" s="43" customFormat="1">
+      <c r="A42" s="43">
+        <v>41</v>
+      </c>
+      <c r="B42" s="44">
+        <v>7</v>
+      </c>
+      <c r="C42" s="44">
+        <v>1</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="43" customFormat="1">
+      <c r="A43" s="43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="44">
+        <v>7</v>
+      </c>
+      <c r="C43" s="44">
+        <v>2</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J43" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="43" customFormat="1">
+      <c r="A44" s="43">
+        <v>43</v>
+      </c>
+      <c r="B44" s="44">
+        <v>7</v>
+      </c>
+      <c r="C44" s="44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="43" customFormat="1">
+      <c r="A45" s="43">
+        <v>44</v>
+      </c>
+      <c r="B45" s="44">
+        <v>7</v>
+      </c>
+      <c r="C45" s="44">
+        <v>4</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="44"/>
+      <c r="F45" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="43" customFormat="1">
+      <c r="A46" s="43">
+        <v>45</v>
+      </c>
+      <c r="B46" s="44">
+        <v>7</v>
+      </c>
+      <c r="C46" s="44">
+        <v>5</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="44"/>
+      <c r="F46" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="J46" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="43" customFormat="1">
+      <c r="A47" s="43">
+        <v>46</v>
+      </c>
+      <c r="B47" s="44">
+        <v>7</v>
+      </c>
+      <c r="C47" s="44">
+        <v>6</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="44"/>
+      <c r="F47" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="J47" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="43" customFormat="1">
+      <c r="A48" s="43">
+        <v>47</v>
+      </c>
+      <c r="B48" s="44">
+        <v>7</v>
+      </c>
+      <c r="C48" s="44">
+        <v>7</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="44"/>
+      <c r="F48" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="J48" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="43" customFormat="1">
+      <c r="A49" s="43">
+        <v>48</v>
+      </c>
+      <c r="B49" s="44">
+        <v>7</v>
+      </c>
+      <c r="C49" s="44">
+        <v>8</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="44"/>
+      <c r="F49" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="35" customFormat="1">
+      <c r="A50" s="35">
+        <v>49</v>
+      </c>
+      <c r="B50" s="40">
+        <v>8</v>
+      </c>
+      <c r="C50" s="40">
+        <v>1</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="J50" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="35" customFormat="1">
+      <c r="A51" s="35">
+        <v>50</v>
+      </c>
+      <c r="B51" s="40">
+        <v>8</v>
+      </c>
+      <c r="C51" s="40">
+        <v>2</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="J51" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="35" customFormat="1">
+      <c r="A52" s="35">
+        <v>51</v>
+      </c>
+      <c r="B52" s="40">
+        <v>8</v>
+      </c>
+      <c r="C52" s="40">
+        <v>3</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="35" customFormat="1">
+      <c r="A53" s="35">
+        <v>52</v>
+      </c>
+      <c r="B53" s="40">
+        <v>8</v>
+      </c>
+      <c r="C53" s="40">
+        <v>4</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="40"/>
+      <c r="F53" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="35" customFormat="1">
+      <c r="A54" s="35">
+        <v>53</v>
+      </c>
+      <c r="B54" s="40">
+        <v>8</v>
+      </c>
+      <c r="C54" s="40">
+        <v>5</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="J54" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="35" customFormat="1">
+      <c r="A55" s="35">
+        <v>54</v>
+      </c>
+      <c r="B55" s="40">
+        <v>8</v>
+      </c>
+      <c r="C55" s="40">
+        <v>6</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="40"/>
+      <c r="F55" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="J55" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="35" customFormat="1">
+      <c r="A56" s="35">
+        <v>55</v>
+      </c>
+      <c r="B56" s="40">
+        <v>8</v>
+      </c>
+      <c r="C56" s="40">
+        <v>7</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="40"/>
+      <c r="F56" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="J56" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="35" customFormat="1">
+      <c r="A57" s="35">
+        <v>56</v>
+      </c>
+      <c r="B57" s="40">
+        <v>8</v>
+      </c>
+      <c r="C57" s="40">
+        <v>8</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="40"/>
+      <c r="F57" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="16"/>
       <c r="B58" s="20"/>
       <c r="C58" s="16"/>
@@ -3191,7 +3643,7 @@
       <c r="G58" s="22"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:10">
       <c r="A59" s="16"/>
       <c r="B59" s="20"/>
       <c r="C59" s="16"/>
@@ -3201,7 +3653,7 @@
       <c r="G59" s="22"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:10">
       <c r="A60" s="16"/>
       <c r="B60" s="20"/>
       <c r="C60" s="16"/>
@@ -3211,7 +3663,7 @@
       <c r="G60" s="22"/>
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:10">
       <c r="A61" s="16"/>
       <c r="B61" s="20"/>
       <c r="C61" s="16"/>
@@ -3221,7 +3673,7 @@
       <c r="G61" s="22"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:10">
       <c r="A62" s="16"/>
       <c r="B62" s="20"/>
       <c r="C62" s="16"/>
@@ -3231,7 +3683,7 @@
       <c r="G62" s="22"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:10">
       <c r="A63" s="16"/>
       <c r="B63" s="20"/>
       <c r="C63" s="16"/>
@@ -3241,7 +3693,7 @@
       <c r="G63" s="22"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:10">
       <c r="A64" s="16"/>
       <c r="B64" s="20"/>
       <c r="C64" s="16"/>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="155">
   <si>
     <t>id|</t>
   </si>
@@ -853,6 +853,29 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>冬至换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬至换好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",</t>
+  </si>
+  <si>
+    <t>澳洲进口奶粉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰清香大米</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>双十二狂欢节</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -861,11 +884,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在双十二狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在双十二狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐冬至</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -947,7 +982,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,6 +1016,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,7 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1040,9 +1087,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1154,6 +1198,44 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1434,8 +1516,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1523,11 +1605,11 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="1">
@@ -1559,9 +1641,9 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="L3" s="18"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1">
@@ -1593,8 +1675,8 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
@@ -1620,7 +1702,7 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -1651,14 +1733,14 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>5</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="1">
@@ -1684,108 +1766,146 @@
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <v>6</v>
       </c>
       <c r="K7" s="4">
         <v>1</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" s="38" customFormat="1" ht="16.5">
-      <c r="A8" s="35">
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="16.5">
+      <c r="A8" s="34">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>1607385600</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>1607961599</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="35">
-        <v>1</v>
-      </c>
-      <c r="I8" s="35">
+      <c r="H8" s="34">
+        <v>1</v>
+      </c>
+      <c r="I8" s="34">
         <v>7</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <v>7</v>
       </c>
-      <c r="K8" s="38">
-        <v>1</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="38" customFormat="1" ht="16.5">
-      <c r="A9" s="35">
+      <c r="K8" s="37">
+        <v>1</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+    </row>
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="16.5">
+      <c r="A9" s="34">
         <v>8</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>1607385600</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>1607961599</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="35">
-        <v>1</v>
-      </c>
-      <c r="I9" s="35">
+      <c r="H9" s="34">
+        <v>1</v>
+      </c>
+      <c r="I9" s="34">
         <v>8</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <v>8</v>
       </c>
-      <c r="K9" s="38">
-        <v>1</v>
-      </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="6"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="6"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="K9" s="37">
+        <v>1</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="10" spans="1:16" s="51" customFormat="1" ht="16.5">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="47">
+        <v>1607990400</v>
+      </c>
+      <c r="D10" s="47">
+        <v>1608566399</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="47">
+        <v>1</v>
+      </c>
+      <c r="I10" s="47">
+        <v>9</v>
+      </c>
+      <c r="J10" s="50">
+        <v>9</v>
+      </c>
+      <c r="K10" s="51">
+        <v>1</v>
+      </c>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+    </row>
+    <row r="11" spans="1:16" s="51" customFormat="1" ht="16.5">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="47">
+        <v>1607990400</v>
+      </c>
+      <c r="D11" s="47">
+        <v>1608566399</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="47">
+        <v>1</v>
+      </c>
+      <c r="I11" s="47">
+        <v>10</v>
+      </c>
+      <c r="J11" s="50">
+        <v>10</v>
+      </c>
+      <c r="K11" s="51">
+        <v>1</v>
+      </c>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
     </row>
     <row r="12" spans="1:16" ht="16.5">
       <c r="A12" s="1"/>
@@ -1797,8 +1917,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="16.5">
       <c r="A13" s="1"/>
@@ -1810,53 +1930,59 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="16.5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="16.5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="16.5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="1:16" customFormat="1"/>
-    <row r="18" spans="1:16" customFormat="1"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="16.5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" customFormat="1">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+    </row>
+    <row r="18" spans="1:16" customFormat="1">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+    </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1864,7 +1990,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1872,61 +1998,61 @@
     </row>
     <row r="21" spans="1:16" ht="16.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="16.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="16.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="16.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="B29" s="7"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1934,7 +2060,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1958,7 +2084,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1966,7 +2092,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1986,7 +2112,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2092,10 +2218,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2103,56 +2229,65 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" s="9" customFormat="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="47" customFormat="1">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="47" customFormat="1">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2162,10 +2297,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2199,10 +2334,10 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2312,7 +2447,7 @@
       <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2332,7 +2467,7 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2355,7 +2490,7 @@
       <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2476,7 +2611,7 @@
       <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2488,21 +2623,21 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="1">
@@ -2513,21 +2648,21 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>3</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="1">
@@ -2538,20 +2673,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>3</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>5</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="1">
@@ -2562,20 +2697,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>3</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>6</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="1">
@@ -2586,20 +2721,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>3</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>7</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="21" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="1">
@@ -2610,21 +2745,21 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>4</v>
       </c>
-      <c r="C18" s="20">
-        <v>1</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="20" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="19" t="s">
         <v>93</v>
       </c>
       <c r="J18" s="1">
@@ -2635,21 +2770,21 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>4</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>2</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="20" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="19" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="1">
@@ -2660,21 +2795,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>4</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>3</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="20" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="19" t="s">
         <v>95</v>
       </c>
       <c r="J20" s="1">
@@ -2685,21 +2820,21 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>4</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>4</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="22" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="19" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2707,21 +2842,21 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>4</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>5</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="22" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J22" s="1">
@@ -2732,21 +2867,21 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>4</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>6</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="22" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="19" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="1">
@@ -2757,21 +2892,21 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>4</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>7</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="22" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="19" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="1">
@@ -2782,2132 +2917,2386 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>4</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>8</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="19" t="s">
         <v>100</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="25" customFormat="1">
-      <c r="A26" s="25">
+    <row r="26" spans="1:10" s="24" customFormat="1">
+      <c r="A26" s="24">
         <v>25</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>5</v>
       </c>
-      <c r="C26" s="26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="26" t="s">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="25" customFormat="1">
-      <c r="A27" s="25">
+      <c r="J26" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="24" customFormat="1">
+      <c r="A27" s="24">
         <v>26</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>5</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>2</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="26" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="25" customFormat="1">
-      <c r="A28" s="25">
+      <c r="J27" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="24" customFormat="1">
+      <c r="A28" s="24">
         <v>27</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>5</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>3</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="26" t="s">
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="25" customFormat="1">
-      <c r="A29" s="25">
+      <c r="J28" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="24" customFormat="1">
+      <c r="A29" s="24">
         <v>28</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>5</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="25">
         <v>4</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="28" t="s">
+      <c r="E29" s="25"/>
+      <c r="F29" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="25" customFormat="1">
-      <c r="A30" s="25">
+    <row r="30" spans="1:10" s="24" customFormat="1">
+      <c r="A30" s="24">
         <v>29</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>5</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>5</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="28" t="s">
+      <c r="E30" s="25"/>
+      <c r="F30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="25" customFormat="1">
-      <c r="A31" s="25">
+    <row r="31" spans="1:10" s="24" customFormat="1">
+      <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>5</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="25">
         <v>6</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="28" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="25" customFormat="1">
-      <c r="A32" s="25">
+    <row r="32" spans="1:10" s="24" customFormat="1">
+      <c r="A32" s="24">
         <v>31</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>5</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="25">
         <v>7</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="28" t="s">
+      <c r="E32" s="25"/>
+      <c r="F32" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="25" customFormat="1">
-      <c r="A33" s="25">
+      <c r="J32" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="24" customFormat="1">
+      <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>5</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="25">
         <v>8</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="28" t="s">
+      <c r="E33" s="25"/>
+      <c r="F33" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="30" customFormat="1">
-      <c r="A34" s="25">
+      <c r="J33" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="29" customFormat="1">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="30">
         <v>6</v>
       </c>
-      <c r="C34" s="31">
-        <v>1</v>
-      </c>
-      <c r="D34" s="32" t="s">
+      <c r="C34" s="30">
+        <v>1</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="31" t="s">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="30" customFormat="1">
-      <c r="A35" s="25">
+      <c r="J34" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="29" customFormat="1">
+      <c r="A35" s="24">
         <v>34</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="30">
         <v>6</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="30">
         <v>2</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="31" t="s">
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="30" customFormat="1">
-      <c r="A36" s="25">
+      <c r="J35" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="29" customFormat="1">
+      <c r="A36" s="24">
         <v>35</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="30">
         <v>6</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <v>3</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="31" t="s">
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="30" customFormat="1">
-      <c r="A37" s="25">
+      <c r="J36" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="29" customFormat="1">
+      <c r="A37" s="24">
         <v>36</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="30">
         <v>6</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="30">
         <v>4</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="33" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="30" customFormat="1">
-      <c r="A38" s="25">
+    <row r="38" spans="1:10" s="29" customFormat="1">
+      <c r="A38" s="24">
         <v>37</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="30">
         <v>6</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="30">
         <v>5</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="33" t="s">
+      <c r="E38" s="30"/>
+      <c r="F38" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="34" t="s">
+      <c r="H38" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="30" customFormat="1">
-      <c r="A39" s="25">
+    <row r="39" spans="1:10" s="29" customFormat="1">
+      <c r="A39" s="24">
         <v>38</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="30">
         <v>6</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="30">
         <v>6</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="30"/>
+      <c r="F39" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="34" t="s">
+      <c r="H39" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="30" customFormat="1">
-      <c r="A40" s="25">
+    <row r="40" spans="1:10" s="29" customFormat="1">
+      <c r="A40" s="24">
         <v>39</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="30">
         <v>6</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="30">
         <v>7</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="33" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="34" t="s">
+      <c r="H40" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="30" customFormat="1">
-      <c r="A41" s="25">
+      <c r="J40" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="29" customFormat="1">
+      <c r="A41" s="24">
         <v>40</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="30">
         <v>6</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="30">
         <v>8</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="33" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="43" customFormat="1">
-      <c r="A42" s="43">
+      <c r="J41" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="42" customFormat="1">
+      <c r="A42" s="42">
         <v>41</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="43">
         <v>7</v>
       </c>
-      <c r="C42" s="44">
-        <v>1</v>
-      </c>
-      <c r="D42" s="45" t="s">
+      <c r="C42" s="43">
+        <v>1</v>
+      </c>
+      <c r="D42" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="44" t="s">
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="43" customFormat="1">
-      <c r="A43" s="43">
+      <c r="J42" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="42" customFormat="1">
+      <c r="A43" s="42">
         <v>42</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="43">
         <v>7</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C43" s="43">
         <v>2</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="44" t="s">
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="43" customFormat="1">
-      <c r="A44" s="43">
+      <c r="J43" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="42" customFormat="1">
+      <c r="A44" s="42">
         <v>43</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="43">
         <v>7</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="43">
         <v>3</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="44" t="s">
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="43" customFormat="1">
-      <c r="A45" s="43">
+      <c r="J44" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="42" customFormat="1">
+      <c r="A45" s="42">
         <v>44</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="43">
         <v>7</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C45" s="43">
         <v>4</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="46" t="s">
+      <c r="E45" s="43"/>
+      <c r="F45" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="44" t="s">
+      <c r="H45" s="43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="43" customFormat="1">
-      <c r="A46" s="43">
+    <row r="46" spans="1:10" s="42" customFormat="1">
+      <c r="A46" s="42">
         <v>45</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="43">
         <v>7</v>
       </c>
-      <c r="C46" s="44">
+      <c r="C46" s="43">
         <v>5</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="46" t="s">
+      <c r="E46" s="43"/>
+      <c r="F46" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="47" t="s">
+      <c r="H46" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="43">
+      <c r="J46" s="42">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="43" customFormat="1">
-      <c r="A47" s="43">
+    <row r="47" spans="1:10" s="42" customFormat="1">
+      <c r="A47" s="42">
         <v>46</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="43">
         <v>7</v>
       </c>
-      <c r="C47" s="44">
+      <c r="C47" s="43">
         <v>6</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="46" t="s">
+      <c r="E47" s="43"/>
+      <c r="F47" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="47" t="s">
+      <c r="H47" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="43">
+      <c r="J47" s="42">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="43" customFormat="1">
-      <c r="A48" s="43">
+    <row r="48" spans="1:10" s="42" customFormat="1">
+      <c r="A48" s="42">
         <v>47</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="43">
         <v>7</v>
       </c>
-      <c r="C48" s="44">
+      <c r="C48" s="43">
         <v>7</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="46" t="s">
+      <c r="E48" s="43"/>
+      <c r="F48" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="47" t="s">
+      <c r="H48" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="43" customFormat="1">
-      <c r="A49" s="43">
+      <c r="J48" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="42" customFormat="1">
+      <c r="A49" s="42">
         <v>48</v>
       </c>
-      <c r="B49" s="44">
+      <c r="B49" s="43">
         <v>7</v>
       </c>
-      <c r="C49" s="44">
+      <c r="C49" s="43">
         <v>8</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="46" t="s">
+      <c r="E49" s="43"/>
+      <c r="F49" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="H49" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="J49" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="35" customFormat="1">
-      <c r="A50" s="35">
+      <c r="J49" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="34" customFormat="1">
+      <c r="A50" s="34">
         <v>49</v>
       </c>
-      <c r="B50" s="40">
+      <c r="B50" s="39">
         <v>8</v>
       </c>
-      <c r="C50" s="40">
-        <v>1</v>
-      </c>
-      <c r="D50" s="41" t="s">
+      <c r="C50" s="39">
+        <v>1</v>
+      </c>
+      <c r="D50" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="40" t="s">
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="35" customFormat="1">
-      <c r="A51" s="35">
+      <c r="J50" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="34" customFormat="1">
+      <c r="A51" s="34">
         <v>50</v>
       </c>
-      <c r="B51" s="40">
+      <c r="B51" s="39">
         <v>8</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="39">
         <v>2</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="40" t="s">
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="35" customFormat="1">
-      <c r="A52" s="35">
+      <c r="J51" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="34" customFormat="1">
+      <c r="A52" s="34">
         <v>51</v>
       </c>
-      <c r="B52" s="40">
+      <c r="B52" s="39">
         <v>8</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="39">
         <v>3</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="40" t="s">
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="35" customFormat="1">
-      <c r="A53" s="35">
+      <c r="J52" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="34" customFormat="1">
+      <c r="A53" s="34">
         <v>52</v>
       </c>
-      <c r="B53" s="40">
+      <c r="B53" s="39">
         <v>8</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="39">
         <v>4</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="42" t="s">
+      <c r="E53" s="39"/>
+      <c r="F53" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="35" customFormat="1">
-      <c r="A54" s="35">
+    <row r="54" spans="1:10" s="34" customFormat="1">
+      <c r="A54" s="34">
         <v>53</v>
       </c>
-      <c r="B54" s="40">
+      <c r="B54" s="39">
         <v>8</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="39">
         <v>5</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="42" t="s">
+      <c r="E54" s="39"/>
+      <c r="F54" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="36" t="s">
+      <c r="H54" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="35">
+      <c r="J54" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="35" customFormat="1">
-      <c r="A55" s="35">
+    <row r="55" spans="1:10" s="34" customFormat="1">
+      <c r="A55" s="34">
         <v>54</v>
       </c>
-      <c r="B55" s="40">
+      <c r="B55" s="39">
         <v>8</v>
       </c>
-      <c r="C55" s="40">
+      <c r="C55" s="39">
         <v>6</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D55" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="40"/>
-      <c r="F55" s="42" t="s">
+      <c r="E55" s="39"/>
+      <c r="F55" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="36" t="s">
+      <c r="H55" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="35">
+      <c r="J55" s="34">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="35" customFormat="1">
-      <c r="A56" s="35">
+    <row r="56" spans="1:10" s="34" customFormat="1">
+      <c r="A56" s="34">
         <v>55</v>
       </c>
-      <c r="B56" s="40">
+      <c r="B56" s="39">
         <v>8</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="39">
         <v>7</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D56" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="42" t="s">
+      <c r="E56" s="39"/>
+      <c r="F56" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="36" t="s">
+      <c r="H56" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J56" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="35" customFormat="1">
-      <c r="A57" s="35">
+      <c r="J56" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="34" customFormat="1">
+      <c r="A57" s="34">
         <v>56</v>
       </c>
-      <c r="B57" s="40">
+      <c r="B57" s="39">
         <v>8</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="39">
         <v>8</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="42" t="s">
+      <c r="E57" s="39"/>
+      <c r="F57" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="42" t="s">
+      <c r="G57" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="40" t="s">
+      <c r="H57" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="16"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="20"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="16"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="20"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="16"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="20"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="16"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="20"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="16"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="20"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="16"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="20"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="16"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="20"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="16"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="20"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="16"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="20"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="16"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="20"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="16"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="20"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="16"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="20"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="16"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="20"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="16"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="20"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="16"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="20"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="16"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="20"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="16"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="20"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="16"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="20"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="16"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="20"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="16"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="20"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="16"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="20"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="16"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="20"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="16"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="20"/>
+      <c r="J57" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="47" customFormat="1">
+      <c r="A58" s="47">
+        <v>57</v>
+      </c>
+      <c r="B58" s="55">
+        <v>9</v>
+      </c>
+      <c r="C58" s="55">
+        <v>1</v>
+      </c>
+      <c r="D58" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="J58" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="47" customFormat="1">
+      <c r="A59" s="47">
+        <v>58</v>
+      </c>
+      <c r="B59" s="55">
+        <v>9</v>
+      </c>
+      <c r="C59" s="55">
+        <v>2</v>
+      </c>
+      <c r="D59" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="47" customFormat="1">
+      <c r="A60" s="47">
+        <v>59</v>
+      </c>
+      <c r="B60" s="55">
+        <v>9</v>
+      </c>
+      <c r="C60" s="55">
+        <v>3</v>
+      </c>
+      <c r="D60" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="47" customFormat="1">
+      <c r="A61" s="47">
+        <v>60</v>
+      </c>
+      <c r="B61" s="55">
+        <v>9</v>
+      </c>
+      <c r="C61" s="55">
+        <v>4</v>
+      </c>
+      <c r="D61" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" s="55"/>
+      <c r="F61" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" s="55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="47" customFormat="1">
+      <c r="A62" s="47">
+        <v>61</v>
+      </c>
+      <c r="B62" s="55">
+        <v>9</v>
+      </c>
+      <c r="C62" s="55">
+        <v>5</v>
+      </c>
+      <c r="D62" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="55"/>
+      <c r="F62" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="J62" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="47" customFormat="1">
+      <c r="A63" s="47">
+        <v>62</v>
+      </c>
+      <c r="B63" s="55">
+        <v>9</v>
+      </c>
+      <c r="C63" s="55">
+        <v>6</v>
+      </c>
+      <c r="D63" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="55"/>
+      <c r="F63" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="J63" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="47" customFormat="1">
+      <c r="A64" s="47">
+        <v>63</v>
+      </c>
+      <c r="B64" s="55">
+        <v>9</v>
+      </c>
+      <c r="C64" s="55">
+        <v>7</v>
+      </c>
+      <c r="D64" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="55"/>
+      <c r="F64" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="J64" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="47" customFormat="1">
+      <c r="A65" s="47">
+        <v>64</v>
+      </c>
+      <c r="B65" s="55">
+        <v>9</v>
+      </c>
+      <c r="C65" s="55">
+        <v>8</v>
+      </c>
+      <c r="D65" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="55"/>
+      <c r="F65" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="J65" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="53" customFormat="1">
+      <c r="A66" s="53">
+        <v>65</v>
+      </c>
+      <c r="B66" s="58">
+        <v>10</v>
+      </c>
+      <c r="C66" s="58">
+        <v>1</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="J66" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="53" customFormat="1">
+      <c r="A67" s="53">
+        <v>66</v>
+      </c>
+      <c r="B67" s="58">
+        <v>10</v>
+      </c>
+      <c r="C67" s="58">
+        <v>2</v>
+      </c>
+      <c r="D67" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="J67" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="53" customFormat="1">
+      <c r="A68" s="53">
+        <v>67</v>
+      </c>
+      <c r="B68" s="58">
+        <v>10</v>
+      </c>
+      <c r="C68" s="58">
+        <v>3</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J68" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="53" customFormat="1">
+      <c r="A69" s="53">
+        <v>68</v>
+      </c>
+      <c r="B69" s="58">
+        <v>10</v>
+      </c>
+      <c r="C69" s="58">
+        <v>4</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" s="58"/>
+      <c r="F69" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="53" customFormat="1">
+      <c r="A70" s="53">
+        <v>69</v>
+      </c>
+      <c r="B70" s="58">
+        <v>10</v>
+      </c>
+      <c r="C70" s="58">
+        <v>5</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="58"/>
+      <c r="F70" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="J70" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="53" customFormat="1">
+      <c r="A71" s="53">
+        <v>70</v>
+      </c>
+      <c r="B71" s="58">
+        <v>10</v>
+      </c>
+      <c r="C71" s="58">
+        <v>6</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" s="58"/>
+      <c r="F71" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="J71" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="53" customFormat="1">
+      <c r="A72" s="53">
+        <v>71</v>
+      </c>
+      <c r="B72" s="58">
+        <v>10</v>
+      </c>
+      <c r="C72" s="58">
+        <v>7</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" s="58"/>
+      <c r="F72" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="J72" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="53" customFormat="1">
+      <c r="A73" s="53">
+        <v>72</v>
+      </c>
+      <c r="B73" s="58">
+        <v>10</v>
+      </c>
+      <c r="C73" s="58">
+        <v>8</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="58"/>
+      <c r="F73" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="J73" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="15"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="19"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="15"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="19"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="15"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="19"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="19"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="19"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="19"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="19"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="16"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="20"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="19"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="16"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="20"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="19"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="16"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="20"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="19"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="16"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="20"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="19"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="16"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="20"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="19"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="16"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="20"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="19"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="16"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="20"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="19"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="16"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="20"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="19"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="16"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="20"/>
-    </row>
-    <row r="90" spans="1:8" s="9" customFormat="1">
-      <c r="A90" s="16"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="20"/>
-    </row>
-    <row r="91" spans="1:8" s="9" customFormat="1">
-      <c r="A91" s="16"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="20"/>
-    </row>
-    <row r="92" spans="1:8" s="9" customFormat="1">
-      <c r="A92" s="16"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="20"/>
-    </row>
-    <row r="93" spans="1:8" s="9" customFormat="1">
-      <c r="A93" s="16"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="20"/>
-    </row>
-    <row r="94" spans="1:8" s="9" customFormat="1">
-      <c r="A94" s="16"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="20"/>
-    </row>
-    <row r="95" spans="1:8" s="9" customFormat="1">
-      <c r="A95" s="16"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="20"/>
-    </row>
-    <row r="96" spans="1:8" s="9" customFormat="1">
-      <c r="A96" s="16"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="20"/>
-    </row>
-    <row r="97" spans="1:8" s="9" customFormat="1">
-      <c r="A97" s="16"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="20"/>
-    </row>
-    <row r="98" spans="1:8" s="9" customFormat="1">
-      <c r="A98" s="16"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="20"/>
-    </row>
-    <row r="99" spans="1:8" s="9" customFormat="1">
-      <c r="A99" s="16"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="20"/>
-    </row>
-    <row r="100" spans="1:8" s="9" customFormat="1">
-      <c r="A100" s="16"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="20"/>
-    </row>
-    <row r="101" spans="1:8" s="9" customFormat="1">
-      <c r="A101" s="16"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="20"/>
-    </row>
-    <row r="102" spans="1:8" s="9" customFormat="1">
-      <c r="A102" s="16"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="20"/>
-    </row>
-    <row r="103" spans="1:8" s="9" customFormat="1">
-      <c r="A103" s="16"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="20"/>
-    </row>
-    <row r="104" spans="1:8" s="9" customFormat="1">
-      <c r="A104" s="16"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="20"/>
-    </row>
-    <row r="105" spans="1:8" s="9" customFormat="1">
-      <c r="A105" s="16"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="20"/>
-    </row>
-    <row r="106" spans="1:8" s="9" customFormat="1">
-      <c r="A106" s="16"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="20"/>
-    </row>
-    <row r="107" spans="1:8" s="9" customFormat="1">
-      <c r="A107" s="16"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="20"/>
-    </row>
-    <row r="108" spans="1:8" s="9" customFormat="1">
-      <c r="A108" s="16"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="20"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="19"/>
+    </row>
+    <row r="90" spans="1:8" s="8" customFormat="1">
+      <c r="A90" s="15"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="19"/>
+    </row>
+    <row r="91" spans="1:8" s="8" customFormat="1">
+      <c r="A91" s="15"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="19"/>
+    </row>
+    <row r="92" spans="1:8" s="8" customFormat="1">
+      <c r="A92" s="15"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="19"/>
+    </row>
+    <row r="93" spans="1:8" s="8" customFormat="1">
+      <c r="A93" s="15"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="19"/>
+    </row>
+    <row r="94" spans="1:8" s="8" customFormat="1">
+      <c r="A94" s="15"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="19"/>
+    </row>
+    <row r="95" spans="1:8" s="8" customFormat="1">
+      <c r="A95" s="15"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="19"/>
+    </row>
+    <row r="96" spans="1:8" s="8" customFormat="1">
+      <c r="A96" s="15"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="19"/>
+    </row>
+    <row r="97" spans="1:8" s="8" customFormat="1">
+      <c r="A97" s="15"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="19"/>
+    </row>
+    <row r="98" spans="1:8" s="8" customFormat="1">
+      <c r="A98" s="15"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="19"/>
+    </row>
+    <row r="99" spans="1:8" s="8" customFormat="1">
+      <c r="A99" s="15"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="19"/>
+    </row>
+    <row r="100" spans="1:8" s="8" customFormat="1">
+      <c r="A100" s="15"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="19"/>
+    </row>
+    <row r="101" spans="1:8" s="8" customFormat="1">
+      <c r="A101" s="15"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="19"/>
+    </row>
+    <row r="102" spans="1:8" s="8" customFormat="1">
+      <c r="A102" s="15"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="19"/>
+    </row>
+    <row r="103" spans="1:8" s="8" customFormat="1">
+      <c r="A103" s="15"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="19"/>
+    </row>
+    <row r="104" spans="1:8" s="8" customFormat="1">
+      <c r="A104" s="15"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="19"/>
+    </row>
+    <row r="105" spans="1:8" s="8" customFormat="1">
+      <c r="A105" s="15"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="19"/>
+    </row>
+    <row r="106" spans="1:8" s="8" customFormat="1">
+      <c r="A106" s="15"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="19"/>
+    </row>
+    <row r="107" spans="1:8" s="8" customFormat="1">
+      <c r="A107" s="15"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="19"/>
+    </row>
+    <row r="108" spans="1:8" s="8" customFormat="1">
+      <c r="A108" s="15"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="19"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="16"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="20"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="19"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="16"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="20"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="19"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="16"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="20"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="19"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="16"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="20"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="19"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="16"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="20"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="19"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="16"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="20"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="19"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="16"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="20"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="19"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="16"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="20"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="19"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="16"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="20"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="19"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="16"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="20"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="19"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="16"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="20"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="19"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="16"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="20"/>
-    </row>
-    <row r="121" spans="1:8" s="9" customFormat="1">
-      <c r="A121" s="16"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="20"/>
-    </row>
-    <row r="122" spans="1:8" s="9" customFormat="1">
-      <c r="A122" s="16"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="20"/>
-    </row>
-    <row r="123" spans="1:8" s="9" customFormat="1">
-      <c r="A123" s="16"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="20"/>
-    </row>
-    <row r="124" spans="1:8" s="9" customFormat="1">
-      <c r="A124" s="16"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="20"/>
-    </row>
-    <row r="125" spans="1:8" s="9" customFormat="1">
-      <c r="A125" s="16"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="20"/>
-    </row>
-    <row r="126" spans="1:8" s="9" customFormat="1">
-      <c r="A126" s="16"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="20"/>
-    </row>
-    <row r="127" spans="1:8" s="9" customFormat="1">
-      <c r="A127" s="16"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="20"/>
-    </row>
-    <row r="128" spans="1:8" s="9" customFormat="1">
-      <c r="A128" s="16"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="20"/>
-    </row>
-    <row r="129" spans="1:8" s="9" customFormat="1">
-      <c r="A129" s="16"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="20"/>
-    </row>
-    <row r="130" spans="1:8" s="9" customFormat="1">
-      <c r="A130" s="16"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="20"/>
-    </row>
-    <row r="131" spans="1:8" s="9" customFormat="1">
-      <c r="A131" s="16"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="20"/>
-    </row>
-    <row r="132" spans="1:8" s="9" customFormat="1">
-      <c r="A132" s="16"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="20"/>
-    </row>
-    <row r="133" spans="1:8" s="9" customFormat="1">
-      <c r="A133" s="16"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="20"/>
-    </row>
-    <row r="134" spans="1:8" s="9" customFormat="1">
-      <c r="A134" s="16"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="20"/>
-    </row>
-    <row r="135" spans="1:8" s="9" customFormat="1">
-      <c r="A135" s="16"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="20"/>
-    </row>
-    <row r="136" spans="1:8" s="9" customFormat="1">
-      <c r="A136" s="16"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="22"/>
-      <c r="G136" s="22"/>
-      <c r="H136" s="20"/>
-    </row>
-    <row r="137" spans="1:8" s="9" customFormat="1">
-      <c r="A137" s="16"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="22"/>
-      <c r="G137" s="22"/>
-      <c r="H137" s="20"/>
-    </row>
-    <row r="138" spans="1:8" s="9" customFormat="1">
-      <c r="A138" s="16"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="22"/>
-      <c r="G138" s="22"/>
-      <c r="H138" s="20"/>
-    </row>
-    <row r="139" spans="1:8" s="9" customFormat="1">
-      <c r="A139" s="16"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="22"/>
-      <c r="G139" s="22"/>
-      <c r="H139" s="20"/>
-    </row>
-    <row r="140" spans="1:8" s="9" customFormat="1">
-      <c r="A140" s="16"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="22"/>
-      <c r="G140" s="22"/>
-      <c r="H140" s="20"/>
-    </row>
-    <row r="141" spans="1:8" s="9" customFormat="1">
-      <c r="A141" s="16"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="22"/>
-      <c r="G141" s="22"/>
-      <c r="H141" s="20"/>
-    </row>
-    <row r="142" spans="1:8" s="9" customFormat="1">
-      <c r="A142" s="16"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="22"/>
-      <c r="G142" s="22"/>
-      <c r="H142" s="20"/>
-    </row>
-    <row r="143" spans="1:8" s="9" customFormat="1">
-      <c r="A143" s="16"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="20"/>
-    </row>
-    <row r="144" spans="1:8" s="9" customFormat="1">
-      <c r="A144" s="16"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="22"/>
-      <c r="G144" s="22"/>
-      <c r="H144" s="20"/>
-    </row>
-    <row r="145" spans="1:12" s="9" customFormat="1">
-      <c r="A145" s="16"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="20"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="19"/>
+    </row>
+    <row r="121" spans="1:8" s="8" customFormat="1">
+      <c r="A121" s="15"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="19"/>
+    </row>
+    <row r="122" spans="1:8" s="8" customFormat="1">
+      <c r="A122" s="15"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="19"/>
+    </row>
+    <row r="123" spans="1:8" s="8" customFormat="1">
+      <c r="A123" s="15"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="19"/>
+    </row>
+    <row r="124" spans="1:8" s="8" customFormat="1">
+      <c r="A124" s="15"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="19"/>
+    </row>
+    <row r="125" spans="1:8" s="8" customFormat="1">
+      <c r="A125" s="15"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="19"/>
+    </row>
+    <row r="126" spans="1:8" s="8" customFormat="1">
+      <c r="A126" s="15"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="19"/>
+    </row>
+    <row r="127" spans="1:8" s="8" customFormat="1">
+      <c r="A127" s="15"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="19"/>
+    </row>
+    <row r="128" spans="1:8" s="8" customFormat="1">
+      <c r="A128" s="15"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="19"/>
+    </row>
+    <row r="129" spans="1:8" s="8" customFormat="1">
+      <c r="A129" s="15"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="19"/>
+    </row>
+    <row r="130" spans="1:8" s="8" customFormat="1">
+      <c r="A130" s="15"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="19"/>
+    </row>
+    <row r="131" spans="1:8" s="8" customFormat="1">
+      <c r="A131" s="15"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="19"/>
+    </row>
+    <row r="132" spans="1:8" s="8" customFormat="1">
+      <c r="A132" s="15"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="19"/>
+    </row>
+    <row r="133" spans="1:8" s="8" customFormat="1">
+      <c r="A133" s="15"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="19"/>
+    </row>
+    <row r="134" spans="1:8" s="8" customFormat="1">
+      <c r="A134" s="15"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="19"/>
+    </row>
+    <row r="135" spans="1:8" s="8" customFormat="1">
+      <c r="A135" s="15"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="19"/>
+    </row>
+    <row r="136" spans="1:8" s="8" customFormat="1">
+      <c r="A136" s="15"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="19"/>
+    </row>
+    <row r="137" spans="1:8" s="8" customFormat="1">
+      <c r="A137" s="15"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="19"/>
+    </row>
+    <row r="138" spans="1:8" s="8" customFormat="1">
+      <c r="A138" s="15"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="19"/>
+    </row>
+    <row r="139" spans="1:8" s="8" customFormat="1">
+      <c r="A139" s="15"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="19"/>
+    </row>
+    <row r="140" spans="1:8" s="8" customFormat="1">
+      <c r="A140" s="15"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="19"/>
+    </row>
+    <row r="141" spans="1:8" s="8" customFormat="1">
+      <c r="A141" s="15"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="19"/>
+    </row>
+    <row r="142" spans="1:8" s="8" customFormat="1">
+      <c r="A142" s="15"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="19"/>
+    </row>
+    <row r="143" spans="1:8" s="8" customFormat="1">
+      <c r="A143" s="15"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="19"/>
+    </row>
+    <row r="144" spans="1:8" s="8" customFormat="1">
+      <c r="A144" s="15"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="19"/>
+    </row>
+    <row r="145" spans="1:12" s="8" customFormat="1">
+      <c r="A145" s="15"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="19"/>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="16"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="22"/>
-      <c r="G146" s="22"/>
-      <c r="H146" s="20"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="19"/>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="16"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="22"/>
-      <c r="G147" s="22"/>
-      <c r="H147" s="20"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="19"/>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="16"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="22"/>
-      <c r="H148" s="20"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="19"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="16"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="22"/>
-      <c r="G149" s="22"/>
-      <c r="H149" s="20"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="19"/>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="16"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="22"/>
-      <c r="G150" s="22"/>
-      <c r="H150" s="20"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="19"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="16"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="20"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="19"/>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="16"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="22"/>
-      <c r="G152" s="22"/>
-      <c r="H152" s="20"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="19"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="16"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="22"/>
-      <c r="H153" s="20"/>
+      <c r="A153" s="15"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="19"/>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="16"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="22"/>
-      <c r="H154" s="20"/>
+      <c r="A154" s="15"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="19"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="16"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="20"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="19"/>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="16"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="22"/>
-      <c r="G156" s="22"/>
-      <c r="H156" s="20"/>
+      <c r="A156" s="15"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="19"/>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="16"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="22"/>
-      <c r="G157" s="22"/>
-      <c r="H157" s="20"/>
+      <c r="A157" s="15"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="19"/>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="16"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="22"/>
-      <c r="G158" s="22"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="9"/>
-      <c r="J158" s="9"/>
-      <c r="K158" s="9"/>
-      <c r="L158" s="9"/>
+      <c r="A158" s="15"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="16"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="20"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="9"/>
-      <c r="L159" s="9"/>
+      <c r="A159" s="15"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="16"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="22"/>
-      <c r="H160" s="20"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-      <c r="L160" s="9"/>
+      <c r="A160" s="15"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="8"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="16"/>
-      <c r="B161" s="20"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="22"/>
-      <c r="G161" s="22"/>
-      <c r="H161" s="20"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
+      <c r="A161" s="15"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="16"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="20"/>
-      <c r="F162" s="22"/>
-      <c r="G162" s="22"/>
-      <c r="H162" s="20"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
-      <c r="K162" s="9"/>
-      <c r="L162" s="9"/>
+      <c r="A162" s="15"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="16"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="22"/>
-      <c r="G163" s="22"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="9"/>
-      <c r="L163" s="9"/>
+      <c r="A163" s="15"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="16"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="22"/>
-      <c r="G164" s="22"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
-      <c r="K164" s="9"/>
-      <c r="L164" s="9"/>
+      <c r="A164" s="15"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="8"/>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="16"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="20"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
-      <c r="K165" s="9"/>
-      <c r="L165" s="9"/>
+      <c r="A165" s="15"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="16"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="22"/>
-      <c r="G166" s="22"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
-      <c r="K166" s="9"/>
-      <c r="L166" s="9"/>
+      <c r="A166" s="15"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="8"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="16"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="22"/>
-      <c r="G167" s="22"/>
-      <c r="H167" s="20"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="9"/>
-      <c r="L167" s="9"/>
+      <c r="A167" s="15"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="8"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="16"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="22"/>
-      <c r="G168" s="22"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="9"/>
-      <c r="K168" s="9"/>
-      <c r="L168" s="9"/>
+      <c r="A168" s="15"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="16"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="20"/>
-      <c r="F169" s="22"/>
-      <c r="G169" s="22"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="9"/>
-      <c r="J169" s="9"/>
-      <c r="K169" s="9"/>
-      <c r="L169" s="9"/>
+      <c r="A169" s="15"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="8"/>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="16"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="22"/>
-      <c r="G170" s="22"/>
-      <c r="H170" s="20"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
-      <c r="K170" s="9"/>
-      <c r="L170" s="9"/>
+      <c r="A170" s="15"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
+      <c r="L170" s="8"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="16"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="20"/>
-      <c r="F171" s="22"/>
-      <c r="G171" s="22"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="9"/>
-      <c r="J171" s="9"/>
-      <c r="K171" s="9"/>
-      <c r="L171" s="9"/>
+      <c r="A171" s="15"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="8"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="16"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="16"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="22"/>
-      <c r="G172" s="22"/>
-      <c r="H172" s="20"/>
+      <c r="A172" s="15"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="19"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="16"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="22"/>
-      <c r="G173" s="22"/>
-      <c r="H173" s="20"/>
+      <c r="A173" s="15"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="19"/>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="16"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="16"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="20"/>
-      <c r="F174" s="22"/>
-      <c r="G174" s="22"/>
-      <c r="H174" s="20"/>
+      <c r="A174" s="15"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="19"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="16"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="16"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="20"/>
-      <c r="F175" s="22"/>
-      <c r="G175" s="22"/>
-      <c r="H175" s="20"/>
+      <c r="A175" s="15"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="21"/>
+      <c r="H175" s="19"/>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="16"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="16"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="22"/>
-      <c r="G176" s="22"/>
-      <c r="H176" s="20"/>
+      <c r="A176" s="15"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="19"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="16"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="22"/>
-      <c r="G177" s="22"/>
-      <c r="H177" s="20"/>
+      <c r="A177" s="15"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="19"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="16"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="16"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="22"/>
-      <c r="G178" s="22"/>
-      <c r="H178" s="20"/>
+      <c r="A178" s="15"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="19"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="16"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="20"/>
-      <c r="F179" s="22"/>
-      <c r="G179" s="22"/>
-      <c r="H179" s="20"/>
+      <c r="A179" s="15"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="19"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="164">
   <si>
     <t>id|</t>
   </si>
@@ -884,6 +884,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -896,11 +900,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <t>圣诞福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞福利-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_sd_lh",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_sd_lh",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用电烤炉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝山咖啡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼油</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在圣诞福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在圣诞福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -908,7 +944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,8 +1017,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,6 +1074,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1071,7 +1126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1236,6 +1291,43 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1517,7 +1609,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1706,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5">
@@ -1737,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1770,7 +1862,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -1803,7 +1895,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
@@ -1836,7 +1928,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
@@ -1907,31 +1999,71 @@
       <c r="O11" s="52"/>
       <c r="P11" s="52"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+    <row r="12" spans="1:16" s="64" customFormat="1" ht="16.5">
+      <c r="A12" s="61">
+        <v>11</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="66">
+        <v>1608595200</v>
+      </c>
+      <c r="D12" s="66">
+        <v>1609171199</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="61">
+        <v>1</v>
+      </c>
+      <c r="I12" s="61">
+        <v>11</v>
+      </c>
+      <c r="J12" s="63">
+        <v>11</v>
+      </c>
+      <c r="K12" s="64">
+        <v>1</v>
+      </c>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+    </row>
+    <row r="13" spans="1:16" s="64" customFormat="1" ht="16.5">
+      <c r="A13" s="61">
+        <v>12</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="66">
+        <v>1608595200</v>
+      </c>
+      <c r="D13" s="66">
+        <v>1609171199</v>
+      </c>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="61">
+        <v>1</v>
+      </c>
+      <c r="I13" s="61">
+        <v>12</v>
+      </c>
+      <c r="J13" s="63">
+        <v>12</v>
+      </c>
+      <c r="K13" s="64">
+        <v>1</v>
+      </c>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5">
       <c r="A14" s="8"/>
@@ -2111,8 +2243,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2221,7 +2353,7 @@
         <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2232,7 +2364,7 @@
         <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="47" customFormat="1">
@@ -2240,10 +2372,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="47" customFormat="1">
@@ -2251,29 +2383,33 @@
         <v>10</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11" s="49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="61" customFormat="1">
+      <c r="A12" s="61">
+        <v>11</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C12" s="62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="61" customFormat="1">
+      <c r="A13" s="61">
+        <v>12</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16"/>
@@ -2296,11 +2432,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4182,167 +4318,430 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="15"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="19"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="15"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="19"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="15"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="19"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="19"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="19"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="19"/>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="19"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="15"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="19"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="15"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="19"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="15"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="19"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="15"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="19"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="15"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="19"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="15"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="19"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="15"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="19"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="15"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="19"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="15"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="19"/>
-    </row>
-    <row r="90" spans="1:8" s="8" customFormat="1">
+    <row r="74" spans="1:10" s="61" customFormat="1">
+      <c r="A74" s="61">
+        <v>73</v>
+      </c>
+      <c r="B74" s="67">
+        <v>11</v>
+      </c>
+      <c r="C74" s="67">
+        <v>1</v>
+      </c>
+      <c r="D74" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="J74" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="61" customFormat="1">
+      <c r="A75" s="61">
+        <v>74</v>
+      </c>
+      <c r="B75" s="67">
+        <v>11</v>
+      </c>
+      <c r="C75" s="67">
+        <v>2</v>
+      </c>
+      <c r="D75" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="68"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="J75" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="61" customFormat="1">
+      <c r="A76" s="61">
+        <v>75</v>
+      </c>
+      <c r="B76" s="67">
+        <v>11</v>
+      </c>
+      <c r="C76" s="67">
+        <v>3</v>
+      </c>
+      <c r="D76" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="J76" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="61" customFormat="1">
+      <c r="A77" s="61">
+        <v>76</v>
+      </c>
+      <c r="B77" s="67">
+        <v>11</v>
+      </c>
+      <c r="C77" s="67">
+        <v>4</v>
+      </c>
+      <c r="D77" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="67"/>
+      <c r="F77" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" s="67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="61" customFormat="1">
+      <c r="A78" s="61">
+        <v>77</v>
+      </c>
+      <c r="B78" s="67">
+        <v>11</v>
+      </c>
+      <c r="C78" s="67">
+        <v>5</v>
+      </c>
+      <c r="D78" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="67"/>
+      <c r="F78" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="J78" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="61" customFormat="1">
+      <c r="A79" s="61">
+        <v>78</v>
+      </c>
+      <c r="B79" s="67">
+        <v>11</v>
+      </c>
+      <c r="C79" s="67">
+        <v>6</v>
+      </c>
+      <c r="D79" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="67"/>
+      <c r="F79" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J79" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="61" customFormat="1">
+      <c r="A80" s="61">
+        <v>79</v>
+      </c>
+      <c r="B80" s="67">
+        <v>11</v>
+      </c>
+      <c r="C80" s="67">
+        <v>7</v>
+      </c>
+      <c r="D80" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="67"/>
+      <c r="F80" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="J80" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="61" customFormat="1">
+      <c r="A81" s="61">
+        <v>80</v>
+      </c>
+      <c r="B81" s="67">
+        <v>11</v>
+      </c>
+      <c r="C81" s="67">
+        <v>8</v>
+      </c>
+      <c r="D81" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="67"/>
+      <c r="F81" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="H81" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J81" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="61" customFormat="1">
+      <c r="A82" s="69">
+        <v>81</v>
+      </c>
+      <c r="B82" s="70">
+        <v>12</v>
+      </c>
+      <c r="C82" s="70">
+        <v>1</v>
+      </c>
+      <c r="D82" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="I82" s="69"/>
+      <c r="J82" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="61" customFormat="1">
+      <c r="A83" s="69">
+        <v>82</v>
+      </c>
+      <c r="B83" s="70">
+        <v>12</v>
+      </c>
+      <c r="C83" s="70">
+        <v>2</v>
+      </c>
+      <c r="D83" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="61" customFormat="1">
+      <c r="A84" s="69">
+        <v>83</v>
+      </c>
+      <c r="B84" s="70">
+        <v>12</v>
+      </c>
+      <c r="C84" s="70">
+        <v>3</v>
+      </c>
+      <c r="D84" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="69"/>
+      <c r="J84" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="61" customFormat="1">
+      <c r="A85" s="69">
+        <v>84</v>
+      </c>
+      <c r="B85" s="70">
+        <v>12</v>
+      </c>
+      <c r="C85" s="70">
+        <v>4</v>
+      </c>
+      <c r="D85" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="70"/>
+      <c r="F85" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="H85" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="I85" s="69"/>
+      <c r="J85" s="69"/>
+    </row>
+    <row r="86" spans="1:10" s="61" customFormat="1">
+      <c r="A86" s="69">
+        <v>85</v>
+      </c>
+      <c r="B86" s="70">
+        <v>12</v>
+      </c>
+      <c r="C86" s="70">
+        <v>5</v>
+      </c>
+      <c r="D86" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="70"/>
+      <c r="F86" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="I86" s="69"/>
+      <c r="J86" s="69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="61" customFormat="1">
+      <c r="A87" s="69">
+        <v>86</v>
+      </c>
+      <c r="B87" s="70">
+        <v>12</v>
+      </c>
+      <c r="C87" s="70">
+        <v>6</v>
+      </c>
+      <c r="D87" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="70"/>
+      <c r="F87" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="61" customFormat="1">
+      <c r="A88" s="69">
+        <v>87</v>
+      </c>
+      <c r="B88" s="70">
+        <v>12</v>
+      </c>
+      <c r="C88" s="70">
+        <v>7</v>
+      </c>
+      <c r="D88" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="70"/>
+      <c r="F88" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="61" customFormat="1">
+      <c r="A89" s="69">
+        <v>88</v>
+      </c>
+      <c r="B89" s="70">
+        <v>12</v>
+      </c>
+      <c r="C89" s="70">
+        <v>8</v>
+      </c>
+      <c r="D89" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="70"/>
+      <c r="F89" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="8" customFormat="1">
       <c r="A90" s="15"/>
       <c r="B90" s="19"/>
       <c r="C90" s="15"/>
@@ -4352,7 +4751,7 @@
       <c r="G90" s="21"/>
       <c r="H90" s="19"/>
     </row>
-    <row r="91" spans="1:8" s="8" customFormat="1">
+    <row r="91" spans="1:10" s="8" customFormat="1">
       <c r="A91" s="15"/>
       <c r="B91" s="19"/>
       <c r="C91" s="15"/>
@@ -4362,7 +4761,7 @@
       <c r="G91" s="21"/>
       <c r="H91" s="19"/>
     </row>
-    <row r="92" spans="1:8" s="8" customFormat="1">
+    <row r="92" spans="1:10" s="8" customFormat="1">
       <c r="A92" s="15"/>
       <c r="B92" s="19"/>
       <c r="C92" s="15"/>
@@ -4372,7 +4771,7 @@
       <c r="G92" s="21"/>
       <c r="H92" s="19"/>
     </row>
-    <row r="93" spans="1:8" s="8" customFormat="1">
+    <row r="93" spans="1:10" s="8" customFormat="1">
       <c r="A93" s="15"/>
       <c r="B93" s="19"/>
       <c r="C93" s="15"/>
@@ -4382,7 +4781,7 @@
       <c r="G93" s="21"/>
       <c r="H93" s="19"/>
     </row>
-    <row r="94" spans="1:8" s="8" customFormat="1">
+    <row r="94" spans="1:10" s="8" customFormat="1">
       <c r="A94" s="15"/>
       <c r="B94" s="19"/>
       <c r="C94" s="15"/>
@@ -4392,7 +4791,7 @@
       <c r="G94" s="21"/>
       <c r="H94" s="19"/>
     </row>
-    <row r="95" spans="1:8" s="8" customFormat="1">
+    <row r="95" spans="1:10" s="8" customFormat="1">
       <c r="A95" s="15"/>
       <c r="B95" s="19"/>
       <c r="C95" s="15"/>
@@ -4402,7 +4801,7 @@
       <c r="G95" s="21"/>
       <c r="H95" s="19"/>
     </row>
-    <row r="96" spans="1:8" s="8" customFormat="1">
+    <row r="96" spans="1:10" s="8" customFormat="1">
       <c r="A96" s="15"/>
       <c r="B96" s="19"/>
       <c r="C96" s="15"/>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="170">
   <si>
     <t>id|</t>
   </si>
@@ -908,14 +908,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_sd_lh",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_sd_lh",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -937,6 +929,37 @@
   </si>
   <si>
     <t>恭喜您在圣诞福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_yd_jyb",</t>
+  </si>
+  <si>
+    <t>元旦好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在元旦好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在元旦好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华坚果礼盒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年日历</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,14 +1010,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -1025,7 +1040,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1086,6 +1101,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1126,7 +1147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1152,9 +1173,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,9 +1183,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1184,10 +1199,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,7 +1215,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1213,7 +1228,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1238,7 +1253,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1248,7 +1263,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1282,14 +1297,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1307,13 +1322,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1323,10 +1335,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1608,8 +1623,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1697,7 +1712,7 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="7"/>
@@ -1733,7 +1748,7 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="18"/>
+      <c r="L3" s="16"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
@@ -1794,7 +1809,7 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="21">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -1825,7 +1840,7 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="21">
         <v>5</v>
       </c>
       <c r="K6" s="4">
@@ -1858,7 +1873,7 @@
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="21">
         <v>6</v>
       </c>
       <c r="K7" s="4">
@@ -1867,250 +1882,290 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="16.5">
-      <c r="A8" s="34">
+    <row r="8" spans="1:16" s="35" customFormat="1" ht="16.5">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="32">
         <v>1607385600</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>1607961599</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="34">
-        <v>1</v>
-      </c>
-      <c r="I8" s="34">
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+      <c r="I8" s="32">
         <v>7</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="34">
         <v>7</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-    </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="16.5">
-      <c r="A9" s="34">
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="1:16" s="35" customFormat="1" ht="16.5">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="32">
         <v>1607385600</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>1607961599</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="34">
-        <v>1</v>
-      </c>
-      <c r="I9" s="34">
+      <c r="H9" s="32">
+        <v>1</v>
+      </c>
+      <c r="I9" s="32">
         <v>8</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="34">
         <v>8</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="35">
         <v>0</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-    </row>
-    <row r="10" spans="1:16" s="51" customFormat="1" ht="16.5">
-      <c r="A10" s="47">
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="1:16" s="49" customFormat="1" ht="16.5">
+      <c r="A10" s="45">
         <v>9</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="45">
         <v>1607990400</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="45">
         <v>1608566399</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="47">
-        <v>1</v>
-      </c>
-      <c r="I10" s="47">
+      <c r="H10" s="45">
+        <v>1</v>
+      </c>
+      <c r="I10" s="45">
         <v>9</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="48">
         <v>9</v>
       </c>
-      <c r="K10" s="51">
-        <v>1</v>
-      </c>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-    </row>
-    <row r="11" spans="1:16" s="51" customFormat="1" ht="16.5">
-      <c r="A11" s="47">
+      <c r="K10" s="49">
+        <v>1</v>
+      </c>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+    </row>
+    <row r="11" spans="1:16" s="49" customFormat="1" ht="16.5">
+      <c r="A11" s="45">
         <v>10</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="45">
         <v>1607990400</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="45">
         <v>1608566399</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="49" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="47">
-        <v>1</v>
-      </c>
-      <c r="I11" s="47">
+      <c r="H11" s="45">
+        <v>1</v>
+      </c>
+      <c r="I11" s="45">
         <v>10</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="48">
         <v>10</v>
       </c>
-      <c r="K11" s="51">
-        <v>1</v>
-      </c>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-    </row>
-    <row r="12" spans="1:16" s="64" customFormat="1" ht="16.5">
-      <c r="A12" s="61">
+      <c r="K11" s="49">
+        <v>1</v>
+      </c>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+    </row>
+    <row r="12" spans="1:16" s="62" customFormat="1" ht="16.5">
+      <c r="A12" s="59">
         <v>11</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="66">
-        <v>1608595200</v>
-      </c>
-      <c r="D12" s="66">
-        <v>1609171199</v>
-      </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="61">
-        <v>1</v>
-      </c>
-      <c r="I12" s="61">
+      <c r="C12" s="71">
+        <v>1609200000</v>
+      </c>
+      <c r="D12" s="71">
+        <v>1609775999</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="59">
+        <v>1</v>
+      </c>
+      <c r="I12" s="59">
         <v>11</v>
       </c>
-      <c r="J12" s="63">
+      <c r="J12" s="61">
         <v>11</v>
       </c>
-      <c r="K12" s="64">
-        <v>1</v>
-      </c>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-    </row>
-    <row r="13" spans="1:16" s="64" customFormat="1" ht="16.5">
-      <c r="A13" s="61">
+      <c r="K12" s="62">
+        <v>1</v>
+      </c>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+    </row>
+    <row r="13" spans="1:16" s="62" customFormat="1" ht="16.5">
+      <c r="A13" s="59">
         <v>12</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="66">
-        <v>1608595200</v>
-      </c>
-      <c r="D13" s="66">
-        <v>1609171199</v>
-      </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="H13" s="61">
-        <v>1</v>
-      </c>
-      <c r="I13" s="61">
+      <c r="C13" s="71">
+        <v>1609200000</v>
+      </c>
+      <c r="D13" s="71">
+        <v>1609775999</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="59">
+        <v>1</v>
+      </c>
+      <c r="I13" s="59">
         <v>12</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="61">
         <v>12</v>
       </c>
-      <c r="K13" s="64">
-        <v>1</v>
-      </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="16.5">
+      <c r="K13" s="62">
+        <v>1</v>
+      </c>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+    </row>
+    <row r="14" spans="1:16" s="62" customFormat="1" ht="16.5">
+      <c r="A14" s="59">
+        <v>13</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="71">
+        <v>1609200000</v>
+      </c>
+      <c r="D14" s="71">
+        <v>1609775999</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="59">
+        <v>1</v>
+      </c>
+      <c r="I14" s="59">
+        <v>13</v>
+      </c>
+      <c r="J14" s="61">
+        <v>13</v>
+      </c>
+      <c r="K14" s="62">
+        <v>1</v>
+      </c>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+    </row>
+    <row r="15" spans="1:16" s="62" customFormat="1" ht="16.5">
+      <c r="A15" s="59">
+        <v>14</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="71">
+        <v>1609200000</v>
+      </c>
+      <c r="D15" s="71">
+        <v>1609775999</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="59">
+        <v>1</v>
+      </c>
+      <c r="I15" s="59">
+        <v>14</v>
+      </c>
+      <c r="J15" s="61">
+        <v>14</v>
+      </c>
+      <c r="K15" s="62">
+        <v>1</v>
+      </c>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A16" s="8"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="N16" s="13"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:16" customFormat="1">
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:16" customFormat="1">
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
@@ -2241,10 +2296,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2367,58 +2422,75 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="47" customFormat="1">
-      <c r="A10" s="47">
+    <row r="10" spans="1:7" s="45" customFormat="1">
+      <c r="A10" s="45">
         <v>9</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="47" customFormat="1">
-      <c r="A11" s="47">
+    <row r="11" spans="1:7" s="45" customFormat="1">
+      <c r="A11" s="45">
         <v>10</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="61" customFormat="1">
-      <c r="A12" s="61">
+      <c r="C11" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="59" customFormat="1">
+      <c r="A12" s="59">
         <v>11</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="59" customFormat="1">
+      <c r="A13" s="59">
+        <v>12</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="59">
+        <v>13</v>
+      </c>
+      <c r="B14" s="60" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="61" customFormat="1">
-      <c r="A13" s="61">
-        <v>12</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="59">
+        <v>14</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2432,11 +2504,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2470,10 +2542,10 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2583,7 +2655,7 @@
       <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2603,7 +2675,7 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2626,7 +2698,7 @@
       <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2747,7 +2819,7 @@
       <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2759,21 +2831,21 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>3</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="1">
@@ -2784,21 +2856,21 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>3</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="1">
@@ -2809,20 +2881,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <v>3</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>5</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="19" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="1">
@@ -2833,20 +2905,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <v>3</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>6</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="21" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="19" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="1">
@@ -2857,20 +2929,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>3</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>7</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="19" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="1">
@@ -2881,21 +2953,21 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="17">
         <v>4</v>
       </c>
-      <c r="C18" s="19">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="19" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="17" t="s">
         <v>93</v>
       </c>
       <c r="J18" s="1">
@@ -2906,21 +2978,21 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="17">
         <v>4</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="17">
         <v>2</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="19" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="17" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="1">
@@ -2931,21 +3003,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="17">
         <v>4</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>3</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="19" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="17" t="s">
         <v>95</v>
       </c>
       <c r="J20" s="1">
@@ -2956,21 +3028,21 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="17">
         <v>4</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>4</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="21" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="17" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2978,21 +3050,21 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="17">
         <v>4</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>5</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="21" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="17" t="s">
         <v>97</v>
       </c>
       <c r="J22" s="1">
@@ -3003,21 +3075,21 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="17">
         <v>4</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>6</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="21" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="17" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="1">
@@ -3028,21 +3100,21 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="17">
         <v>4</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="17">
         <v>7</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="21" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="17" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="1">
@@ -3053,2649 +3125,2921 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="17">
         <v>4</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="17">
         <v>8</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="21" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="17" t="s">
         <v>100</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="24" customFormat="1">
-      <c r="A26" s="24">
+    <row r="26" spans="1:10" s="22" customFormat="1">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="23">
         <v>5</v>
       </c>
-      <c r="C26" s="25">
-        <v>1</v>
-      </c>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="23">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="25" t="s">
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="24" customFormat="1">
-      <c r="A27" s="24">
+      <c r="J26" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="22" customFormat="1">
+      <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="23">
         <v>5</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="23">
         <v>2</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="25" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="24" customFormat="1">
-      <c r="A28" s="24">
+      <c r="J27" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="22" customFormat="1">
+      <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="23">
         <v>5</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="23">
         <v>3</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="25" t="s">
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="24" customFormat="1">
-      <c r="A29" s="24">
+      <c r="J28" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="22" customFormat="1">
+      <c r="A29" s="22">
         <v>28</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="23">
         <v>5</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="23">
         <v>4</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="27" t="s">
+      <c r="E29" s="23"/>
+      <c r="F29" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="24" customFormat="1">
-      <c r="A30" s="24">
+    <row r="30" spans="1:10" s="22" customFormat="1">
+      <c r="A30" s="22">
         <v>29</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="23">
         <v>5</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="23">
         <v>5</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="27" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="24" customFormat="1">
-      <c r="A31" s="24">
+    <row r="31" spans="1:10" s="22" customFormat="1">
+      <c r="A31" s="22">
         <v>30</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="23">
         <v>5</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="23">
         <v>6</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="27" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="24" customFormat="1">
-      <c r="A32" s="24">
+    <row r="32" spans="1:10" s="22" customFormat="1">
+      <c r="A32" s="22">
         <v>31</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="23">
         <v>5</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="23">
         <v>7</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="27" t="s">
+      <c r="E32" s="23"/>
+      <c r="F32" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="24" customFormat="1">
-      <c r="A33" s="24">
+      <c r="J32" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="22" customFormat="1">
+      <c r="A33" s="22">
         <v>32</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="23">
         <v>5</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="23">
         <v>8</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="27" t="s">
+      <c r="E33" s="23"/>
+      <c r="F33" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="29" customFormat="1">
-      <c r="A34" s="24">
+      <c r="J33" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="27" customFormat="1">
+      <c r="A34" s="22">
         <v>33</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="28">
         <v>6</v>
       </c>
-      <c r="C34" s="30">
-        <v>1</v>
-      </c>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="28">
+        <v>1</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="30" t="s">
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="29" customFormat="1">
-      <c r="A35" s="24">
+      <c r="J34" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="27" customFormat="1">
+      <c r="A35" s="22">
         <v>34</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="28">
         <v>6</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="28">
         <v>2</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="30" t="s">
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="29" customFormat="1">
-      <c r="A36" s="24">
+      <c r="J35" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="27" customFormat="1">
+      <c r="A36" s="22">
         <v>35</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="28">
         <v>6</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="28">
         <v>3</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="30" t="s">
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="29" customFormat="1">
-      <c r="A37" s="24">
+      <c r="J36" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="27" customFormat="1">
+      <c r="A37" s="22">
         <v>36</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="28">
         <v>6</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="28">
         <v>4</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="32" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="29" customFormat="1">
-      <c r="A38" s="24">
+    <row r="38" spans="1:10" s="27" customFormat="1">
+      <c r="A38" s="22">
         <v>37</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="28">
         <v>6</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="28">
         <v>5</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="32" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="29">
+      <c r="J38" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="29" customFormat="1">
-      <c r="A39" s="24">
+    <row r="39" spans="1:10" s="27" customFormat="1">
+      <c r="A39" s="22">
         <v>38</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="28">
         <v>6</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="28">
         <v>6</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="32" t="s">
+      <c r="E39" s="28"/>
+      <c r="F39" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="29">
+      <c r="J39" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="29" customFormat="1">
-      <c r="A40" s="24">
+    <row r="40" spans="1:10" s="27" customFormat="1">
+      <c r="A40" s="22">
         <v>39</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="28">
         <v>6</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="28">
         <v>7</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="32" t="s">
+      <c r="E40" s="28"/>
+      <c r="F40" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="32" t="s">
+      <c r="G40" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="29" customFormat="1">
-      <c r="A41" s="24">
+      <c r="J40" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="27" customFormat="1">
+      <c r="A41" s="22">
         <v>40</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="28">
         <v>6</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="28">
         <v>8</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="32" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="42" customFormat="1">
-      <c r="A42" s="42">
+      <c r="J41" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="40" customFormat="1">
+      <c r="A42" s="40">
         <v>41</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="41">
         <v>7</v>
       </c>
-      <c r="C42" s="43">
-        <v>1</v>
-      </c>
-      <c r="D42" s="44" t="s">
+      <c r="C42" s="41">
+        <v>1</v>
+      </c>
+      <c r="D42" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="43" t="s">
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="42" customFormat="1">
-      <c r="A43" s="42">
+      <c r="J42" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="40" customFormat="1">
+      <c r="A43" s="40">
         <v>42</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="41">
         <v>7</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="41">
         <v>2</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="43" t="s">
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="42" customFormat="1">
-      <c r="A44" s="42">
+      <c r="J43" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="40" customFormat="1">
+      <c r="A44" s="40">
         <v>43</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="41">
         <v>7</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="41">
         <v>3</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="43" t="s">
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="42" customFormat="1">
-      <c r="A45" s="42">
+      <c r="J44" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="40" customFormat="1">
+      <c r="A45" s="40">
         <v>44</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="41">
         <v>7</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="41">
         <v>4</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="45" t="s">
+      <c r="E45" s="41"/>
+      <c r="F45" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="G45" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="43" t="s">
+      <c r="H45" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="42" customFormat="1">
-      <c r="A46" s="42">
+    <row r="46" spans="1:10" s="40" customFormat="1">
+      <c r="A46" s="40">
         <v>45</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="41">
         <v>7</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="41">
         <v>5</v>
       </c>
-      <c r="D46" s="44" t="s">
+      <c r="D46" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="45" t="s">
+      <c r="E46" s="41"/>
+      <c r="F46" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="45" t="s">
+      <c r="G46" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="46" t="s">
+      <c r="H46" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="42">
+      <c r="J46" s="40">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="42" customFormat="1">
-      <c r="A47" s="42">
+    <row r="47" spans="1:10" s="40" customFormat="1">
+      <c r="A47" s="40">
         <v>46</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="41">
         <v>7</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="41">
         <v>6</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="45" t="s">
+      <c r="E47" s="41"/>
+      <c r="F47" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="46" t="s">
+      <c r="H47" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="42">
+      <c r="J47" s="40">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="42" customFormat="1">
-      <c r="A48" s="42">
+    <row r="48" spans="1:10" s="40" customFormat="1">
+      <c r="A48" s="40">
         <v>47</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="41">
         <v>7</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="41">
         <v>7</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="43"/>
-      <c r="F48" s="45" t="s">
+      <c r="E48" s="41"/>
+      <c r="F48" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="45" t="s">
+      <c r="G48" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="46" t="s">
+      <c r="H48" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="42" customFormat="1">
-      <c r="A49" s="42">
+      <c r="J48" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="40" customFormat="1">
+      <c r="A49" s="40">
         <v>48</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="41">
         <v>7</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="41">
         <v>8</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="45" t="s">
+      <c r="E49" s="41"/>
+      <c r="F49" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="45" t="s">
+      <c r="G49" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="43" t="s">
+      <c r="H49" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="J49" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="34" customFormat="1">
-      <c r="A50" s="34">
+      <c r="J49" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="32" customFormat="1">
+      <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="39">
+      <c r="B50" s="37">
         <v>8</v>
       </c>
-      <c r="C50" s="39">
-        <v>1</v>
-      </c>
-      <c r="D50" s="40" t="s">
+      <c r="C50" s="37">
+        <v>1</v>
+      </c>
+      <c r="D50" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="39" t="s">
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="34" customFormat="1">
-      <c r="A51" s="34">
+      <c r="J50" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="32" customFormat="1">
+      <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="39">
+      <c r="B51" s="37">
         <v>8</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="37">
         <v>2</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="39" t="s">
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="34" customFormat="1">
-      <c r="A52" s="34">
+      <c r="J51" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="32" customFormat="1">
+      <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="39">
+      <c r="B52" s="37">
         <v>8</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="37">
         <v>3</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="39" t="s">
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="34" customFormat="1">
-      <c r="A53" s="34">
+      <c r="J52" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="32" customFormat="1">
+      <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="39">
+      <c r="B53" s="37">
         <v>8</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="37">
         <v>4</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="41" t="s">
+      <c r="E53" s="37"/>
+      <c r="F53" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="39" t="s">
+      <c r="H53" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="34" customFormat="1">
-      <c r="A54" s="34">
+    <row r="54" spans="1:10" s="32" customFormat="1">
+      <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="39">
+      <c r="B54" s="37">
         <v>8</v>
       </c>
-      <c r="C54" s="39">
+      <c r="C54" s="37">
         <v>5</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="41" t="s">
+      <c r="E54" s="37"/>
+      <c r="F54" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="41" t="s">
+      <c r="G54" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="35" t="s">
+      <c r="H54" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="34">
+      <c r="J54" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="34" customFormat="1">
-      <c r="A55" s="34">
+    <row r="55" spans="1:10" s="32" customFormat="1">
+      <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="39">
+      <c r="B55" s="37">
         <v>8</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="37">
         <v>6</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="41" t="s">
+      <c r="E55" s="37"/>
+      <c r="F55" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="41" t="s">
+      <c r="G55" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="35" t="s">
+      <c r="H55" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="34">
+      <c r="J55" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="34" customFormat="1">
-      <c r="A56" s="34">
+    <row r="56" spans="1:10" s="32" customFormat="1">
+      <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="39">
+      <c r="B56" s="37">
         <v>8</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="37">
         <v>7</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="41" t="s">
+      <c r="E56" s="37"/>
+      <c r="F56" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="41" t="s">
+      <c r="G56" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="35" t="s">
+      <c r="H56" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J56" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="34" customFormat="1">
-      <c r="A57" s="34">
+      <c r="J56" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="32" customFormat="1">
+      <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="39">
+      <c r="B57" s="37">
         <v>8</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="37">
         <v>8</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="41" t="s">
+      <c r="E57" s="37"/>
+      <c r="F57" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="41" t="s">
+      <c r="G57" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="39" t="s">
+      <c r="H57" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="47" customFormat="1">
-      <c r="A58" s="47">
+      <c r="J57" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="45" customFormat="1">
+      <c r="A58" s="45">
         <v>57</v>
       </c>
-      <c r="B58" s="55">
+      <c r="B58" s="53">
         <v>9</v>
       </c>
-      <c r="C58" s="55">
-        <v>1</v>
-      </c>
-      <c r="D58" s="56" t="s">
+      <c r="C58" s="53">
+        <v>1</v>
+      </c>
+      <c r="D58" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="55" t="s">
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="J58" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="47" customFormat="1">
-      <c r="A59" s="47">
+      <c r="J58" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="45" customFormat="1">
+      <c r="A59" s="45">
         <v>58</v>
       </c>
-      <c r="B59" s="55">
+      <c r="B59" s="53">
         <v>9</v>
       </c>
-      <c r="C59" s="55">
+      <c r="C59" s="53">
         <v>2</v>
       </c>
-      <c r="D59" s="56" t="s">
+      <c r="D59" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E59" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="55" t="s">
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="J59" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="47" customFormat="1">
-      <c r="A60" s="47">
+      <c r="J59" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="45" customFormat="1">
+      <c r="A60" s="45">
         <v>59</v>
       </c>
-      <c r="B60" s="55">
+      <c r="B60" s="53">
         <v>9</v>
       </c>
-      <c r="C60" s="55">
+      <c r="C60" s="53">
         <v>3</v>
       </c>
-      <c r="D60" s="56" t="s">
+      <c r="D60" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="55" t="s">
+      <c r="E60" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="55" t="s">
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="J60" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="47" customFormat="1">
-      <c r="A61" s="47">
+      <c r="J60" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="45" customFormat="1">
+      <c r="A61" s="45">
         <v>60</v>
       </c>
-      <c r="B61" s="55">
+      <c r="B61" s="53">
         <v>9</v>
       </c>
-      <c r="C61" s="55">
+      <c r="C61" s="53">
         <v>4</v>
       </c>
-      <c r="D61" s="56" t="s">
+      <c r="D61" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="57" t="s">
+      <c r="E61" s="53"/>
+      <c r="F61" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="57" t="s">
+      <c r="G61" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="55" t="s">
+      <c r="H61" s="53" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="47" customFormat="1">
-      <c r="A62" s="47">
+    <row r="62" spans="1:10" s="45" customFormat="1">
+      <c r="A62" s="45">
         <v>61</v>
       </c>
-      <c r="B62" s="55">
+      <c r="B62" s="53">
         <v>9</v>
       </c>
-      <c r="C62" s="55">
+      <c r="C62" s="53">
         <v>5</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="55"/>
-      <c r="F62" s="57" t="s">
+      <c r="E62" s="53"/>
+      <c r="F62" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="57" t="s">
+      <c r="G62" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="49" t="s">
+      <c r="H62" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="J62" s="47">
+      <c r="J62" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="47" customFormat="1">
-      <c r="A63" s="47">
+    <row r="63" spans="1:10" s="45" customFormat="1">
+      <c r="A63" s="45">
         <v>62</v>
       </c>
-      <c r="B63" s="55">
+      <c r="B63" s="53">
         <v>9</v>
       </c>
-      <c r="C63" s="55">
+      <c r="C63" s="53">
         <v>6</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="D63" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="55"/>
-      <c r="F63" s="57" t="s">
+      <c r="E63" s="53"/>
+      <c r="F63" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="57" t="s">
+      <c r="G63" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="49" t="s">
+      <c r="H63" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="J63" s="47">
+      <c r="J63" s="45">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="47" customFormat="1">
-      <c r="A64" s="47">
+    <row r="64" spans="1:10" s="45" customFormat="1">
+      <c r="A64" s="45">
         <v>63</v>
       </c>
-      <c r="B64" s="55">
+      <c r="B64" s="53">
         <v>9</v>
       </c>
-      <c r="C64" s="55">
+      <c r="C64" s="53">
         <v>7</v>
       </c>
-      <c r="D64" s="56" t="s">
+      <c r="D64" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="55"/>
-      <c r="F64" s="57" t="s">
+      <c r="E64" s="53"/>
+      <c r="F64" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="57" t="s">
+      <c r="G64" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="49" t="s">
+      <c r="H64" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="J64" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="47" customFormat="1">
-      <c r="A65" s="47">
+      <c r="J64" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="45" customFormat="1">
+      <c r="A65" s="45">
         <v>64</v>
       </c>
-      <c r="B65" s="55">
+      <c r="B65" s="53">
         <v>9</v>
       </c>
-      <c r="C65" s="55">
+      <c r="C65" s="53">
         <v>8</v>
       </c>
-      <c r="D65" s="56" t="s">
+      <c r="D65" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="55"/>
-      <c r="F65" s="57" t="s">
+      <c r="E65" s="53"/>
+      <c r="F65" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="57" t="s">
+      <c r="G65" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="55" t="s">
+      <c r="H65" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="J65" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="53" customFormat="1">
-      <c r="A66" s="53">
+      <c r="J65" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="51" customFormat="1">
+      <c r="A66" s="51">
         <v>65</v>
       </c>
-      <c r="B66" s="58">
+      <c r="B66" s="56">
         <v>10</v>
       </c>
-      <c r="C66" s="58">
-        <v>1</v>
-      </c>
-      <c r="D66" s="59" t="s">
+      <c r="C66" s="56">
+        <v>1</v>
+      </c>
+      <c r="D66" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="58" t="s">
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="J66" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="53" customFormat="1">
-      <c r="A67" s="53">
+      <c r="J66" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="51" customFormat="1">
+      <c r="A67" s="51">
         <v>66</v>
       </c>
-      <c r="B67" s="58">
+      <c r="B67" s="56">
         <v>10</v>
       </c>
-      <c r="C67" s="58">
+      <c r="C67" s="56">
         <v>2</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="55" t="s">
+      <c r="E67" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="58" t="s">
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="J67" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="53" customFormat="1">
-      <c r="A68" s="53">
+      <c r="J67" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="51" customFormat="1">
+      <c r="A68" s="51">
         <v>67</v>
       </c>
-      <c r="B68" s="58">
+      <c r="B68" s="56">
         <v>10</v>
       </c>
-      <c r="C68" s="58">
+      <c r="C68" s="56">
         <v>3</v>
       </c>
-      <c r="D68" s="59" t="s">
+      <c r="D68" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="55" t="s">
+      <c r="E68" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="58" t="s">
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J68" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="53" customFormat="1">
-      <c r="A69" s="53">
+      <c r="J68" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="51" customFormat="1">
+      <c r="A69" s="51">
         <v>68</v>
       </c>
-      <c r="B69" s="58">
+      <c r="B69" s="56">
         <v>10</v>
       </c>
-      <c r="C69" s="58">
+      <c r="C69" s="56">
         <v>4</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="58"/>
-      <c r="F69" s="60" t="s">
+      <c r="E69" s="56"/>
+      <c r="F69" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="60" t="s">
+      <c r="G69" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="H69" s="58" t="s">
+      <c r="H69" s="56" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="53" customFormat="1">
-      <c r="A70" s="53">
+    <row r="70" spans="1:10" s="51" customFormat="1">
+      <c r="A70" s="51">
         <v>69</v>
       </c>
-      <c r="B70" s="58">
+      <c r="B70" s="56">
         <v>10</v>
       </c>
-      <c r="C70" s="58">
+      <c r="C70" s="56">
         <v>5</v>
       </c>
-      <c r="D70" s="59" t="s">
+      <c r="D70" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="60" t="s">
+      <c r="E70" s="56"/>
+      <c r="F70" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="60" t="s">
+      <c r="G70" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="54" t="s">
+      <c r="H70" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="J70" s="53">
+      <c r="J70" s="51">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="53" customFormat="1">
-      <c r="A71" s="53">
+    <row r="71" spans="1:10" s="51" customFormat="1">
+      <c r="A71" s="51">
         <v>70</v>
       </c>
-      <c r="B71" s="58">
+      <c r="B71" s="56">
         <v>10</v>
       </c>
-      <c r="C71" s="58">
+      <c r="C71" s="56">
         <v>6</v>
       </c>
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="58"/>
-      <c r="F71" s="60" t="s">
+      <c r="E71" s="56"/>
+      <c r="F71" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="60" t="s">
+      <c r="G71" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="54" t="s">
+      <c r="H71" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J71" s="53">
+      <c r="J71" s="51">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="53" customFormat="1">
-      <c r="A72" s="53">
+    <row r="72" spans="1:10" s="51" customFormat="1">
+      <c r="A72" s="51">
         <v>71</v>
       </c>
-      <c r="B72" s="58">
+      <c r="B72" s="56">
         <v>10</v>
       </c>
-      <c r="C72" s="58">
+      <c r="C72" s="56">
         <v>7</v>
       </c>
-      <c r="D72" s="59" t="s">
+      <c r="D72" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="58"/>
-      <c r="F72" s="60" t="s">
+      <c r="E72" s="56"/>
+      <c r="F72" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="60" t="s">
+      <c r="G72" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="54" t="s">
+      <c r="H72" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="J72" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="53" customFormat="1">
-      <c r="A73" s="53">
+      <c r="J72" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="51" customFormat="1">
+      <c r="A73" s="51">
         <v>72</v>
       </c>
-      <c r="B73" s="58">
+      <c r="B73" s="56">
         <v>10</v>
       </c>
-      <c r="C73" s="58">
+      <c r="C73" s="56">
         <v>8</v>
       </c>
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="58"/>
-      <c r="F73" s="60" t="s">
+      <c r="E73" s="56"/>
+      <c r="F73" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="60" t="s">
+      <c r="G73" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="58" t="s">
+      <c r="H73" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="J73" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="61" customFormat="1">
-      <c r="A74" s="61">
+      <c r="J73" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="59" customFormat="1">
+      <c r="A74" s="59">
         <v>73</v>
       </c>
-      <c r="B74" s="67">
+      <c r="B74" s="64">
         <v>11</v>
       </c>
-      <c r="C74" s="67">
-        <v>1</v>
-      </c>
-      <c r="D74" s="56" t="s">
+      <c r="C74" s="64">
+        <v>1</v>
+      </c>
+      <c r="D74" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="67" t="s">
+      <c r="E74" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="J74" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="59" customFormat="1">
+      <c r="A75" s="59">
+        <v>74</v>
+      </c>
+      <c r="B75" s="64">
+        <v>11</v>
+      </c>
+      <c r="C75" s="64">
+        <v>2</v>
+      </c>
+      <c r="D75" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="J75" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="59" customFormat="1">
+      <c r="A76" s="59">
+        <v>75</v>
+      </c>
+      <c r="B76" s="64">
+        <v>11</v>
+      </c>
+      <c r="C76" s="64">
+        <v>3</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="67" t="s">
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="J76" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="59" customFormat="1">
+      <c r="A77" s="59">
+        <v>76</v>
+      </c>
+      <c r="B77" s="64">
+        <v>11</v>
+      </c>
+      <c r="C77" s="64">
+        <v>4</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="64"/>
+      <c r="F77" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" s="64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="59" customFormat="1">
+      <c r="A78" s="59">
+        <v>77</v>
+      </c>
+      <c r="B78" s="64">
+        <v>11</v>
+      </c>
+      <c r="C78" s="64">
+        <v>5</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="64"/>
+      <c r="F78" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="J78" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="59" customFormat="1">
+      <c r="A79" s="59">
+        <v>78</v>
+      </c>
+      <c r="B79" s="64">
+        <v>11</v>
+      </c>
+      <c r="C79" s="64">
+        <v>6</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="64"/>
+      <c r="F79" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="J79" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="59" customFormat="1">
+      <c r="A80" s="59">
+        <v>79</v>
+      </c>
+      <c r="B80" s="64">
+        <v>11</v>
+      </c>
+      <c r="C80" s="64">
+        <v>7</v>
+      </c>
+      <c r="D80" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="64"/>
+      <c r="F80" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J80" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="59" customFormat="1">
+      <c r="A81" s="59">
+        <v>80</v>
+      </c>
+      <c r="B81" s="64">
+        <v>11</v>
+      </c>
+      <c r="C81" s="64">
+        <v>8</v>
+      </c>
+      <c r="D81" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="64"/>
+      <c r="F81" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="H81" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="J81" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="59" customFormat="1">
+      <c r="A82" s="66">
+        <v>81</v>
+      </c>
+      <c r="B82" s="67">
+        <v>12</v>
+      </c>
+      <c r="C82" s="67">
+        <v>1</v>
+      </c>
+      <c r="D82" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="J74" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="61" customFormat="1">
-      <c r="A75" s="61">
-        <v>74</v>
-      </c>
-      <c r="B75" s="67">
-        <v>11</v>
-      </c>
-      <c r="C75" s="67">
+      <c r="I82" s="66"/>
+      <c r="J82" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="59" customFormat="1">
+      <c r="A83" s="66">
+        <v>82</v>
+      </c>
+      <c r="B83" s="67">
+        <v>12</v>
+      </c>
+      <c r="C83" s="67">
         <v>2</v>
       </c>
-      <c r="D75" s="56" t="s">
+      <c r="D83" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="59" customFormat="1">
+      <c r="A84" s="66">
+        <v>83</v>
+      </c>
+      <c r="B84" s="67">
+        <v>12</v>
+      </c>
+      <c r="C84" s="67">
+        <v>3</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="59" customFormat="1">
+      <c r="A85" s="66">
+        <v>84</v>
+      </c>
+      <c r="B85" s="67">
+        <v>12</v>
+      </c>
+      <c r="C85" s="67">
+        <v>4</v>
+      </c>
+      <c r="D85" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="67"/>
+      <c r="F85" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H85" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+    </row>
+    <row r="86" spans="1:10" s="59" customFormat="1">
+      <c r="A86" s="66">
+        <v>85</v>
+      </c>
+      <c r="B86" s="67">
+        <v>12</v>
+      </c>
+      <c r="C86" s="67">
+        <v>5</v>
+      </c>
+      <c r="D86" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="67"/>
+      <c r="F86" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="59" customFormat="1">
+      <c r="A87" s="66">
+        <v>86</v>
+      </c>
+      <c r="B87" s="67">
+        <v>12</v>
+      </c>
+      <c r="C87" s="67">
+        <v>6</v>
+      </c>
+      <c r="D87" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="67"/>
+      <c r="F87" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="59" customFormat="1">
+      <c r="A88" s="66">
+        <v>87</v>
+      </c>
+      <c r="B88" s="67">
+        <v>12</v>
+      </c>
+      <c r="C88" s="67">
+        <v>7</v>
+      </c>
+      <c r="D88" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="67"/>
+      <c r="F88" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="59" customFormat="1">
+      <c r="A89" s="66">
+        <v>88</v>
+      </c>
+      <c r="B89" s="67">
+        <v>12</v>
+      </c>
+      <c r="C89" s="67">
+        <v>8</v>
+      </c>
+      <c r="D89" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="67"/>
+      <c r="F89" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I89" s="66"/>
+      <c r="J89" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="8" customFormat="1">
+      <c r="A90" s="66">
+        <v>89</v>
+      </c>
+      <c r="B90" s="64">
+        <v>13</v>
+      </c>
+      <c r="C90" s="64">
+        <v>1</v>
+      </c>
+      <c r="D90" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="67" t="s">
+      <c r="E90" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="8" customFormat="1">
+      <c r="A91" s="66">
+        <v>90</v>
+      </c>
+      <c r="B91" s="64">
+        <v>13</v>
+      </c>
+      <c r="C91" s="64">
+        <v>2</v>
+      </c>
+      <c r="D91" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="61" customFormat="1">
-      <c r="A76" s="61">
-        <v>75</v>
-      </c>
-      <c r="B76" s="67">
-        <v>11</v>
-      </c>
-      <c r="C76" s="67">
+      <c r="I91" s="59"/>
+      <c r="J91" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="8" customFormat="1">
+      <c r="A92" s="66">
+        <v>91</v>
+      </c>
+      <c r="B92" s="64">
+        <v>13</v>
+      </c>
+      <c r="C92" s="64">
         <v>3</v>
       </c>
-      <c r="D76" s="56" t="s">
+      <c r="D92" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="67" t="s">
+      <c r="E92" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="J76" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="61" customFormat="1">
-      <c r="A77" s="61">
-        <v>76</v>
-      </c>
-      <c r="B77" s="67">
-        <v>11</v>
-      </c>
-      <c r="C77" s="67">
+      <c r="I92" s="59"/>
+      <c r="J92" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="8" customFormat="1">
+      <c r="A93" s="66">
+        <v>92</v>
+      </c>
+      <c r="B93" s="64">
+        <v>13</v>
+      </c>
+      <c r="C93" s="64">
         <v>4</v>
       </c>
-      <c r="D77" s="56" t="s">
+      <c r="D93" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="67"/>
-      <c r="F77" s="68" t="s">
+      <c r="E93" s="64"/>
+      <c r="F93" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="68" t="s">
+      <c r="G93" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="67" t="s">
+      <c r="H93" s="64" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" s="61" customFormat="1">
-      <c r="A78" s="61">
-        <v>77</v>
-      </c>
-      <c r="B78" s="67">
-        <v>11</v>
-      </c>
-      <c r="C78" s="67">
+      <c r="I93" s="59"/>
+      <c r="J93" s="59"/>
+    </row>
+    <row r="94" spans="1:10" s="8" customFormat="1">
+      <c r="A94" s="66">
+        <v>93</v>
+      </c>
+      <c r="B94" s="64">
+        <v>13</v>
+      </c>
+      <c r="C94" s="64">
         <v>5</v>
       </c>
-      <c r="D78" s="56" t="s">
+      <c r="D94" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="67"/>
-      <c r="F78" s="68" t="s">
+      <c r="E94" s="64"/>
+      <c r="F94" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="68" t="s">
+      <c r="G94" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="62" t="s">
+      <c r="H94" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="J78" s="61">
+      <c r="I94" s="59"/>
+      <c r="J94" s="59">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="61" customFormat="1">
-      <c r="A79" s="61">
-        <v>78</v>
-      </c>
-      <c r="B79" s="67">
-        <v>11</v>
-      </c>
-      <c r="C79" s="67">
+    <row r="95" spans="1:10" s="8" customFormat="1">
+      <c r="A95" s="66">
+        <v>94</v>
+      </c>
+      <c r="B95" s="64">
+        <v>13</v>
+      </c>
+      <c r="C95" s="64">
         <v>6</v>
       </c>
-      <c r="D79" s="56" t="s">
+      <c r="D95" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E79" s="67"/>
-      <c r="F79" s="68" t="s">
+      <c r="E95" s="64"/>
+      <c r="F95" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="68" t="s">
+      <c r="G95" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="H79" s="62" t="s">
+      <c r="H95" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="61">
+      <c r="I95" s="59"/>
+      <c r="J95" s="59">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="61" customFormat="1">
-      <c r="A80" s="61">
-        <v>79</v>
-      </c>
-      <c r="B80" s="67">
-        <v>11</v>
-      </c>
-      <c r="C80" s="67">
+    <row r="96" spans="1:10" s="8" customFormat="1">
+      <c r="A96" s="66">
+        <v>95</v>
+      </c>
+      <c r="B96" s="64">
+        <v>13</v>
+      </c>
+      <c r="C96" s="64">
         <v>7</v>
       </c>
-      <c r="D80" s="56" t="s">
+      <c r="D96" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="67"/>
-      <c r="F80" s="68" t="s">
+      <c r="E96" s="64"/>
+      <c r="F96" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="68" t="s">
+      <c r="G96" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="62" t="s">
+      <c r="H96" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="J80" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="61" customFormat="1">
-      <c r="A81" s="61">
-        <v>80</v>
-      </c>
-      <c r="B81" s="67">
-        <v>11</v>
-      </c>
-      <c r="C81" s="67">
+      <c r="I96" s="59"/>
+      <c r="J96" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="8" customFormat="1">
+      <c r="A97" s="66">
+        <v>96</v>
+      </c>
+      <c r="B97" s="64">
+        <v>13</v>
+      </c>
+      <c r="C97" s="64">
         <v>8</v>
       </c>
-      <c r="D81" s="56" t="s">
+      <c r="D97" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="67"/>
-      <c r="F81" s="68" t="s">
+      <c r="E97" s="64"/>
+      <c r="F97" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="68" t="s">
+      <c r="G97" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="67" t="s">
+      <c r="H97" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="J81" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="61" customFormat="1">
-      <c r="A82" s="69">
-        <v>81</v>
-      </c>
-      <c r="B82" s="70">
-        <v>12</v>
-      </c>
-      <c r="C82" s="70">
-        <v>1</v>
-      </c>
-      <c r="D82" s="71" t="s">
+      <c r="I97" s="59"/>
+      <c r="J97" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="8" customFormat="1">
+      <c r="A98" s="66">
+        <v>97</v>
+      </c>
+      <c r="B98" s="67">
+        <v>14</v>
+      </c>
+      <c r="C98" s="67">
+        <v>1</v>
+      </c>
+      <c r="D98" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="70" t="s">
+      <c r="E98" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="I82" s="69"/>
-      <c r="J82" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="61" customFormat="1">
-      <c r="A83" s="69">
-        <v>82</v>
-      </c>
-      <c r="B83" s="70">
-        <v>12</v>
-      </c>
-      <c r="C83" s="70">
+      <c r="I98" s="66"/>
+      <c r="J98" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="8" customFormat="1">
+      <c r="A99" s="66">
+        <v>98</v>
+      </c>
+      <c r="B99" s="67">
+        <v>14</v>
+      </c>
+      <c r="C99" s="67">
         <v>2</v>
       </c>
-      <c r="D83" s="71" t="s">
+      <c r="D99" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="70" t="s">
+      <c r="E99" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="I83" s="69"/>
-      <c r="J83" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="61" customFormat="1">
-      <c r="A84" s="69">
-        <v>83</v>
-      </c>
-      <c r="B84" s="70">
-        <v>12</v>
-      </c>
-      <c r="C84" s="70">
+      <c r="I99" s="66"/>
+      <c r="J99" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="8" customFormat="1">
+      <c r="A100" s="66">
+        <v>99</v>
+      </c>
+      <c r="B100" s="67">
+        <v>14</v>
+      </c>
+      <c r="C100" s="67">
         <v>3</v>
       </c>
-      <c r="D84" s="71" t="s">
+      <c r="D100" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="70" t="s">
+      <c r="E100" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100" s="69"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="I84" s="69"/>
-      <c r="J84" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="61" customFormat="1">
-      <c r="A85" s="69">
-        <v>84</v>
-      </c>
-      <c r="B85" s="70">
-        <v>12</v>
-      </c>
-      <c r="C85" s="70">
+      <c r="I100" s="66"/>
+      <c r="J100" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="8" customFormat="1">
+      <c r="A101" s="66">
+        <v>100</v>
+      </c>
+      <c r="B101" s="67">
+        <v>14</v>
+      </c>
+      <c r="C101" s="67">
         <v>4</v>
       </c>
-      <c r="D85" s="71" t="s">
+      <c r="D101" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="70"/>
-      <c r="F85" s="72" t="s">
+      <c r="E101" s="67"/>
+      <c r="F101" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="72" t="s">
+      <c r="G101" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="H85" s="70" t="s">
+      <c r="H101" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="I85" s="69"/>
-      <c r="J85" s="69"/>
-    </row>
-    <row r="86" spans="1:10" s="61" customFormat="1">
-      <c r="A86" s="69">
-        <v>85</v>
-      </c>
-      <c r="B86" s="70">
-        <v>12</v>
-      </c>
-      <c r="C86" s="70">
+      <c r="I101" s="66"/>
+      <c r="J101" s="66"/>
+    </row>
+    <row r="102" spans="1:10" s="8" customFormat="1">
+      <c r="A102" s="66">
+        <v>101</v>
+      </c>
+      <c r="B102" s="67">
+        <v>14</v>
+      </c>
+      <c r="C102" s="67">
         <v>5</v>
       </c>
-      <c r="D86" s="71" t="s">
+      <c r="D102" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="70"/>
-      <c r="F86" s="72" t="s">
+      <c r="E102" s="67"/>
+      <c r="F102" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="72" t="s">
+      <c r="G102" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="73" t="s">
+      <c r="H102" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="I86" s="69"/>
-      <c r="J86" s="69">
+      <c r="I102" s="66"/>
+      <c r="J102" s="66">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="61" customFormat="1">
-      <c r="A87" s="69">
-        <v>86</v>
-      </c>
-      <c r="B87" s="70">
-        <v>12</v>
-      </c>
-      <c r="C87" s="70">
+    <row r="103" spans="1:10" s="8" customFormat="1">
+      <c r="A103" s="66">
+        <v>102</v>
+      </c>
+      <c r="B103" s="67">
+        <v>14</v>
+      </c>
+      <c r="C103" s="67">
         <v>6</v>
       </c>
-      <c r="D87" s="71" t="s">
+      <c r="D103" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="70"/>
-      <c r="F87" s="72" t="s">
+      <c r="E103" s="67"/>
+      <c r="F103" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="72" t="s">
+      <c r="G103" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="H87" s="73" t="s">
+      <c r="H103" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="I87" s="69"/>
-      <c r="J87" s="69">
+      <c r="I103" s="66"/>
+      <c r="J103" s="66">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="61" customFormat="1">
-      <c r="A88" s="69">
-        <v>87</v>
-      </c>
-      <c r="B88" s="70">
-        <v>12</v>
-      </c>
-      <c r="C88" s="70">
+    <row r="104" spans="1:10" s="8" customFormat="1">
+      <c r="A104" s="66">
+        <v>103</v>
+      </c>
+      <c r="B104" s="67">
+        <v>14</v>
+      </c>
+      <c r="C104" s="67">
         <v>7</v>
       </c>
-      <c r="D88" s="71" t="s">
+      <c r="D104" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="70"/>
-      <c r="F88" s="72" t="s">
+      <c r="E104" s="67"/>
+      <c r="F104" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="72" t="s">
+      <c r="G104" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="73" t="s">
+      <c r="H104" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="I88" s="69"/>
-      <c r="J88" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="61" customFormat="1">
-      <c r="A89" s="69">
-        <v>88</v>
-      </c>
-      <c r="B89" s="70">
-        <v>12</v>
-      </c>
-      <c r="C89" s="70">
+      <c r="I104" s="66"/>
+      <c r="J104" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="8" customFormat="1">
+      <c r="A105" s="66">
+        <v>104</v>
+      </c>
+      <c r="B105" s="67">
+        <v>14</v>
+      </c>
+      <c r="C105" s="67">
         <v>8</v>
       </c>
-      <c r="D89" s="71" t="s">
+      <c r="D105" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="70"/>
-      <c r="F89" s="72" t="s">
+      <c r="E105" s="67"/>
+      <c r="F105" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="72" t="s">
+      <c r="G105" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="70" t="s">
+      <c r="H105" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="I89" s="69"/>
-      <c r="J89" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="8" customFormat="1">
-      <c r="A90" s="15"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="19"/>
-    </row>
-    <row r="91" spans="1:10" s="8" customFormat="1">
-      <c r="A91" s="15"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="19"/>
-    </row>
-    <row r="92" spans="1:10" s="8" customFormat="1">
-      <c r="A92" s="15"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="19"/>
-    </row>
-    <row r="93" spans="1:10" s="8" customFormat="1">
-      <c r="A93" s="15"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="19"/>
-    </row>
-    <row r="94" spans="1:10" s="8" customFormat="1">
-      <c r="A94" s="15"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="19"/>
-    </row>
-    <row r="95" spans="1:10" s="8" customFormat="1">
-      <c r="A95" s="15"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="19"/>
-    </row>
-    <row r="96" spans="1:10" s="8" customFormat="1">
-      <c r="A96" s="15"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="19"/>
-    </row>
-    <row r="97" spans="1:8" s="8" customFormat="1">
-      <c r="A97" s="15"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="19"/>
-    </row>
-    <row r="98" spans="1:8" s="8" customFormat="1">
-      <c r="A98" s="15"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="19"/>
-    </row>
-    <row r="99" spans="1:8" s="8" customFormat="1">
-      <c r="A99" s="15"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="19"/>
-    </row>
-    <row r="100" spans="1:8" s="8" customFormat="1">
-      <c r="A100" s="15"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="19"/>
-    </row>
-    <row r="101" spans="1:8" s="8" customFormat="1">
-      <c r="A101" s="15"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="19"/>
-    </row>
-    <row r="102" spans="1:8" s="8" customFormat="1">
-      <c r="A102" s="15"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="19"/>
-    </row>
-    <row r="103" spans="1:8" s="8" customFormat="1">
-      <c r="A103" s="15"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="19"/>
-    </row>
-    <row r="104" spans="1:8" s="8" customFormat="1">
-      <c r="A104" s="15"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="19"/>
-    </row>
-    <row r="105" spans="1:8" s="8" customFormat="1">
-      <c r="A105" s="15"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="19"/>
-    </row>
-    <row r="106" spans="1:8" s="8" customFormat="1">
-      <c r="A106" s="15"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="19"/>
-    </row>
-    <row r="107" spans="1:8" s="8" customFormat="1">
-      <c r="A107" s="15"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="19"/>
-    </row>
-    <row r="108" spans="1:8" s="8" customFormat="1">
-      <c r="A108" s="15"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="19"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="15"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="19"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="15"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="19"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="15"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="19"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="15"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="19"/>
+      <c r="I105" s="66"/>
+      <c r="J105" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="8" customFormat="1">
+      <c r="A106" s="13"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="17"/>
+    </row>
+    <row r="107" spans="1:10" s="8" customFormat="1">
+      <c r="A107" s="13"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="1:10" s="8" customFormat="1">
+      <c r="A108" s="13"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="17"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="13"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="13"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="17"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="13"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="17"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="13"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="15"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="19"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="17"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="15"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="19"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="17"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="15"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="19"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="17"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="15"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="19"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="17"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="15"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="19"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="17"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="15"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="19"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="17"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="15"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="19"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="17"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="15"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="19"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="17"/>
     </row>
     <row r="121" spans="1:8" s="8" customFormat="1">
-      <c r="A121" s="15"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="19"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="17"/>
     </row>
     <row r="122" spans="1:8" s="8" customFormat="1">
-      <c r="A122" s="15"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="21"/>
-      <c r="H122" s="19"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="17"/>
     </row>
     <row r="123" spans="1:8" s="8" customFormat="1">
-      <c r="A123" s="15"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="19"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="17"/>
     </row>
     <row r="124" spans="1:8" s="8" customFormat="1">
-      <c r="A124" s="15"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="21"/>
-      <c r="H124" s="19"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="17"/>
     </row>
     <row r="125" spans="1:8" s="8" customFormat="1">
-      <c r="A125" s="15"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="19"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="17"/>
     </row>
     <row r="126" spans="1:8" s="8" customFormat="1">
-      <c r="A126" s="15"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="19"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="17"/>
     </row>
     <row r="127" spans="1:8" s="8" customFormat="1">
-      <c r="A127" s="15"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="19"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="17"/>
     </row>
     <row r="128" spans="1:8" s="8" customFormat="1">
-      <c r="A128" s="15"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="19"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="17"/>
     </row>
     <row r="129" spans="1:8" s="8" customFormat="1">
-      <c r="A129" s="15"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="19"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="17"/>
     </row>
     <row r="130" spans="1:8" s="8" customFormat="1">
-      <c r="A130" s="15"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="21"/>
-      <c r="H130" s="19"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="17"/>
     </row>
     <row r="131" spans="1:8" s="8" customFormat="1">
-      <c r="A131" s="15"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="21"/>
-      <c r="H131" s="19"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="17"/>
     </row>
     <row r="132" spans="1:8" s="8" customFormat="1">
-      <c r="A132" s="15"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="21"/>
-      <c r="H132" s="19"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="17"/>
     </row>
     <row r="133" spans="1:8" s="8" customFormat="1">
-      <c r="A133" s="15"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="19"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="17"/>
     </row>
     <row r="134" spans="1:8" s="8" customFormat="1">
-      <c r="A134" s="15"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="19"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="17"/>
     </row>
     <row r="135" spans="1:8" s="8" customFormat="1">
-      <c r="A135" s="15"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="21"/>
-      <c r="H135" s="19"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="17"/>
     </row>
     <row r="136" spans="1:8" s="8" customFormat="1">
-      <c r="A136" s="15"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="19"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="17"/>
     </row>
     <row r="137" spans="1:8" s="8" customFormat="1">
-      <c r="A137" s="15"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="19"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="17"/>
     </row>
     <row r="138" spans="1:8" s="8" customFormat="1">
-      <c r="A138" s="15"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="19"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="17"/>
     </row>
     <row r="139" spans="1:8" s="8" customFormat="1">
-      <c r="A139" s="15"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="21"/>
-      <c r="G139" s="21"/>
-      <c r="H139" s="19"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="17"/>
     </row>
     <row r="140" spans="1:8" s="8" customFormat="1">
-      <c r="A140" s="15"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="21"/>
-      <c r="H140" s="19"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="17"/>
     </row>
     <row r="141" spans="1:8" s="8" customFormat="1">
-      <c r="A141" s="15"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="19"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="17"/>
     </row>
     <row r="142" spans="1:8" s="8" customFormat="1">
-      <c r="A142" s="15"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="19"/>
+      <c r="A142" s="13"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="17"/>
     </row>
     <row r="143" spans="1:8" s="8" customFormat="1">
-      <c r="A143" s="15"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="21"/>
-      <c r="H143" s="19"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="17"/>
     </row>
     <row r="144" spans="1:8" s="8" customFormat="1">
-      <c r="A144" s="15"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="21"/>
-      <c r="H144" s="19"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="17"/>
     </row>
     <row r="145" spans="1:12" s="8" customFormat="1">
-      <c r="A145" s="15"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="19"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="15"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="19"/>
+      <c r="A146" s="13"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="17"/>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="15"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="19"/>
+      <c r="A147" s="13"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="17"/>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="15"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="19"/>
+      <c r="A148" s="13"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="17"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="15"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="19"/>
+      <c r="A149" s="13"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="17"/>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="15"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="21"/>
-      <c r="G150" s="21"/>
-      <c r="H150" s="19"/>
+      <c r="A150" s="13"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="17"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="15"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="21"/>
-      <c r="G151" s="21"/>
-      <c r="H151" s="19"/>
+      <c r="A151" s="13"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="17"/>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="15"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="21"/>
-      <c r="G152" s="21"/>
-      <c r="H152" s="19"/>
+      <c r="A152" s="13"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="17"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="15"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="21"/>
-      <c r="G153" s="21"/>
-      <c r="H153" s="19"/>
+      <c r="A153" s="13"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="17"/>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="15"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="19"/>
+      <c r="A154" s="13"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="17"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="15"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="19"/>
+      <c r="A155" s="13"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="17"/>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="15"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="19"/>
+      <c r="A156" s="13"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="17"/>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="15"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="19"/>
+      <c r="A157" s="13"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="17"/>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="15"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="19"/>
+      <c r="A158" s="13"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="17"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="15"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="19"/>
+      <c r="A159" s="13"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="17"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="15"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="19"/>
+      <c r="A160" s="13"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="17"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="15"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="19"/>
+      <c r="A161" s="13"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="17"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="15"/>
-      <c r="B162" s="19"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="19"/>
+      <c r="A162" s="13"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="17"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="15"/>
-      <c r="B163" s="19"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="21"/>
-      <c r="H163" s="19"/>
+      <c r="A163" s="13"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="17"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="15"/>
-      <c r="B164" s="19"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="19"/>
+      <c r="A164" s="13"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="17"/>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="15"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="19"/>
+      <c r="A165" s="13"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="17"/>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="15"/>
-      <c r="B166" s="19"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="21"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="19"/>
+      <c r="A166" s="13"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="17"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="15"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="21"/>
-      <c r="G167" s="21"/>
-      <c r="H167" s="19"/>
+      <c r="A167" s="13"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="17"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="15"/>
-      <c r="B168" s="19"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="21"/>
-      <c r="G168" s="21"/>
-      <c r="H168" s="19"/>
+      <c r="A168" s="13"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="17"/>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="15"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="19"/>
+      <c r="A169" s="13"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="17"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="15"/>
-      <c r="B170" s="19"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="21"/>
-      <c r="G170" s="21"/>
-      <c r="H170" s="19"/>
+      <c r="A170" s="13"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="17"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="15"/>
-      <c r="B171" s="19"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="21"/>
-      <c r="H171" s="19"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="17"/>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="15"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="21"/>
-      <c r="G172" s="21"/>
-      <c r="H172" s="19"/>
+      <c r="A172" s="13"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="17"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="15"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="21"/>
-      <c r="G173" s="21"/>
-      <c r="H173" s="19"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="17"/>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="15"/>
-      <c r="B174" s="19"/>
-      <c r="C174" s="15"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="19"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="17"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="15"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="21"/>
-      <c r="G175" s="21"/>
-      <c r="H175" s="19"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="17"/>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="15"/>
-      <c r="B176" s="19"/>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="21"/>
-      <c r="G176" s="21"/>
-      <c r="H176" s="19"/>
+      <c r="A176" s="13"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="17"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="15"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="21"/>
-      <c r="G177" s="21"/>
-      <c r="H177" s="19"/>
+      <c r="A177" s="13"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="17"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="15"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="21"/>
-      <c r="G178" s="21"/>
-      <c r="H178" s="19"/>
+      <c r="A178" s="13"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="17"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="15"/>
-      <c r="B179" s="19"/>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="21"/>
-      <c r="G179" s="21"/>
-      <c r="H179" s="19"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="17"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="188">
   <si>
     <t>id|</t>
   </si>
@@ -962,12 +962,84 @@
     <t>新年日历</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>欢乐庆典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯棉毛巾1条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小太阳取暖器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰清香大米</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hlqd_xx",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_nuclear_bomb_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_nuclear_bomb_2",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_nuclear_bomb_1",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_4",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,8 +1111,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1055,37 +1133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,7 +1151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,16 +1220,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1211,11 +1249,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1224,23 +1258,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1249,99 +1310,15 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1623,8 +1600,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1712,7 +1689,7 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="7"/>
@@ -1748,7 +1725,7 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="12"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
@@ -1809,7 +1786,7 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="17">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -1840,7 +1817,7 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="17">
         <v>5</v>
       </c>
       <c r="K6" s="4">
@@ -1873,7 +1850,7 @@
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="17">
         <v>6</v>
       </c>
       <c r="K7" s="4">
@@ -1882,290 +1859,339 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" s="35" customFormat="1" ht="16.5">
-      <c r="A8" s="32">
+    <row r="8" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="8">
         <v>1607385600</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="8">
         <v>1607961599</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="32">
-        <v>1</v>
-      </c>
-      <c r="I8" s="32">
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
         <v>7</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="17">
         <v>7</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="34">
         <v>0</v>
       </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-    </row>
-    <row r="9" spans="1:16" s="35" customFormat="1" ht="16.5">
-      <c r="A9" s="32">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="8">
         <v>1607385600</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="8">
         <v>1607961599</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="32">
-        <v>1</v>
-      </c>
-      <c r="I9" s="32">
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
         <v>8</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="17">
         <v>8</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <v>0</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-    </row>
-    <row r="10" spans="1:16" s="49" customFormat="1" ht="16.5">
-      <c r="A10" s="45">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+    </row>
+    <row r="10" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="8">
         <v>1607990400</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="8">
         <v>1608566399</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="47" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="45">
-        <v>1</v>
-      </c>
-      <c r="I10" s="45">
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
         <v>9</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="17">
         <v>9</v>
       </c>
-      <c r="K10" s="49">
-        <v>1</v>
-      </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-    </row>
-    <row r="11" spans="1:16" s="49" customFormat="1" ht="16.5">
-      <c r="A11" s="45">
+      <c r="K10" s="34">
+        <v>1</v>
+      </c>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="8">
         <v>1607990400</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="8">
         <v>1608566399</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="47" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="45">
-        <v>1</v>
-      </c>
-      <c r="I11" s="45">
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
         <v>10</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="17">
         <v>10</v>
       </c>
-      <c r="K11" s="49">
-        <v>1</v>
-      </c>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-    </row>
-    <row r="12" spans="1:16" s="62" customFormat="1" ht="16.5">
-      <c r="A12" s="59">
+      <c r="K11" s="34">
+        <v>1</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+    </row>
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="36">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="36">
         <v>1609775999</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="59">
-        <v>1</v>
-      </c>
-      <c r="I12" s="59">
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
         <v>11</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="17">
         <v>11</v>
       </c>
-      <c r="K12" s="62">
-        <v>1</v>
-      </c>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-    </row>
-    <row r="13" spans="1:16" s="62" customFormat="1" ht="16.5">
-      <c r="A13" s="59">
+      <c r="K12" s="34">
+        <v>1</v>
+      </c>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+    </row>
+    <row r="13" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="36">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="36">
         <v>1609775999</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="59">
-        <v>1</v>
-      </c>
-      <c r="I13" s="59">
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
         <v>12</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="17">
         <v>12</v>
       </c>
-      <c r="K13" s="62">
-        <v>1</v>
-      </c>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-    </row>
-    <row r="14" spans="1:16" s="62" customFormat="1" ht="16.5">
-      <c r="A14" s="59">
+      <c r="K13" s="34">
+        <v>1</v>
+      </c>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+    </row>
+    <row r="14" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="36">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="36">
         <v>1609775999</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="59">
-        <v>1</v>
-      </c>
-      <c r="I14" s="59">
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
         <v>13</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="17">
         <v>13</v>
       </c>
-      <c r="K14" s="62">
-        <v>1</v>
-      </c>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-    </row>
-    <row r="15" spans="1:16" s="62" customFormat="1" ht="16.5">
-      <c r="A15" s="59">
+      <c r="K14" s="34">
+        <v>1</v>
+      </c>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="36">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="36">
         <v>1609775999</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="59">
-        <v>1</v>
-      </c>
-      <c r="I15" s="59">
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
         <v>14</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15" s="17">
         <v>14</v>
       </c>
-      <c r="K15" s="62">
-        <v>1</v>
-      </c>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-    </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="16.5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:16" customFormat="1">
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="K15" s="34">
+        <v>1</v>
+      </c>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" s="38" customFormat="1" ht="16.5">
+      <c r="A16" s="25">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="37">
+        <v>1609804800</v>
+      </c>
+      <c r="D16" s="37">
+        <v>1610380799</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="25">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25">
+        <v>15</v>
+      </c>
+      <c r="J16" s="25">
+        <v>15</v>
+      </c>
+      <c r="K16" s="38">
+        <v>1</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="17" spans="1:16" s="38" customFormat="1" ht="16.5">
+      <c r="A17" s="25">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="37">
+        <v>1609804800</v>
+      </c>
+      <c r="D17" s="37">
+        <v>1610380799</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1</v>
+      </c>
+      <c r="I17" s="25">
+        <v>16</v>
+      </c>
+      <c r="J17" s="25">
+        <v>16</v>
+      </c>
+      <c r="K17" s="38">
+        <v>1</v>
+      </c>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
     </row>
     <row r="18" spans="1:16" customFormat="1">
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
@@ -2296,10 +2322,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2422,74 +2448,100 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="45" customFormat="1">
-      <c r="A10" s="45">
+    <row r="10" spans="1:7" s="18" customFormat="1">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="45" customFormat="1">
-      <c r="A11" s="45">
+    <row r="11" spans="1:7" s="18" customFormat="1">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="59" customFormat="1">
-      <c r="A12" s="59">
+    <row r="12" spans="1:7" s="21" customFormat="1">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="59" customFormat="1">
-      <c r="A13" s="59">
+    <row r="13" spans="1:7" s="21" customFormat="1">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="59">
+      <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="59">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="22" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="30" customFormat="1">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:3" s="30" customFormat="1">
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2504,11 +2556,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
+      <selection pane="bottomRight" activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2517,7 +2569,7 @@
     <col min="2" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31" style="3" customWidth="1"/>
     <col min="7" max="7" width="22.25" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.875" style="1" customWidth="1"/>
     <col min="9" max="10" width="27.875" style="1" customWidth="1"/>
@@ -2542,10 +2594,10 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2655,7 +2707,7 @@
       <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2675,7 +2727,7 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2698,7 +2750,7 @@
       <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2819,7 +2871,7 @@
       <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2831,21 +2883,21 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="13">
         <v>3</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="1">
@@ -2856,21 +2908,21 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="13">
         <v>3</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="1">
@@ -2881,20 +2933,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="13">
         <v>3</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="13">
         <v>5</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="15" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="1">
@@ -2905,20 +2957,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="13">
         <v>3</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <v>6</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="15" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="1">
@@ -2929,20 +2981,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>3</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="13">
         <v>7</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="15" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="1">
@@ -2953,21 +3005,21 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="13">
         <v>4</v>
       </c>
-      <c r="C18" s="17">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="17" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="13" t="s">
         <v>93</v>
       </c>
       <c r="J18" s="1">
@@ -2978,21 +3030,21 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="13">
         <v>4</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="13">
         <v>2</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="17" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="13" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="1">
@@ -3003,21 +3055,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="13">
         <v>4</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="13">
         <v>3</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="17" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>95</v>
       </c>
       <c r="J20" s="1">
@@ -3028,21 +3080,21 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="13">
         <v>4</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3050,21 +3102,21 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="13">
         <v>4</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="13">
         <v>5</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="19" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="13" t="s">
         <v>97</v>
       </c>
       <c r="J22" s="1">
@@ -3075,21 +3127,21 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="13">
         <v>4</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="13">
         <v>6</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="19" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="13" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="1">
@@ -3100,21 +3152,21 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>4</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="13">
         <v>7</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="19" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="13" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="1">
@@ -3125,2921 +3177,3165 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="13">
         <v>4</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="13">
         <v>8</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="19" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="13" t="s">
         <v>100</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="22" customFormat="1">
-      <c r="A26" s="22">
+    <row r="26" spans="1:10" s="8" customFormat="1">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="40">
         <v>5</v>
       </c>
-      <c r="C26" s="23">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="40">
+        <v>1</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="23" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="22" customFormat="1">
-      <c r="A27" s="22">
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="8" customFormat="1">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="40">
         <v>5</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="40">
         <v>2</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="23" t="s">
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="22" customFormat="1">
-      <c r="A28" s="22">
+      <c r="J27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="8" customFormat="1">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="40">
         <v>5</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="40">
         <v>3</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="23" t="s">
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="22" customFormat="1">
-      <c r="A29" s="22">
+      <c r="J28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="8" customFormat="1">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="40">
         <v>5</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="40">
         <v>4</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="25" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="22" customFormat="1">
-      <c r="A30" s="22">
+    <row r="30" spans="1:10" s="8" customFormat="1">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="40">
         <v>5</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="40">
         <v>5</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="40"/>
+      <c r="F30" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="22" customFormat="1">
-      <c r="A31" s="22">
+    <row r="31" spans="1:10" s="8" customFormat="1">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="40">
         <v>5</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="40">
         <v>6</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="25" t="s">
+      <c r="E31" s="40"/>
+      <c r="F31" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="22" customFormat="1">
-      <c r="A32" s="22">
+    <row r="32" spans="1:10" s="8" customFormat="1">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="40">
         <v>5</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="40">
         <v>7</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="25" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="22" customFormat="1">
-      <c r="A33" s="22">
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="8" customFormat="1">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="40">
         <v>5</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="40">
         <v>8</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="25" t="s">
+      <c r="E33" s="40"/>
+      <c r="F33" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="27" customFormat="1">
-      <c r="A34" s="22">
+      <c r="J33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="8" customFormat="1">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="40">
         <v>6</v>
       </c>
-      <c r="C34" s="28">
-        <v>1</v>
-      </c>
-      <c r="D34" s="29" t="s">
+      <c r="C34" s="40">
+        <v>1</v>
+      </c>
+      <c r="D34" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="28" t="s">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="27" customFormat="1">
-      <c r="A35" s="22">
+      <c r="J34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="8" customFormat="1">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="40">
         <v>6</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="40">
         <v>2</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="28" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="27" customFormat="1">
-      <c r="A36" s="22">
+      <c r="J35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="8" customFormat="1">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="40">
         <v>6</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="40">
         <v>3</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="28" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="27" customFormat="1">
-      <c r="A37" s="22">
+      <c r="J36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="8" customFormat="1">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="40">
         <v>6</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="40">
         <v>4</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="30" t="s">
+      <c r="E37" s="40"/>
+      <c r="F37" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="27" customFormat="1">
-      <c r="A38" s="22">
+    <row r="38" spans="1:10" s="8" customFormat="1">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="40">
         <v>6</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="40">
         <v>5</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="30" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J38" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="27" customFormat="1">
-      <c r="A39" s="22">
+    <row r="39" spans="1:10" s="8" customFormat="1">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="40">
         <v>6</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="40">
         <v>6</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="30" t="s">
+      <c r="E39" s="40"/>
+      <c r="F39" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="31" t="s">
+      <c r="H39" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="27">
+      <c r="J39" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="27" customFormat="1">
-      <c r="A40" s="22">
+    <row r="40" spans="1:10" s="8" customFormat="1">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="40">
         <v>6</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="40">
         <v>7</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="30" t="s">
+      <c r="E40" s="40"/>
+      <c r="F40" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="31" t="s">
+      <c r="H40" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="27" customFormat="1">
-      <c r="A41" s="22">
+      <c r="J40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="8" customFormat="1">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="40">
         <v>6</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="40">
         <v>8</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="30" t="s">
+      <c r="E41" s="40"/>
+      <c r="F41" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="H41" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="40" customFormat="1">
-      <c r="A42" s="40">
+      <c r="J41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="8" customFormat="1">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="40">
         <v>7</v>
       </c>
-      <c r="C42" s="41">
-        <v>1</v>
-      </c>
-      <c r="D42" s="42" t="s">
+      <c r="C42" s="40">
+        <v>1</v>
+      </c>
+      <c r="D42" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="41" t="s">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="40" customFormat="1">
-      <c r="A43" s="40">
+      <c r="J42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="8" customFormat="1">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43" s="40">
         <v>7</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="40">
         <v>2</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="41" t="s">
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="40" customFormat="1">
-      <c r="A44" s="40">
+      <c r="J43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="8" customFormat="1">
+      <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="40">
         <v>7</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="40">
         <v>3</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="41" t="s">
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="40" customFormat="1">
-      <c r="A45" s="40">
+      <c r="J44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="8" customFormat="1">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45" s="40">
         <v>7</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="40">
         <v>4</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="43" t="s">
+      <c r="E45" s="40"/>
+      <c r="F45" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="43" t="s">
+      <c r="G45" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="40" customFormat="1">
-      <c r="A46" s="40">
+    <row r="46" spans="1:10" s="8" customFormat="1">
+      <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46" s="40">
         <v>7</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="40">
         <v>5</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="43" t="s">
+      <c r="E46" s="40"/>
+      <c r="F46" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="43" t="s">
+      <c r="G46" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J46" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="40" customFormat="1">
-      <c r="A47" s="40">
+    <row r="47" spans="1:10" s="8" customFormat="1">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47" s="40">
         <v>7</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="40">
         <v>6</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="43" t="s">
+      <c r="E47" s="40"/>
+      <c r="F47" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="H47" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="40">
+      <c r="J47" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="40" customFormat="1">
-      <c r="A48" s="40">
+    <row r="48" spans="1:10" s="8" customFormat="1">
+      <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48" s="40">
         <v>7</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="40">
         <v>7</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="43" t="s">
+      <c r="E48" s="40"/>
+      <c r="F48" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="43" t="s">
+      <c r="G48" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="44" t="s">
+      <c r="H48" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="40" customFormat="1">
-      <c r="A49" s="40">
+      <c r="J48" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="8" customFormat="1">
+      <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="41">
+      <c r="B49" s="40">
         <v>7</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="40">
         <v>8</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="43" t="s">
+      <c r="E49" s="40"/>
+      <c r="F49" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="G49" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="H49" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J49" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="32" customFormat="1">
-      <c r="A50" s="32">
+      <c r="J49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="8" customFormat="1">
+      <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="40">
         <v>8</v>
       </c>
-      <c r="C50" s="37">
-        <v>1</v>
-      </c>
-      <c r="D50" s="38" t="s">
+      <c r="C50" s="40">
+        <v>1</v>
+      </c>
+      <c r="D50" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="37" t="s">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="32" customFormat="1">
-      <c r="A51" s="32">
+      <c r="J50" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="8" customFormat="1">
+      <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="40">
         <v>8</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="40">
         <v>2</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="37" t="s">
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="32" customFormat="1">
-      <c r="A52" s="32">
+      <c r="J51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="8" customFormat="1">
+      <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="40">
         <v>8</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="40">
         <v>3</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="37" t="s">
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="32" customFormat="1">
-      <c r="A53" s="32">
+      <c r="J52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="8" customFormat="1">
+      <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="40">
         <v>8</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="40">
         <v>4</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="37"/>
-      <c r="F53" s="39" t="s">
+      <c r="E53" s="40"/>
+      <c r="F53" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G53" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="37" t="s">
+      <c r="H53" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="32" customFormat="1">
-      <c r="A54" s="32">
+    <row r="54" spans="1:10" s="8" customFormat="1">
+      <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B54" s="40">
         <v>8</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="40">
         <v>5</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="39" t="s">
+      <c r="E54" s="40"/>
+      <c r="F54" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="G54" s="42" t="s">
         <v>62</v>
       </c>
       <c r="H54" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="32">
+      <c r="J54" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="32" customFormat="1">
-      <c r="A55" s="32">
+    <row r="55" spans="1:10" s="8" customFormat="1">
+      <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="40">
         <v>8</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="40">
         <v>6</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="39" t="s">
+      <c r="E55" s="40"/>
+      <c r="F55" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="39" t="s">
+      <c r="G55" s="42" t="s">
         <v>63</v>
       </c>
       <c r="H55" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="32">
+      <c r="J55" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="32" customFormat="1">
-      <c r="A56" s="32">
+    <row r="56" spans="1:10" s="8" customFormat="1">
+      <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="37">
+      <c r="B56" s="40">
         <v>8</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="40">
         <v>7</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="39" t="s">
+      <c r="E56" s="40"/>
+      <c r="F56" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="39" t="s">
+      <c r="G56" s="42" t="s">
         <v>56</v>
       </c>
       <c r="H56" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J56" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="32" customFormat="1">
-      <c r="A57" s="32">
+      <c r="J56" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="8" customFormat="1">
+      <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="37">
+      <c r="B57" s="40">
         <v>8</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="40">
         <v>8</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="39" t="s">
+      <c r="E57" s="40"/>
+      <c r="F57" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="39" t="s">
+      <c r="G57" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="37" t="s">
+      <c r="H57" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="45" customFormat="1">
-      <c r="A58" s="45">
+      <c r="J57" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="8" customFormat="1">
+      <c r="A58" s="8">
         <v>57</v>
       </c>
-      <c r="B58" s="53">
+      <c r="B58" s="40">
         <v>9</v>
       </c>
-      <c r="C58" s="53">
-        <v>1</v>
-      </c>
-      <c r="D58" s="54" t="s">
+      <c r="C58" s="40">
+        <v>1</v>
+      </c>
+      <c r="D58" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="53" t="s">
+      <c r="E58" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="53" t="s">
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J58" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="45" customFormat="1">
-      <c r="A59" s="45">
+      <c r="J58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="8" customFormat="1">
+      <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="53">
+      <c r="B59" s="40">
         <v>9</v>
       </c>
-      <c r="C59" s="53">
+      <c r="C59" s="40">
         <v>2</v>
       </c>
-      <c r="D59" s="54" t="s">
+      <c r="D59" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="E59" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="53" t="s">
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J59" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="45" customFormat="1">
-      <c r="A60" s="45">
+      <c r="J59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="8" customFormat="1">
+      <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="53">
+      <c r="B60" s="40">
         <v>9</v>
       </c>
-      <c r="C60" s="53">
+      <c r="C60" s="40">
         <v>3</v>
       </c>
-      <c r="D60" s="54" t="s">
+      <c r="D60" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="53" t="s">
+      <c r="E60" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="53" t="s">
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J60" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="45" customFormat="1">
-      <c r="A61" s="45">
+      <c r="J60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="8" customFormat="1">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="53">
+      <c r="B61" s="40">
         <v>9</v>
       </c>
-      <c r="C61" s="53">
+      <c r="C61" s="40">
         <v>4</v>
       </c>
-      <c r="D61" s="54" t="s">
+      <c r="D61" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="53"/>
-      <c r="F61" s="55" t="s">
+      <c r="E61" s="40"/>
+      <c r="F61" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="55" t="s">
+      <c r="G61" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="53" t="s">
+      <c r="H61" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="45" customFormat="1">
-      <c r="A62" s="45">
+    <row r="62" spans="1:10" s="8" customFormat="1">
+      <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="53">
+      <c r="B62" s="40">
         <v>9</v>
       </c>
-      <c r="C62" s="53">
+      <c r="C62" s="40">
         <v>5</v>
       </c>
-      <c r="D62" s="54" t="s">
+      <c r="D62" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="53"/>
-      <c r="F62" s="55" t="s">
+      <c r="E62" s="40"/>
+      <c r="F62" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="55" t="s">
+      <c r="G62" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="47" t="s">
+      <c r="H62" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J62" s="45">
+      <c r="J62" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="45" customFormat="1">
-      <c r="A63" s="45">
+    <row r="63" spans="1:10" s="8" customFormat="1">
+      <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="53">
+      <c r="B63" s="40">
         <v>9</v>
       </c>
-      <c r="C63" s="53">
+      <c r="C63" s="40">
         <v>6</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D63" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="53"/>
-      <c r="F63" s="55" t="s">
+      <c r="E63" s="40"/>
+      <c r="F63" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="55" t="s">
+      <c r="G63" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="47" t="s">
+      <c r="H63" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J63" s="45">
+      <c r="J63" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="45" customFormat="1">
-      <c r="A64" s="45">
+    <row r="64" spans="1:10" s="8" customFormat="1">
+      <c r="A64" s="8">
         <v>63</v>
       </c>
-      <c r="B64" s="53">
+      <c r="B64" s="40">
         <v>9</v>
       </c>
-      <c r="C64" s="53">
+      <c r="C64" s="40">
         <v>7</v>
       </c>
-      <c r="D64" s="54" t="s">
+      <c r="D64" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="53"/>
-      <c r="F64" s="55" t="s">
+      <c r="E64" s="40"/>
+      <c r="F64" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="55" t="s">
+      <c r="G64" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="47" t="s">
+      <c r="H64" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J64" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="45" customFormat="1">
-      <c r="A65" s="45">
+      <c r="J64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="8" customFormat="1">
+      <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="53">
+      <c r="B65" s="40">
         <v>9</v>
       </c>
-      <c r="C65" s="53">
+      <c r="C65" s="40">
         <v>8</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D65" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="53"/>
-      <c r="F65" s="55" t="s">
+      <c r="E65" s="40"/>
+      <c r="F65" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="55" t="s">
+      <c r="G65" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="53" t="s">
+      <c r="H65" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J65" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="51" customFormat="1">
-      <c r="A66" s="51">
+      <c r="J65" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="8" customFormat="1">
+      <c r="A66" s="8">
         <v>65</v>
       </c>
-      <c r="B66" s="56">
+      <c r="B66" s="40">
         <v>10</v>
       </c>
-      <c r="C66" s="56">
-        <v>1</v>
-      </c>
-      <c r="D66" s="57" t="s">
+      <c r="C66" s="40">
+        <v>1</v>
+      </c>
+      <c r="D66" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="53" t="s">
+      <c r="E66" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="56" t="s">
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J66" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="51" customFormat="1">
-      <c r="A67" s="51">
+      <c r="J66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="8" customFormat="1">
+      <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="56">
+      <c r="B67" s="40">
         <v>10</v>
       </c>
-      <c r="C67" s="56">
+      <c r="C67" s="40">
         <v>2</v>
       </c>
-      <c r="D67" s="57" t="s">
+      <c r="D67" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="53" t="s">
+      <c r="E67" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="56" t="s">
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J67" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="51" customFormat="1">
-      <c r="A68" s="51">
+      <c r="J67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="8" customFormat="1">
+      <c r="A68" s="8">
         <v>67</v>
       </c>
-      <c r="B68" s="56">
+      <c r="B68" s="40">
         <v>10</v>
       </c>
-      <c r="C68" s="56">
+      <c r="C68" s="40">
         <v>3</v>
       </c>
-      <c r="D68" s="57" t="s">
+      <c r="D68" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="53" t="s">
+      <c r="E68" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="56" t="s">
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J68" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="51" customFormat="1">
-      <c r="A69" s="51">
+      <c r="J68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="8" customFormat="1">
+      <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="56">
+      <c r="B69" s="40">
         <v>10</v>
       </c>
-      <c r="C69" s="56">
+      <c r="C69" s="40">
         <v>4</v>
       </c>
-      <c r="D69" s="57" t="s">
+      <c r="D69" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="56"/>
-      <c r="F69" s="58" t="s">
+      <c r="E69" s="40"/>
+      <c r="F69" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="58" t="s">
+      <c r="G69" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H69" s="56" t="s">
+      <c r="H69" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="51" customFormat="1">
-      <c r="A70" s="51">
+    <row r="70" spans="1:10" s="8" customFormat="1">
+      <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" s="56">
+      <c r="B70" s="40">
         <v>10</v>
       </c>
-      <c r="C70" s="56">
+      <c r="C70" s="40">
         <v>5</v>
       </c>
-      <c r="D70" s="57" t="s">
+      <c r="D70" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="56"/>
-      <c r="F70" s="58" t="s">
+      <c r="E70" s="40"/>
+      <c r="F70" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="58" t="s">
+      <c r="G70" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="52" t="s">
+      <c r="H70" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J70" s="51">
+      <c r="J70" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="51" customFormat="1">
-      <c r="A71" s="51">
+    <row r="71" spans="1:10" s="8" customFormat="1">
+      <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="40">
         <v>10</v>
       </c>
-      <c r="C71" s="56">
+      <c r="C71" s="40">
         <v>6</v>
       </c>
-      <c r="D71" s="57" t="s">
+      <c r="D71" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="56"/>
-      <c r="F71" s="58" t="s">
+      <c r="E71" s="40"/>
+      <c r="F71" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="58" t="s">
+      <c r="G71" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="52" t="s">
+      <c r="H71" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J71" s="51">
+      <c r="J71" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="51" customFormat="1">
-      <c r="A72" s="51">
+    <row r="72" spans="1:10" s="8" customFormat="1">
+      <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="56">
+      <c r="B72" s="40">
         <v>10</v>
       </c>
-      <c r="C72" s="56">
+      <c r="C72" s="40">
         <v>7</v>
       </c>
-      <c r="D72" s="57" t="s">
+      <c r="D72" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="56"/>
-      <c r="F72" s="58" t="s">
+      <c r="E72" s="40"/>
+      <c r="F72" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="58" t="s">
+      <c r="G72" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="52" t="s">
+      <c r="H72" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J72" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="51" customFormat="1">
-      <c r="A73" s="51">
+      <c r="J72" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="8" customFormat="1">
+      <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="56">
+      <c r="B73" s="40">
         <v>10</v>
       </c>
-      <c r="C73" s="56">
+      <c r="C73" s="40">
         <v>8</v>
       </c>
-      <c r="D73" s="57" t="s">
+      <c r="D73" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="56"/>
-      <c r="F73" s="58" t="s">
+      <c r="E73" s="40"/>
+      <c r="F73" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="58" t="s">
+      <c r="G73" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="56" t="s">
+      <c r="H73" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J73" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="59" customFormat="1">
-      <c r="A74" s="59">
+      <c r="J73" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="8" customFormat="1">
+      <c r="A74" s="8">
         <v>73</v>
       </c>
-      <c r="B74" s="64">
+      <c r="B74" s="40">
         <v>11</v>
       </c>
-      <c r="C74" s="64">
-        <v>1</v>
-      </c>
-      <c r="D74" s="54" t="s">
+      <c r="C74" s="40">
+        <v>1</v>
+      </c>
+      <c r="D74" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="64" t="s">
+      <c r="E74" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="64" t="s">
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J74" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="59" customFormat="1">
-      <c r="A75" s="59">
+      <c r="J74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="8" customFormat="1">
+      <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="64">
+      <c r="B75" s="40">
         <v>11</v>
       </c>
-      <c r="C75" s="64">
+      <c r="C75" s="40">
         <v>2</v>
       </c>
-      <c r="D75" s="54" t="s">
+      <c r="D75" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="64" t="s">
+      <c r="E75" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="64" t="s">
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="59" customFormat="1">
-      <c r="A76" s="59">
+      <c r="J75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="8" customFormat="1">
+      <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="64">
+      <c r="B76" s="40">
         <v>11</v>
       </c>
-      <c r="C76" s="64">
+      <c r="C76" s="40">
         <v>3</v>
       </c>
-      <c r="D76" s="54" t="s">
+      <c r="D76" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="64" t="s">
+      <c r="E76" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="64" t="s">
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J76" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="59" customFormat="1">
-      <c r="A77" s="59">
+      <c r="J76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="8" customFormat="1">
+      <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="64">
+      <c r="B77" s="40">
         <v>11</v>
       </c>
-      <c r="C77" s="64">
+      <c r="C77" s="40">
         <v>4</v>
       </c>
-      <c r="D77" s="54" t="s">
+      <c r="D77" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="64"/>
-      <c r="F77" s="65" t="s">
+      <c r="E77" s="40"/>
+      <c r="F77" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="65" t="s">
+      <c r="G77" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="64" t="s">
+      <c r="H77" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="59" customFormat="1">
-      <c r="A78" s="59">
+    <row r="78" spans="1:10" s="8" customFormat="1">
+      <c r="A78" s="8">
         <v>77</v>
       </c>
-      <c r="B78" s="64">
+      <c r="B78" s="40">
         <v>11</v>
       </c>
-      <c r="C78" s="64">
+      <c r="C78" s="40">
         <v>5</v>
       </c>
-      <c r="D78" s="54" t="s">
+      <c r="D78" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="64"/>
-      <c r="F78" s="65" t="s">
+      <c r="E78" s="40"/>
+      <c r="F78" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="65" t="s">
+      <c r="G78" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="60" t="s">
+      <c r="H78" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J78" s="59">
+      <c r="J78" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="59" customFormat="1">
-      <c r="A79" s="59">
+    <row r="79" spans="1:10" s="8" customFormat="1">
+      <c r="A79" s="8">
         <v>78</v>
       </c>
-      <c r="B79" s="64">
+      <c r="B79" s="40">
         <v>11</v>
       </c>
-      <c r="C79" s="64">
+      <c r="C79" s="40">
         <v>6</v>
       </c>
-      <c r="D79" s="54" t="s">
+      <c r="D79" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E79" s="64"/>
-      <c r="F79" s="65" t="s">
+      <c r="E79" s="40"/>
+      <c r="F79" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="65" t="s">
+      <c r="G79" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H79" s="60" t="s">
+      <c r="H79" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="59">
+      <c r="J79" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="59" customFormat="1">
-      <c r="A80" s="59">
+    <row r="80" spans="1:10" s="8" customFormat="1">
+      <c r="A80" s="8">
         <v>79</v>
       </c>
-      <c r="B80" s="64">
+      <c r="B80" s="40">
         <v>11</v>
       </c>
-      <c r="C80" s="64">
+      <c r="C80" s="40">
         <v>7</v>
       </c>
-      <c r="D80" s="54" t="s">
+      <c r="D80" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="64"/>
-      <c r="F80" s="65" t="s">
+      <c r="E80" s="40"/>
+      <c r="F80" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="65" t="s">
+      <c r="G80" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="60" t="s">
+      <c r="H80" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J80" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="59" customFormat="1">
-      <c r="A81" s="59">
+      <c r="J80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="8" customFormat="1">
+      <c r="A81" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="64">
+      <c r="B81" s="40">
         <v>11</v>
       </c>
-      <c r="C81" s="64">
+      <c r="C81" s="40">
         <v>8</v>
       </c>
-      <c r="D81" s="54" t="s">
+      <c r="D81" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="64"/>
-      <c r="F81" s="65" t="s">
+      <c r="E81" s="40"/>
+      <c r="F81" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="65" t="s">
+      <c r="G81" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="64" t="s">
+      <c r="H81" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J81" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="59" customFormat="1">
-      <c r="A82" s="66">
+      <c r="J81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="8" customFormat="1">
+      <c r="A82" s="8">
         <v>81</v>
       </c>
-      <c r="B82" s="67">
+      <c r="B82" s="40">
         <v>12</v>
       </c>
-      <c r="C82" s="67">
-        <v>1</v>
-      </c>
-      <c r="D82" s="68" t="s">
+      <c r="C82" s="40">
+        <v>1</v>
+      </c>
+      <c r="D82" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="67" t="s">
+      <c r="E82" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="67" t="s">
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="59" customFormat="1">
-      <c r="A83" s="66">
+      <c r="J82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="8" customFormat="1">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="67">
+      <c r="B83" s="40">
         <v>12</v>
       </c>
-      <c r="C83" s="67">
+      <c r="C83" s="40">
         <v>2</v>
       </c>
-      <c r="D83" s="68" t="s">
+      <c r="D83" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="67" t="s">
+      <c r="E83" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="67" t="s">
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="59" customFormat="1">
-      <c r="A84" s="66">
+      <c r="J83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="8" customFormat="1">
+      <c r="A84" s="8">
         <v>83</v>
       </c>
-      <c r="B84" s="67">
+      <c r="B84" s="40">
         <v>12</v>
       </c>
-      <c r="C84" s="67">
+      <c r="C84" s="40">
         <v>3</v>
       </c>
-      <c r="D84" s="68" t="s">
+      <c r="D84" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="67" t="s">
+      <c r="E84" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="67" t="s">
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="59" customFormat="1">
-      <c r="A85" s="66">
+      <c r="J84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="8" customFormat="1">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="67">
+      <c r="B85" s="40">
         <v>12</v>
       </c>
-      <c r="C85" s="67">
+      <c r="C85" s="40">
         <v>4</v>
       </c>
-      <c r="D85" s="68" t="s">
+      <c r="D85" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="67"/>
-      <c r="F85" s="69" t="s">
+      <c r="E85" s="40"/>
+      <c r="F85" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="69" t="s">
+      <c r="G85" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H85" s="67" t="s">
+      <c r="H85" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-    </row>
-    <row r="86" spans="1:10" s="59" customFormat="1">
-      <c r="A86" s="66">
+    </row>
+    <row r="86" spans="1:10" s="8" customFormat="1">
+      <c r="A86" s="8">
         <v>85</v>
       </c>
-      <c r="B86" s="67">
+      <c r="B86" s="40">
         <v>12</v>
       </c>
-      <c r="C86" s="67">
+      <c r="C86" s="40">
         <v>5</v>
       </c>
-      <c r="D86" s="68" t="s">
+      <c r="D86" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="67"/>
-      <c r="F86" s="69" t="s">
+      <c r="E86" s="40"/>
+      <c r="F86" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="69" t="s">
+      <c r="G86" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="70" t="s">
+      <c r="H86" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66">
+      <c r="J86" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="59" customFormat="1">
-      <c r="A87" s="66">
+    <row r="87" spans="1:10" s="8" customFormat="1">
+      <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="67">
+      <c r="B87" s="40">
         <v>12</v>
       </c>
-      <c r="C87" s="67">
+      <c r="C87" s="40">
         <v>6</v>
       </c>
-      <c r="D87" s="68" t="s">
+      <c r="D87" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="67"/>
-      <c r="F87" s="69" t="s">
+      <c r="E87" s="40"/>
+      <c r="F87" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="69" t="s">
+      <c r="G87" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H87" s="70" t="s">
+      <c r="H87" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66">
+      <c r="J87" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="59" customFormat="1">
-      <c r="A88" s="66">
+    <row r="88" spans="1:10" s="8" customFormat="1">
+      <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" s="67">
+      <c r="B88" s="40">
         <v>12</v>
       </c>
-      <c r="C88" s="67">
+      <c r="C88" s="40">
         <v>7</v>
       </c>
-      <c r="D88" s="68" t="s">
+      <c r="D88" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="67"/>
-      <c r="F88" s="69" t="s">
+      <c r="E88" s="40"/>
+      <c r="F88" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="69" t="s">
+      <c r="G88" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="70" t="s">
+      <c r="H88" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="59" customFormat="1">
-      <c r="A89" s="66">
+      <c r="J88" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="8" customFormat="1">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="67">
+      <c r="B89" s="40">
         <v>12</v>
       </c>
-      <c r="C89" s="67">
+      <c r="C89" s="40">
         <v>8</v>
       </c>
-      <c r="D89" s="68" t="s">
+      <c r="D89" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="67"/>
-      <c r="F89" s="69" t="s">
+      <c r="E89" s="40"/>
+      <c r="F89" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="69" t="s">
+      <c r="G89" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="67" t="s">
+      <c r="H89" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66">
+      <c r="J89" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="8" customFormat="1">
-      <c r="A90" s="66">
+      <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="B90" s="64">
+      <c r="B90" s="40">
         <v>13</v>
       </c>
-      <c r="C90" s="64">
-        <v>1</v>
-      </c>
-      <c r="D90" s="54" t="s">
+      <c r="C90" s="40">
+        <v>1</v>
+      </c>
+      <c r="D90" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E90" s="64" t="s">
+      <c r="E90" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="64" t="s">
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59">
+      <c r="J90" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="8" customFormat="1">
-      <c r="A91" s="66">
+      <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="64">
+      <c r="B91" s="40">
         <v>13</v>
       </c>
-      <c r="C91" s="64">
+      <c r="C91" s="40">
         <v>2</v>
       </c>
-      <c r="D91" s="54" t="s">
+      <c r="D91" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E91" s="64" t="s">
+      <c r="E91" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F91" s="65"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="64" t="s">
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59">
+      <c r="J91" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="8" customFormat="1">
-      <c r="A92" s="66">
+      <c r="A92" s="8">
         <v>91</v>
       </c>
-      <c r="B92" s="64">
+      <c r="B92" s="40">
         <v>13</v>
       </c>
-      <c r="C92" s="64">
+      <c r="C92" s="40">
         <v>3</v>
       </c>
-      <c r="D92" s="54" t="s">
+      <c r="D92" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="64" t="s">
+      <c r="E92" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="64" t="s">
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59">
+      <c r="J92" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="8" customFormat="1">
-      <c r="A93" s="66">
+      <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="64">
+      <c r="B93" s="40">
         <v>13</v>
       </c>
-      <c r="C93" s="64">
+      <c r="C93" s="40">
         <v>4</v>
       </c>
-      <c r="D93" s="54" t="s">
+      <c r="D93" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E93" s="64"/>
-      <c r="F93" s="65" t="s">
+      <c r="E93" s="40"/>
+      <c r="F93" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="65" t="s">
+      <c r="G93" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="64" t="s">
+      <c r="H93" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I93" s="59"/>
-      <c r="J93" s="59"/>
     </row>
     <row r="94" spans="1:10" s="8" customFormat="1">
-      <c r="A94" s="66">
+      <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="64">
+      <c r="B94" s="40">
         <v>13</v>
       </c>
-      <c r="C94" s="64">
+      <c r="C94" s="40">
         <v>5</v>
       </c>
-      <c r="D94" s="54" t="s">
+      <c r="D94" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E94" s="64"/>
-      <c r="F94" s="65" t="s">
+      <c r="E94" s="40"/>
+      <c r="F94" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G94" s="65" t="s">
+      <c r="G94" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="60" t="s">
+      <c r="H94" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59">
+      <c r="J94" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="8" customFormat="1">
-      <c r="A95" s="66">
+      <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="64">
+      <c r="B95" s="40">
         <v>13</v>
       </c>
-      <c r="C95" s="64">
+      <c r="C95" s="40">
         <v>6</v>
       </c>
-      <c r="D95" s="54" t="s">
+      <c r="D95" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E95" s="64"/>
-      <c r="F95" s="65" t="s">
+      <c r="E95" s="40"/>
+      <c r="F95" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H95" s="60" t="s">
+      <c r="H95" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I95" s="59"/>
-      <c r="J95" s="59">
+      <c r="J95" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="8" customFormat="1">
-      <c r="A96" s="66">
+      <c r="A96" s="8">
         <v>95</v>
       </c>
-      <c r="B96" s="64">
+      <c r="B96" s="40">
         <v>13</v>
       </c>
-      <c r="C96" s="64">
+      <c r="C96" s="40">
         <v>7</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D96" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="64"/>
-      <c r="F96" s="65" t="s">
+      <c r="E96" s="40"/>
+      <c r="F96" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G96" s="65" t="s">
+      <c r="G96" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H96" s="60" t="s">
+      <c r="H96" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="I96" s="59"/>
-      <c r="J96" s="59">
+      <c r="J96" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="8" customFormat="1">
-      <c r="A97" s="66">
+      <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="64">
+      <c r="B97" s="40">
         <v>13</v>
       </c>
-      <c r="C97" s="64">
+      <c r="C97" s="40">
         <v>8</v>
       </c>
-      <c r="D97" s="54" t="s">
+      <c r="D97" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="64"/>
-      <c r="F97" s="65" t="s">
+      <c r="E97" s="40"/>
+      <c r="F97" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="65" t="s">
+      <c r="G97" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="64" t="s">
+      <c r="H97" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I97" s="59"/>
-      <c r="J97" s="59">
+      <c r="J97" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="8" customFormat="1">
-      <c r="A98" s="66">
+      <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="67">
+      <c r="B98" s="40">
         <v>14</v>
       </c>
-      <c r="C98" s="67">
-        <v>1</v>
-      </c>
-      <c r="D98" s="68" t="s">
+      <c r="C98" s="40">
+        <v>1</v>
+      </c>
+      <c r="D98" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E98" s="64" t="s">
+      <c r="E98" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="67" t="s">
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="I98" s="66"/>
-      <c r="J98" s="66">
+      <c r="J98" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="8" customFormat="1">
-      <c r="A99" s="66">
+      <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99" s="67">
+      <c r="B99" s="40">
         <v>14</v>
       </c>
-      <c r="C99" s="67">
+      <c r="C99" s="40">
         <v>2</v>
       </c>
-      <c r="D99" s="68" t="s">
+      <c r="D99" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E99" s="64" t="s">
+      <c r="E99" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="67" t="s">
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I99" s="66"/>
-      <c r="J99" s="66">
+      <c r="J99" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="8" customFormat="1">
-      <c r="A100" s="66">
+      <c r="A100" s="8">
         <v>99</v>
       </c>
-      <c r="B100" s="67">
+      <c r="B100" s="40">
         <v>14</v>
       </c>
-      <c r="C100" s="67">
+      <c r="C100" s="40">
         <v>3</v>
       </c>
-      <c r="D100" s="68" t="s">
+      <c r="D100" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="64" t="s">
+      <c r="E100" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="67" t="s">
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I100" s="66"/>
-      <c r="J100" s="66">
+      <c r="J100" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="8" customFormat="1">
-      <c r="A101" s="66">
+      <c r="A101" s="8">
         <v>100</v>
       </c>
-      <c r="B101" s="67">
+      <c r="B101" s="40">
         <v>14</v>
       </c>
-      <c r="C101" s="67">
+      <c r="C101" s="40">
         <v>4</v>
       </c>
-      <c r="D101" s="68" t="s">
+      <c r="D101" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="67"/>
-      <c r="F101" s="69" t="s">
+      <c r="E101" s="40"/>
+      <c r="F101" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="69" t="s">
+      <c r="G101" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H101" s="67" t="s">
+      <c r="H101" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
     </row>
     <row r="102" spans="1:10" s="8" customFormat="1">
-      <c r="A102" s="66">
+      <c r="A102" s="8">
         <v>101</v>
       </c>
-      <c r="B102" s="67">
+      <c r="B102" s="40">
         <v>14</v>
       </c>
-      <c r="C102" s="67">
+      <c r="C102" s="40">
         <v>5</v>
       </c>
-      <c r="D102" s="68" t="s">
+      <c r="D102" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E102" s="67"/>
-      <c r="F102" s="69" t="s">
+      <c r="E102" s="40"/>
+      <c r="F102" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="69" t="s">
+      <c r="G102" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="70" t="s">
+      <c r="H102" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I102" s="66"/>
-      <c r="J102" s="66">
+      <c r="J102" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="8" customFormat="1">
-      <c r="A103" s="66">
+      <c r="A103" s="8">
         <v>102</v>
       </c>
-      <c r="B103" s="67">
+      <c r="B103" s="40">
         <v>14</v>
       </c>
-      <c r="C103" s="67">
+      <c r="C103" s="40">
         <v>6</v>
       </c>
-      <c r="D103" s="68" t="s">
+      <c r="D103" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E103" s="67"/>
-      <c r="F103" s="69" t="s">
+      <c r="E103" s="40"/>
+      <c r="F103" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="69" t="s">
+      <c r="G103" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H103" s="70" t="s">
+      <c r="H103" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66">
+      <c r="J103" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="8" customFormat="1">
-      <c r="A104" s="66">
+      <c r="A104" s="8">
         <v>103</v>
       </c>
-      <c r="B104" s="67">
+      <c r="B104" s="40">
         <v>14</v>
       </c>
-      <c r="C104" s="67">
+      <c r="C104" s="40">
         <v>7</v>
       </c>
-      <c r="D104" s="68" t="s">
+      <c r="D104" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="67"/>
-      <c r="F104" s="69" t="s">
+      <c r="E104" s="40"/>
+      <c r="F104" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G104" s="69" t="s">
+      <c r="G104" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H104" s="70" t="s">
+      <c r="H104" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66">
+      <c r="J104" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="8" customFormat="1">
-      <c r="A105" s="66">
+      <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="67">
+      <c r="B105" s="40">
         <v>14</v>
       </c>
-      <c r="C105" s="67">
+      <c r="C105" s="40">
         <v>8</v>
       </c>
-      <c r="D105" s="68" t="s">
+      <c r="D105" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E105" s="67"/>
-      <c r="F105" s="69" t="s">
+      <c r="E105" s="40"/>
+      <c r="F105" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G105" s="69" t="s">
+      <c r="G105" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H105" s="67" t="s">
+      <c r="H105" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66">
+      <c r="J105" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="8" customFormat="1">
-      <c r="A106" s="13"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="17"/>
+      <c r="A106" s="8">
+        <v>105</v>
+      </c>
+      <c r="B106" s="26">
+        <v>15</v>
+      </c>
+      <c r="C106" s="26">
+        <v>1</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:10" s="8" customFormat="1">
-      <c r="A107" s="13"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="17"/>
+      <c r="A107" s="8">
+        <v>106</v>
+      </c>
+      <c r="B107" s="26">
+        <v>15</v>
+      </c>
+      <c r="C107" s="26">
+        <v>2</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:10" s="8" customFormat="1">
-      <c r="A108" s="13"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="17"/>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="13"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="17"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="13"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="17"/>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="13"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="17"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="13"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="17"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="13"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="17"/>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="13"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="17"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="13"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="17"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="13"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="17"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="13"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="17"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="13"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="17"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="13"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="17"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="13"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="17"/>
-    </row>
-    <row r="121" spans="1:8" s="8" customFormat="1">
-      <c r="A121" s="13"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="17"/>
-    </row>
-    <row r="122" spans="1:8" s="8" customFormat="1">
-      <c r="A122" s="13"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="17"/>
-    </row>
-    <row r="123" spans="1:8" s="8" customFormat="1">
-      <c r="A123" s="13"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="17"/>
-    </row>
-    <row r="124" spans="1:8" s="8" customFormat="1">
-      <c r="A124" s="13"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="17"/>
-    </row>
-    <row r="125" spans="1:8" s="8" customFormat="1">
-      <c r="A125" s="13"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="17"/>
-    </row>
-    <row r="126" spans="1:8" s="8" customFormat="1">
-      <c r="A126" s="13"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="17"/>
-    </row>
-    <row r="127" spans="1:8" s="8" customFormat="1">
-      <c r="A127" s="13"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="17"/>
-    </row>
-    <row r="128" spans="1:8" s="8" customFormat="1">
-      <c r="A128" s="13"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="17"/>
+      <c r="A108" s="8">
+        <v>107</v>
+      </c>
+      <c r="B108" s="26">
+        <v>15</v>
+      </c>
+      <c r="C108" s="26">
+        <v>3</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="8" customFormat="1">
+      <c r="A109" s="8">
+        <v>108</v>
+      </c>
+      <c r="B109" s="26">
+        <v>15</v>
+      </c>
+      <c r="C109" s="26">
+        <v>4</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E109" s="26"/>
+      <c r="F109" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G109" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H109" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+    </row>
+    <row r="110" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A110" s="8">
+        <v>109</v>
+      </c>
+      <c r="B110" s="26">
+        <v>15</v>
+      </c>
+      <c r="C110" s="26">
+        <v>5</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E110" s="26"/>
+      <c r="F110" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H110" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A111" s="8">
+        <v>110</v>
+      </c>
+      <c r="B111" s="26">
+        <v>15</v>
+      </c>
+      <c r="C111" s="26">
+        <v>6</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111" s="26"/>
+      <c r="F111" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="G111" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H111" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="8" customFormat="1">
+      <c r="A112" s="8">
+        <v>111</v>
+      </c>
+      <c r="B112" s="26">
+        <v>15</v>
+      </c>
+      <c r="C112" s="26">
+        <v>7</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E112" s="26"/>
+      <c r="F112" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H112" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="26">
+        <v>15</v>
+      </c>
+      <c r="C113" s="26">
+        <v>8</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E113" s="26"/>
+      <c r="F113" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="G113" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H113" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="8" customFormat="1">
+      <c r="A114" s="8">
+        <v>113</v>
+      </c>
+      <c r="B114" s="23">
+        <v>16</v>
+      </c>
+      <c r="C114" s="23">
+        <v>1</v>
+      </c>
+      <c r="D114" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="8" customFormat="1">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="23">
+        <v>16</v>
+      </c>
+      <c r="C115" s="23">
+        <v>2</v>
+      </c>
+      <c r="D115" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="8" customFormat="1">
+      <c r="A116" s="8">
+        <v>115</v>
+      </c>
+      <c r="B116" s="23">
+        <v>16</v>
+      </c>
+      <c r="C116" s="23">
+        <v>3</v>
+      </c>
+      <c r="D116" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="8" customFormat="1">
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="B117" s="23">
+        <v>16</v>
+      </c>
+      <c r="C117" s="23">
+        <v>4</v>
+      </c>
+      <c r="D117" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="23"/>
+      <c r="F117" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+    </row>
+    <row r="118" spans="1:10" s="8" customFormat="1">
+      <c r="A118" s="8">
+        <v>117</v>
+      </c>
+      <c r="B118" s="23">
+        <v>16</v>
+      </c>
+      <c r="C118" s="23">
+        <v>5</v>
+      </c>
+      <c r="D118" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" s="23"/>
+      <c r="F118" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="8" customFormat="1">
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="B119" s="23">
+        <v>16</v>
+      </c>
+      <c r="C119" s="23">
+        <v>6</v>
+      </c>
+      <c r="D119" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="23"/>
+      <c r="F119" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="8" customFormat="1">
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="B120" s="23">
+        <v>16</v>
+      </c>
+      <c r="C120" s="23">
+        <v>7</v>
+      </c>
+      <c r="D120" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="23"/>
+      <c r="F120" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H120" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="8" customFormat="1">
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
+      <c r="B121" s="23">
+        <v>16</v>
+      </c>
+      <c r="C121" s="23">
+        <v>8</v>
+      </c>
+      <c r="D121" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E121" s="23"/>
+      <c r="F121" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="8" customFormat="1">
+      <c r="A122" s="9"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="13"/>
+    </row>
+    <row r="123" spans="1:10" s="8" customFormat="1">
+      <c r="A123" s="9"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="13"/>
+    </row>
+    <row r="124" spans="1:10" s="8" customFormat="1">
+      <c r="A124" s="9"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="13"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="13"/>
+    </row>
+    <row r="125" spans="1:10" s="8" customFormat="1">
+      <c r="A125" s="9"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="13"/>
+    </row>
+    <row r="126" spans="1:10" s="8" customFormat="1">
+      <c r="A126" s="9"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="13"/>
+    </row>
+    <row r="127" spans="1:10" s="8" customFormat="1">
+      <c r="A127" s="9"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="13"/>
+    </row>
+    <row r="128" spans="1:10" s="8" customFormat="1">
+      <c r="A128" s="9"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" s="8" customFormat="1">
-      <c r="A129" s="13"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="17"/>
+      <c r="A129" s="9"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:8" s="8" customFormat="1">
-      <c r="A130" s="13"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="17"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="13"/>
     </row>
     <row r="131" spans="1:8" s="8" customFormat="1">
-      <c r="A131" s="13"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="17"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="13"/>
     </row>
     <row r="132" spans="1:8" s="8" customFormat="1">
-      <c r="A132" s="13"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="17"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="13"/>
     </row>
     <row r="133" spans="1:8" s="8" customFormat="1">
-      <c r="A133" s="13"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="17"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="13"/>
     </row>
     <row r="134" spans="1:8" s="8" customFormat="1">
-      <c r="A134" s="13"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="17"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="13"/>
     </row>
     <row r="135" spans="1:8" s="8" customFormat="1">
-      <c r="A135" s="13"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="17"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:8" s="8" customFormat="1">
-      <c r="A136" s="13"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="17"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="13"/>
     </row>
     <row r="137" spans="1:8" s="8" customFormat="1">
-      <c r="A137" s="13"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="17"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="13"/>
     </row>
     <row r="138" spans="1:8" s="8" customFormat="1">
-      <c r="A138" s="13"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="17"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" s="8" customFormat="1">
-      <c r="A139" s="13"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="17"/>
+      <c r="A139" s="9"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="13"/>
     </row>
     <row r="140" spans="1:8" s="8" customFormat="1">
-      <c r="A140" s="13"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="17"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:8" s="8" customFormat="1">
-      <c r="A141" s="13"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="17"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" s="8" customFormat="1">
-      <c r="A142" s="13"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="17"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:8" s="8" customFormat="1">
-      <c r="A143" s="13"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="17"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:8" s="8" customFormat="1">
-      <c r="A144" s="13"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="17"/>
+      <c r="A144" s="9"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:12" s="8" customFormat="1">
-      <c r="A145" s="13"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="17"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="13"/>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="13"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="17"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="13"/>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="13"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="17"/>
+      <c r="A147" s="9"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="13"/>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="13"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="17"/>
+      <c r="A148" s="9"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="13"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="13"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="17"/>
+      <c r="A149" s="9"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="13"/>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="13"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="17"/>
+      <c r="A150" s="9"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="13"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="13"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="17"/>
+      <c r="A151" s="9"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="13"/>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="13"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="17"/>
+      <c r="A152" s="9"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="13"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="13"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="17"/>
+      <c r="A153" s="9"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="13"/>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="13"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="17"/>
+      <c r="A154" s="9"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="13"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="13"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="17"/>
+      <c r="A155" s="9"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="13"/>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="13"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="17"/>
+      <c r="A156" s="9"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="13"/>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="13"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="17"/>
+      <c r="A157" s="9"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="13"/>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="13"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="17"/>
+      <c r="A158" s="9"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="13"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="13"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="17"/>
+      <c r="A159" s="9"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="13"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="13"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="17"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="13"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="13"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="17"/>
+      <c r="A161" s="9"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="13"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="13"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="17"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="13"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="13"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="17"/>
+      <c r="A163" s="9"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="13"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="13"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="17"/>
+      <c r="A164" s="9"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="13"/>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="13"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="17"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="13"/>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="13"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="17"/>
+      <c r="A166" s="9"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="13"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="13"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="17"/>
+      <c r="A167" s="9"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="13"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="13"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="17"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="13"/>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="13"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="17"/>
+      <c r="A169" s="9"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="13"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="13"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="17"/>
+      <c r="A170" s="9"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="13"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="13"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="17"/>
+      <c r="A171" s="9"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="13"/>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="13"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="17"/>
+      <c r="A172" s="9"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="13"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="13"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="17"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="13"/>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="13"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="17"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="13"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="13"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="17"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="13"/>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="13"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="17"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="13"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="13"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="17"/>
+      <c r="A177" s="9"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="13"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="13"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="17"/>
+      <c r="A178" s="9"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="13"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="13"/>
-      <c r="B179" s="17"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="17"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="17"/>
+      <c r="A179" s="9"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="13"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="209">
   <si>
     <t>id|</t>
   </si>
@@ -1028,6 +1028,90 @@
   </si>
   <si>
     <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换奖励-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼油4L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子汁6瓶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2400,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2400,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐嘉年华活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐嘉年华活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1118,7 +1202,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,12 +1213,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1151,7 +1229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,7 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,9 +1300,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,44 +1324,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1301,13 +1358,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -1317,8 +1368,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1601,7 +1674,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1689,7 +1762,7 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="7"/>
@@ -1725,7 +1798,7 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="11"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
@@ -1786,7 +1859,7 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -1817,7 +1890,7 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>5</v>
       </c>
       <c r="K6" s="4">
@@ -1850,7 +1923,7 @@
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>6</v>
       </c>
       <c r="K7" s="4">
@@ -1859,11 +1932,11 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" s="34" customFormat="1" ht="16.5">
+    <row r="8" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>133</v>
       </c>
       <c r="C8" s="8">
@@ -1874,7 +1947,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="26" t="s">
         <v>137</v>
       </c>
       <c r="H8" s="8">
@@ -1883,20 +1956,20 @@
       <c r="I8" s="8">
         <v>7</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>7</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="27">
         <v>0</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-    </row>
-    <row r="9" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>134</v>
       </c>
       <c r="C9" s="8">
@@ -1907,7 +1980,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="26" t="s">
         <v>138</v>
       </c>
       <c r="H9" s="8">
@@ -1916,20 +1989,20 @@
       <c r="I9" s="8">
         <v>8</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>8</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="27">
         <v>0</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-    </row>
-    <row r="10" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="26" t="s">
         <v>142</v>
       </c>
       <c r="C10" s="8">
@@ -1940,7 +2013,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H10" s="8">
@@ -1949,20 +2022,20 @@
       <c r="I10" s="8">
         <v>9</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>9</v>
       </c>
-      <c r="K10" s="34">
-        <v>1</v>
-      </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="K10" s="27">
+        <v>1</v>
+      </c>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="26" t="s">
         <v>143</v>
       </c>
       <c r="C11" s="8">
@@ -1973,7 +2046,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H11" s="8">
@@ -1982,31 +2055,31 @@
       <c r="I11" s="8">
         <v>10</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>10</v>
       </c>
-      <c r="K11" s="34">
-        <v>1</v>
-      </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-    </row>
-    <row r="12" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="K11" s="27">
+        <v>1</v>
+      </c>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="29">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="29">
         <v>1609775999</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="26" t="s">
         <v>164</v>
       </c>
       <c r="H12" s="8">
@@ -2015,31 +2088,31 @@
       <c r="I12" s="8">
         <v>11</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>11</v>
       </c>
-      <c r="K12" s="34">
-        <v>1</v>
-      </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-    </row>
-    <row r="13" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="K12" s="27">
+        <v>1</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="29">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="29">
         <v>1609775999</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="26" t="s">
         <v>164</v>
       </c>
       <c r="H13" s="8">
@@ -2048,31 +2121,31 @@
       <c r="I13" s="8">
         <v>12</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <v>12</v>
       </c>
-      <c r="K13" s="34">
-        <v>1</v>
-      </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-    </row>
-    <row r="14" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="K13" s="27">
+        <v>1</v>
+      </c>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="29">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="29">
         <v>1609775999</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="26" t="s">
         <v>164</v>
       </c>
       <c r="H14" s="8">
@@ -2081,31 +2154,31 @@
       <c r="I14" s="8">
         <v>13</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>13</v>
       </c>
-      <c r="K14" s="34">
-        <v>1</v>
-      </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="1:16" s="34" customFormat="1" ht="16.5">
+      <c r="K14" s="27">
+        <v>1</v>
+      </c>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16" s="27" customFormat="1" ht="16.5">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="29">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="29">
         <v>1609775999</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="26" t="s">
         <v>164</v>
       </c>
       <c r="H15" s="8">
@@ -2114,92 +2187,140 @@
       <c r="I15" s="8">
         <v>14</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="16">
         <v>14</v>
       </c>
-      <c r="K15" s="34">
-        <v>1</v>
-      </c>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-    </row>
-    <row r="16" spans="1:16" s="38" customFormat="1" ht="16.5">
-      <c r="A16" s="25">
+      <c r="K15" s="27">
+        <v>1</v>
+      </c>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" s="27" customFormat="1" ht="16.5">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="29">
         <v>1609804800</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="29">
         <v>1610380799</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="29" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="25">
-        <v>1</v>
-      </c>
-      <c r="I16" s="25">
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
         <v>15</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="8">
         <v>15</v>
       </c>
-      <c r="K16" s="38">
-        <v>1</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-    </row>
-    <row r="17" spans="1:16" s="38" customFormat="1" ht="16.5">
-      <c r="A17" s="25">
+      <c r="K16" s="27">
+        <v>1</v>
+      </c>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16" s="27" customFormat="1" ht="16.5">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="29">
         <v>1609804800</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="29">
         <v>1610380799</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="29" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="25">
-        <v>1</v>
-      </c>
-      <c r="I17" s="25">
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
         <v>16</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="8">
         <v>16</v>
       </c>
-      <c r="K17" s="38">
-        <v>1</v>
-      </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-    </row>
-    <row r="18" spans="1:16" customFormat="1">
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="K17" s="27">
+        <v>1</v>
+      </c>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="1:16" s="36" customFormat="1">
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="35">
+        <v>1610409600</v>
+      </c>
+      <c r="D18" s="35">
+        <v>1610985599</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="21">
+        <v>1</v>
+      </c>
+      <c r="I18" s="21">
+        <v>17</v>
+      </c>
+      <c r="J18" s="37">
+        <v>17</v>
+      </c>
+      <c r="K18" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="30" customFormat="1">
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1610409600</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1610985599</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="21">
+        <v>1</v>
+      </c>
+      <c r="I19" s="21">
+        <v>18</v>
+      </c>
+      <c r="J19" s="37">
+        <v>18</v>
+      </c>
+      <c r="K19" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1"/>
@@ -2322,10 +2443,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2448,100 +2569,122 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="18" customFormat="1">
-      <c r="A10" s="18">
+    <row r="10" spans="1:7" s="8" customFormat="1">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="18" customFormat="1">
-      <c r="A11" s="18">
+    <row r="11" spans="1:7" s="8" customFormat="1">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="21" customFormat="1">
-      <c r="A12" s="21">
+    <row r="12" spans="1:7" s="8" customFormat="1">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="21" customFormat="1">
-      <c r="A13" s="21">
+    <row r="13" spans="1:7" s="8" customFormat="1">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="26" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="21">
+    <row r="14" spans="1:7" s="8" customFormat="1">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="21">
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="26" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="30" customFormat="1">
-      <c r="A16" s="21">
+    <row r="16" spans="1:7" s="8" customFormat="1">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:3" s="30" customFormat="1">
-      <c r="A17" s="21">
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="1:3" s="8" customFormat="1">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="26" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="40">
+        <v>17</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="40">
+        <v>18</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2557,10 +2700,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G119" sqref="G119"/>
+      <selection pane="bottomRight" activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2594,10 +2737,10 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2707,7 +2850,7 @@
       <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2727,7 +2870,7 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2750,7 +2893,7 @@
       <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2871,7 +3014,7 @@
       <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2883,21 +3026,21 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>3</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="1">
@@ -2908,21 +3051,21 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>3</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="1">
@@ -2933,20 +3076,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>3</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>5</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="1">
@@ -2957,20 +3100,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>3</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>6</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="1">
@@ -2981,20 +3124,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>3</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>7</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="1">
@@ -3005,21 +3148,21 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>4</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>1</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="13" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12" t="s">
         <v>93</v>
       </c>
       <c r="J18" s="1">
@@ -3030,21 +3173,21 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>2</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="13" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="12" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="1">
@@ -3055,21 +3198,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>4</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>3</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="13" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12" t="s">
         <v>95</v>
       </c>
       <c r="J20" s="1">
@@ -3080,21 +3223,21 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>4</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>4</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3102,21 +3245,21 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>4</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>5</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="15" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>97</v>
       </c>
       <c r="J22" s="1">
@@ -3127,21 +3270,21 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>4</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>6</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="1">
@@ -3152,21 +3295,21 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>4</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>7</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="15" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="1">
@@ -3177,23 +3320,23 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>4</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>8</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>100</v>
       </c>
       <c r="J25" s="1">
@@ -3204,21 +3347,21 @@
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="31">
         <v>5</v>
       </c>
-      <c r="C26" s="40">
-        <v>1</v>
-      </c>
-      <c r="D26" s="41" t="s">
+      <c r="C26" s="31">
+        <v>1</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="40" t="s">
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="31" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="8">
@@ -3229,21 +3372,21 @@
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="31">
         <v>5</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="31">
         <v>2</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="40" t="s">
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="31" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="8">
@@ -3254,21 +3397,21 @@
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="31">
         <v>5</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="31">
         <v>3</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="40" t="s">
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="31" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="8">
@@ -3279,23 +3422,23 @@
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="31">
         <v>5</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="31">
         <v>4</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="42" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3303,23 +3446,23 @@
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="31">
         <v>5</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="31">
         <v>5</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="42" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J30" s="8">
@@ -3330,23 +3473,23 @@
       <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="31">
         <v>5</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="31">
         <v>6</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="42" t="s">
+      <c r="E31" s="31"/>
+      <c r="F31" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J31" s="8">
@@ -3357,23 +3500,23 @@
       <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="40">
+      <c r="B32" s="31">
         <v>5</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C32" s="31">
         <v>7</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="42" t="s">
+      <c r="E32" s="31"/>
+      <c r="F32" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J32" s="8">
@@ -3384,23 +3527,23 @@
       <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B33" s="31">
         <v>5</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="31">
         <v>8</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="42" t="s">
+      <c r="E33" s="31"/>
+      <c r="F33" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="31" t="s">
         <v>121</v>
       </c>
       <c r="J33" s="8">
@@ -3411,21 +3554,21 @@
       <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="31">
         <v>6</v>
       </c>
-      <c r="C34" s="40">
-        <v>1</v>
-      </c>
-      <c r="D34" s="41" t="s">
+      <c r="C34" s="31">
+        <v>1</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="40" t="s">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J34" s="8">
@@ -3436,21 +3579,21 @@
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="40">
+      <c r="B35" s="31">
         <v>6</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="31">
         <v>2</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="40" t="s">
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J35" s="8">
@@ -3461,21 +3604,21 @@
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="31">
         <v>6</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C36" s="31">
         <v>3</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="40" t="s">
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J36" s="8">
@@ -3486,23 +3629,23 @@
       <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B37" s="31">
         <v>6</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="31">
         <v>4</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="42" t="s">
+      <c r="E37" s="31"/>
+      <c r="F37" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="42" t="s">
+      <c r="G37" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="H37" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3510,23 +3653,23 @@
       <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="40">
+      <c r="B38" s="31">
         <v>6</v>
       </c>
-      <c r="C38" s="40">
+      <c r="C38" s="31">
         <v>5</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="42" t="s">
+      <c r="E38" s="31"/>
+      <c r="F38" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J38" s="8">
@@ -3537,23 +3680,23 @@
       <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="31">
         <v>6</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="31">
         <v>6</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="42" t="s">
+      <c r="E39" s="31"/>
+      <c r="F39" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="42" t="s">
+      <c r="G39" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J39" s="8">
@@ -3564,23 +3707,23 @@
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="31">
         <v>6</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="31">
         <v>7</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="42" t="s">
+      <c r="E40" s="31"/>
+      <c r="F40" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J40" s="8">
@@ -3591,23 +3734,23 @@
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="40">
+      <c r="B41" s="31">
         <v>6</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="31">
         <v>8</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="42" t="s">
+      <c r="E41" s="31"/>
+      <c r="F41" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="G41" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="40" t="s">
+      <c r="H41" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J41" s="8">
@@ -3618,21 +3761,21 @@
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="40">
+      <c r="B42" s="31">
         <v>7</v>
       </c>
-      <c r="C42" s="40">
-        <v>1</v>
-      </c>
-      <c r="D42" s="41" t="s">
+      <c r="C42" s="31">
+        <v>1</v>
+      </c>
+      <c r="D42" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="40" t="s">
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J42" s="8">
@@ -3643,21 +3786,21 @@
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B43" s="31">
         <v>7</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="31">
         <v>2</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="40" t="s">
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J43" s="8">
@@ -3668,21 +3811,21 @@
       <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B44" s="31">
         <v>7</v>
       </c>
-      <c r="C44" s="40">
+      <c r="C44" s="31">
         <v>3</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="40" t="s">
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="31" t="s">
         <v>95</v>
       </c>
       <c r="J44" s="8">
@@ -3693,23 +3836,23 @@
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="40">
+      <c r="B45" s="31">
         <v>7</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="31">
         <v>4</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="42" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="42" t="s">
+      <c r="G45" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3717,23 +3860,23 @@
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="40">
+      <c r="B46" s="31">
         <v>7</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="31">
         <v>5</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="42" t="s">
+      <c r="E46" s="31"/>
+      <c r="F46" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="42" t="s">
+      <c r="G46" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J46" s="8">
@@ -3744,23 +3887,23 @@
       <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="40">
+      <c r="B47" s="31">
         <v>7</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="31">
         <v>6</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="42" t="s">
+      <c r="E47" s="31"/>
+      <c r="F47" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="42" t="s">
+      <c r="G47" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H47" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J47" s="8">
@@ -3771,23 +3914,23 @@
       <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="40">
+      <c r="B48" s="31">
         <v>7</v>
       </c>
-      <c r="C48" s="40">
+      <c r="C48" s="31">
         <v>7</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="42" t="s">
+      <c r="E48" s="31"/>
+      <c r="F48" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="42" t="s">
+      <c r="G48" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J48" s="8">
@@ -3798,23 +3941,23 @@
       <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="40">
+      <c r="B49" s="31">
         <v>7</v>
       </c>
-      <c r="C49" s="40">
+      <c r="C49" s="31">
         <v>8</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="42" t="s">
+      <c r="E49" s="31"/>
+      <c r="F49" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="42" t="s">
+      <c r="G49" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="40" t="s">
+      <c r="H49" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J49" s="8">
@@ -3825,21 +3968,21 @@
       <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="40">
+      <c r="B50" s="31">
         <v>8</v>
       </c>
-      <c r="C50" s="40">
-        <v>1</v>
-      </c>
-      <c r="D50" s="41" t="s">
+      <c r="C50" s="31">
+        <v>1</v>
+      </c>
+      <c r="D50" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="40" t="s">
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J50" s="8">
@@ -3850,21 +3993,21 @@
       <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="40">
+      <c r="B51" s="31">
         <v>8</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="31">
         <v>2</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="40" t="s">
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J51" s="8">
@@ -3875,21 +4018,21 @@
       <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="40">
+      <c r="B52" s="31">
         <v>8</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="31">
         <v>3</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="40" t="s">
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J52" s="8">
@@ -3900,23 +4043,23 @@
       <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="40">
+      <c r="B53" s="31">
         <v>8</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="31">
         <v>4</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="42" t="s">
+      <c r="E53" s="31"/>
+      <c r="F53" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3924,23 +4067,23 @@
       <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="40">
+      <c r="B54" s="31">
         <v>8</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="31">
         <v>5</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="42" t="s">
+      <c r="E54" s="31"/>
+      <c r="F54" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="33" t="s">
+      <c r="H54" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J54" s="8">
@@ -3951,23 +4094,23 @@
       <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="40">
+      <c r="B55" s="31">
         <v>8</v>
       </c>
-      <c r="C55" s="40">
+      <c r="C55" s="31">
         <v>6</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D55" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="40"/>
-      <c r="F55" s="42" t="s">
+      <c r="E55" s="31"/>
+      <c r="F55" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="33" t="s">
+      <c r="H55" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J55" s="8">
@@ -3978,23 +4121,23 @@
       <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="40">
+      <c r="B56" s="31">
         <v>8</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="31">
         <v>7</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D56" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="42" t="s">
+      <c r="E56" s="31"/>
+      <c r="F56" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="33" t="s">
+      <c r="H56" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J56" s="8">
@@ -4005,23 +4148,23 @@
       <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="40">
+      <c r="B57" s="31">
         <v>8</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="31">
         <v>8</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="42" t="s">
+      <c r="E57" s="31"/>
+      <c r="F57" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="42" t="s">
+      <c r="G57" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="40" t="s">
+      <c r="H57" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J57" s="8">
@@ -4032,21 +4175,21 @@
       <c r="A58" s="8">
         <v>57</v>
       </c>
-      <c r="B58" s="40">
+      <c r="B58" s="31">
         <v>9</v>
       </c>
-      <c r="C58" s="40">
-        <v>1</v>
-      </c>
-      <c r="D58" s="41" t="s">
+      <c r="C58" s="31">
+        <v>1</v>
+      </c>
+      <c r="D58" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="40" t="s">
+      <c r="E58" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="40" t="s">
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J58" s="8">
@@ -4057,21 +4200,21 @@
       <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="40">
+      <c r="B59" s="31">
         <v>9</v>
       </c>
-      <c r="C59" s="40">
+      <c r="C59" s="31">
         <v>2</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="D59" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="40" t="s">
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J59" s="8">
@@ -4082,21 +4225,21 @@
       <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="40">
+      <c r="B60" s="31">
         <v>9</v>
       </c>
-      <c r="C60" s="40">
+      <c r="C60" s="31">
         <v>3</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="40" t="s">
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J60" s="8">
@@ -4107,23 +4250,23 @@
       <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="40">
+      <c r="B61" s="31">
         <v>9</v>
       </c>
-      <c r="C61" s="40">
+      <c r="C61" s="31">
         <v>4</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="40"/>
-      <c r="F61" s="42" t="s">
+      <c r="E61" s="31"/>
+      <c r="F61" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="42" t="s">
+      <c r="G61" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="40" t="s">
+      <c r="H61" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4131,23 +4274,23 @@
       <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="40">
+      <c r="B62" s="31">
         <v>9</v>
       </c>
-      <c r="C62" s="40">
+      <c r="C62" s="31">
         <v>5</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="40"/>
-      <c r="F62" s="42" t="s">
+      <c r="E62" s="31"/>
+      <c r="F62" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="42" t="s">
+      <c r="G62" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="33" t="s">
+      <c r="H62" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J62" s="8">
@@ -4158,23 +4301,23 @@
       <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="40">
+      <c r="B63" s="31">
         <v>9</v>
       </c>
-      <c r="C63" s="40">
+      <c r="C63" s="31">
         <v>6</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="D63" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="42" t="s">
+      <c r="E63" s="31"/>
+      <c r="F63" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G63" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="33" t="s">
+      <c r="H63" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J63" s="8">
@@ -4185,23 +4328,23 @@
       <c r="A64" s="8">
         <v>63</v>
       </c>
-      <c r="B64" s="40">
+      <c r="B64" s="31">
         <v>9</v>
       </c>
-      <c r="C64" s="40">
+      <c r="C64" s="31">
         <v>7</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="D64" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="40"/>
-      <c r="F64" s="42" t="s">
+      <c r="E64" s="31"/>
+      <c r="F64" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="42" t="s">
+      <c r="G64" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="33" t="s">
+      <c r="H64" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J64" s="8">
@@ -4212,23 +4355,23 @@
       <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="40">
+      <c r="B65" s="31">
         <v>9</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C65" s="31">
         <v>8</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="40"/>
-      <c r="F65" s="42" t="s">
+      <c r="E65" s="31"/>
+      <c r="F65" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="42" t="s">
+      <c r="G65" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="40" t="s">
+      <c r="H65" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J65" s="8">
@@ -4239,21 +4382,21 @@
       <c r="A66" s="8">
         <v>65</v>
       </c>
-      <c r="B66" s="40">
+      <c r="B66" s="31">
         <v>10</v>
       </c>
-      <c r="C66" s="40">
-        <v>1</v>
-      </c>
-      <c r="D66" s="41" t="s">
+      <c r="C66" s="31">
+        <v>1</v>
+      </c>
+      <c r="D66" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="40" t="s">
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J66" s="8">
@@ -4264,21 +4407,21 @@
       <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="40">
+      <c r="B67" s="31">
         <v>10</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="31">
         <v>2</v>
       </c>
-      <c r="D67" s="41" t="s">
+      <c r="D67" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="40" t="s">
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J67" s="8">
@@ -4289,21 +4432,21 @@
       <c r="A68" s="8">
         <v>67</v>
       </c>
-      <c r="B68" s="40">
+      <c r="B68" s="31">
         <v>10</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="31">
         <v>3</v>
       </c>
-      <c r="D68" s="41" t="s">
+      <c r="D68" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="40" t="s">
+      <c r="E68" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="40" t="s">
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J68" s="8">
@@ -4314,23 +4457,23 @@
       <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="40">
+      <c r="B69" s="31">
         <v>10</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="31">
         <v>4</v>
       </c>
-      <c r="D69" s="41" t="s">
+      <c r="D69" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="40"/>
-      <c r="F69" s="42" t="s">
+      <c r="E69" s="31"/>
+      <c r="F69" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="42" t="s">
+      <c r="G69" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H69" s="40" t="s">
+      <c r="H69" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4338,23 +4481,23 @@
       <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" s="40">
+      <c r="B70" s="31">
         <v>10</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="31">
         <v>5</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D70" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="40"/>
-      <c r="F70" s="42" t="s">
+      <c r="E70" s="31"/>
+      <c r="F70" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="42" t="s">
+      <c r="G70" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="33" t="s">
+      <c r="H70" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J70" s="8">
@@ -4365,23 +4508,23 @@
       <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="40">
+      <c r="B71" s="31">
         <v>10</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="31">
         <v>6</v>
       </c>
-      <c r="D71" s="41" t="s">
+      <c r="D71" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="40"/>
-      <c r="F71" s="42" t="s">
+      <c r="E71" s="31"/>
+      <c r="F71" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="42" t="s">
+      <c r="G71" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="33" t="s">
+      <c r="H71" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J71" s="8">
@@ -4392,23 +4535,23 @@
       <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="40">
+      <c r="B72" s="31">
         <v>10</v>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="31">
         <v>7</v>
       </c>
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="40"/>
-      <c r="F72" s="42" t="s">
+      <c r="E72" s="31"/>
+      <c r="F72" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="42" t="s">
+      <c r="G72" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="33" t="s">
+      <c r="H72" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J72" s="8">
@@ -4419,23 +4562,23 @@
       <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="40">
+      <c r="B73" s="31">
         <v>10</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="31">
         <v>8</v>
       </c>
-      <c r="D73" s="41" t="s">
+      <c r="D73" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="40"/>
-      <c r="F73" s="42" t="s">
+      <c r="E73" s="31"/>
+      <c r="F73" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="42" t="s">
+      <c r="G73" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="40" t="s">
+      <c r="H73" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J73" s="8">
@@ -4446,21 +4589,21 @@
       <c r="A74" s="8">
         <v>73</v>
       </c>
-      <c r="B74" s="40">
+      <c r="B74" s="31">
         <v>11</v>
       </c>
-      <c r="C74" s="40">
-        <v>1</v>
-      </c>
-      <c r="D74" s="41" t="s">
+      <c r="C74" s="31">
+        <v>1</v>
+      </c>
+      <c r="D74" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="40" t="s">
+      <c r="E74" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="40" t="s">
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J74" s="8">
@@ -4471,21 +4614,21 @@
       <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="40">
+      <c r="B75" s="31">
         <v>11</v>
       </c>
-      <c r="C75" s="40">
+      <c r="C75" s="31">
         <v>2</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E75" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="40" t="s">
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J75" s="8">
@@ -4496,21 +4639,21 @@
       <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="40">
+      <c r="B76" s="31">
         <v>11</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="31">
         <v>3</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="40" t="s">
+      <c r="E76" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="40" t="s">
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J76" s="8">
@@ -4521,23 +4664,23 @@
       <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="40">
+      <c r="B77" s="31">
         <v>11</v>
       </c>
-      <c r="C77" s="40">
+      <c r="C77" s="31">
         <v>4</v>
       </c>
-      <c r="D77" s="41" t="s">
+      <c r="D77" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="40"/>
-      <c r="F77" s="42" t="s">
+      <c r="E77" s="31"/>
+      <c r="F77" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="42" t="s">
+      <c r="G77" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="40" t="s">
+      <c r="H77" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4545,23 +4688,23 @@
       <c r="A78" s="8">
         <v>77</v>
       </c>
-      <c r="B78" s="40">
+      <c r="B78" s="31">
         <v>11</v>
       </c>
-      <c r="C78" s="40">
+      <c r="C78" s="31">
         <v>5</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="40"/>
-      <c r="F78" s="42" t="s">
+      <c r="E78" s="31"/>
+      <c r="F78" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="42" t="s">
+      <c r="G78" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="33" t="s">
+      <c r="H78" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J78" s="8">
@@ -4572,23 +4715,23 @@
       <c r="A79" s="8">
         <v>78</v>
       </c>
-      <c r="B79" s="40">
+      <c r="B79" s="31">
         <v>11</v>
       </c>
-      <c r="C79" s="40">
+      <c r="C79" s="31">
         <v>6</v>
       </c>
-      <c r="D79" s="41" t="s">
+      <c r="D79" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E79" s="40"/>
-      <c r="F79" s="42" t="s">
+      <c r="E79" s="31"/>
+      <c r="F79" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="42" t="s">
+      <c r="G79" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H79" s="33" t="s">
+      <c r="H79" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J79" s="8">
@@ -4599,23 +4742,23 @@
       <c r="A80" s="8">
         <v>79</v>
       </c>
-      <c r="B80" s="40">
+      <c r="B80" s="31">
         <v>11</v>
       </c>
-      <c r="C80" s="40">
+      <c r="C80" s="31">
         <v>7</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D80" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="40"/>
-      <c r="F80" s="42" t="s">
+      <c r="E80" s="31"/>
+      <c r="F80" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="42" t="s">
+      <c r="G80" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="33" t="s">
+      <c r="H80" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J80" s="8">
@@ -4626,23 +4769,23 @@
       <c r="A81" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="40">
+      <c r="B81" s="31">
         <v>11</v>
       </c>
-      <c r="C81" s="40">
+      <c r="C81" s="31">
         <v>8</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="40"/>
-      <c r="F81" s="42" t="s">
+      <c r="E81" s="31"/>
+      <c r="F81" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="42" t="s">
+      <c r="G81" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="40" t="s">
+      <c r="H81" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J81" s="8">
@@ -4653,21 +4796,21 @@
       <c r="A82" s="8">
         <v>81</v>
       </c>
-      <c r="B82" s="40">
+      <c r="B82" s="31">
         <v>12</v>
       </c>
-      <c r="C82" s="40">
-        <v>1</v>
-      </c>
-      <c r="D82" s="41" t="s">
+      <c r="C82" s="31">
+        <v>1</v>
+      </c>
+      <c r="D82" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="40" t="s">
+      <c r="E82" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="40" t="s">
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J82" s="8">
@@ -4678,21 +4821,21 @@
       <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="40">
+      <c r="B83" s="31">
         <v>12</v>
       </c>
-      <c r="C83" s="40">
+      <c r="C83" s="31">
         <v>2</v>
       </c>
-      <c r="D83" s="41" t="s">
+      <c r="D83" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="40" t="s">
+      <c r="E83" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="40" t="s">
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J83" s="8">
@@ -4703,21 +4846,21 @@
       <c r="A84" s="8">
         <v>83</v>
       </c>
-      <c r="B84" s="40">
+      <c r="B84" s="31">
         <v>12</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="31">
         <v>3</v>
       </c>
-      <c r="D84" s="41" t="s">
+      <c r="D84" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="40" t="s">
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J84" s="8">
@@ -4728,23 +4871,23 @@
       <c r="A85" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="40">
+      <c r="B85" s="31">
         <v>12</v>
       </c>
-      <c r="C85" s="40">
+      <c r="C85" s="31">
         <v>4</v>
       </c>
-      <c r="D85" s="41" t="s">
+      <c r="D85" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="40"/>
-      <c r="F85" s="42" t="s">
+      <c r="E85" s="31"/>
+      <c r="F85" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="42" t="s">
+      <c r="G85" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H85" s="40" t="s">
+      <c r="H85" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4752,23 +4895,23 @@
       <c r="A86" s="8">
         <v>85</v>
       </c>
-      <c r="B86" s="40">
+      <c r="B86" s="31">
         <v>12</v>
       </c>
-      <c r="C86" s="40">
+      <c r="C86" s="31">
         <v>5</v>
       </c>
-      <c r="D86" s="41" t="s">
+      <c r="D86" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="40"/>
-      <c r="F86" s="42" t="s">
+      <c r="E86" s="31"/>
+      <c r="F86" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="42" t="s">
+      <c r="G86" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="33" t="s">
+      <c r="H86" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J86" s="8">
@@ -4779,23 +4922,23 @@
       <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="40">
+      <c r="B87" s="31">
         <v>12</v>
       </c>
-      <c r="C87" s="40">
+      <c r="C87" s="31">
         <v>6</v>
       </c>
-      <c r="D87" s="41" t="s">
+      <c r="D87" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="40"/>
-      <c r="F87" s="42" t="s">
+      <c r="E87" s="31"/>
+      <c r="F87" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="42" t="s">
+      <c r="G87" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H87" s="33" t="s">
+      <c r="H87" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J87" s="8">
@@ -4806,23 +4949,23 @@
       <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" s="40">
+      <c r="B88" s="31">
         <v>12</v>
       </c>
-      <c r="C88" s="40">
+      <c r="C88" s="31">
         <v>7</v>
       </c>
-      <c r="D88" s="41" t="s">
+      <c r="D88" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="40"/>
-      <c r="F88" s="42" t="s">
+      <c r="E88" s="31"/>
+      <c r="F88" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="42" t="s">
+      <c r="G88" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="33" t="s">
+      <c r="H88" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J88" s="8">
@@ -4833,23 +4976,23 @@
       <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="40">
+      <c r="B89" s="31">
         <v>12</v>
       </c>
-      <c r="C89" s="40">
+      <c r="C89" s="31">
         <v>8</v>
       </c>
-      <c r="D89" s="41" t="s">
+      <c r="D89" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="40"/>
-      <c r="F89" s="42" t="s">
+      <c r="E89" s="31"/>
+      <c r="F89" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="42" t="s">
+      <c r="G89" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="40" t="s">
+      <c r="H89" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J89" s="8">
@@ -4860,21 +5003,21 @@
       <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="B90" s="40">
+      <c r="B90" s="31">
         <v>13</v>
       </c>
-      <c r="C90" s="40">
-        <v>1</v>
-      </c>
-      <c r="D90" s="41" t="s">
+      <c r="C90" s="31">
+        <v>1</v>
+      </c>
+      <c r="D90" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E90" s="40" t="s">
+      <c r="E90" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="40" t="s">
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J90" s="8">
@@ -4885,21 +5028,21 @@
       <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="40">
+      <c r="B91" s="31">
         <v>13</v>
       </c>
-      <c r="C91" s="40">
+      <c r="C91" s="31">
         <v>2</v>
       </c>
-      <c r="D91" s="41" t="s">
+      <c r="D91" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E91" s="40" t="s">
+      <c r="E91" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="F91" s="42"/>
-      <c r="G91" s="42"/>
-      <c r="H91" s="40" t="s">
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J91" s="8">
@@ -4910,21 +5053,21 @@
       <c r="A92" s="8">
         <v>91</v>
       </c>
-      <c r="B92" s="40">
+      <c r="B92" s="31">
         <v>13</v>
       </c>
-      <c r="C92" s="40">
+      <c r="C92" s="31">
         <v>3</v>
       </c>
-      <c r="D92" s="41" t="s">
+      <c r="D92" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="40" t="s">
+      <c r="E92" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="40" t="s">
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J92" s="8">
@@ -4935,23 +5078,23 @@
       <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="40">
+      <c r="B93" s="31">
         <v>13</v>
       </c>
-      <c r="C93" s="40">
+      <c r="C93" s="31">
         <v>4</v>
       </c>
-      <c r="D93" s="41" t="s">
+      <c r="D93" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E93" s="40"/>
-      <c r="F93" s="42" t="s">
+      <c r="E93" s="31"/>
+      <c r="F93" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="42" t="s">
+      <c r="G93" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="40" t="s">
+      <c r="H93" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4959,23 +5102,23 @@
       <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="40">
+      <c r="B94" s="31">
         <v>13</v>
       </c>
-      <c r="C94" s="40">
+      <c r="C94" s="31">
         <v>5</v>
       </c>
-      <c r="D94" s="41" t="s">
+      <c r="D94" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E94" s="40"/>
-      <c r="F94" s="42" t="s">
+      <c r="E94" s="31"/>
+      <c r="F94" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G94" s="42" t="s">
+      <c r="G94" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="33" t="s">
+      <c r="H94" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J94" s="8">
@@ -4986,23 +5129,23 @@
       <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="40">
+      <c r="B95" s="31">
         <v>13</v>
       </c>
-      <c r="C95" s="40">
+      <c r="C95" s="31">
         <v>6</v>
       </c>
-      <c r="D95" s="41" t="s">
+      <c r="D95" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E95" s="40"/>
-      <c r="F95" s="42" t="s">
+      <c r="E95" s="31"/>
+      <c r="F95" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G95" s="42" t="s">
+      <c r="G95" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H95" s="33" t="s">
+      <c r="H95" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J95" s="8">
@@ -5013,23 +5156,23 @@
       <c r="A96" s="8">
         <v>95</v>
       </c>
-      <c r="B96" s="40">
+      <c r="B96" s="31">
         <v>13</v>
       </c>
-      <c r="C96" s="40">
+      <c r="C96" s="31">
         <v>7</v>
       </c>
-      <c r="D96" s="41" t="s">
+      <c r="D96" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="40"/>
-      <c r="F96" s="42" t="s">
+      <c r="E96" s="31"/>
+      <c r="F96" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G96" s="42" t="s">
+      <c r="G96" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H96" s="33" t="s">
+      <c r="H96" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J96" s="8">
@@ -5040,23 +5183,23 @@
       <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="40">
+      <c r="B97" s="31">
         <v>13</v>
       </c>
-      <c r="C97" s="40">
+      <c r="C97" s="31">
         <v>8</v>
       </c>
-      <c r="D97" s="41" t="s">
+      <c r="D97" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="40"/>
-      <c r="F97" s="42" t="s">
+      <c r="E97" s="31"/>
+      <c r="F97" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="42" t="s">
+      <c r="G97" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="40" t="s">
+      <c r="H97" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J97" s="8">
@@ -5067,21 +5210,21 @@
       <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="40">
+      <c r="B98" s="31">
         <v>14</v>
       </c>
-      <c r="C98" s="40">
-        <v>1</v>
-      </c>
-      <c r="D98" s="41" t="s">
+      <c r="C98" s="31">
+        <v>1</v>
+      </c>
+      <c r="D98" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E98" s="40" t="s">
+      <c r="E98" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="40" t="s">
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="31" t="s">
         <v>93</v>
       </c>
       <c r="J98" s="8">
@@ -5092,21 +5235,21 @@
       <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99" s="40">
+      <c r="B99" s="31">
         <v>14</v>
       </c>
-      <c r="C99" s="40">
+      <c r="C99" s="31">
         <v>2</v>
       </c>
-      <c r="D99" s="41" t="s">
+      <c r="D99" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E99" s="40" t="s">
+      <c r="E99" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="40" t="s">
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="31" t="s">
         <v>94</v>
       </c>
       <c r="J99" s="8">
@@ -5117,21 +5260,21 @@
       <c r="A100" s="8">
         <v>99</v>
       </c>
-      <c r="B100" s="40">
+      <c r="B100" s="31">
         <v>14</v>
       </c>
-      <c r="C100" s="40">
+      <c r="C100" s="31">
         <v>3</v>
       </c>
-      <c r="D100" s="41" t="s">
+      <c r="D100" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="40" t="s">
+      <c r="E100" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="40" t="s">
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="31" t="s">
         <v>55</v>
       </c>
       <c r="J100" s="8">
@@ -5142,23 +5285,23 @@
       <c r="A101" s="8">
         <v>100</v>
       </c>
-      <c r="B101" s="40">
+      <c r="B101" s="31">
         <v>14</v>
       </c>
-      <c r="C101" s="40">
+      <c r="C101" s="31">
         <v>4</v>
       </c>
-      <c r="D101" s="41" t="s">
+      <c r="D101" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="40"/>
-      <c r="F101" s="42" t="s">
+      <c r="E101" s="31"/>
+      <c r="F101" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="42" t="s">
+      <c r="G101" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H101" s="40" t="s">
+      <c r="H101" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5166,23 +5309,23 @@
       <c r="A102" s="8">
         <v>101</v>
       </c>
-      <c r="B102" s="40">
+      <c r="B102" s="31">
         <v>14</v>
       </c>
-      <c r="C102" s="40">
+      <c r="C102" s="31">
         <v>5</v>
       </c>
-      <c r="D102" s="41" t="s">
+      <c r="D102" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E102" s="40"/>
-      <c r="F102" s="42" t="s">
+      <c r="E102" s="31"/>
+      <c r="F102" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="42" t="s">
+      <c r="G102" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="33" t="s">
+      <c r="H102" s="26" t="s">
         <v>130</v>
       </c>
       <c r="J102" s="8">
@@ -5193,23 +5336,23 @@
       <c r="A103" s="8">
         <v>102</v>
       </c>
-      <c r="B103" s="40">
+      <c r="B103" s="31">
         <v>14</v>
       </c>
-      <c r="C103" s="40">
+      <c r="C103" s="31">
         <v>6</v>
       </c>
-      <c r="D103" s="41" t="s">
+      <c r="D103" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E103" s="40"/>
-      <c r="F103" s="42" t="s">
+      <c r="E103" s="31"/>
+      <c r="F103" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="42" t="s">
+      <c r="G103" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H103" s="33" t="s">
+      <c r="H103" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J103" s="8">
@@ -5220,23 +5363,23 @@
       <c r="A104" s="8">
         <v>103</v>
       </c>
-      <c r="B104" s="40">
+      <c r="B104" s="31">
         <v>14</v>
       </c>
-      <c r="C104" s="40">
+      <c r="C104" s="31">
         <v>7</v>
       </c>
-      <c r="D104" s="41" t="s">
+      <c r="D104" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="40"/>
-      <c r="F104" s="42" t="s">
+      <c r="E104" s="31"/>
+      <c r="F104" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G104" s="42" t="s">
+      <c r="G104" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H104" s="33" t="s">
+      <c r="H104" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J104" s="8">
@@ -5247,23 +5390,23 @@
       <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="40">
+      <c r="B105" s="31">
         <v>14</v>
       </c>
-      <c r="C105" s="40">
+      <c r="C105" s="31">
         <v>8</v>
       </c>
-      <c r="D105" s="41" t="s">
+      <c r="D105" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E105" s="40"/>
-      <c r="F105" s="42" t="s">
+      <c r="E105" s="31"/>
+      <c r="F105" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G105" s="42" t="s">
+      <c r="G105" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H105" s="40" t="s">
+      <c r="H105" s="31" t="s">
         <v>100</v>
       </c>
       <c r="J105" s="8">
@@ -5274,25 +5417,24 @@
       <c r="A106" s="8">
         <v>105</v>
       </c>
-      <c r="B106" s="26">
+      <c r="B106" s="31">
         <v>15</v>
       </c>
-      <c r="C106" s="26">
-        <v>1</v>
-      </c>
-      <c r="D106" s="27" t="s">
+      <c r="C106" s="31">
+        <v>1</v>
+      </c>
+      <c r="D106" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E106" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="26" t="s">
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25">
+      <c r="J106" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5300,25 +5442,24 @@
       <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="26">
+      <c r="B107" s="31">
         <v>15</v>
       </c>
-      <c r="C107" s="26">
+      <c r="C107" s="31">
         <v>2</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E107" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="26" t="s">
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="I107" s="25"/>
-      <c r="J107" s="25">
+      <c r="J107" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5326,25 +5467,24 @@
       <c r="A108" s="8">
         <v>107</v>
       </c>
-      <c r="B108" s="26">
+      <c r="B108" s="31">
         <v>15</v>
       </c>
-      <c r="C108" s="26">
+      <c r="C108" s="31">
         <v>3</v>
       </c>
-      <c r="D108" s="27" t="s">
+      <c r="D108" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="26" t="s">
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I108" s="25"/>
-      <c r="J108" s="25">
+      <c r="J108" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5352,53 +5492,50 @@
       <c r="A109" s="8">
         <v>108</v>
       </c>
-      <c r="B109" s="26">
+      <c r="B109" s="31">
         <v>15</v>
       </c>
-      <c r="C109" s="26">
+      <c r="C109" s="31">
         <v>4</v>
       </c>
-      <c r="D109" s="27" t="s">
+      <c r="D109" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E109" s="26"/>
-      <c r="F109" s="28" t="s">
+      <c r="E109" s="31"/>
+      <c r="F109" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G109" s="28" t="s">
+      <c r="G109" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H109" s="26" t="s">
+      <c r="H109" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="I109" s="25"/>
-      <c r="J109" s="25"/>
     </row>
     <row r="110" spans="1:10" s="8" customFormat="1" ht="16.5">
       <c r="A110" s="8">
         <v>109</v>
       </c>
-      <c r="B110" s="26">
+      <c r="B110" s="31">
         <v>15</v>
       </c>
-      <c r="C110" s="26">
+      <c r="C110" s="31">
         <v>5</v>
       </c>
-      <c r="D110" s="27" t="s">
+      <c r="D110" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E110" s="26"/>
-      <c r="F110" s="44" t="s">
+      <c r="E110" s="31"/>
+      <c r="F110" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="G110" s="28" t="s">
+      <c r="G110" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="H110" s="29" t="s">
+      <c r="H110" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I110" s="25"/>
-      <c r="J110" s="25">
+      <c r="J110" s="8">
         <v>3</v>
       </c>
     </row>
@@ -5406,27 +5543,26 @@
       <c r="A111" s="8">
         <v>110</v>
       </c>
-      <c r="B111" s="26">
+      <c r="B111" s="31">
         <v>15</v>
       </c>
-      <c r="C111" s="26">
+      <c r="C111" s="31">
         <v>6</v>
       </c>
-      <c r="D111" s="27" t="s">
+      <c r="D111" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E111" s="26"/>
-      <c r="F111" s="44" t="s">
+      <c r="E111" s="31"/>
+      <c r="F111" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="G111" s="28" t="s">
+      <c r="G111" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H111" s="29" t="s">
+      <c r="H111" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="I111" s="25"/>
-      <c r="J111" s="25">
+      <c r="J111" s="8">
         <v>2</v>
       </c>
     </row>
@@ -5434,27 +5570,26 @@
       <c r="A112" s="8">
         <v>111</v>
       </c>
-      <c r="B112" s="26">
+      <c r="B112" s="31">
         <v>15</v>
       </c>
-      <c r="C112" s="26">
+      <c r="C112" s="31">
         <v>7</v>
       </c>
-      <c r="D112" s="27" t="s">
+      <c r="D112" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E112" s="26"/>
-      <c r="F112" s="28" t="s">
+      <c r="E112" s="31"/>
+      <c r="F112" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G112" s="28" t="s">
+      <c r="G112" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H112" s="29" t="s">
+      <c r="H112" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="I112" s="25"/>
-      <c r="J112" s="25">
+      <c r="J112" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5462,27 +5597,26 @@
       <c r="A113" s="8">
         <v>112</v>
       </c>
-      <c r="B113" s="26">
+      <c r="B113" s="31">
         <v>15</v>
       </c>
-      <c r="C113" s="26">
+      <c r="C113" s="31">
         <v>8</v>
       </c>
-      <c r="D113" s="27" t="s">
+      <c r="D113" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E113" s="26"/>
-      <c r="F113" s="44" t="s">
+      <c r="E113" s="31"/>
+      <c r="F113" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="G113" s="28" t="s">
+      <c r="G113" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="H113" s="26" t="s">
+      <c r="H113" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25">
+      <c r="J113" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5490,25 +5624,24 @@
       <c r="A114" s="8">
         <v>113</v>
       </c>
-      <c r="B114" s="23">
+      <c r="B114" s="31">
         <v>16</v>
       </c>
-      <c r="C114" s="23">
-        <v>1</v>
-      </c>
-      <c r="D114" s="43" t="s">
+      <c r="C114" s="31">
+        <v>1</v>
+      </c>
+      <c r="D114" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E114" s="23" t="s">
+      <c r="E114" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="23" t="s">
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I114" s="21"/>
-      <c r="J114" s="21">
+      <c r="J114" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5516,25 +5649,24 @@
       <c r="A115" s="8">
         <v>114</v>
       </c>
-      <c r="B115" s="23">
+      <c r="B115" s="31">
         <v>16</v>
       </c>
-      <c r="C115" s="23">
+      <c r="C115" s="31">
         <v>2</v>
       </c>
-      <c r="D115" s="43" t="s">
+      <c r="D115" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E115" s="23" t="s">
+      <c r="E115" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="23" t="s">
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21">
+      <c r="J115" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5542,25 +5674,24 @@
       <c r="A116" s="8">
         <v>115</v>
       </c>
-      <c r="B116" s="23">
+      <c r="B116" s="31">
         <v>16</v>
       </c>
-      <c r="C116" s="23">
+      <c r="C116" s="31">
         <v>3</v>
       </c>
-      <c r="D116" s="43" t="s">
+      <c r="D116" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="E116" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="23" t="s">
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I116" s="21"/>
-      <c r="J116" s="21">
+      <c r="J116" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5568,53 +5699,50 @@
       <c r="A117" s="8">
         <v>116</v>
       </c>
-      <c r="B117" s="23">
+      <c r="B117" s="31">
         <v>16</v>
       </c>
-      <c r="C117" s="23">
+      <c r="C117" s="31">
         <v>4</v>
       </c>
-      <c r="D117" s="43" t="s">
+      <c r="D117" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E117" s="23"/>
-      <c r="F117" s="24" t="s">
+      <c r="E117" s="31"/>
+      <c r="F117" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G117" s="24" t="s">
+      <c r="G117" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H117" s="23" t="s">
+      <c r="H117" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="I117" s="21"/>
-      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="1:10" s="8" customFormat="1">
       <c r="A118" s="8">
         <v>117</v>
       </c>
-      <c r="B118" s="23">
+      <c r="B118" s="31">
         <v>16</v>
       </c>
-      <c r="C118" s="23">
+      <c r="C118" s="31">
         <v>5</v>
       </c>
-      <c r="D118" s="43" t="s">
+      <c r="D118" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E118" s="23"/>
-      <c r="F118" s="24" t="s">
+      <c r="E118" s="31"/>
+      <c r="F118" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G118" s="24" t="s">
+      <c r="G118" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H118" s="22" t="s">
+      <c r="H118" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I118" s="21"/>
-      <c r="J118" s="21">
+      <c r="J118" s="8">
         <v>3</v>
       </c>
     </row>
@@ -5622,27 +5750,26 @@
       <c r="A119" s="8">
         <v>118</v>
       </c>
-      <c r="B119" s="23">
+      <c r="B119" s="31">
         <v>16</v>
       </c>
-      <c r="C119" s="23">
+      <c r="C119" s="31">
         <v>6</v>
       </c>
-      <c r="D119" s="43" t="s">
+      <c r="D119" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E119" s="23"/>
-      <c r="F119" s="22" t="s">
+      <c r="E119" s="31"/>
+      <c r="F119" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="G119" s="24" t="s">
+      <c r="G119" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="22" t="s">
+      <c r="H119" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21">
+      <c r="J119" s="8">
         <v>2</v>
       </c>
     </row>
@@ -5650,27 +5777,26 @@
       <c r="A120" s="8">
         <v>119</v>
       </c>
-      <c r="B120" s="23">
+      <c r="B120" s="31">
         <v>16</v>
       </c>
-      <c r="C120" s="23">
+      <c r="C120" s="31">
         <v>7</v>
       </c>
-      <c r="D120" s="43" t="s">
+      <c r="D120" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E120" s="23"/>
-      <c r="F120" s="24" t="s">
+      <c r="E120" s="31"/>
+      <c r="F120" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G120" s="24" t="s">
+      <c r="G120" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H120" s="22" t="s">
+      <c r="H120" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="I120" s="21"/>
-      <c r="J120" s="21">
+      <c r="J120" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5678,398 +5804,670 @@
       <c r="A121" s="8">
         <v>120</v>
       </c>
-      <c r="B121" s="23">
+      <c r="B121" s="31">
         <v>16</v>
       </c>
-      <c r="C121" s="23">
+      <c r="C121" s="31">
         <v>8</v>
       </c>
-      <c r="D121" s="43" t="s">
+      <c r="D121" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E121" s="23"/>
-      <c r="F121" s="22" t="s">
+      <c r="E121" s="31"/>
+      <c r="F121" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="G121" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="H121" s="23" t="s">
+      <c r="G121" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H121" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="I121" s="21"/>
-      <c r="J121" s="21">
+      <c r="J121" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:10" s="8" customFormat="1">
-      <c r="A122" s="9"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="13"/>
+      <c r="A122" s="8">
+        <v>121</v>
+      </c>
+      <c r="B122" s="19">
+        <v>17</v>
+      </c>
+      <c r="C122" s="19">
+        <v>1</v>
+      </c>
+      <c r="D122" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:10" s="8" customFormat="1">
-      <c r="A123" s="9"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="13"/>
+      <c r="A123" s="8">
+        <v>122</v>
+      </c>
+      <c r="B123" s="19">
+        <v>17</v>
+      </c>
+      <c r="C123" s="19">
+        <v>2</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:10" s="8" customFormat="1">
-      <c r="A124" s="9"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="13"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="13"/>
+      <c r="A124" s="8">
+        <v>123</v>
+      </c>
+      <c r="B124" s="19">
+        <v>17</v>
+      </c>
+      <c r="C124" s="19">
+        <v>3</v>
+      </c>
+      <c r="D124" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F124" s="17"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:10" s="8" customFormat="1">
-      <c r="A125" s="9"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="13"/>
-    </row>
-    <row r="126" spans="1:10" s="8" customFormat="1">
-      <c r="A126" s="9"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="13"/>
-    </row>
-    <row r="127" spans="1:10" s="8" customFormat="1">
-      <c r="A127" s="9"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="13"/>
+      <c r="A125" s="8">
+        <v>124</v>
+      </c>
+      <c r="B125" s="19">
+        <v>17</v>
+      </c>
+      <c r="C125" s="19">
+        <v>4</v>
+      </c>
+      <c r="D125" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E125" s="19"/>
+      <c r="F125" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G125" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H125" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+    </row>
+    <row r="126" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A126" s="8">
+        <v>125</v>
+      </c>
+      <c r="B126" s="19">
+        <v>17</v>
+      </c>
+      <c r="C126" s="19">
+        <v>5</v>
+      </c>
+      <c r="D126" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E126" s="19"/>
+      <c r="F126" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G126" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A127" s="8">
+        <v>126</v>
+      </c>
+      <c r="B127" s="19">
+        <v>17</v>
+      </c>
+      <c r="C127" s="19">
+        <v>6</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G127" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H127" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="128" spans="1:10" s="8" customFormat="1">
-      <c r="A128" s="9"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="13"/>
-    </row>
-    <row r="129" spans="1:8" s="8" customFormat="1">
-      <c r="A129" s="9"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="13"/>
-    </row>
-    <row r="130" spans="1:8" s="8" customFormat="1">
-      <c r="A130" s="9"/>
-      <c r="B130" s="13"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="13"/>
-    </row>
-    <row r="131" spans="1:8" s="8" customFormat="1">
-      <c r="A131" s="9"/>
-      <c r="B131" s="13"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="13"/>
-    </row>
-    <row r="132" spans="1:8" s="8" customFormat="1">
-      <c r="A132" s="9"/>
-      <c r="B132" s="13"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="13"/>
-    </row>
-    <row r="133" spans="1:8" s="8" customFormat="1">
-      <c r="A133" s="9"/>
-      <c r="B133" s="13"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="13"/>
-    </row>
-    <row r="134" spans="1:8" s="8" customFormat="1">
-      <c r="A134" s="9"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="13"/>
-    </row>
-    <row r="135" spans="1:8" s="8" customFormat="1">
-      <c r="A135" s="9"/>
-      <c r="B135" s="13"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="13"/>
-    </row>
-    <row r="136" spans="1:8" s="8" customFormat="1">
-      <c r="A136" s="9"/>
-      <c r="B136" s="13"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="13"/>
-    </row>
-    <row r="137" spans="1:8" s="8" customFormat="1">
-      <c r="A137" s="9"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="13"/>
-    </row>
-    <row r="138" spans="1:8" s="8" customFormat="1">
+      <c r="A128" s="8">
+        <v>127</v>
+      </c>
+      <c r="B128" s="19">
+        <v>17</v>
+      </c>
+      <c r="C128" s="19">
+        <v>7</v>
+      </c>
+      <c r="D128" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E128" s="19"/>
+      <c r="F128" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G128" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H128" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A129" s="8">
+        <v>128</v>
+      </c>
+      <c r="B129" s="19">
+        <v>17</v>
+      </c>
+      <c r="C129" s="19">
+        <v>8</v>
+      </c>
+      <c r="D129" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E129" s="19"/>
+      <c r="F129" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="G129" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H129" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="8" customFormat="1">
+      <c r="A130" s="8">
+        <v>129</v>
+      </c>
+      <c r="B130" s="22">
+        <v>18</v>
+      </c>
+      <c r="C130" s="22">
+        <v>1</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="I130" s="21"/>
+      <c r="J130" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="8" customFormat="1">
+      <c r="A131" s="8">
+        <v>130</v>
+      </c>
+      <c r="B131" s="22">
+        <v>18</v>
+      </c>
+      <c r="C131" s="22">
+        <v>2</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I131" s="21"/>
+      <c r="J131" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="8" customFormat="1">
+      <c r="A132" s="8">
+        <v>131</v>
+      </c>
+      <c r="B132" s="22">
+        <v>18</v>
+      </c>
+      <c r="C132" s="22">
+        <v>3</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="I132" s="21"/>
+      <c r="J132" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="8" customFormat="1">
+      <c r="A133" s="8">
+        <v>132</v>
+      </c>
+      <c r="B133" s="22">
+        <v>18</v>
+      </c>
+      <c r="C133" s="22">
+        <v>4</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E133" s="22"/>
+      <c r="F133" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H133" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21"/>
+    </row>
+    <row r="134" spans="1:10" s="8" customFormat="1">
+      <c r="A134" s="8">
+        <v>133</v>
+      </c>
+      <c r="B134" s="22">
+        <v>18</v>
+      </c>
+      <c r="C134" s="22">
+        <v>5</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E134" s="22"/>
+      <c r="F134" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H134" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="I134" s="21"/>
+      <c r="J134" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="8" customFormat="1">
+      <c r="A135" s="8">
+        <v>134</v>
+      </c>
+      <c r="B135" s="22">
+        <v>18</v>
+      </c>
+      <c r="C135" s="22">
+        <v>6</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E135" s="22"/>
+      <c r="F135" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H135" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="I135" s="21"/>
+      <c r="J135" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="8" customFormat="1">
+      <c r="A136" s="8">
+        <v>135</v>
+      </c>
+      <c r="B136" s="22">
+        <v>18</v>
+      </c>
+      <c r="C136" s="22">
+        <v>7</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E136" s="22"/>
+      <c r="F136" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G136" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H136" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="I136" s="21"/>
+      <c r="J136" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="8" customFormat="1">
+      <c r="A137" s="8">
+        <v>136</v>
+      </c>
+      <c r="B137" s="22">
+        <v>18</v>
+      </c>
+      <c r="C137" s="22">
+        <v>8</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E137" s="22"/>
+      <c r="F137" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G137" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="8" customFormat="1">
       <c r="A138" s="9"/>
-      <c r="B138" s="13"/>
-      <c r="C138" s="9"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="9"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="13"/>
-    </row>
-    <row r="139" spans="1:8" s="8" customFormat="1">
+      <c r="E138" s="12"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="12"/>
+    </row>
+    <row r="139" spans="1:10" s="8" customFormat="1">
       <c r="A139" s="9"/>
-      <c r="B139" s="13"/>
-      <c r="C139" s="9"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
       <c r="D139" s="9"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="13"/>
-    </row>
-    <row r="140" spans="1:8" s="8" customFormat="1">
+      <c r="E139" s="12"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="12"/>
+    </row>
+    <row r="140" spans="1:10" s="8" customFormat="1">
       <c r="A140" s="9"/>
-      <c r="B140" s="13"/>
-      <c r="C140" s="9"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
       <c r="D140" s="9"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="13"/>
-    </row>
-    <row r="141" spans="1:8" s="8" customFormat="1">
+      <c r="E140" s="12"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="12"/>
+    </row>
+    <row r="141" spans="1:10" s="8" customFormat="1">
       <c r="A141" s="9"/>
-      <c r="B141" s="13"/>
-      <c r="C141" s="9"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
       <c r="D141" s="9"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="13"/>
-    </row>
-    <row r="142" spans="1:8" s="8" customFormat="1">
+      <c r="E141" s="12"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="12"/>
+    </row>
+    <row r="142" spans="1:10" s="8" customFormat="1">
       <c r="A142" s="9"/>
-      <c r="B142" s="13"/>
-      <c r="C142" s="9"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
       <c r="D142" s="9"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="13"/>
-    </row>
-    <row r="143" spans="1:8" s="8" customFormat="1">
+      <c r="E142" s="12"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="12"/>
+    </row>
+    <row r="143" spans="1:10" s="8" customFormat="1">
       <c r="A143" s="9"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="9"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="13"/>
-    </row>
-    <row r="144" spans="1:8" s="8" customFormat="1">
+      <c r="E143" s="12"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="12"/>
+    </row>
+    <row r="144" spans="1:10" s="8" customFormat="1">
       <c r="A144" s="9"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="9"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
       <c r="D144" s="9"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="13"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="12"/>
     </row>
     <row r="145" spans="1:12" s="8" customFormat="1">
       <c r="A145" s="9"/>
-      <c r="B145" s="13"/>
-      <c r="C145" s="9"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
       <c r="D145" s="9"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="13"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="12"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="9"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="9"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
       <c r="D146" s="9"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="13"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="12"/>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="9"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="9"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
       <c r="D147" s="9"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="13"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="12"/>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="9"/>
-      <c r="B148" s="13"/>
-      <c r="C148" s="9"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
       <c r="D148" s="9"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="13"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="12"/>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="9"/>
-      <c r="B149" s="13"/>
-      <c r="C149" s="9"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
       <c r="D149" s="9"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="13"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="12"/>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="9"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="9"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
       <c r="D150" s="9"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="13"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="12"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="9"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="9"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
       <c r="D151" s="9"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="13"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="12"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="9"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="9"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
       <c r="D152" s="9"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="13"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="12"/>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="9"/>
-      <c r="B153" s="13"/>
-      <c r="C153" s="9"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
       <c r="D153" s="9"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="13"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="12"/>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="9"/>
-      <c r="B154" s="13"/>
-      <c r="C154" s="9"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
       <c r="D154" s="9"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="13"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="12"/>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="9"/>
-      <c r="B155" s="13"/>
-      <c r="C155" s="9"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
       <c r="D155" s="9"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="13"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="12"/>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="9"/>
-      <c r="B156" s="13"/>
-      <c r="C156" s="9"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
       <c r="D156" s="9"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="13"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="12"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="9"/>
-      <c r="B157" s="13"/>
-      <c r="C157" s="9"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
       <c r="D157" s="9"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="13"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="12"/>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="9"/>
-      <c r="B158" s="13"/>
-      <c r="C158" s="9"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
       <c r="D158" s="9"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="13"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="12"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
@@ -6077,13 +6475,13 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="9"/>
-      <c r="B159" s="13"/>
-      <c r="C159" s="9"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
       <c r="D159" s="9"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="13"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="12"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
@@ -6091,13 +6489,13 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="9"/>
-      <c r="B160" s="13"/>
-      <c r="C160" s="9"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
       <c r="D160" s="9"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="13"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="12"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
@@ -6105,13 +6503,13 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="9"/>
-      <c r="B161" s="13"/>
-      <c r="C161" s="9"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
       <c r="D161" s="9"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="13"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="12"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
@@ -6119,13 +6517,13 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="9"/>
-      <c r="B162" s="13"/>
-      <c r="C162" s="9"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
       <c r="D162" s="9"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="13"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="12"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
@@ -6133,13 +6531,13 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="9"/>
-      <c r="B163" s="13"/>
-      <c r="C163" s="9"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
       <c r="D163" s="9"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="13"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="12"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
@@ -6147,13 +6545,13 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="9"/>
-      <c r="B164" s="13"/>
-      <c r="C164" s="9"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
       <c r="D164" s="9"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="13"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="12"/>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
@@ -6161,13 +6559,13 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="9"/>
-      <c r="B165" s="13"/>
-      <c r="C165" s="9"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
       <c r="D165" s="9"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="13"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="12"/>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
@@ -6175,13 +6573,13 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="9"/>
-      <c r="B166" s="13"/>
-      <c r="C166" s="9"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
       <c r="D166" s="9"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="13"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="12"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
@@ -6189,13 +6587,13 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="9"/>
-      <c r="B167" s="13"/>
-      <c r="C167" s="9"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
       <c r="D167" s="9"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="13"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="12"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
@@ -6203,13 +6601,13 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="9"/>
-      <c r="B168" s="13"/>
-      <c r="C168" s="9"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
       <c r="D168" s="9"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="13"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="12"/>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
@@ -6217,13 +6615,13 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="9"/>
-      <c r="B169" s="13"/>
-      <c r="C169" s="9"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
       <c r="D169" s="9"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="13"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="12"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
@@ -6231,13 +6629,13 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="9"/>
-      <c r="B170" s="13"/>
-      <c r="C170" s="9"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
       <c r="D170" s="9"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="13"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
+      <c r="H170" s="12"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
@@ -6245,13 +6643,13 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="9"/>
-      <c r="B171" s="13"/>
-      <c r="C171" s="9"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
       <c r="D171" s="9"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="13"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14"/>
+      <c r="H171" s="12"/>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
@@ -6259,83 +6657,83 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="9"/>
-      <c r="B172" s="13"/>
-      <c r="C172" s="9"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
       <c r="D172" s="9"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="13"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+      <c r="H172" s="12"/>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="9"/>
-      <c r="B173" s="13"/>
-      <c r="C173" s="9"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
       <c r="D173" s="9"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15"/>
-      <c r="H173" s="13"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="14"/>
+      <c r="G173" s="14"/>
+      <c r="H173" s="12"/>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="9"/>
-      <c r="B174" s="13"/>
-      <c r="C174" s="9"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
       <c r="D174" s="9"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="15"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="13"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="12"/>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="9"/>
-      <c r="B175" s="13"/>
-      <c r="C175" s="9"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
       <c r="D175" s="9"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="13"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="14"/>
+      <c r="H175" s="12"/>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="9"/>
-      <c r="B176" s="13"/>
-      <c r="C176" s="9"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="9"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="13"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="12"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="9"/>
-      <c r="B177" s="13"/>
-      <c r="C177" s="9"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
       <c r="D177" s="9"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="13"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="12"/>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="9"/>
-      <c r="B178" s="13"/>
-      <c r="C178" s="9"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
       <c r="D178" s="9"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="13"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="12"/>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="9"/>
-      <c r="B179" s="13"/>
-      <c r="C179" s="9"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
       <c r="D179" s="9"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="13"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+      <c r="H179" s="12"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="246">
   <si>
     <t>id|</t>
   </si>
@@ -1047,6 +1047,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>兑换奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>金龙鱼油4L</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1103,19 +1107,159 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>兑换好礼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在欢乐嘉年华活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在欢乐嘉年华活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <t>狂欢庆典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢庆典-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果大礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档电热水袋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生酥1斤</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fclb_gong","prop_fclb_xi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fclb_fa","prop_fclb_cai",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fclb_gong","prop_fclb_xi","prop_fclb_fa","prop_fclb_cai",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--免费--恭喜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--免费--发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--免费--恭喜发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_001</t>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V1V7--恭喜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V1V7--发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V1V7--恭喜发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V8V12--恭喜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V8V12--发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V8V12--恭喜发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_001</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_001</t>
+  </si>
+  <si>
+    <t>1,1,1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在狂欢盛典活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在狂欢盛典活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢盛典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢盛典</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1202,7 +1346,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,6 +1374,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,7 +1429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,14 +1525,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -1393,6 +1543,61 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1674,18 +1879,19 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
     <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="53.375" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="52" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="52" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="33" style="4" customWidth="1"/>
     <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
@@ -2262,147 +2468,391 @@
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
     </row>
-    <row r="18" spans="1:16" s="36" customFormat="1">
-      <c r="A18" s="21">
+    <row r="18" spans="1:16" s="43" customFormat="1">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="42">
         <v>1610409600</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="42">
         <v>1610985599</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="H18" s="21">
-        <v>1</v>
-      </c>
-      <c r="I18" s="21">
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
         <v>17</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="16">
         <v>17</v>
       </c>
-      <c r="K18" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="30" customFormat="1">
-      <c r="A19" s="21">
+      <c r="K18" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="27" customFormat="1">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="8">
         <v>1610409600</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="8">
         <v>1610985599</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="25" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="H19" s="21">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21">
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
         <v>18</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="16">
         <v>18</v>
       </c>
-      <c r="K19" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="16.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="B28" s="6"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="B29" s="6"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="1"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="K19" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="35" customFormat="1">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1611014400</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1611590399</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1</v>
+      </c>
+      <c r="I20" s="21">
+        <v>19</v>
+      </c>
+      <c r="J20" s="36">
+        <v>19</v>
+      </c>
+      <c r="K20" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="30" customFormat="1">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1611014400</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1611590399</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21">
+        <v>20</v>
+      </c>
+      <c r="J21" s="36">
+        <v>20</v>
+      </c>
+      <c r="K21" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="48" customFormat="1" ht="16.5">
+      <c r="A22" s="45">
+        <v>21</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D22" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="H22" s="51">
+        <v>1</v>
+      </c>
+      <c r="I22" s="47"/>
+      <c r="J22" s="51">
+        <v>21</v>
+      </c>
+      <c r="K22" s="48">
+        <v>1</v>
+      </c>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+    </row>
+    <row r="23" spans="1:16" s="48" customFormat="1" ht="16.5">
+      <c r="A23" s="45">
+        <v>22</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D23" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="H23" s="51">
+        <v>1</v>
+      </c>
+      <c r="I23" s="47"/>
+      <c r="J23" s="51">
+        <v>22</v>
+      </c>
+      <c r="K23" s="48">
+        <v>1</v>
+      </c>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+    </row>
+    <row r="24" spans="1:16" s="48" customFormat="1" ht="16.5">
+      <c r="A24" s="45">
+        <v>23</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D24" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" s="51">
+        <v>1</v>
+      </c>
+      <c r="I24" s="47"/>
+      <c r="J24" s="51">
+        <v>23</v>
+      </c>
+      <c r="K24" s="48">
+        <v>1</v>
+      </c>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+    </row>
+    <row r="25" spans="1:16" s="56" customFormat="1">
+      <c r="A25" s="56">
+        <v>24</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="58">
+        <v>1611014400</v>
+      </c>
+      <c r="D25" s="58">
+        <v>1611590399</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="60">
+        <v>1</v>
+      </c>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60">
+        <v>24</v>
+      </c>
+      <c r="K25" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="56" customFormat="1">
+      <c r="A26" s="56">
+        <v>25</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="58">
+        <v>1611014400</v>
+      </c>
+      <c r="D26" s="58">
+        <v>1611590399</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="60">
+        <v>1</v>
+      </c>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60">
+        <v>25</v>
+      </c>
+      <c r="K26" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="56" customFormat="1">
+      <c r="A27" s="58">
+        <v>26</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="58">
+        <v>1611014400</v>
+      </c>
+      <c r="D27" s="58">
+        <v>1611590399</v>
+      </c>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="60">
+        <v>1</v>
+      </c>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60">
+        <v>26</v>
+      </c>
+      <c r="K27" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="48" customFormat="1">
+      <c r="A28" s="48">
+        <v>27</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D28" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="51">
+        <v>1</v>
+      </c>
+      <c r="I28" s="47"/>
+      <c r="J28" s="51">
+        <v>27</v>
+      </c>
+      <c r="K28" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="48" customFormat="1">
+      <c r="A29" s="48">
+        <v>28</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D29" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="H29" s="51">
+        <v>1</v>
+      </c>
+      <c r="I29" s="47"/>
+      <c r="J29" s="51">
+        <v>28</v>
+      </c>
+      <c r="K29" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="48" customFormat="1">
+      <c r="A30" s="45">
+        <v>29</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D30" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="H30" s="51">
+        <v>1</v>
+      </c>
+      <c r="I30" s="47"/>
+      <c r="J30" s="51">
+        <v>29</v>
+      </c>
+      <c r="K30" s="48">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2410,7 +2860,6 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2443,10 +2892,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2623,10 +3072,10 @@
       <c r="C14" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
       <c r="A15" s="8">
@@ -2649,10 +3098,10 @@
       <c r="C16" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:3" s="8" customFormat="1">
       <c r="A17" s="8">
@@ -2665,26 +3114,48 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="40">
+    <row r="18" spans="1:3" s="8" customFormat="1">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="40">
+      <c r="B18" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="8" customFormat="1">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>207</v>
+      <c r="B19" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="38">
+        <v>19</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="38">
+        <v>20</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2699,11 +3170,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G137" sqref="G137"/>
+      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5526,7 +5997,7 @@
         <v>131</v>
       </c>
       <c r="E110" s="31"/>
-      <c r="F110" s="42" t="s">
+      <c r="F110" s="40" t="s">
         <v>182</v>
       </c>
       <c r="G110" s="33" t="s">
@@ -5553,7 +6024,7 @@
         <v>131</v>
       </c>
       <c r="E111" s="31"/>
-      <c r="F111" s="42" t="s">
+      <c r="F111" s="40" t="s">
         <v>183</v>
       </c>
       <c r="G111" s="33" t="s">
@@ -5607,7 +6078,7 @@
         <v>131</v>
       </c>
       <c r="E113" s="31"/>
-      <c r="F113" s="42" t="s">
+      <c r="F113" s="40" t="s">
         <v>184</v>
       </c>
       <c r="G113" s="33" t="s">
@@ -5831,25 +6302,24 @@
       <c r="A122" s="8">
         <v>121</v>
       </c>
-      <c r="B122" s="19">
+      <c r="B122" s="31">
         <v>17</v>
       </c>
-      <c r="C122" s="19">
-        <v>1</v>
-      </c>
-      <c r="D122" s="34" t="s">
+      <c r="C122" s="31">
+        <v>1</v>
+      </c>
+      <c r="D122" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E122" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17">
+      <c r="E122" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J122" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5857,25 +6327,24 @@
       <c r="A123" s="8">
         <v>122</v>
       </c>
-      <c r="B123" s="19">
+      <c r="B123" s="31">
         <v>17</v>
       </c>
-      <c r="C123" s="19">
+      <c r="C123" s="31">
         <v>2</v>
       </c>
-      <c r="D123" s="34" t="s">
+      <c r="D123" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E123" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17">
+      <c r="E123" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="J123" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5883,25 +6352,23 @@
       <c r="A124" s="8">
         <v>123</v>
       </c>
-      <c r="B124" s="19">
+      <c r="B124" s="31">
         <v>17</v>
       </c>
-      <c r="C124" s="19">
+      <c r="C124" s="31">
         <v>3</v>
       </c>
-      <c r="D124" s="34" t="s">
+      <c r="D124" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E124" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F124" s="17"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="I124" s="17"/>
-      <c r="J124" s="17">
+      <c r="E124" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="J124" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5909,53 +6376,50 @@
       <c r="A125" s="8">
         <v>124</v>
       </c>
-      <c r="B125" s="19">
+      <c r="B125" s="31">
         <v>17</v>
       </c>
-      <c r="C125" s="19">
+      <c r="C125" s="31">
         <v>4</v>
       </c>
-      <c r="D125" s="34" t="s">
+      <c r="D125" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="20" t="s">
+      <c r="E125" s="31"/>
+      <c r="F125" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G125" s="20" t="s">
+      <c r="G125" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H125" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="I125" s="17"/>
-      <c r="J125" s="17"/>
+      <c r="H125" s="33" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="126" spans="1:10" s="8" customFormat="1" ht="16.5">
       <c r="A126" s="8">
         <v>125</v>
       </c>
-      <c r="B126" s="19">
+      <c r="B126" s="31">
         <v>17</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C126" s="31">
         <v>5</v>
       </c>
-      <c r="D126" s="34" t="s">
+      <c r="D126" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="19"/>
-      <c r="F126" s="43" t="s">
+      <c r="E126" s="31"/>
+      <c r="F126" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G126" s="20" t="s">
+      <c r="G126" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H126" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="I126" s="17"/>
-      <c r="J126" s="17">
+      <c r="H126" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J126" s="8">
         <v>3</v>
       </c>
     </row>
@@ -5963,27 +6427,26 @@
       <c r="A127" s="8">
         <v>126</v>
       </c>
-      <c r="B127" s="19">
+      <c r="B127" s="31">
         <v>17</v>
       </c>
-      <c r="C127" s="19">
+      <c r="C127" s="31">
         <v>6</v>
       </c>
-      <c r="D127" s="34" t="s">
+      <c r="D127" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="43" t="s">
+      <c r="E127" s="31"/>
+      <c r="F127" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="G127" s="20" t="s">
+      <c r="G127" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H127" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="I127" s="17"/>
-      <c r="J127" s="17">
+      <c r="H127" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J127" s="8">
         <v>2</v>
       </c>
     </row>
@@ -5991,27 +6454,26 @@
       <c r="A128" s="8">
         <v>127</v>
       </c>
-      <c r="B128" s="19">
+      <c r="B128" s="31">
         <v>17</v>
       </c>
-      <c r="C128" s="19">
+      <c r="C128" s="31">
         <v>7</v>
       </c>
-      <c r="D128" s="34" t="s">
+      <c r="D128" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E128" s="19"/>
-      <c r="F128" s="20" t="s">
+      <c r="E128" s="31"/>
+      <c r="F128" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G128" s="20" t="s">
+      <c r="G128" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H128" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="I128" s="17"/>
-      <c r="J128" s="17">
+      <c r="H128" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J128" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6019,27 +6481,26 @@
       <c r="A129" s="8">
         <v>128</v>
       </c>
-      <c r="B129" s="19">
+      <c r="B129" s="31">
         <v>17</v>
       </c>
-      <c r="C129" s="19">
+      <c r="C129" s="31">
         <v>8</v>
       </c>
-      <c r="D129" s="34" t="s">
+      <c r="D129" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E129" s="19"/>
-      <c r="F129" s="43" t="s">
+      <c r="E129" s="31"/>
+      <c r="F129" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="G129" s="20" t="s">
+      <c r="G129" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H129" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="I129" s="17"/>
-      <c r="J129" s="17">
+      <c r="H129" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J129" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6047,25 +6508,24 @@
       <c r="A130" s="8">
         <v>129</v>
       </c>
-      <c r="B130" s="22">
+      <c r="B130" s="31">
         <v>18</v>
       </c>
-      <c r="C130" s="22">
-        <v>1</v>
-      </c>
-      <c r="D130" s="23" t="s">
+      <c r="C130" s="31">
+        <v>1</v>
+      </c>
+      <c r="D130" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E130" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="I130" s="21"/>
-      <c r="J130" s="21">
+      <c r="E130" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J130" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6073,25 +6533,24 @@
       <c r="A131" s="8">
         <v>130</v>
       </c>
-      <c r="B131" s="22">
+      <c r="B131" s="31">
         <v>18</v>
       </c>
-      <c r="C131" s="22">
+      <c r="C131" s="31">
         <v>2</v>
       </c>
-      <c r="D131" s="23" t="s">
+      <c r="D131" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E131" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="I131" s="21"/>
-      <c r="J131" s="21">
+      <c r="E131" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="J131" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6099,25 +6558,24 @@
       <c r="A132" s="8">
         <v>131</v>
       </c>
-      <c r="B132" s="22">
+      <c r="B132" s="31">
         <v>18</v>
       </c>
-      <c r="C132" s="22">
+      <c r="C132" s="31">
         <v>3</v>
       </c>
-      <c r="D132" s="23" t="s">
+      <c r="D132" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E132" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I132" s="21"/>
-      <c r="J132" s="21">
+      <c r="E132" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="J132" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6125,53 +6583,50 @@
       <c r="A133" s="8">
         <v>132</v>
       </c>
-      <c r="B133" s="22">
+      <c r="B133" s="31">
         <v>18</v>
       </c>
-      <c r="C133" s="22">
+      <c r="C133" s="31">
         <v>4</v>
       </c>
-      <c r="D133" s="23" t="s">
+      <c r="D133" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E133" s="22"/>
-      <c r="F133" s="24" t="s">
+      <c r="E133" s="31"/>
+      <c r="F133" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G133" s="24" t="s">
+      <c r="G133" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H133" s="24" t="s">
+      <c r="H133" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="1:10" s="8" customFormat="1">
       <c r="A134" s="8">
         <v>133</v>
       </c>
-      <c r="B134" s="22">
+      <c r="B134" s="31">
         <v>18</v>
       </c>
-      <c r="C134" s="22">
+      <c r="C134" s="31">
         <v>5</v>
       </c>
-      <c r="D134" s="23" t="s">
+      <c r="D134" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E134" s="22"/>
-      <c r="F134" s="24" t="s">
+      <c r="E134" s="31"/>
+      <c r="F134" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G134" s="24" t="s">
+      <c r="G134" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H134" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="I134" s="21"/>
-      <c r="J134" s="21">
+      <c r="H134" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J134" s="8">
         <v>3</v>
       </c>
     </row>
@@ -6179,27 +6634,26 @@
       <c r="A135" s="8">
         <v>134</v>
       </c>
-      <c r="B135" s="22">
+      <c r="B135" s="31">
         <v>18</v>
       </c>
-      <c r="C135" s="22">
+      <c r="C135" s="31">
         <v>6</v>
       </c>
-      <c r="D135" s="23" t="s">
+      <c r="D135" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="25" t="s">
+      <c r="E135" s="31"/>
+      <c r="F135" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="G135" s="24" t="s">
+      <c r="G135" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H135" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="I135" s="21"/>
-      <c r="J135" s="21">
+      <c r="H135" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J135" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6207,27 +6661,26 @@
       <c r="A136" s="8">
         <v>135</v>
       </c>
-      <c r="B136" s="22">
+      <c r="B136" s="31">
         <v>18</v>
       </c>
-      <c r="C136" s="22">
+      <c r="C136" s="31">
         <v>7</v>
       </c>
-      <c r="D136" s="23" t="s">
+      <c r="D136" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E136" s="22"/>
-      <c r="F136" s="24" t="s">
+      <c r="E136" s="31"/>
+      <c r="F136" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G136" s="24" t="s">
+      <c r="G136" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H136" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="I136" s="21"/>
-      <c r="J136" s="21">
+      <c r="H136" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J136" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6235,297 +6688,720 @@
       <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="22">
+      <c r="B137" s="31">
         <v>18</v>
       </c>
-      <c r="C137" s="22">
+      <c r="C137" s="31">
         <v>8</v>
       </c>
-      <c r="D137" s="23" t="s">
+      <c r="D137" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E137" s="22"/>
-      <c r="F137" s="25" t="s">
+      <c r="E137" s="31"/>
+      <c r="F137" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="G137" s="24" t="s">
+      <c r="G137" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H137" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J137" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="8" customFormat="1">
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="B138" s="19">
+        <v>19</v>
+      </c>
+      <c r="C138" s="19">
+        <v>1</v>
+      </c>
+      <c r="D138" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E138" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="H137" s="24" t="s">
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="8" customFormat="1">
+      <c r="A139" s="8">
+        <v>138</v>
+      </c>
+      <c r="B139" s="19">
+        <v>19</v>
+      </c>
+      <c r="C139" s="19">
+        <v>2</v>
+      </c>
+      <c r="D139" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="8" customFormat="1">
+      <c r="A140" s="8">
+        <v>139</v>
+      </c>
+      <c r="B140" s="19">
+        <v>19</v>
+      </c>
+      <c r="C140" s="19">
+        <v>3</v>
+      </c>
+      <c r="D140" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F140" s="17"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="8" customFormat="1">
+      <c r="A141" s="8">
+        <v>140</v>
+      </c>
+      <c r="B141" s="19">
+        <v>19</v>
+      </c>
+      <c r="C141" s="19">
+        <v>4</v>
+      </c>
+      <c r="D141" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E141" s="19"/>
+      <c r="F141" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G141" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H141" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+    </row>
+    <row r="142" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A142" s="8">
+        <v>141</v>
+      </c>
+      <c r="B142" s="19">
+        <v>19</v>
+      </c>
+      <c r="C142" s="19">
+        <v>5</v>
+      </c>
+      <c r="D142" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E142" s="19"/>
+      <c r="F142" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G142" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H142" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A143" s="8">
+        <v>142</v>
+      </c>
+      <c r="B143" s="19">
+        <v>19</v>
+      </c>
+      <c r="C143" s="19">
+        <v>6</v>
+      </c>
+      <c r="D143" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E143" s="19"/>
+      <c r="F143" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G143" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H143" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="8" customFormat="1">
+      <c r="A144" s="8">
+        <v>143</v>
+      </c>
+      <c r="B144" s="19">
+        <v>19</v>
+      </c>
+      <c r="C144" s="19">
+        <v>7</v>
+      </c>
+      <c r="D144" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E144" s="19"/>
+      <c r="F144" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G144" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H144" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" s="8" customFormat="1" ht="16.5">
+      <c r="A145" s="8">
+        <v>144</v>
+      </c>
+      <c r="B145" s="19">
+        <v>19</v>
+      </c>
+      <c r="C145" s="19">
+        <v>8</v>
+      </c>
+      <c r="D145" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E145" s="19"/>
+      <c r="F145" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G145" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H145" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I137" s="21"/>
-      <c r="J137" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="8" customFormat="1">
-      <c r="A138" s="9"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="12"/>
-    </row>
-    <row r="139" spans="1:10" s="8" customFormat="1">
-      <c r="A139" s="9"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="12"/>
-    </row>
-    <row r="140" spans="1:10" s="8" customFormat="1">
-      <c r="A140" s="9"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="12"/>
-    </row>
-    <row r="141" spans="1:10" s="8" customFormat="1">
-      <c r="A141" s="9"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="12"/>
-    </row>
-    <row r="142" spans="1:10" s="8" customFormat="1">
-      <c r="A142" s="9"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="12"/>
-    </row>
-    <row r="143" spans="1:10" s="8" customFormat="1">
-      <c r="A143" s="9"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="12"/>
-    </row>
-    <row r="144" spans="1:10" s="8" customFormat="1">
-      <c r="A144" s="9"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="12"/>
-    </row>
-    <row r="145" spans="1:12" s="8" customFormat="1">
-      <c r="A145" s="9"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="12"/>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="9"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="12"/>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="9"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="12"/>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" s="9"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="12"/>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="9"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="12"/>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="9"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="12"/>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" s="9"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="12"/>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" s="9"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="12"/>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="9"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="12"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" s="8" customFormat="1">
+      <c r="A146" s="8">
+        <v>145</v>
+      </c>
+      <c r="B146" s="22">
+        <v>20</v>
+      </c>
+      <c r="C146" s="22">
+        <v>1</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" s="8" customFormat="1">
+      <c r="A147" s="8">
+        <v>146</v>
+      </c>
+      <c r="B147" s="22">
+        <v>20</v>
+      </c>
+      <c r="C147" s="22">
+        <v>2</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E147" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" s="8" customFormat="1">
+      <c r="A148" s="8">
+        <v>147</v>
+      </c>
+      <c r="B148" s="22">
+        <v>20</v>
+      </c>
+      <c r="C148" s="22">
+        <v>3</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E148" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I148" s="21"/>
+      <c r="J148" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" s="8" customFormat="1">
+      <c r="A149" s="8">
+        <v>148</v>
+      </c>
+      <c r="B149" s="22">
+        <v>20</v>
+      </c>
+      <c r="C149" s="22">
+        <v>4</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E149" s="22"/>
+      <c r="F149" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G149" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I149" s="21"/>
+      <c r="J149" s="21"/>
+    </row>
+    <row r="150" spans="1:12" s="8" customFormat="1">
+      <c r="A150" s="8">
+        <v>149</v>
+      </c>
+      <c r="B150" s="22">
+        <v>20</v>
+      </c>
+      <c r="C150" s="22">
+        <v>5</v>
+      </c>
+      <c r="D150" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E150" s="22"/>
+      <c r="F150" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G150" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H150" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I150" s="21"/>
+      <c r="J150" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" s="8" customFormat="1">
+      <c r="A151" s="8">
+        <v>150</v>
+      </c>
+      <c r="B151" s="22">
+        <v>20</v>
+      </c>
+      <c r="C151" s="22">
+        <v>6</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E151" s="22"/>
+      <c r="F151" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H151" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I151" s="21"/>
+      <c r="J151" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" s="8" customFormat="1">
+      <c r="A152" s="8">
+        <v>151</v>
+      </c>
+      <c r="B152" s="22">
+        <v>20</v>
+      </c>
+      <c r="C152" s="22">
+        <v>7</v>
+      </c>
+      <c r="D152" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E152" s="22"/>
+      <c r="F152" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G152" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I152" s="21"/>
+      <c r="J152" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" s="8" customFormat="1">
+      <c r="A153" s="8">
+        <v>152</v>
+      </c>
+      <c r="B153" s="22">
+        <v>20</v>
+      </c>
+      <c r="C153" s="22">
+        <v>8</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E153" s="22"/>
+      <c r="F153" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G153" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H153" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I153" s="21"/>
+      <c r="J153" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="9"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="12"/>
+      <c r="A154" s="8">
+        <v>153</v>
+      </c>
+      <c r="B154" s="53">
+        <v>21</v>
+      </c>
+      <c r="C154" s="53">
+        <v>1</v>
+      </c>
+      <c r="D154" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E154" s="53"/>
+      <c r="F154" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G154" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="H154" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="I154" s="45"/>
+      <c r="J154" s="45">
+        <v>9999</v>
+      </c>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="9"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="12"/>
+      <c r="A155" s="8">
+        <v>154</v>
+      </c>
+      <c r="B155" s="53">
+        <v>22</v>
+      </c>
+      <c r="C155" s="53">
+        <v>1</v>
+      </c>
+      <c r="D155" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E155" s="53"/>
+      <c r="F155" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G155" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="H155" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I155" s="45"/>
+      <c r="J155" s="45">
+        <v>9999</v>
+      </c>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="9"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="12"/>
+      <c r="A156" s="8">
+        <v>155</v>
+      </c>
+      <c r="B156" s="53">
+        <v>23</v>
+      </c>
+      <c r="C156" s="53">
+        <v>1</v>
+      </c>
+      <c r="D156" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E156" s="53"/>
+      <c r="F156" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G156" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="H156" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I156" s="45"/>
+      <c r="J156" s="45">
+        <v>9999</v>
+      </c>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="9"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="12"/>
+      <c r="A157" s="8">
+        <v>156</v>
+      </c>
+      <c r="B157" s="62">
+        <v>24</v>
+      </c>
+      <c r="C157" s="62">
+        <v>1</v>
+      </c>
+      <c r="D157" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E157" s="62"/>
+      <c r="F157" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="G157" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="H157" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="I157" s="58"/>
+      <c r="J157" s="58">
+        <v>9999</v>
+      </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="9"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
+      <c r="A158" s="8">
+        <v>157</v>
+      </c>
+      <c r="B158" s="62">
+        <v>25</v>
+      </c>
+      <c r="C158" s="62">
+        <v>1</v>
+      </c>
+      <c r="D158" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E158" s="62"/>
+      <c r="F158" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="G158" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="H158" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="I158" s="58"/>
+      <c r="J158" s="58">
+        <v>9999</v>
+      </c>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="9"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
+      <c r="A159" s="8">
+        <v>158</v>
+      </c>
+      <c r="B159" s="62">
+        <v>26</v>
+      </c>
+      <c r="C159" s="62">
+        <v>1</v>
+      </c>
+      <c r="D159" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E159" s="62"/>
+      <c r="F159" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="G159" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="H159" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="I159" s="58"/>
+      <c r="J159" s="58">
+        <v>9999</v>
+      </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="9"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
+      <c r="A160" s="8">
+        <v>159</v>
+      </c>
+      <c r="B160" s="53">
+        <v>27</v>
+      </c>
+      <c r="C160" s="53">
+        <v>1</v>
+      </c>
+      <c r="D160" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="E160" s="53"/>
+      <c r="F160" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G160" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="H160" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="I160" s="45"/>
+      <c r="J160" s="45">
+        <v>9999</v>
+      </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="9"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
+      <c r="A161" s="8">
+        <v>160</v>
+      </c>
+      <c r="B161" s="53">
+        <v>28</v>
+      </c>
+      <c r="C161" s="53">
+        <v>1</v>
+      </c>
+      <c r="D161" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="E161" s="53"/>
+      <c r="F161" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G161" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="H161" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="I161" s="45"/>
+      <c r="J161" s="45">
+        <v>9999</v>
+      </c>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="9"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
+      <c r="A162" s="8">
+        <v>161</v>
+      </c>
+      <c r="B162" s="53">
+        <v>29</v>
+      </c>
+      <c r="C162" s="53">
+        <v>1</v>
+      </c>
+      <c r="D162" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="E162" s="53"/>
+      <c r="F162" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="G162" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="H162" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I162" s="45"/>
+      <c r="J162" s="45">
+        <v>9999</v>
+      </c>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
     </row>
@@ -6533,7 +7409,6 @@
       <c r="A163" s="9"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
-      <c r="D163" s="9"/>
       <c r="E163" s="12"/>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="254">
   <si>
     <t>id|</t>
   </si>
@@ -1115,6 +1115,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>恭喜您在狂欢庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在狂欢庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢庆典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>坚果大礼包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1247,19 +1259,39 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在狂欢盛典活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在狂欢盛典活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢盛典</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢盛典</t>
+    <t>太阳取暖器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档暖手宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊毛围巾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在寒冬送温暖活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在寒冬送温暖活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖心好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖心好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳兑奖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳兑奖</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1346,7 +1378,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1374,18 +1406,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,7 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1551,53 +1571,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1879,7 +1861,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1889,9 +1871,9 @@
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
     <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="53.375" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="52" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="45" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="52" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="45" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="33" style="4" customWidth="1"/>
     <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
@@ -2528,342 +2510,390 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="35" customFormat="1">
-      <c r="A20" s="21">
+    <row r="20" spans="1:16" s="43" customFormat="1">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="8">
         <v>1611590399</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="H20" s="21">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
         <v>19</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="16">
         <v>19</v>
       </c>
-      <c r="K20" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="30" customFormat="1">
-      <c r="A21" s="21">
+      <c r="K20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="27" customFormat="1">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="8">
         <v>1611590399</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="25" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="21">
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
         <v>20</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="16">
         <v>20</v>
       </c>
-      <c r="K21" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="48" customFormat="1" ht="16.5">
-      <c r="A22" s="45">
+      <c r="K21" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="27" customFormat="1" ht="16.5">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="45">
+      <c r="H22" s="42">
+        <v>1</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="42">
+        <v>21</v>
+      </c>
+      <c r="K22" s="27">
+        <v>1</v>
+      </c>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+    </row>
+    <row r="23" spans="1:16" s="27" customFormat="1" ht="16.5">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="8">
         <v>1611014400</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D23" s="8">
         <v>1611590399</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="H22" s="51">
-        <v>1</v>
-      </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="51">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="42">
+        <v>1</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="42">
+        <v>22</v>
+      </c>
+      <c r="K23" s="27">
+        <v>1</v>
+      </c>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+    </row>
+    <row r="24" spans="1:16" s="27" customFormat="1" ht="16.5">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="42">
+        <v>1</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="42">
+        <v>23</v>
+      </c>
+      <c r="K24" s="27">
+        <v>1</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+    </row>
+    <row r="25" spans="1:16" s="27" customFormat="1">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="42">
+        <v>1</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="42">
+        <v>24</v>
+      </c>
+      <c r="K25" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="27" customFormat="1">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="H26" s="42">
+        <v>1</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="42">
+        <v>25</v>
+      </c>
+      <c r="K26" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="27" customFormat="1">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="H27" s="42">
+        <v>1</v>
+      </c>
+      <c r="I27" s="43"/>
+      <c r="J27" s="42">
+        <v>26</v>
+      </c>
+      <c r="K27" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="27" customFormat="1">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="42">
+        <v>1</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="42">
+        <v>27</v>
+      </c>
+      <c r="K28" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="27" customFormat="1">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="42">
+        <v>1</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="42">
+        <v>28</v>
+      </c>
+      <c r="K29" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="27" customFormat="1">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" s="42">
+        <v>1</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="42">
+        <v>29</v>
+      </c>
+      <c r="K30" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="43" customFormat="1">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="21">
+        <v>1611619200</v>
+      </c>
+      <c r="D31" s="21">
+        <v>1612195199</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="21">
+        <v>1</v>
+      </c>
+      <c r="I31" s="21">
         <v>21</v>
       </c>
-      <c r="K22" s="48">
-        <v>1</v>
-      </c>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-    </row>
-    <row r="23" spans="1:16" s="48" customFormat="1" ht="16.5">
-      <c r="A23" s="45">
+      <c r="J31" s="36">
+        <v>30</v>
+      </c>
+      <c r="K31" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="27" customFormat="1">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="38">
+        <v>1611619200</v>
+      </c>
+      <c r="D32" s="38">
+        <v>1612195199</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="38">
+        <v>1</v>
+      </c>
+      <c r="I32" s="38">
         <v>22</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="45">
-        <v>1611014400</v>
-      </c>
-      <c r="D23" s="45">
-        <v>1611590399</v>
-      </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23" s="51">
-        <v>1</v>
-      </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="51">
-        <v>22</v>
-      </c>
-      <c r="K23" s="48">
-        <v>1</v>
-      </c>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-    </row>
-    <row r="24" spans="1:16" s="48" customFormat="1" ht="16.5">
-      <c r="A24" s="45">
-        <v>23</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C24" s="45">
-        <v>1611014400</v>
-      </c>
-      <c r="D24" s="45">
-        <v>1611590399</v>
-      </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="H24" s="51">
-        <v>1</v>
-      </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="51">
-        <v>23</v>
-      </c>
-      <c r="K24" s="48">
-        <v>1</v>
-      </c>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-    </row>
-    <row r="25" spans="1:16" s="56" customFormat="1">
-      <c r="A25" s="56">
-        <v>24</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="58">
-        <v>1611014400</v>
-      </c>
-      <c r="D25" s="58">
-        <v>1611590399</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="H25" s="60">
-        <v>1</v>
-      </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60">
-        <v>24</v>
-      </c>
-      <c r="K25" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="56" customFormat="1">
-      <c r="A26" s="56">
-        <v>25</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="C26" s="58">
-        <v>1611014400</v>
-      </c>
-      <c r="D26" s="58">
-        <v>1611590399</v>
-      </c>
-      <c r="G26" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="H26" s="60">
-        <v>1</v>
-      </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60">
-        <v>25</v>
-      </c>
-      <c r="K26" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="56" customFormat="1">
-      <c r="A27" s="58">
-        <v>26</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" s="58">
-        <v>1611014400</v>
-      </c>
-      <c r="D27" s="58">
-        <v>1611590399</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="H27" s="60">
-        <v>1</v>
-      </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60">
-        <v>26</v>
-      </c>
-      <c r="K27" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="48" customFormat="1">
-      <c r="A28" s="48">
-        <v>27</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="C28" s="45">
-        <v>1611014400</v>
-      </c>
-      <c r="D28" s="45">
-        <v>1611590399</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="51">
-        <v>1</v>
-      </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="51">
-        <v>27</v>
-      </c>
-      <c r="K28" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="48" customFormat="1">
-      <c r="A29" s="48">
-        <v>28</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="C29" s="45">
-        <v>1611014400</v>
-      </c>
-      <c r="D29" s="45">
-        <v>1611590399</v>
-      </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="H29" s="51">
-        <v>1</v>
-      </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="51">
-        <v>28</v>
-      </c>
-      <c r="K29" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="48" customFormat="1">
-      <c r="A30" s="45">
-        <v>29</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="C30" s="45">
-        <v>1611014400</v>
-      </c>
-      <c r="D30" s="45">
-        <v>1611590399</v>
-      </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="H30" s="51">
-        <v>1</v>
-      </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="51">
-        <v>29</v>
-      </c>
-      <c r="K30" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="J32" s="47">
+        <v>31</v>
+      </c>
+      <c r="K32" s="48">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
@@ -2892,10 +2922,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3136,26 +3166,48 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="38">
+    <row r="20" spans="1:3" s="8" customFormat="1">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="38">
+      <c r="B20" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="8" customFormat="1">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>243</v>
+      <c r="B21" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="38">
+        <v>22</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3171,10 +3223,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomRight" activeCell="E163" sqref="E163:E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6715,25 +6767,24 @@
       <c r="A138" s="8">
         <v>137</v>
       </c>
-      <c r="B138" s="19">
+      <c r="B138" s="31">
         <v>19</v>
       </c>
-      <c r="C138" s="19">
-        <v>1</v>
-      </c>
-      <c r="D138" s="34" t="s">
+      <c r="C138" s="31">
+        <v>1</v>
+      </c>
+      <c r="D138" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E138" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="F138" s="20"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20" t="s">
+      <c r="E138" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17">
+      <c r="J138" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6741,25 +6792,24 @@
       <c r="A139" s="8">
         <v>138</v>
       </c>
-      <c r="B139" s="19">
+      <c r="B139" s="31">
         <v>19</v>
       </c>
-      <c r="C139" s="19">
+      <c r="C139" s="31">
         <v>2</v>
       </c>
-      <c r="D139" s="34" t="s">
+      <c r="D139" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E139" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="F139" s="20"/>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20" t="s">
+      <c r="E139" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I139" s="17"/>
-      <c r="J139" s="17">
+      <c r="J139" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6767,25 +6817,23 @@
       <c r="A140" s="8">
         <v>139</v>
       </c>
-      <c r="B140" s="19">
+      <c r="B140" s="31">
         <v>19</v>
       </c>
-      <c r="C140" s="19">
+      <c r="C140" s="31">
         <v>3</v>
       </c>
-      <c r="D140" s="34" t="s">
+      <c r="D140" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E140" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="F140" s="17"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20" t="s">
+      <c r="E140" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I140" s="17"/>
-      <c r="J140" s="17">
+      <c r="J140" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6793,53 +6841,50 @@
       <c r="A141" s="8">
         <v>140</v>
       </c>
-      <c r="B141" s="19">
+      <c r="B141" s="31">
         <v>19</v>
       </c>
-      <c r="C141" s="19">
+      <c r="C141" s="31">
         <v>4</v>
       </c>
-      <c r="D141" s="34" t="s">
+      <c r="D141" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E141" s="19"/>
-      <c r="F141" s="20" t="s">
+      <c r="E141" s="31"/>
+      <c r="F141" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G141" s="20" t="s">
+      <c r="G141" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H141" s="20" t="s">
+      <c r="H141" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I141" s="17"/>
-      <c r="J141" s="17"/>
     </row>
     <row r="142" spans="1:10" s="8" customFormat="1" ht="16.5">
       <c r="A142" s="8">
         <v>141</v>
       </c>
-      <c r="B142" s="19">
+      <c r="B142" s="31">
         <v>19</v>
       </c>
-      <c r="C142" s="19">
+      <c r="C142" s="31">
         <v>5</v>
       </c>
-      <c r="D142" s="34" t="s">
+      <c r="D142" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E142" s="19"/>
-      <c r="F142" s="41" t="s">
+      <c r="E142" s="31"/>
+      <c r="F142" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G142" s="20" t="s">
+      <c r="G142" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H142" s="18" t="s">
+      <c r="H142" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I142" s="17"/>
-      <c r="J142" s="17">
+      <c r="J142" s="8">
         <v>3</v>
       </c>
     </row>
@@ -6847,27 +6892,26 @@
       <c r="A143" s="8">
         <v>142</v>
       </c>
-      <c r="B143" s="19">
+      <c r="B143" s="31">
         <v>19</v>
       </c>
-      <c r="C143" s="19">
+      <c r="C143" s="31">
         <v>6</v>
       </c>
-      <c r="D143" s="34" t="s">
+      <c r="D143" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E143" s="19"/>
-      <c r="F143" s="41" t="s">
+      <c r="E143" s="31"/>
+      <c r="F143" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="G143" s="20" t="s">
+      <c r="G143" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H143" s="18" t="s">
+      <c r="H143" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I143" s="17"/>
-      <c r="J143" s="17">
+      <c r="J143" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6875,732 +6919,939 @@
       <c r="A144" s="8">
         <v>143</v>
       </c>
-      <c r="B144" s="19">
+      <c r="B144" s="31">
         <v>19</v>
       </c>
-      <c r="C144" s="19">
+      <c r="C144" s="31">
         <v>7</v>
       </c>
-      <c r="D144" s="34" t="s">
+      <c r="D144" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E144" s="19"/>
-      <c r="F144" s="20" t="s">
+      <c r="E144" s="31"/>
+      <c r="F144" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G144" s="20" t="s">
+      <c r="G144" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H144" s="18" t="s">
+      <c r="H144" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I144" s="17"/>
-      <c r="J144" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" s="8" customFormat="1" ht="16.5">
+      <c r="J144" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="8" customFormat="1" ht="16.5">
       <c r="A145" s="8">
         <v>144</v>
       </c>
-      <c r="B145" s="19">
+      <c r="B145" s="31">
         <v>19</v>
       </c>
-      <c r="C145" s="19">
+      <c r="C145" s="31">
         <v>8</v>
       </c>
-      <c r="D145" s="34" t="s">
+      <c r="D145" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E145" s="19"/>
-      <c r="F145" s="41" t="s">
+      <c r="E145" s="31"/>
+      <c r="F145" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="G145" s="20" t="s">
+      <c r="G145" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H145" s="20" t="s">
+      <c r="H145" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I145" s="17"/>
-      <c r="J145" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" s="8" customFormat="1">
+      <c r="J145" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="8" customFormat="1">
       <c r="A146" s="8">
         <v>145</v>
       </c>
-      <c r="B146" s="22">
+      <c r="B146" s="31">
         <v>20</v>
       </c>
-      <c r="C146" s="22">
-        <v>1</v>
-      </c>
-      <c r="D146" s="23" t="s">
+      <c r="C146" s="31">
+        <v>1</v>
+      </c>
+      <c r="D146" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E146" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="F146" s="24"/>
-      <c r="G146" s="24"/>
-      <c r="H146" s="24" t="s">
+      <c r="E146" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F146" s="33"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" s="8" customFormat="1">
+      <c r="J146" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="8" customFormat="1">
       <c r="A147" s="8">
         <v>146</v>
       </c>
-      <c r="B147" s="22">
+      <c r="B147" s="31">
         <v>20</v>
       </c>
-      <c r="C147" s="22">
+      <c r="C147" s="31">
         <v>2</v>
       </c>
-      <c r="D147" s="23" t="s">
+      <c r="D147" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E147" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="F147" s="24"/>
-      <c r="G147" s="24"/>
-      <c r="H147" s="24" t="s">
+      <c r="E147" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F147" s="33"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" s="8" customFormat="1">
+      <c r="J147" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="8" customFormat="1">
       <c r="A148" s="8">
         <v>147</v>
       </c>
-      <c r="B148" s="22">
+      <c r="B148" s="31">
         <v>20</v>
       </c>
-      <c r="C148" s="22">
+      <c r="C148" s="31">
         <v>3</v>
       </c>
-      <c r="D148" s="23" t="s">
+      <c r="D148" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E148" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="24" t="s">
+      <c r="E148" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I148" s="21"/>
-      <c r="J148" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" s="8" customFormat="1">
+      <c r="J148" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="8" customFormat="1">
       <c r="A149" s="8">
         <v>148</v>
       </c>
-      <c r="B149" s="22">
+      <c r="B149" s="31">
         <v>20</v>
       </c>
-      <c r="C149" s="22">
+      <c r="C149" s="31">
         <v>4</v>
       </c>
-      <c r="D149" s="23" t="s">
+      <c r="D149" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E149" s="22"/>
-      <c r="F149" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="G149" s="24" t="s">
+      <c r="E149" s="31"/>
+      <c r="F149" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="G149" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H149" s="24" t="s">
+      <c r="H149" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I149" s="21"/>
-      <c r="J149" s="21"/>
-    </row>
-    <row r="150" spans="1:12" s="8" customFormat="1">
+    </row>
+    <row r="150" spans="1:10" s="8" customFormat="1">
       <c r="A150" s="8">
         <v>149</v>
       </c>
-      <c r="B150" s="22">
+      <c r="B150" s="31">
         <v>20</v>
       </c>
-      <c r="C150" s="22">
+      <c r="C150" s="31">
         <v>5</v>
       </c>
-      <c r="D150" s="23" t="s">
+      <c r="D150" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E150" s="22"/>
-      <c r="F150" s="24" t="s">
+      <c r="E150" s="31"/>
+      <c r="F150" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G150" s="24" t="s">
+      <c r="G150" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H150" s="25" t="s">
+      <c r="H150" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I150" s="21"/>
-      <c r="J150" s="21">
+      <c r="J150" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="8" customFormat="1">
+    <row r="151" spans="1:10" s="8" customFormat="1">
       <c r="A151" s="8">
         <v>150</v>
       </c>
-      <c r="B151" s="22">
+      <c r="B151" s="31">
         <v>20</v>
       </c>
-      <c r="C151" s="22">
+      <c r="C151" s="31">
         <v>6</v>
       </c>
-      <c r="D151" s="23" t="s">
+      <c r="D151" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E151" s="22"/>
-      <c r="F151" s="25" t="s">
+      <c r="E151" s="31"/>
+      <c r="F151" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="G151" s="24" t="s">
+      <c r="G151" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H151" s="25" t="s">
+      <c r="H151" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I151" s="21"/>
-      <c r="J151" s="21">
+      <c r="J151" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="8" customFormat="1">
+    <row r="152" spans="1:10" s="8" customFormat="1">
       <c r="A152" s="8">
         <v>151</v>
       </c>
-      <c r="B152" s="22">
+      <c r="B152" s="31">
         <v>20</v>
       </c>
-      <c r="C152" s="22">
+      <c r="C152" s="31">
         <v>7</v>
       </c>
-      <c r="D152" s="23" t="s">
+      <c r="D152" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E152" s="22"/>
-      <c r="F152" s="24" t="s">
+      <c r="E152" s="31"/>
+      <c r="F152" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G152" s="24" t="s">
+      <c r="G152" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H152" s="25" t="s">
+      <c r="H152" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I152" s="21"/>
-      <c r="J152" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" s="8" customFormat="1">
+      <c r="J152" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="8" customFormat="1">
       <c r="A153" s="8">
         <v>152</v>
       </c>
-      <c r="B153" s="22">
+      <c r="B153" s="31">
         <v>20</v>
       </c>
-      <c r="C153" s="22">
+      <c r="C153" s="31">
         <v>8</v>
       </c>
-      <c r="D153" s="23" t="s">
+      <c r="D153" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E153" s="22"/>
-      <c r="F153" s="25" t="s">
+      <c r="E153" s="31"/>
+      <c r="F153" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="G153" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="H153" s="24" t="s">
+      <c r="G153" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H153" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I153" s="21"/>
-      <c r="J153" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+      <c r="J153" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="8" customFormat="1">
       <c r="A154" s="8">
         <v>153</v>
       </c>
-      <c r="B154" s="53">
+      <c r="B154" s="31">
         <v>21</v>
       </c>
-      <c r="C154" s="53">
-        <v>1</v>
-      </c>
-      <c r="D154" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="E154" s="53"/>
-      <c r="F154" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="G154" s="55" t="s">
+      <c r="C154" s="31">
+        <v>1</v>
+      </c>
+      <c r="D154" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="H154" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="I154" s="45"/>
-      <c r="J154" s="45">
+      <c r="E154" s="31"/>
+      <c r="F154" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G154" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="H154" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J154" s="8">
         <v>9999</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:10" s="8" customFormat="1">
       <c r="A155" s="8">
         <v>154</v>
       </c>
-      <c r="B155" s="53">
+      <c r="B155" s="31">
         <v>22</v>
       </c>
-      <c r="C155" s="53">
-        <v>1</v>
-      </c>
-      <c r="D155" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="E155" s="53"/>
-      <c r="F155" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="G155" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="H155" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="I155" s="45"/>
-      <c r="J155" s="45">
+      <c r="C155" s="31">
+        <v>1</v>
+      </c>
+      <c r="D155" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E155" s="31"/>
+      <c r="F155" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G155" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H155" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J155" s="8">
         <v>9999</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:10" s="8" customFormat="1">
       <c r="A156" s="8">
         <v>155</v>
       </c>
-      <c r="B156" s="53">
+      <c r="B156" s="31">
         <v>23</v>
       </c>
-      <c r="C156" s="53">
-        <v>1</v>
-      </c>
-      <c r="D156" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="E156" s="53"/>
-      <c r="F156" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="G156" s="55" t="s">
+      <c r="C156" s="31">
+        <v>1</v>
+      </c>
+      <c r="D156" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E156" s="31"/>
+      <c r="F156" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="H156" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="I156" s="45"/>
-      <c r="J156" s="45">
+      <c r="G156" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="H156" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="J156" s="8">
         <v>9999</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:10" s="8" customFormat="1">
       <c r="A157" s="8">
         <v>156</v>
       </c>
-      <c r="B157" s="62">
+      <c r="B157" s="31">
         <v>24</v>
       </c>
-      <c r="C157" s="62">
-        <v>1</v>
-      </c>
-      <c r="D157" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E157" s="62"/>
-      <c r="F157" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="G157" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="H157" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="I157" s="58"/>
-      <c r="J157" s="58">
+      <c r="C157" s="31">
+        <v>1</v>
+      </c>
+      <c r="D157" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E157" s="31"/>
+      <c r="F157" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G157" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H157" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J157" s="8">
         <v>9999</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:10" s="8" customFormat="1">
       <c r="A158" s="8">
         <v>157</v>
       </c>
-      <c r="B158" s="62">
+      <c r="B158" s="31">
         <v>25</v>
       </c>
-      <c r="C158" s="62">
-        <v>1</v>
-      </c>
-      <c r="D158" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E158" s="62"/>
-      <c r="F158" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="G158" s="64" t="s">
+      <c r="C158" s="31">
+        <v>1</v>
+      </c>
+      <c r="D158" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="H158" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="I158" s="58"/>
-      <c r="J158" s="58">
+      <c r="E158" s="31"/>
+      <c r="F158" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G158" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="H158" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J158" s="8">
         <v>9999</v>
       </c>
-      <c r="K158" s="8"/>
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="1:12">
+    </row>
+    <row r="159" spans="1:10" s="8" customFormat="1">
       <c r="A159" s="8">
         <v>158</v>
       </c>
-      <c r="B159" s="62">
+      <c r="B159" s="31">
         <v>26</v>
       </c>
-      <c r="C159" s="62">
-        <v>1</v>
-      </c>
-      <c r="D159" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E159" s="62"/>
-      <c r="F159" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="G159" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="H159" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="I159" s="58"/>
-      <c r="J159" s="58">
+      <c r="C159" s="31">
+        <v>1</v>
+      </c>
+      <c r="D159" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E159" s="31"/>
+      <c r="F159" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G159" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="H159" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J159" s="8">
         <v>9999</v>
       </c>
-      <c r="K159" s="8"/>
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="1:12">
+    </row>
+    <row r="160" spans="1:10" s="8" customFormat="1">
       <c r="A160" s="8">
         <v>159</v>
       </c>
-      <c r="B160" s="53">
+      <c r="B160" s="31">
         <v>27</v>
       </c>
-      <c r="C160" s="53">
-        <v>1</v>
-      </c>
-      <c r="D160" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="E160" s="53"/>
-      <c r="F160" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="G160" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="H160" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="I160" s="45"/>
-      <c r="J160" s="45">
+      <c r="C160" s="31">
+        <v>1</v>
+      </c>
+      <c r="D160" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E160" s="31"/>
+      <c r="F160" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G160" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="H160" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J160" s="8">
         <v>9999</v>
       </c>
-      <c r="K160" s="8"/>
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="1:12">
+    </row>
+    <row r="161" spans="1:10" s="8" customFormat="1">
       <c r="A161" s="8">
         <v>160</v>
       </c>
-      <c r="B161" s="53">
+      <c r="B161" s="31">
         <v>28</v>
       </c>
-      <c r="C161" s="53">
-        <v>1</v>
-      </c>
-      <c r="D161" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="E161" s="53"/>
-      <c r="F161" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="G161" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="H161" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="I161" s="45"/>
-      <c r="J161" s="45">
+      <c r="C161" s="31">
+        <v>1</v>
+      </c>
+      <c r="D161" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E161" s="31"/>
+      <c r="F161" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G161" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="H161" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J161" s="8">
         <v>9999</v>
       </c>
-      <c r="K161" s="8"/>
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="1:12">
+    </row>
+    <row r="162" spans="1:10" s="8" customFormat="1">
       <c r="A162" s="8">
         <v>161</v>
       </c>
-      <c r="B162" s="53">
+      <c r="B162" s="31">
         <v>29</v>
       </c>
-      <c r="C162" s="53">
-        <v>1</v>
-      </c>
-      <c r="D162" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="E162" s="53"/>
-      <c r="F162" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="G162" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="H162" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="I162" s="45"/>
-      <c r="J162" s="45">
+      <c r="C162" s="31">
+        <v>1</v>
+      </c>
+      <c r="D162" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E162" s="31"/>
+      <c r="F162" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G162" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="H162" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="J162" s="8">
         <v>9999</v>
       </c>
-      <c r="K162" s="8"/>
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="1:12">
-      <c r="A163" s="9"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="A164" s="9"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" s="9"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="12"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="12"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="8"/>
-    </row>
-    <row r="166" spans="1:12">
-      <c r="A166" s="9"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="12"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
-      <c r="L166" s="8"/>
-    </row>
-    <row r="167" spans="1:12">
-      <c r="A167" s="9"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="12"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" s="9"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="8"/>
-      <c r="L168" s="8"/>
-    </row>
-    <row r="169" spans="1:12">
-      <c r="A169" s="9"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="12"/>
-      <c r="I169" s="8"/>
-      <c r="J169" s="8"/>
-      <c r="K169" s="8"/>
-      <c r="L169" s="8"/>
-    </row>
-    <row r="170" spans="1:12">
-      <c r="A170" s="9"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="12"/>
-      <c r="I170" s="8"/>
-      <c r="J170" s="8"/>
-      <c r="K170" s="8"/>
-      <c r="L170" s="8"/>
-    </row>
-    <row r="171" spans="1:12">
-      <c r="A171" s="9"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="8"/>
-    </row>
-    <row r="172" spans="1:12">
-      <c r="A172" s="9"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="12"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="12"/>
-    </row>
-    <row r="173" spans="1:12">
-      <c r="A173" s="9"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="12"/>
-    </row>
-    <row r="174" spans="1:12">
-      <c r="A174" s="9"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="12"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="12"/>
-    </row>
-    <row r="175" spans="1:12">
-      <c r="A175" s="9"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="12"/>
-    </row>
-    <row r="176" spans="1:12">
-      <c r="A176" s="9"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="12"/>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="9"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="12"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="12"/>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="9"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="12"/>
-    </row>
-    <row r="179" spans="1:8">
+    </row>
+    <row r="163" spans="1:10" s="8" customFormat="1">
+      <c r="A163" s="8">
+        <v>162</v>
+      </c>
+      <c r="B163" s="19">
+        <v>30</v>
+      </c>
+      <c r="C163" s="19">
+        <v>1</v>
+      </c>
+      <c r="D163" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" s="8" customFormat="1">
+      <c r="A164" s="8">
+        <v>163</v>
+      </c>
+      <c r="B164" s="19">
+        <v>30</v>
+      </c>
+      <c r="C164" s="19">
+        <v>2</v>
+      </c>
+      <c r="D164" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" s="8" customFormat="1">
+      <c r="A165" s="8">
+        <v>164</v>
+      </c>
+      <c r="B165" s="19">
+        <v>30</v>
+      </c>
+      <c r="C165" s="19">
+        <v>3</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F165" s="17"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="8" customFormat="1">
+      <c r="A166" s="8">
+        <v>165</v>
+      </c>
+      <c r="B166" s="19">
+        <v>30</v>
+      </c>
+      <c r="C166" s="19">
+        <v>4</v>
+      </c>
+      <c r="D166" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E166" s="19"/>
+      <c r="F166" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G166" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H166" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+    </row>
+    <row r="167" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A167" s="8">
+        <v>166</v>
+      </c>
+      <c r="B167" s="19">
+        <v>30</v>
+      </c>
+      <c r="C167" s="19">
+        <v>5</v>
+      </c>
+      <c r="D167" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E167" s="19"/>
+      <c r="F167" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G167" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H167" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A168" s="8">
+        <v>167</v>
+      </c>
+      <c r="B168" s="19">
+        <v>30</v>
+      </c>
+      <c r="C168" s="19">
+        <v>6</v>
+      </c>
+      <c r="D168" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E168" s="19"/>
+      <c r="F168" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G168" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H168" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="8" customFormat="1">
+      <c r="A169" s="8">
+        <v>168</v>
+      </c>
+      <c r="B169" s="19">
+        <v>30</v>
+      </c>
+      <c r="C169" s="19">
+        <v>7</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E169" s="19"/>
+      <c r="F169" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G169" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H169" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A170" s="8">
+        <v>169</v>
+      </c>
+      <c r="B170" s="19">
+        <v>30</v>
+      </c>
+      <c r="C170" s="19">
+        <v>8</v>
+      </c>
+      <c r="D170" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E170" s="19"/>
+      <c r="F170" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G170" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H170" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="8" customFormat="1">
+      <c r="A171" s="8">
+        <v>170</v>
+      </c>
+      <c r="B171" s="22">
+        <v>31</v>
+      </c>
+      <c r="C171" s="22">
+        <v>1</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E171" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I171" s="21"/>
+      <c r="J171" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="8" customFormat="1">
+      <c r="A172" s="8">
+        <v>171</v>
+      </c>
+      <c r="B172" s="22">
+        <v>31</v>
+      </c>
+      <c r="C172" s="22">
+        <v>2</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E172" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I172" s="21"/>
+      <c r="J172" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="8" customFormat="1">
+      <c r="A173" s="8">
+        <v>172</v>
+      </c>
+      <c r="B173" s="22">
+        <v>31</v>
+      </c>
+      <c r="C173" s="22">
+        <v>3</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E173" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F173" s="24"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I173" s="21"/>
+      <c r="J173" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="8" customFormat="1">
+      <c r="A174" s="8">
+        <v>173</v>
+      </c>
+      <c r="B174" s="22">
+        <v>31</v>
+      </c>
+      <c r="C174" s="22">
+        <v>4</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E174" s="22"/>
+      <c r="F174" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G174" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H174" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I174" s="21"/>
+      <c r="J174" s="21"/>
+    </row>
+    <row r="175" spans="1:10" s="8" customFormat="1">
+      <c r="A175" s="8">
+        <v>174</v>
+      </c>
+      <c r="B175" s="22">
+        <v>31</v>
+      </c>
+      <c r="C175" s="22">
+        <v>5</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E175" s="22"/>
+      <c r="F175" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G175" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H175" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I175" s="21"/>
+      <c r="J175" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" s="8" customFormat="1">
+      <c r="A176" s="8">
+        <v>175</v>
+      </c>
+      <c r="B176" s="22">
+        <v>31</v>
+      </c>
+      <c r="C176" s="22">
+        <v>6</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E176" s="22"/>
+      <c r="F176" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G176" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H176" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I176" s="21"/>
+      <c r="J176" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" s="8" customFormat="1">
+      <c r="A177" s="8">
+        <v>176</v>
+      </c>
+      <c r="B177" s="22">
+        <v>31</v>
+      </c>
+      <c r="C177" s="22">
+        <v>7</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E177" s="22"/>
+      <c r="F177" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G177" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H177" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I177" s="21"/>
+      <c r="J177" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" s="8" customFormat="1">
+      <c r="A178" s="8">
+        <v>177</v>
+      </c>
+      <c r="B178" s="22">
+        <v>31</v>
+      </c>
+      <c r="C178" s="22">
+        <v>8</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E178" s="22"/>
+      <c r="F178" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G178" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H178" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I178" s="21"/>
+      <c r="J178" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="9"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="263">
   <si>
     <t>id|</t>
   </si>
@@ -1271,6 +1271,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>暖心好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖心好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>恭喜您在寒冬送温暖活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1287,11 +1295,39 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>太阳兑奖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳兑奖</t>
+    <t>爆竹换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹换好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹声声辞旧岁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹声声辞旧岁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在爆竹换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在爆竹换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年礼盒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>核桃花生奶16盒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米5斤</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1449,7 +1485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1465,9 +1501,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1860,8 +1893,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1871,9 +1904,9 @@
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
     <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="53.375" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="45" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="44" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="45" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="44" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="33" style="4" customWidth="1"/>
     <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
@@ -1950,11 +1983,11 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="1">
@@ -1986,9 +2019,9 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="L3" s="10"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1">
@@ -2020,8 +2053,8 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
@@ -2047,7 +2080,7 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -2078,14 +2111,14 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>5</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="1">
@@ -2111,805 +2144,849 @@
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>6</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A8" s="8">
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1607385600</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>1607961599</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="26" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
         <v>7</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>7</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
         <v>0</v>
       </c>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A9" s="8">
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1607385600</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>1607961599</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="26" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
         <v>8</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>8</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="26">
         <v>0</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A10" s="8">
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+    </row>
+    <row r="10" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>1607990400</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>1608566399</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="26" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
         <v>9</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>9</v>
       </c>
-      <c r="K10" s="27">
-        <v>1</v>
-      </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-    </row>
-    <row r="11" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A11" s="8">
+      <c r="K10" s="26">
+        <v>1</v>
+      </c>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+    </row>
+    <row r="11" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>1607990400</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>1608566399</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
         <v>10</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>10</v>
       </c>
-      <c r="K11" s="27">
-        <v>1</v>
-      </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-    </row>
-    <row r="12" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A12" s="8">
+      <c r="K11" s="26">
+        <v>1</v>
+      </c>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+    </row>
+    <row r="12" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>1609775999</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="26" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
         <v>11</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>11</v>
       </c>
-      <c r="K12" s="27">
-        <v>1</v>
-      </c>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-    </row>
-    <row r="13" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A13" s="8">
+      <c r="K12" s="26">
+        <v>1</v>
+      </c>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+    </row>
+    <row r="13" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>1609775999</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="26" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
         <v>12</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>12</v>
       </c>
-      <c r="K13" s="27">
-        <v>1</v>
-      </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A14" s="8">
+      <c r="K13" s="26">
+        <v>1</v>
+      </c>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+    </row>
+    <row r="14" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>1609775999</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="26" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
         <v>13</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>13</v>
       </c>
-      <c r="K14" s="27">
-        <v>1</v>
-      </c>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-    </row>
-    <row r="15" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A15" s="8">
+      <c r="K14" s="26">
+        <v>1</v>
+      </c>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+    </row>
+    <row r="15" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>1609775999</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="26" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
         <v>14</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <v>14</v>
       </c>
-      <c r="K15" s="27">
-        <v>1</v>
-      </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-    </row>
-    <row r="16" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A16" s="8">
+      <c r="K15" s="26">
+        <v>1</v>
+      </c>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+    </row>
+    <row r="16" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>1609804800</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>1610380799</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="26" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
         <v>15</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>15</v>
       </c>
-      <c r="K16" s="27">
-        <v>1</v>
-      </c>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-    </row>
-    <row r="17" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A17" s="8">
+      <c r="K16" s="26">
+        <v>1</v>
+      </c>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+    </row>
+    <row r="17" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>1609804800</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>1610380799</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="26" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
         <v>16</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>16</v>
       </c>
-      <c r="K17" s="27">
-        <v>1</v>
-      </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-    </row>
-    <row r="18" spans="1:16" s="43" customFormat="1">
-      <c r="A18" s="8">
+      <c r="K17" s="26">
+        <v>1</v>
+      </c>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+    </row>
+    <row r="18" spans="1:16" s="42" customFormat="1">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>1610409600</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>1610985599</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="8">
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
         <v>17</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="15">
         <v>17</v>
       </c>
-      <c r="K18" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="27" customFormat="1">
-      <c r="A19" s="8">
+      <c r="K18" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="26" customFormat="1">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>1610409600</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>1610985599</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="26" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
         <v>18</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="15">
         <v>18</v>
       </c>
-      <c r="K19" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="43" customFormat="1">
-      <c r="A20" s="8">
+      <c r="K19" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="42" customFormat="1">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
         <v>19</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="15">
         <v>19</v>
       </c>
-      <c r="K20" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="27" customFormat="1">
-      <c r="A21" s="8">
+      <c r="K20" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="26" customFormat="1">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="26" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8">
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
         <v>20</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <v>20</v>
       </c>
-      <c r="K21" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A22" s="8">
+      <c r="K21" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="46" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="H22" s="42">
-        <v>1</v>
-      </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="42">
+      <c r="H22" s="41">
+        <v>1</v>
+      </c>
+      <c r="I22" s="42"/>
+      <c r="J22" s="41">
         <v>21</v>
       </c>
-      <c r="K22" s="27">
-        <v>1</v>
-      </c>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-    </row>
-    <row r="23" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A23" s="8">
+      <c r="K22" s="26">
+        <v>1</v>
+      </c>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+    </row>
+    <row r="23" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="46" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="42">
-        <v>1</v>
-      </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="42">
+      <c r="H23" s="41">
+        <v>1</v>
+      </c>
+      <c r="I23" s="42"/>
+      <c r="J23" s="41">
         <v>22</v>
       </c>
-      <c r="K23" s="27">
-        <v>1</v>
-      </c>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-    </row>
-    <row r="24" spans="1:16" s="27" customFormat="1" ht="16.5">
-      <c r="A24" s="8">
+      <c r="K23" s="26">
+        <v>1</v>
+      </c>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+    </row>
+    <row r="24" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="46" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H24" s="42">
-        <v>1</v>
-      </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="42">
+      <c r="H24" s="41">
+        <v>1</v>
+      </c>
+      <c r="I24" s="42"/>
+      <c r="J24" s="41">
         <v>23</v>
       </c>
-      <c r="K24" s="27">
-        <v>1</v>
-      </c>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-    </row>
-    <row r="25" spans="1:16" s="27" customFormat="1">
-      <c r="A25" s="8">
+      <c r="K24" s="26">
+        <v>1</v>
+      </c>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+    </row>
+    <row r="25" spans="1:16" s="26" customFormat="1">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="H25" s="42">
-        <v>1</v>
-      </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="42">
+      <c r="H25" s="41">
+        <v>1</v>
+      </c>
+      <c r="I25" s="42"/>
+      <c r="J25" s="41">
         <v>24</v>
       </c>
-      <c r="K25" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="27" customFormat="1">
-      <c r="A26" s="8">
+      <c r="K25" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="26" customFormat="1">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="H26" s="42">
-        <v>1</v>
-      </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="42">
+      <c r="H26" s="41">
+        <v>1</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="J26" s="41">
         <v>25</v>
       </c>
-      <c r="K26" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="27" customFormat="1">
-      <c r="A27" s="8">
+      <c r="K26" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="26" customFormat="1">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="46" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H27" s="42">
-        <v>1</v>
-      </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="42">
+      <c r="H27" s="41">
+        <v>1</v>
+      </c>
+      <c r="I27" s="42"/>
+      <c r="J27" s="41">
         <v>26</v>
       </c>
-      <c r="K27" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="27" customFormat="1">
-      <c r="A28" s="8">
+      <c r="K27" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="26" customFormat="1">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="46" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="H28" s="42">
-        <v>1</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="42">
+      <c r="H28" s="41">
+        <v>1</v>
+      </c>
+      <c r="I28" s="42"/>
+      <c r="J28" s="41">
         <v>27</v>
       </c>
-      <c r="K28" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="27" customFormat="1">
-      <c r="A29" s="8">
+      <c r="K28" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="26" customFormat="1">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="46" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="H29" s="42">
-        <v>1</v>
-      </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="42">
+      <c r="H29" s="41">
+        <v>1</v>
+      </c>
+      <c r="I29" s="42"/>
+      <c r="J29" s="41">
         <v>28</v>
       </c>
-      <c r="K29" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="27" customFormat="1">
-      <c r="A30" s="8">
+      <c r="K29" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="26" customFormat="1">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>1611014400</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>1611590399</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="46" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="42">
-        <v>1</v>
-      </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="42">
+      <c r="H30" s="41">
+        <v>1</v>
+      </c>
+      <c r="I30" s="42"/>
+      <c r="J30" s="41">
         <v>29</v>
       </c>
-      <c r="K30" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="43" customFormat="1">
-      <c r="A31" s="8">
+      <c r="K30" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="42" customFormat="1">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="21">
+        <v>252</v>
+      </c>
+      <c r="C31" s="7">
         <v>1611619200</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="7">
         <v>1612195199</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
       <c r="G31" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="H31" s="21">
-        <v>1</v>
-      </c>
-      <c r="I31" s="21">
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
         <v>21</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="15">
         <v>30</v>
       </c>
-      <c r="K31" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="27" customFormat="1">
-      <c r="A32" s="8">
+      <c r="K31" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="26" customFormat="1">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="38">
+      <c r="B32" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" s="7">
         <v>1611619200</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="7">
         <v>1612195199</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="H32" s="38">
-        <v>1</v>
-      </c>
-      <c r="I32" s="38">
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
         <v>22</v>
       </c>
-      <c r="J32" s="47">
+      <c r="J32" s="15">
         <v>31</v>
       </c>
-      <c r="K32" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="K32" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="42" customFormat="1">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1612224000</v>
+      </c>
+      <c r="D33" s="20">
+        <v>1612799999</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="20">
+        <v>1</v>
+      </c>
+      <c r="I33" s="20">
+        <v>23</v>
+      </c>
+      <c r="J33" s="35">
+        <v>32</v>
+      </c>
+      <c r="K33" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="26" customFormat="1">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="37">
+        <v>1612224000</v>
+      </c>
+      <c r="D34" s="37">
+        <v>1612799999</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" s="37">
+        <v>1</v>
+      </c>
+      <c r="I34" s="37">
+        <v>24</v>
+      </c>
+      <c r="J34" s="46">
+        <v>33</v>
+      </c>
+      <c r="K34" s="47">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2922,10 +2999,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3048,166 +3125,188 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="8" customFormat="1">
-      <c r="A10" s="8">
+    <row r="10" spans="1:7" s="7" customFormat="1">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="8" customFormat="1">
-      <c r="A11" s="8">
+    <row r="11" spans="1:7" s="7" customFormat="1">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1">
-      <c r="A12" s="8">
+    <row r="12" spans="1:7" s="7" customFormat="1">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="8" customFormat="1">
-      <c r="A13" s="8">
+    <row r="13" spans="1:7" s="7" customFormat="1">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="8" customFormat="1">
-      <c r="A14" s="8">
+    <row r="14" spans="1:7" s="7" customFormat="1">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" s="8" customFormat="1">
-      <c r="A15" s="8">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1">
-      <c r="A16" s="8">
+    <row r="16" spans="1:7" s="7" customFormat="1">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:3" s="8" customFormat="1">
-      <c r="A17" s="8">
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:3" s="7" customFormat="1">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="8" customFormat="1">
-      <c r="A18" s="8">
+    <row r="18" spans="1:3" s="7" customFormat="1">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="8" customFormat="1">
-      <c r="A19" s="8">
+    <row r="19" spans="1:3" s="7" customFormat="1">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="8" customFormat="1">
-      <c r="A20" s="8">
+    <row r="20" spans="1:3" s="7" customFormat="1">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="8" customFormat="1">
-      <c r="A21" s="8">
+    <row r="21" spans="1:3" s="7" customFormat="1">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="21">
+    <row r="22" spans="1:3" s="7" customFormat="1">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="38">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="7" customFormat="1">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="39" t="s">
+      <c r="B23" s="25" t="s">
         <v>249</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="37">
+        <v>24</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3220,13 +3319,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E163" sqref="E163:E165"/>
+      <selection pane="bottomRight" activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3260,10 +3359,10 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -3373,7 +3472,7 @@
       <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -3393,7 +3492,7 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -3416,7 +3515,7 @@
       <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -3537,7 +3636,7 @@
       <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
@@ -3549,21 +3648,21 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>3</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="1">
@@ -3574,21 +3673,21 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>3</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="1">
@@ -3599,20 +3698,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>3</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>5</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="1">
@@ -3623,20 +3722,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>3</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="1">
@@ -3647,20 +3746,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>3</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>7</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="1">
@@ -3671,21 +3770,21 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>4</v>
       </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="12" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11" t="s">
         <v>93</v>
       </c>
       <c r="J18" s="1">
@@ -3696,21 +3795,21 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>4</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>2</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="12" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="11" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="1">
@@ -3721,21 +3820,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>4</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>3</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="12" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="11" t="s">
         <v>95</v>
       </c>
       <c r="J20" s="1">
@@ -3746,21 +3845,21 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>4</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>4</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3768,21 +3867,21 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>4</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>5</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="11" t="s">
         <v>97</v>
       </c>
       <c r="J22" s="1">
@@ -3793,21 +3892,21 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>4</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>6</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="11" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="1">
@@ -3818,21 +3917,21 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>4</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>7</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="11" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="1">
@@ -3843,4023 +3942,4426 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>4</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>8</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="11" t="s">
         <v>100</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="8" customFormat="1">
-      <c r="A26" s="8">
+    <row r="26" spans="1:10" s="7" customFormat="1">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="30">
         <v>5</v>
       </c>
-      <c r="C26" s="31">
-        <v>1</v>
-      </c>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="30">
+        <v>1</v>
+      </c>
+      <c r="D26" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="31" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="8" customFormat="1">
-      <c r="A27" s="8">
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="7" customFormat="1">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="30">
         <v>5</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="30">
         <v>2</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="31" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="8" customFormat="1">
-      <c r="A28" s="8">
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="7" customFormat="1">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="30">
         <v>5</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="30">
         <v>3</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="31" t="s">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="8" customFormat="1">
-      <c r="A29" s="8">
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="7" customFormat="1">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="30">
         <v>5</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="30">
         <v>4</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="33" t="s">
+      <c r="E29" s="30"/>
+      <c r="F29" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="8" customFormat="1">
-      <c r="A30" s="8">
+    <row r="30" spans="1:10" s="7" customFormat="1">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="30">
         <v>5</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="30">
         <v>5</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="33" t="s">
+      <c r="E30" s="30"/>
+      <c r="F30" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="8" customFormat="1">
-      <c r="A31" s="8">
+    <row r="31" spans="1:10" s="7" customFormat="1">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="30">
         <v>5</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="30">
         <v>6</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="33" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="8" customFormat="1">
-      <c r="A32" s="8">
+    <row r="32" spans="1:10" s="7" customFormat="1">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="30">
         <v>5</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="30">
         <v>7</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="33" t="s">
+      <c r="E32" s="30"/>
+      <c r="F32" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="8" customFormat="1">
-      <c r="A33" s="8">
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="7" customFormat="1">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="30">
         <v>5</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="30">
         <v>8</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="33" t="s">
+      <c r="E33" s="30"/>
+      <c r="F33" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="8" customFormat="1">
-      <c r="A34" s="8">
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="7" customFormat="1">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="30">
         <v>6</v>
       </c>
-      <c r="C34" s="31">
-        <v>1</v>
-      </c>
-      <c r="D34" s="32" t="s">
+      <c r="C34" s="30">
+        <v>1</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="31" t="s">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="8" customFormat="1">
-      <c r="A35" s="8">
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="7" customFormat="1">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="30">
         <v>6</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="30">
         <v>2</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="31" t="s">
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="8" customFormat="1">
-      <c r="A36" s="8">
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="7" customFormat="1">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="30">
         <v>6</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <v>3</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="31" t="s">
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="8" customFormat="1">
-      <c r="A37" s="8">
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="7" customFormat="1">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="30">
         <v>6</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="30">
         <v>4</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="33" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="8" customFormat="1">
-      <c r="A38" s="8">
+    <row r="38" spans="1:10" s="7" customFormat="1">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="30">
         <v>6</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="30">
         <v>5</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="33" t="s">
+      <c r="E38" s="30"/>
+      <c r="F38" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="8" customFormat="1">
-      <c r="A39" s="8">
+    <row r="39" spans="1:10" s="7" customFormat="1">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="30">
         <v>6</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="30">
         <v>6</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="30"/>
+      <c r="F39" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="8" customFormat="1">
-      <c r="A40" s="8">
+    <row r="40" spans="1:10" s="7" customFormat="1">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="30">
         <v>6</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="30">
         <v>7</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="33" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="8" customFormat="1">
-      <c r="A41" s="8">
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="7" customFormat="1">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="30">
         <v>6</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="30">
         <v>8</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="33" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="8" customFormat="1">
-      <c r="A42" s="8">
+      <c r="J41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="7" customFormat="1">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="30">
         <v>7</v>
       </c>
-      <c r="C42" s="31">
-        <v>1</v>
-      </c>
-      <c r="D42" s="32" t="s">
+      <c r="C42" s="30">
+        <v>1</v>
+      </c>
+      <c r="D42" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="31" t="s">
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="8" customFormat="1">
-      <c r="A43" s="8">
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="7" customFormat="1">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="30">
         <v>7</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="30">
         <v>2</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="31" t="s">
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="8" customFormat="1">
-      <c r="A44" s="8">
+      <c r="J43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="7" customFormat="1">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="30">
         <v>7</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="30">
         <v>3</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="31" t="s">
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="8" customFormat="1">
-      <c r="A45" s="8">
+      <c r="J44" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="7" customFormat="1">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="30">
         <v>7</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="30">
         <v>4</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="33" t="s">
+      <c r="E45" s="30"/>
+      <c r="F45" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="G45" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="8" customFormat="1">
-      <c r="A46" s="8">
+    <row r="46" spans="1:10" s="7" customFormat="1">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46" s="30">
         <v>7</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="30">
         <v>5</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="33" t="s">
+      <c r="E46" s="30"/>
+      <c r="F46" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="8" customFormat="1">
-      <c r="A47" s="8">
+    <row r="47" spans="1:10" s="7" customFormat="1">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B47" s="30">
         <v>7</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="30">
         <v>6</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="33" t="s">
+      <c r="E47" s="30"/>
+      <c r="F47" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H47" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J47" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="8" customFormat="1">
-      <c r="A48" s="8">
+    <row r="48" spans="1:10" s="7" customFormat="1">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="31">
+      <c r="B48" s="30">
         <v>7</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="30">
         <v>7</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="33" t="s">
+      <c r="E48" s="30"/>
+      <c r="F48" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="33" t="s">
+      <c r="G48" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="8" customFormat="1">
-      <c r="A49" s="8">
+      <c r="J48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="7" customFormat="1">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="30">
         <v>7</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="30">
         <v>8</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="33" t="s">
+      <c r="E49" s="30"/>
+      <c r="F49" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="31" t="s">
+      <c r="H49" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J49" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="8" customFormat="1">
-      <c r="A50" s="8">
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="7" customFormat="1">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="30">
         <v>8</v>
       </c>
-      <c r="C50" s="31">
-        <v>1</v>
-      </c>
-      <c r="D50" s="32" t="s">
+      <c r="C50" s="30">
+        <v>1</v>
+      </c>
+      <c r="D50" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="31" t="s">
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="8" customFormat="1">
-      <c r="A51" s="8">
+      <c r="J50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="7" customFormat="1">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="30">
         <v>8</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="30">
         <v>2</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="31" t="s">
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="8" customFormat="1">
-      <c r="A52" s="8">
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="7" customFormat="1">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="30">
         <v>8</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="30">
         <v>3</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="31" t="s">
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="8" customFormat="1">
-      <c r="A53" s="8">
+      <c r="J52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="7" customFormat="1">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B53" s="30">
         <v>8</v>
       </c>
-      <c r="C53" s="31">
+      <c r="C53" s="30">
         <v>4</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="33" t="s">
+      <c r="E53" s="30"/>
+      <c r="F53" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="31" t="s">
+      <c r="H53" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="8" customFormat="1">
-      <c r="A54" s="8">
+    <row r="54" spans="1:10" s="7" customFormat="1">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="31">
+      <c r="B54" s="30">
         <v>8</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="30">
         <v>5</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="33" t="s">
+      <c r="E54" s="30"/>
+      <c r="F54" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H54" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="8" customFormat="1">
-      <c r="A55" s="8">
+    <row r="55" spans="1:10" s="7" customFormat="1">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B55" s="30">
         <v>8</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="30">
         <v>6</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="33" t="s">
+      <c r="E55" s="30"/>
+      <c r="F55" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="26" t="s">
+      <c r="H55" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="8" customFormat="1">
-      <c r="A56" s="8">
+    <row r="56" spans="1:10" s="7" customFormat="1">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="31">
+      <c r="B56" s="30">
         <v>8</v>
       </c>
-      <c r="C56" s="31">
+      <c r="C56" s="30">
         <v>7</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="33" t="s">
+      <c r="E56" s="30"/>
+      <c r="F56" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="33" t="s">
+      <c r="G56" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J56" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="8" customFormat="1">
-      <c r="A57" s="8">
+      <c r="J56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="7" customFormat="1">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="31">
+      <c r="B57" s="30">
         <v>8</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="30">
         <v>8</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="33" t="s">
+      <c r="E57" s="30"/>
+      <c r="F57" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="33" t="s">
+      <c r="G57" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="H57" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="8" customFormat="1">
-      <c r="A58" s="8">
+      <c r="J57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="7" customFormat="1">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B58" s="30">
         <v>9</v>
       </c>
-      <c r="C58" s="31">
-        <v>1</v>
-      </c>
-      <c r="D58" s="32" t="s">
+      <c r="C58" s="30">
+        <v>1</v>
+      </c>
+      <c r="D58" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="31" t="s">
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J58" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="8" customFormat="1">
-      <c r="A59" s="8">
+      <c r="J58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="7" customFormat="1">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="31">
+      <c r="B59" s="30">
         <v>9</v>
       </c>
-      <c r="C59" s="31">
+      <c r="C59" s="30">
         <v>2</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D59" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="31" t="s">
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J59" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="8" customFormat="1">
-      <c r="A60" s="8">
+      <c r="J59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="7" customFormat="1">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="31">
+      <c r="B60" s="30">
         <v>9</v>
       </c>
-      <c r="C60" s="31">
+      <c r="C60" s="30">
         <v>3</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="31" t="s">
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J60" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="8" customFormat="1">
-      <c r="A61" s="8">
+      <c r="J60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="7" customFormat="1">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="31">
+      <c r="B61" s="30">
         <v>9</v>
       </c>
-      <c r="C61" s="31">
+      <c r="C61" s="30">
         <v>4</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="33" t="s">
+      <c r="E61" s="30"/>
+      <c r="F61" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="33" t="s">
+      <c r="G61" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="31" t="s">
+      <c r="H61" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="8" customFormat="1">
-      <c r="A62" s="8">
+    <row r="62" spans="1:10" s="7" customFormat="1">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B62" s="30">
         <v>9</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62" s="30">
         <v>5</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="D62" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="33" t="s">
+      <c r="E62" s="30"/>
+      <c r="F62" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="33" t="s">
+      <c r="G62" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="26" t="s">
+      <c r="H62" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J62" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="8" customFormat="1">
-      <c r="A63" s="8">
+    <row r="63" spans="1:10" s="7" customFormat="1">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="31">
+      <c r="B63" s="30">
         <v>9</v>
       </c>
-      <c r="C63" s="31">
+      <c r="C63" s="30">
         <v>6</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="33" t="s">
+      <c r="E63" s="30"/>
+      <c r="F63" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="33" t="s">
+      <c r="G63" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="26" t="s">
+      <c r="H63" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J63" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="8" customFormat="1">
-      <c r="A64" s="8">
+    <row r="64" spans="1:10" s="7" customFormat="1">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="31">
+      <c r="B64" s="30">
         <v>9</v>
       </c>
-      <c r="C64" s="31">
+      <c r="C64" s="30">
         <v>7</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="31"/>
-      <c r="F64" s="33" t="s">
+      <c r="E64" s="30"/>
+      <c r="F64" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="33" t="s">
+      <c r="G64" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J64" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="8" customFormat="1">
-      <c r="A65" s="8">
+      <c r="J64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="7" customFormat="1">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="31">
+      <c r="B65" s="30">
         <v>9</v>
       </c>
-      <c r="C65" s="31">
+      <c r="C65" s="30">
         <v>8</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="33" t="s">
+      <c r="E65" s="30"/>
+      <c r="F65" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="33" t="s">
+      <c r="G65" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="31" t="s">
+      <c r="H65" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J65" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="8" customFormat="1">
-      <c r="A66" s="8">
+      <c r="J65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="7" customFormat="1">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="31">
+      <c r="B66" s="30">
         <v>10</v>
       </c>
-      <c r="C66" s="31">
-        <v>1</v>
-      </c>
-      <c r="D66" s="32" t="s">
+      <c r="C66" s="30">
+        <v>1</v>
+      </c>
+      <c r="D66" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="31" t="s">
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J66" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="8" customFormat="1">
-      <c r="A67" s="8">
+      <c r="J66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="7" customFormat="1">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="31">
+      <c r="B67" s="30">
         <v>10</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67" s="30">
         <v>2</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="31" t="s">
+      <c r="E67" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="31" t="s">
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J67" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="8" customFormat="1">
-      <c r="A68" s="8">
+      <c r="J67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="7" customFormat="1">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="31">
+      <c r="B68" s="30">
         <v>10</v>
       </c>
-      <c r="C68" s="31">
+      <c r="C68" s="30">
         <v>3</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="31" t="s">
+      <c r="E68" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="31" t="s">
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J68" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="8" customFormat="1">
-      <c r="A69" s="8">
+      <c r="J68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="7" customFormat="1">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="31">
+      <c r="B69" s="30">
         <v>10</v>
       </c>
-      <c r="C69" s="31">
+      <c r="C69" s="30">
         <v>4</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="33" t="s">
+      <c r="E69" s="30"/>
+      <c r="F69" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H69" s="31" t="s">
+      <c r="H69" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="8" customFormat="1">
-      <c r="A70" s="8">
+    <row r="70" spans="1:10" s="7" customFormat="1">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="31">
+      <c r="B70" s="30">
         <v>10</v>
       </c>
-      <c r="C70" s="31">
+      <c r="C70" s="30">
         <v>5</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="33" t="s">
+      <c r="E70" s="30"/>
+      <c r="F70" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="26" t="s">
+      <c r="H70" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J70" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="8" customFormat="1">
-      <c r="A71" s="8">
+    <row r="71" spans="1:10" s="7" customFormat="1">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="31">
+      <c r="B71" s="30">
         <v>10</v>
       </c>
-      <c r="C71" s="31">
+      <c r="C71" s="30">
         <v>6</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="31"/>
-      <c r="F71" s="33" t="s">
+      <c r="E71" s="30"/>
+      <c r="F71" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="26" t="s">
+      <c r="H71" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="8" customFormat="1">
-      <c r="A72" s="8">
+    <row r="72" spans="1:10" s="7" customFormat="1">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="31">
+      <c r="B72" s="30">
         <v>10</v>
       </c>
-      <c r="C72" s="31">
+      <c r="C72" s="30">
         <v>7</v>
       </c>
-      <c r="D72" s="32" t="s">
+      <c r="D72" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="33" t="s">
+      <c r="E72" s="30"/>
+      <c r="F72" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="26" t="s">
+      <c r="H72" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J72" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="8" customFormat="1">
-      <c r="A73" s="8">
+      <c r="J72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="7" customFormat="1">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="31">
+      <c r="B73" s="30">
         <v>10</v>
       </c>
-      <c r="C73" s="31">
+      <c r="C73" s="30">
         <v>8</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="33" t="s">
+      <c r="E73" s="30"/>
+      <c r="F73" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="33" t="s">
+      <c r="G73" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="31" t="s">
+      <c r="H73" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J73" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="8" customFormat="1">
-      <c r="A74" s="8">
+      <c r="J73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="7" customFormat="1">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="31">
+      <c r="B74" s="30">
         <v>11</v>
       </c>
-      <c r="C74" s="31">
-        <v>1</v>
-      </c>
-      <c r="D74" s="32" t="s">
+      <c r="C74" s="30">
+        <v>1</v>
+      </c>
+      <c r="D74" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="31" t="s">
+      <c r="E74" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="31" t="s">
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J74" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="8" customFormat="1">
-      <c r="A75" s="8">
+      <c r="J74" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="7" customFormat="1">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="31">
+      <c r="B75" s="30">
         <v>11</v>
       </c>
-      <c r="C75" s="31">
+      <c r="C75" s="30">
         <v>2</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="31" t="s">
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="8" customFormat="1">
-      <c r="A76" s="8">
+      <c r="J75" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="7" customFormat="1">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="31">
+      <c r="B76" s="30">
         <v>11</v>
       </c>
-      <c r="C76" s="31">
+      <c r="C76" s="30">
         <v>3</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="31" t="s">
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J76" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="8" customFormat="1">
-      <c r="A77" s="8">
+      <c r="J76" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="7" customFormat="1">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="31">
+      <c r="B77" s="30">
         <v>11</v>
       </c>
-      <c r="C77" s="31">
+      <c r="C77" s="30">
         <v>4</v>
       </c>
-      <c r="D77" s="32" t="s">
+      <c r="D77" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="31"/>
-      <c r="F77" s="33" t="s">
+      <c r="E77" s="30"/>
+      <c r="F77" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="33" t="s">
+      <c r="G77" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="31" t="s">
+      <c r="H77" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="8" customFormat="1">
-      <c r="A78" s="8">
+    <row r="78" spans="1:10" s="7" customFormat="1">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="31">
+      <c r="B78" s="30">
         <v>11</v>
       </c>
-      <c r="C78" s="31">
+      <c r="C78" s="30">
         <v>5</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D78" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="31"/>
-      <c r="F78" s="33" t="s">
+      <c r="E78" s="30"/>
+      <c r="F78" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="26" t="s">
+      <c r="H78" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J78" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="8" customFormat="1">
-      <c r="A79" s="8">
+    <row r="79" spans="1:10" s="7" customFormat="1">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="31">
+      <c r="B79" s="30">
         <v>11</v>
       </c>
-      <c r="C79" s="31">
+      <c r="C79" s="30">
         <v>6</v>
       </c>
-      <c r="D79" s="32" t="s">
+      <c r="D79" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E79" s="31"/>
-      <c r="F79" s="33" t="s">
+      <c r="E79" s="30"/>
+      <c r="F79" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H79" s="26" t="s">
+      <c r="H79" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J79" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="8" customFormat="1">
-      <c r="A80" s="8">
+    <row r="80" spans="1:10" s="7" customFormat="1">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="31">
+      <c r="B80" s="30">
         <v>11</v>
       </c>
-      <c r="C80" s="31">
+      <c r="C80" s="30">
         <v>7</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D80" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="31"/>
-      <c r="F80" s="33" t="s">
+      <c r="E80" s="30"/>
+      <c r="F80" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="26" t="s">
+      <c r="H80" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J80" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="8" customFormat="1">
-      <c r="A81" s="8">
+      <c r="J80" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="7" customFormat="1">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="31">
+      <c r="B81" s="30">
         <v>11</v>
       </c>
-      <c r="C81" s="31">
+      <c r="C81" s="30">
         <v>8</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D81" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="31"/>
-      <c r="F81" s="33" t="s">
+      <c r="E81" s="30"/>
+      <c r="F81" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="H81" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J81" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="8" customFormat="1">
-      <c r="A82" s="8">
+      <c r="J81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="7" customFormat="1">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="31">
+      <c r="B82" s="30">
         <v>12</v>
       </c>
-      <c r="C82" s="31">
-        <v>1</v>
-      </c>
-      <c r="D82" s="32" t="s">
+      <c r="C82" s="30">
+        <v>1</v>
+      </c>
+      <c r="D82" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="E82" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="31" t="s">
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J82" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="8" customFormat="1">
-      <c r="A83" s="8">
+      <c r="J82" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="7" customFormat="1">
+      <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="31">
+      <c r="B83" s="30">
         <v>12</v>
       </c>
-      <c r="C83" s="31">
+      <c r="C83" s="30">
         <v>2</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E83" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="31" t="s">
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J83" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="8" customFormat="1">
-      <c r="A84" s="8">
+      <c r="J83" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="7" customFormat="1">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="31">
+      <c r="B84" s="30">
         <v>12</v>
       </c>
-      <c r="C84" s="31">
+      <c r="C84" s="30">
         <v>3</v>
       </c>
-      <c r="D84" s="32" t="s">
+      <c r="D84" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E84" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="31" t="s">
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J84" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="8" customFormat="1">
-      <c r="A85" s="8">
+      <c r="J84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="7" customFormat="1">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="31">
+      <c r="B85" s="30">
         <v>12</v>
       </c>
-      <c r="C85" s="31">
+      <c r="C85" s="30">
         <v>4</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="D85" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="31"/>
-      <c r="F85" s="33" t="s">
+      <c r="E85" s="30"/>
+      <c r="F85" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H85" s="31" t="s">
+      <c r="H85" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="8" customFormat="1">
-      <c r="A86" s="8">
+    <row r="86" spans="1:10" s="7" customFormat="1">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="31">
+      <c r="B86" s="30">
         <v>12</v>
       </c>
-      <c r="C86" s="31">
+      <c r="C86" s="30">
         <v>5</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="D86" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="31"/>
-      <c r="F86" s="33" t="s">
+      <c r="E86" s="30"/>
+      <c r="F86" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="33" t="s">
+      <c r="G86" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="26" t="s">
+      <c r="H86" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J86" s="8">
+      <c r="J86" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="8" customFormat="1">
-      <c r="A87" s="8">
+    <row r="87" spans="1:10" s="7" customFormat="1">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="31">
+      <c r="B87" s="30">
         <v>12</v>
       </c>
-      <c r="C87" s="31">
+      <c r="C87" s="30">
         <v>6</v>
       </c>
-      <c r="D87" s="32" t="s">
+      <c r="D87" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="31"/>
-      <c r="F87" s="33" t="s">
+      <c r="E87" s="30"/>
+      <c r="F87" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="33" t="s">
+      <c r="G87" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H87" s="26" t="s">
+      <c r="H87" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J87" s="8">
+      <c r="J87" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="8" customFormat="1">
-      <c r="A88" s="8">
+    <row r="88" spans="1:10" s="7" customFormat="1">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="31">
+      <c r="B88" s="30">
         <v>12</v>
       </c>
-      <c r="C88" s="31">
+      <c r="C88" s="30">
         <v>7</v>
       </c>
-      <c r="D88" s="32" t="s">
+      <c r="D88" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="33" t="s">
+      <c r="E88" s="30"/>
+      <c r="F88" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="26" t="s">
+      <c r="H88" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J88" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="8" customFormat="1">
-      <c r="A89" s="8">
+      <c r="J88" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="7" customFormat="1">
+      <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="31">
+      <c r="B89" s="30">
         <v>12</v>
       </c>
-      <c r="C89" s="31">
+      <c r="C89" s="30">
         <v>8</v>
       </c>
-      <c r="D89" s="32" t="s">
+      <c r="D89" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="31"/>
-      <c r="F89" s="33" t="s">
+      <c r="E89" s="30"/>
+      <c r="F89" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="33" t="s">
+      <c r="G89" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="31" t="s">
+      <c r="H89" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J89" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="8" customFormat="1">
-      <c r="A90" s="8">
+      <c r="J89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="7" customFormat="1">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="31">
+      <c r="B90" s="30">
         <v>13</v>
       </c>
-      <c r="C90" s="31">
-        <v>1</v>
-      </c>
-      <c r="D90" s="32" t="s">
+      <c r="C90" s="30">
+        <v>1</v>
+      </c>
+      <c r="D90" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E90" s="31" t="s">
+      <c r="E90" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="31" t="s">
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J90" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="8" customFormat="1">
-      <c r="A91" s="8">
+      <c r="J90" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="7" customFormat="1">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="31">
+      <c r="B91" s="30">
         <v>13</v>
       </c>
-      <c r="C91" s="31">
+      <c r="C91" s="30">
         <v>2</v>
       </c>
-      <c r="D91" s="32" t="s">
+      <c r="D91" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E91" s="31" t="s">
+      <c r="E91" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="31" t="s">
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J91" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="8" customFormat="1">
-      <c r="A92" s="8">
+      <c r="J91" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="7" customFormat="1">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="31">
+      <c r="B92" s="30">
         <v>13</v>
       </c>
-      <c r="C92" s="31">
+      <c r="C92" s="30">
         <v>3</v>
       </c>
-      <c r="D92" s="32" t="s">
+      <c r="D92" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="E92" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="31" t="s">
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J92" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="8" customFormat="1">
-      <c r="A93" s="8">
+      <c r="J92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="7" customFormat="1">
+      <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="31">
+      <c r="B93" s="30">
         <v>13</v>
       </c>
-      <c r="C93" s="31">
+      <c r="C93" s="30">
         <v>4</v>
       </c>
-      <c r="D93" s="32" t="s">
+      <c r="D93" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E93" s="31"/>
-      <c r="F93" s="33" t="s">
+      <c r="E93" s="30"/>
+      <c r="F93" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="33" t="s">
+      <c r="G93" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H93" s="31" t="s">
+      <c r="H93" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="8" customFormat="1">
-      <c r="A94" s="8">
+    <row r="94" spans="1:10" s="7" customFormat="1">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="31">
+      <c r="B94" s="30">
         <v>13</v>
       </c>
-      <c r="C94" s="31">
+      <c r="C94" s="30">
         <v>5</v>
       </c>
-      <c r="D94" s="32" t="s">
+      <c r="D94" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E94" s="31"/>
-      <c r="F94" s="33" t="s">
+      <c r="E94" s="30"/>
+      <c r="F94" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G94" s="33" t="s">
+      <c r="G94" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="26" t="s">
+      <c r="H94" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J94" s="8">
+      <c r="J94" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="8" customFormat="1">
-      <c r="A95" s="8">
+    <row r="95" spans="1:10" s="7" customFormat="1">
+      <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="31">
+      <c r="B95" s="30">
         <v>13</v>
       </c>
-      <c r="C95" s="31">
+      <c r="C95" s="30">
         <v>6</v>
       </c>
-      <c r="D95" s="32" t="s">
+      <c r="D95" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E95" s="31"/>
-      <c r="F95" s="33" t="s">
+      <c r="E95" s="30"/>
+      <c r="F95" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G95" s="33" t="s">
+      <c r="G95" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H95" s="26" t="s">
+      <c r="H95" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J95" s="8">
+      <c r="J95" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="8" customFormat="1">
-      <c r="A96" s="8">
+    <row r="96" spans="1:10" s="7" customFormat="1">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="31">
+      <c r="B96" s="30">
         <v>13</v>
       </c>
-      <c r="C96" s="31">
+      <c r="C96" s="30">
         <v>7</v>
       </c>
-      <c r="D96" s="32" t="s">
+      <c r="D96" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="31"/>
-      <c r="F96" s="33" t="s">
+      <c r="E96" s="30"/>
+      <c r="F96" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G96" s="33" t="s">
+      <c r="G96" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H96" s="26" t="s">
+      <c r="H96" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J96" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" s="8" customFormat="1">
-      <c r="A97" s="8">
+      <c r="J96" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="7" customFormat="1">
+      <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="31">
+      <c r="B97" s="30">
         <v>13</v>
       </c>
-      <c r="C97" s="31">
+      <c r="C97" s="30">
         <v>8</v>
       </c>
-      <c r="D97" s="32" t="s">
+      <c r="D97" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="31"/>
-      <c r="F97" s="33" t="s">
+      <c r="E97" s="30"/>
+      <c r="F97" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="33" t="s">
+      <c r="G97" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="31" t="s">
+      <c r="H97" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J97" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" s="8" customFormat="1">
-      <c r="A98" s="8">
+      <c r="J97" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="7" customFormat="1">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="31">
+      <c r="B98" s="30">
         <v>14</v>
       </c>
-      <c r="C98" s="31">
-        <v>1</v>
-      </c>
-      <c r="D98" s="32" t="s">
+      <c r="C98" s="30">
+        <v>1</v>
+      </c>
+      <c r="D98" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E98" s="31" t="s">
+      <c r="E98" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="31" t="s">
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J98" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="8" customFormat="1">
-      <c r="A99" s="8">
+      <c r="J98" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="7" customFormat="1">
+      <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="31">
+      <c r="B99" s="30">
         <v>14</v>
       </c>
-      <c r="C99" s="31">
+      <c r="C99" s="30">
         <v>2</v>
       </c>
-      <c r="D99" s="32" t="s">
+      <c r="D99" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E99" s="31" t="s">
+      <c r="E99" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="31" t="s">
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J99" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="8" customFormat="1">
-      <c r="A100" s="8">
+      <c r="J99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="7" customFormat="1">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="31">
+      <c r="B100" s="30">
         <v>14</v>
       </c>
-      <c r="C100" s="31">
+      <c r="C100" s="30">
         <v>3</v>
       </c>
-      <c r="D100" s="32" t="s">
+      <c r="D100" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="31" t="s">
+      <c r="E100" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="31" t="s">
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J100" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" s="8" customFormat="1">
-      <c r="A101" s="8">
+      <c r="J100" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="7" customFormat="1">
+      <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="31">
+      <c r="B101" s="30">
         <v>14</v>
       </c>
-      <c r="C101" s="31">
+      <c r="C101" s="30">
         <v>4</v>
       </c>
-      <c r="D101" s="32" t="s">
+      <c r="D101" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="31"/>
-      <c r="F101" s="33" t="s">
+      <c r="E101" s="30"/>
+      <c r="F101" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="33" t="s">
+      <c r="G101" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H101" s="31" t="s">
+      <c r="H101" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="8" customFormat="1">
-      <c r="A102" s="8">
+    <row r="102" spans="1:10" s="7" customFormat="1">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="31">
+      <c r="B102" s="30">
         <v>14</v>
       </c>
-      <c r="C102" s="31">
+      <c r="C102" s="30">
         <v>5</v>
       </c>
-      <c r="D102" s="32" t="s">
+      <c r="D102" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E102" s="31"/>
-      <c r="F102" s="33" t="s">
+      <c r="E102" s="30"/>
+      <c r="F102" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="33" t="s">
+      <c r="G102" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="26" t="s">
+      <c r="H102" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J102" s="8">
+      <c r="J102" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="8" customFormat="1">
-      <c r="A103" s="8">
+    <row r="103" spans="1:10" s="7" customFormat="1">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="31">
+      <c r="B103" s="30">
         <v>14</v>
       </c>
-      <c r="C103" s="31">
+      <c r="C103" s="30">
         <v>6</v>
       </c>
-      <c r="D103" s="32" t="s">
+      <c r="D103" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E103" s="31"/>
-      <c r="F103" s="33" t="s">
+      <c r="E103" s="30"/>
+      <c r="F103" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="33" t="s">
+      <c r="G103" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H103" s="26" t="s">
+      <c r="H103" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J103" s="8">
+      <c r="J103" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="8" customFormat="1">
-      <c r="A104" s="8">
+    <row r="104" spans="1:10" s="7" customFormat="1">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="31">
+      <c r="B104" s="30">
         <v>14</v>
       </c>
-      <c r="C104" s="31">
+      <c r="C104" s="30">
         <v>7</v>
       </c>
-      <c r="D104" s="32" t="s">
+      <c r="D104" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="31"/>
-      <c r="F104" s="33" t="s">
+      <c r="E104" s="30"/>
+      <c r="F104" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G104" s="33" t="s">
+      <c r="G104" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H104" s="26" t="s">
+      <c r="H104" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J104" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" s="8" customFormat="1">
-      <c r="A105" s="8">
+      <c r="J104" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="7" customFormat="1">
+      <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="31">
+      <c r="B105" s="30">
         <v>14</v>
       </c>
-      <c r="C105" s="31">
+      <c r="C105" s="30">
         <v>8</v>
       </c>
-      <c r="D105" s="32" t="s">
+      <c r="D105" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="33" t="s">
+      <c r="E105" s="30"/>
+      <c r="F105" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G105" s="33" t="s">
+      <c r="G105" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H105" s="31" t="s">
+      <c r="H105" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J105" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" s="8" customFormat="1">
-      <c r="A106" s="8">
+      <c r="J105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="7" customFormat="1">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="31">
+      <c r="B106" s="30">
         <v>15</v>
       </c>
-      <c r="C106" s="31">
-        <v>1</v>
-      </c>
-      <c r="D106" s="32" t="s">
+      <c r="C106" s="30">
+        <v>1</v>
+      </c>
+      <c r="D106" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E106" s="31" t="s">
+      <c r="E106" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="31" t="s">
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J106" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="8" customFormat="1">
-      <c r="A107" s="8">
+      <c r="J106" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="7" customFormat="1">
+      <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="31">
+      <c r="B107" s="30">
         <v>15</v>
       </c>
-      <c r="C107" s="31">
+      <c r="C107" s="30">
         <v>2</v>
       </c>
-      <c r="D107" s="32" t="s">
+      <c r="D107" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E107" s="31" t="s">
+      <c r="E107" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="31" t="s">
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J107" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" s="8" customFormat="1">
-      <c r="A108" s="8">
+      <c r="J107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="7" customFormat="1">
+      <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="31">
+      <c r="B108" s="30">
         <v>15</v>
       </c>
-      <c r="C108" s="31">
+      <c r="C108" s="30">
         <v>3</v>
       </c>
-      <c r="D108" s="32" t="s">
+      <c r="D108" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E108" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="31" t="s">
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J108" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" s="8" customFormat="1">
-      <c r="A109" s="8">
+      <c r="J108" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="7" customFormat="1">
+      <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="31">
+      <c r="B109" s="30">
         <v>15</v>
       </c>
-      <c r="C109" s="31">
+      <c r="C109" s="30">
         <v>4</v>
       </c>
-      <c r="D109" s="32" t="s">
+      <c r="D109" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E109" s="31"/>
-      <c r="F109" s="33" t="s">
+      <c r="E109" s="30"/>
+      <c r="F109" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G109" s="33" t="s">
+      <c r="G109" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H109" s="31" t="s">
+      <c r="H109" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A110" s="8">
+    <row r="110" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="31">
+      <c r="B110" s="30">
         <v>15</v>
       </c>
-      <c r="C110" s="31">
+      <c r="C110" s="30">
         <v>5</v>
       </c>
-      <c r="D110" s="32" t="s">
+      <c r="D110" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E110" s="31"/>
-      <c r="F110" s="40" t="s">
+      <c r="E110" s="30"/>
+      <c r="F110" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G110" s="33" t="s">
+      <c r="G110" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="H110" s="26" t="s">
+      <c r="H110" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J110" s="8">
+      <c r="J110" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A111" s="8">
+    <row r="111" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="31">
+      <c r="B111" s="30">
         <v>15</v>
       </c>
-      <c r="C111" s="31">
+      <c r="C111" s="30">
         <v>6</v>
       </c>
-      <c r="D111" s="32" t="s">
+      <c r="D111" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E111" s="31"/>
-      <c r="F111" s="40" t="s">
+      <c r="E111" s="30"/>
+      <c r="F111" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G111" s="33" t="s">
+      <c r="G111" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H111" s="26" t="s">
+      <c r="H111" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J111" s="8">
+      <c r="J111" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="8" customFormat="1">
-      <c r="A112" s="8">
+    <row r="112" spans="1:10" s="7" customFormat="1">
+      <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="31">
+      <c r="B112" s="30">
         <v>15</v>
       </c>
-      <c r="C112" s="31">
+      <c r="C112" s="30">
         <v>7</v>
       </c>
-      <c r="D112" s="32" t="s">
+      <c r="D112" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E112" s="31"/>
-      <c r="F112" s="33" t="s">
+      <c r="E112" s="30"/>
+      <c r="F112" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G112" s="33" t="s">
+      <c r="G112" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H112" s="26" t="s">
+      <c r="H112" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J112" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A113" s="8">
+      <c r="J112" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="31">
+      <c r="B113" s="30">
         <v>15</v>
       </c>
-      <c r="C113" s="31">
+      <c r="C113" s="30">
         <v>8</v>
       </c>
-      <c r="D113" s="32" t="s">
+      <c r="D113" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E113" s="31"/>
-      <c r="F113" s="40" t="s">
+      <c r="E113" s="30"/>
+      <c r="F113" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="G113" s="33" t="s">
+      <c r="G113" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="H113" s="31" t="s">
+      <c r="H113" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J113" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="8" customFormat="1">
-      <c r="A114" s="8">
+      <c r="J113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="7" customFormat="1">
+      <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="31">
+      <c r="B114" s="30">
         <v>16</v>
       </c>
-      <c r="C114" s="31">
-        <v>1</v>
-      </c>
-      <c r="D114" s="32" t="s">
+      <c r="C114" s="30">
+        <v>1</v>
+      </c>
+      <c r="D114" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E114" s="31" t="s">
+      <c r="E114" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="31" t="s">
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J114" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="8" customFormat="1">
-      <c r="A115" s="8">
+      <c r="J114" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="7" customFormat="1">
+      <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="31">
+      <c r="B115" s="30">
         <v>16</v>
       </c>
-      <c r="C115" s="31">
+      <c r="C115" s="30">
         <v>2</v>
       </c>
-      <c r="D115" s="32" t="s">
+      <c r="D115" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E115" s="31" t="s">
+      <c r="E115" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="31" t="s">
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J115" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="8" customFormat="1">
-      <c r="A116" s="8">
+      <c r="J115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="7" customFormat="1">
+      <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="31">
+      <c r="B116" s="30">
         <v>16</v>
       </c>
-      <c r="C116" s="31">
+      <c r="C116" s="30">
         <v>3</v>
       </c>
-      <c r="D116" s="32" t="s">
+      <c r="D116" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E116" s="31" t="s">
+      <c r="E116" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="31" t="s">
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J116" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="8" customFormat="1">
-      <c r="A117" s="8">
+      <c r="J116" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="7" customFormat="1">
+      <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="31">
+      <c r="B117" s="30">
         <v>16</v>
       </c>
-      <c r="C117" s="31">
+      <c r="C117" s="30">
         <v>4</v>
       </c>
-      <c r="D117" s="32" t="s">
+      <c r="D117" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E117" s="31"/>
-      <c r="F117" s="33" t="s">
+      <c r="E117" s="30"/>
+      <c r="F117" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G117" s="33" t="s">
+      <c r="G117" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H117" s="31" t="s">
+      <c r="H117" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="8" customFormat="1">
-      <c r="A118" s="8">
+    <row r="118" spans="1:10" s="7" customFormat="1">
+      <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="31">
+      <c r="B118" s="30">
         <v>16</v>
       </c>
-      <c r="C118" s="31">
+      <c r="C118" s="30">
         <v>5</v>
       </c>
-      <c r="D118" s="32" t="s">
+      <c r="D118" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E118" s="31"/>
-      <c r="F118" s="33" t="s">
+      <c r="E118" s="30"/>
+      <c r="F118" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G118" s="33" t="s">
+      <c r="G118" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H118" s="26" t="s">
+      <c r="H118" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J118" s="8">
+      <c r="J118" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="8" customFormat="1">
-      <c r="A119" s="8">
+    <row r="119" spans="1:10" s="7" customFormat="1">
+      <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="31">
+      <c r="B119" s="30">
         <v>16</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="30">
         <v>6</v>
       </c>
-      <c r="D119" s="32" t="s">
+      <c r="D119" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E119" s="31"/>
-      <c r="F119" s="26" t="s">
+      <c r="E119" s="30"/>
+      <c r="F119" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G119" s="33" t="s">
+      <c r="G119" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="26" t="s">
+      <c r="H119" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J119" s="8">
+      <c r="J119" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="8" customFormat="1">
-      <c r="A120" s="8">
+    <row r="120" spans="1:10" s="7" customFormat="1">
+      <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="31">
+      <c r="B120" s="30">
         <v>16</v>
       </c>
-      <c r="C120" s="31">
+      <c r="C120" s="30">
         <v>7</v>
       </c>
-      <c r="D120" s="32" t="s">
+      <c r="D120" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E120" s="31"/>
-      <c r="F120" s="33" t="s">
+      <c r="E120" s="30"/>
+      <c r="F120" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G120" s="33" t="s">
+      <c r="G120" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H120" s="26" t="s">
+      <c r="H120" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J120" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="8" customFormat="1">
-      <c r="A121" s="8">
+      <c r="J120" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="7" customFormat="1">
+      <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="31">
+      <c r="B121" s="30">
         <v>16</v>
       </c>
-      <c r="C121" s="31">
+      <c r="C121" s="30">
         <v>8</v>
       </c>
-      <c r="D121" s="32" t="s">
+      <c r="D121" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E121" s="31"/>
-      <c r="F121" s="26" t="s">
+      <c r="E121" s="30"/>
+      <c r="F121" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G121" s="33" t="s">
+      <c r="G121" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H121" s="31" t="s">
+      <c r="H121" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J121" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" s="8" customFormat="1">
-      <c r="A122" s="8">
+      <c r="J121" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="7" customFormat="1">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="31">
+      <c r="B122" s="30">
         <v>17</v>
       </c>
-      <c r="C122" s="31">
-        <v>1</v>
-      </c>
-      <c r="D122" s="32" t="s">
+      <c r="C122" s="30">
+        <v>1</v>
+      </c>
+      <c r="D122" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E122" s="31" t="s">
+      <c r="E122" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33" t="s">
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="J122" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" s="8" customFormat="1">
-      <c r="A123" s="8">
+      <c r="J122" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="7" customFormat="1">
+      <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="31">
+      <c r="B123" s="30">
         <v>17</v>
       </c>
-      <c r="C123" s="31">
+      <c r="C123" s="30">
         <v>2</v>
       </c>
-      <c r="D123" s="32" t="s">
+      <c r="D123" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E123" s="31" t="s">
+      <c r="E123" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33" t="s">
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="J123" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" s="8" customFormat="1">
-      <c r="A124" s="8">
+      <c r="J123" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="7" customFormat="1">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="31">
+      <c r="B124" s="30">
         <v>17</v>
       </c>
-      <c r="C124" s="31">
+      <c r="C124" s="30">
         <v>3</v>
       </c>
-      <c r="D124" s="32" t="s">
+      <c r="D124" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E124" s="31" t="s">
+      <c r="E124" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33" t="s">
+      <c r="G124" s="32"/>
+      <c r="H124" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="J124" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" s="8" customFormat="1">
-      <c r="A125" s="8">
+      <c r="J124" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="7" customFormat="1">
+      <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="31">
+      <c r="B125" s="30">
         <v>17</v>
       </c>
-      <c r="C125" s="31">
+      <c r="C125" s="30">
         <v>4</v>
       </c>
-      <c r="D125" s="32" t="s">
+      <c r="D125" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E125" s="31"/>
-      <c r="F125" s="33" t="s">
+      <c r="E125" s="30"/>
+      <c r="F125" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G125" s="33" t="s">
+      <c r="G125" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H125" s="33" t="s">
+      <c r="H125" s="32" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A126" s="8">
+    <row r="126" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="31">
+      <c r="B126" s="30">
         <v>17</v>
       </c>
-      <c r="C126" s="31">
+      <c r="C126" s="30">
         <v>5</v>
       </c>
-      <c r="D126" s="32" t="s">
+      <c r="D126" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="31"/>
-      <c r="F126" s="40" t="s">
+      <c r="E126" s="30"/>
+      <c r="F126" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G126" s="33" t="s">
+      <c r="G126" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H126" s="26" t="s">
+      <c r="H126" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="J126" s="8">
+      <c r="J126" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A127" s="8">
+    <row r="127" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="31">
+      <c r="B127" s="30">
         <v>17</v>
       </c>
-      <c r="C127" s="31">
+      <c r="C127" s="30">
         <v>6</v>
       </c>
-      <c r="D127" s="32" t="s">
+      <c r="D127" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="31"/>
-      <c r="F127" s="40" t="s">
+      <c r="E127" s="30"/>
+      <c r="F127" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G127" s="33" t="s">
+      <c r="G127" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H127" s="26" t="s">
+      <c r="H127" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="J127" s="8">
+      <c r="J127" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="8" customFormat="1">
-      <c r="A128" s="8">
+    <row r="128" spans="1:10" s="7" customFormat="1">
+      <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="31">
+      <c r="B128" s="30">
         <v>17</v>
       </c>
-      <c r="C128" s="31">
+      <c r="C128" s="30">
         <v>7</v>
       </c>
-      <c r="D128" s="32" t="s">
+      <c r="D128" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E128" s="31"/>
-      <c r="F128" s="33" t="s">
+      <c r="E128" s="30"/>
+      <c r="F128" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G128" s="33" t="s">
+      <c r="G128" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H128" s="26" t="s">
+      <c r="H128" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="J128" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A129" s="8">
+      <c r="J128" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="31">
+      <c r="B129" s="30">
         <v>17</v>
       </c>
-      <c r="C129" s="31">
+      <c r="C129" s="30">
         <v>8</v>
       </c>
-      <c r="D129" s="32" t="s">
+      <c r="D129" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E129" s="31"/>
-      <c r="F129" s="40" t="s">
+      <c r="E129" s="30"/>
+      <c r="F129" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="G129" s="33" t="s">
+      <c r="G129" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H129" s="33" t="s">
+      <c r="H129" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="J129" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" s="8" customFormat="1">
-      <c r="A130" s="8">
+      <c r="J129" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="7" customFormat="1">
+      <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="31">
+      <c r="B130" s="30">
         <v>18</v>
       </c>
-      <c r="C130" s="31">
-        <v>1</v>
-      </c>
-      <c r="D130" s="32" t="s">
+      <c r="C130" s="30">
+        <v>1</v>
+      </c>
+      <c r="D130" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E130" s="31" t="s">
+      <c r="E130" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33" t="s">
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="J130" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" s="8" customFormat="1">
-      <c r="A131" s="8">
+      <c r="J130" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="7" customFormat="1">
+      <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="31">
+      <c r="B131" s="30">
         <v>18</v>
       </c>
-      <c r="C131" s="31">
+      <c r="C131" s="30">
         <v>2</v>
       </c>
-      <c r="D131" s="32" t="s">
+      <c r="D131" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E131" s="31" t="s">
+      <c r="E131" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="33" t="s">
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="J131" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" s="8" customFormat="1">
-      <c r="A132" s="8">
+      <c r="J131" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="7" customFormat="1">
+      <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="31">
+      <c r="B132" s="30">
         <v>18</v>
       </c>
-      <c r="C132" s="31">
+      <c r="C132" s="30">
         <v>3</v>
       </c>
-      <c r="D132" s="32" t="s">
+      <c r="D132" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E132" s="31" t="s">
+      <c r="E132" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33" t="s">
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="J132" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" s="8" customFormat="1">
-      <c r="A133" s="8">
+      <c r="J132" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="7" customFormat="1">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="31">
+      <c r="B133" s="30">
         <v>18</v>
       </c>
-      <c r="C133" s="31">
+      <c r="C133" s="30">
         <v>4</v>
       </c>
-      <c r="D133" s="32" t="s">
+      <c r="D133" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E133" s="31"/>
-      <c r="F133" s="33" t="s">
+      <c r="E133" s="30"/>
+      <c r="F133" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G133" s="33" t="s">
+      <c r="G133" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H133" s="33" t="s">
+      <c r="H133" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="8" customFormat="1">
-      <c r="A134" s="8">
+    <row r="134" spans="1:10" s="7" customFormat="1">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="31">
+      <c r="B134" s="30">
         <v>18</v>
       </c>
-      <c r="C134" s="31">
+      <c r="C134" s="30">
         <v>5</v>
       </c>
-      <c r="D134" s="32" t="s">
+      <c r="D134" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E134" s="31"/>
-      <c r="F134" s="33" t="s">
+      <c r="E134" s="30"/>
+      <c r="F134" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G134" s="33" t="s">
+      <c r="G134" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H134" s="26" t="s">
+      <c r="H134" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J134" s="8">
+      <c r="J134" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="8" customFormat="1">
-      <c r="A135" s="8">
+    <row r="135" spans="1:10" s="7" customFormat="1">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="31">
+      <c r="B135" s="30">
         <v>18</v>
       </c>
-      <c r="C135" s="31">
+      <c r="C135" s="30">
         <v>6</v>
       </c>
-      <c r="D135" s="32" t="s">
+      <c r="D135" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E135" s="31"/>
-      <c r="F135" s="26" t="s">
+      <c r="E135" s="30"/>
+      <c r="F135" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G135" s="33" t="s">
+      <c r="G135" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="H135" s="26" t="s">
+      <c r="H135" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="J135" s="8">
+      <c r="J135" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="8" customFormat="1">
-      <c r="A136" s="8">
+    <row r="136" spans="1:10" s="7" customFormat="1">
+      <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="31">
+      <c r="B136" s="30">
         <v>18</v>
       </c>
-      <c r="C136" s="31">
+      <c r="C136" s="30">
         <v>7</v>
       </c>
-      <c r="D136" s="32" t="s">
+      <c r="D136" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E136" s="31"/>
-      <c r="F136" s="33" t="s">
+      <c r="E136" s="30"/>
+      <c r="F136" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G136" s="33" t="s">
+      <c r="G136" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H136" s="26" t="s">
+      <c r="H136" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="J136" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" s="8" customFormat="1">
-      <c r="A137" s="8">
+      <c r="J136" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="7" customFormat="1">
+      <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="31">
+      <c r="B137" s="30">
         <v>18</v>
       </c>
-      <c r="C137" s="31">
+      <c r="C137" s="30">
         <v>8</v>
       </c>
-      <c r="D137" s="32" t="s">
+      <c r="D137" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E137" s="31"/>
-      <c r="F137" s="26" t="s">
+      <c r="E137" s="30"/>
+      <c r="F137" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G137" s="33" t="s">
+      <c r="G137" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H137" s="33" t="s">
+      <c r="H137" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J137" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="8" customFormat="1">
-      <c r="A138" s="8">
+      <c r="J137" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="7" customFormat="1">
+      <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="31">
+      <c r="B138" s="30">
         <v>19</v>
       </c>
-      <c r="C138" s="31">
-        <v>1</v>
-      </c>
-      <c r="D138" s="32" t="s">
+      <c r="C138" s="30">
+        <v>1</v>
+      </c>
+      <c r="D138" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E138" s="31" t="s">
+      <c r="E138" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="33" t="s">
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="J138" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" s="8" customFormat="1">
-      <c r="A139" s="8">
+      <c r="J138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="7" customFormat="1">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="31">
+      <c r="B139" s="30">
         <v>19</v>
       </c>
-      <c r="C139" s="31">
+      <c r="C139" s="30">
         <v>2</v>
       </c>
-      <c r="D139" s="32" t="s">
+      <c r="D139" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E139" s="31" t="s">
+      <c r="E139" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33" t="s">
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="J139" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" s="8" customFormat="1">
-      <c r="A140" s="8">
+      <c r="J139" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="7" customFormat="1">
+      <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="31">
+      <c r="B140" s="30">
         <v>19</v>
       </c>
-      <c r="C140" s="31">
+      <c r="C140" s="30">
         <v>3</v>
       </c>
-      <c r="D140" s="32" t="s">
+      <c r="D140" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E140" s="31" t="s">
+      <c r="E140" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33" t="s">
+      <c r="G140" s="32"/>
+      <c r="H140" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="J140" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" s="8" customFormat="1">
-      <c r="A141" s="8">
+      <c r="J140" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="7" customFormat="1">
+      <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="31">
+      <c r="B141" s="30">
         <v>19</v>
       </c>
-      <c r="C141" s="31">
+      <c r="C141" s="30">
         <v>4</v>
       </c>
-      <c r="D141" s="32" t="s">
+      <c r="D141" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E141" s="31"/>
-      <c r="F141" s="33" t="s">
+      <c r="E141" s="30"/>
+      <c r="F141" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G141" s="33" t="s">
+      <c r="G141" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H141" s="33" t="s">
+      <c r="H141" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A142" s="8">
+    <row r="142" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="31">
+      <c r="B142" s="30">
         <v>19</v>
       </c>
-      <c r="C142" s="31">
+      <c r="C142" s="30">
         <v>5</v>
       </c>
-      <c r="D142" s="32" t="s">
+      <c r="D142" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E142" s="31"/>
-      <c r="F142" s="40" t="s">
+      <c r="E142" s="30"/>
+      <c r="F142" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G142" s="33" t="s">
+      <c r="G142" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H142" s="26" t="s">
+      <c r="H142" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A143" s="8">
+    <row r="143" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="31">
+      <c r="B143" s="30">
         <v>19</v>
       </c>
-      <c r="C143" s="31">
+      <c r="C143" s="30">
         <v>6</v>
       </c>
-      <c r="D143" s="32" t="s">
+      <c r="D143" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E143" s="31"/>
-      <c r="F143" s="40" t="s">
+      <c r="E143" s="30"/>
+      <c r="F143" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G143" s="33" t="s">
+      <c r="G143" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H143" s="26" t="s">
+      <c r="H143" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J143" s="8">
+      <c r="J143" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="8" customFormat="1">
-      <c r="A144" s="8">
+    <row r="144" spans="1:10" s="7" customFormat="1">
+      <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="31">
+      <c r="B144" s="30">
         <v>19</v>
       </c>
-      <c r="C144" s="31">
+      <c r="C144" s="30">
         <v>7</v>
       </c>
-      <c r="D144" s="32" t="s">
+      <c r="D144" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E144" s="31"/>
-      <c r="F144" s="33" t="s">
+      <c r="E144" s="30"/>
+      <c r="F144" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G144" s="33" t="s">
+      <c r="G144" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H144" s="26" t="s">
+      <c r="H144" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="J144" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A145" s="8">
+      <c r="J144" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="31">
+      <c r="B145" s="30">
         <v>19</v>
       </c>
-      <c r="C145" s="31">
+      <c r="C145" s="30">
         <v>8</v>
       </c>
-      <c r="D145" s="32" t="s">
+      <c r="D145" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E145" s="31"/>
-      <c r="F145" s="40" t="s">
+      <c r="E145" s="30"/>
+      <c r="F145" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="G145" s="33" t="s">
+      <c r="G145" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H145" s="33" t="s">
+      <c r="H145" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J145" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" s="8" customFormat="1">
-      <c r="A146" s="8">
+      <c r="J145" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="7" customFormat="1">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="31">
+      <c r="B146" s="30">
         <v>20</v>
       </c>
-      <c r="C146" s="31">
-        <v>1</v>
-      </c>
-      <c r="D146" s="32" t="s">
+      <c r="C146" s="30">
+        <v>1</v>
+      </c>
+      <c r="D146" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E146" s="31" t="s">
+      <c r="E146" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33" t="s">
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="J146" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" s="8" customFormat="1">
-      <c r="A147" s="8">
+      <c r="J146" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="7" customFormat="1">
+      <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="31">
+      <c r="B147" s="30">
         <v>20</v>
       </c>
-      <c r="C147" s="31">
+      <c r="C147" s="30">
         <v>2</v>
       </c>
-      <c r="D147" s="32" t="s">
+      <c r="D147" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E147" s="31" t="s">
+      <c r="E147" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="F147" s="33"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="33" t="s">
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="J147" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" s="8" customFormat="1">
-      <c r="A148" s="8">
+      <c r="J147" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="7" customFormat="1">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="31">
+      <c r="B148" s="30">
         <v>20</v>
       </c>
-      <c r="C148" s="31">
+      <c r="C148" s="30">
         <v>3</v>
       </c>
-      <c r="D148" s="32" t="s">
+      <c r="D148" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E148" s="31" t="s">
+      <c r="E148" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="33" t="s">
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="J148" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" s="8" customFormat="1">
-      <c r="A149" s="8">
+      <c r="J148" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="7" customFormat="1">
+      <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="31">
+      <c r="B149" s="30">
         <v>20</v>
       </c>
-      <c r="C149" s="31">
+      <c r="C149" s="30">
         <v>4</v>
       </c>
-      <c r="D149" s="32" t="s">
+      <c r="D149" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E149" s="31"/>
-      <c r="F149" s="33" t="s">
+      <c r="E149" s="30"/>
+      <c r="F149" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="G149" s="33" t="s">
+      <c r="G149" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H149" s="33" t="s">
+      <c r="H149" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="8" customFormat="1">
-      <c r="A150" s="8">
+    <row r="150" spans="1:10" s="7" customFormat="1">
+      <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="31">
+      <c r="B150" s="30">
         <v>20</v>
       </c>
-      <c r="C150" s="31">
+      <c r="C150" s="30">
         <v>5</v>
       </c>
-      <c r="D150" s="32" t="s">
+      <c r="D150" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E150" s="31"/>
-      <c r="F150" s="33" t="s">
+      <c r="E150" s="30"/>
+      <c r="F150" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G150" s="33" t="s">
+      <c r="G150" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H150" s="26" t="s">
+      <c r="H150" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="J150" s="8">
+      <c r="J150" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="8" customFormat="1">
-      <c r="A151" s="8">
+    <row r="151" spans="1:10" s="7" customFormat="1">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="31">
+      <c r="B151" s="30">
         <v>20</v>
       </c>
-      <c r="C151" s="31">
+      <c r="C151" s="30">
         <v>6</v>
       </c>
-      <c r="D151" s="32" t="s">
+      <c r="D151" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E151" s="31"/>
-      <c r="F151" s="26" t="s">
+      <c r="E151" s="30"/>
+      <c r="F151" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G151" s="33" t="s">
+      <c r="G151" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="H151" s="26" t="s">
+      <c r="H151" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J151" s="8">
+      <c r="J151" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:10" s="8" customFormat="1">
-      <c r="A152" s="8">
+    <row r="152" spans="1:10" s="7" customFormat="1">
+      <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="31">
+      <c r="B152" s="30">
         <v>20</v>
       </c>
-      <c r="C152" s="31">
+      <c r="C152" s="30">
         <v>7</v>
       </c>
-      <c r="D152" s="32" t="s">
+      <c r="D152" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E152" s="31"/>
-      <c r="F152" s="33" t="s">
+      <c r="E152" s="30"/>
+      <c r="F152" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G152" s="33" t="s">
+      <c r="G152" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H152" s="26" t="s">
+      <c r="H152" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="J152" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" s="8" customFormat="1">
-      <c r="A153" s="8">
+      <c r="J152" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="7" customFormat="1">
+      <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="31">
+      <c r="B153" s="30">
         <v>20</v>
       </c>
-      <c r="C153" s="31">
+      <c r="C153" s="30">
         <v>8</v>
       </c>
-      <c r="D153" s="32" t="s">
+      <c r="D153" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E153" s="31"/>
-      <c r="F153" s="26" t="s">
+      <c r="E153" s="30"/>
+      <c r="F153" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G153" s="33" t="s">
+      <c r="G153" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="H153" s="33" t="s">
+      <c r="H153" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J153" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" s="8" customFormat="1">
-      <c r="A154" s="8">
+      <c r="J153" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="7" customFormat="1">
+      <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="31">
+      <c r="B154" s="30">
         <v>21</v>
       </c>
-      <c r="C154" s="31">
-        <v>1</v>
-      </c>
-      <c r="D154" s="32" t="s">
+      <c r="C154" s="30">
+        <v>1</v>
+      </c>
+      <c r="D154" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="E154" s="31"/>
-      <c r="F154" s="33" t="s">
+      <c r="E154" s="30"/>
+      <c r="F154" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G154" s="33" t="s">
+      <c r="G154" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="H154" s="31" t="s">
+      <c r="H154" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="J154" s="8">
+      <c r="J154" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="155" spans="1:10" s="8" customFormat="1">
-      <c r="A155" s="8">
+    <row r="155" spans="1:10" s="7" customFormat="1">
+      <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="31">
+      <c r="B155" s="30">
         <v>22</v>
       </c>
-      <c r="C155" s="31">
-        <v>1</v>
-      </c>
-      <c r="D155" s="32" t="s">
+      <c r="C155" s="30">
+        <v>1</v>
+      </c>
+      <c r="D155" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="E155" s="31"/>
-      <c r="F155" s="33" t="s">
+      <c r="E155" s="30"/>
+      <c r="F155" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G155" s="33" t="s">
+      <c r="G155" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="H155" s="31" t="s">
+      <c r="H155" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="J155" s="8">
+      <c r="J155" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="156" spans="1:10" s="8" customFormat="1">
-      <c r="A156" s="8">
+    <row r="156" spans="1:10" s="7" customFormat="1">
+      <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="31">
+      <c r="B156" s="30">
         <v>23</v>
       </c>
-      <c r="C156" s="31">
-        <v>1</v>
-      </c>
-      <c r="D156" s="32" t="s">
+      <c r="C156" s="30">
+        <v>1</v>
+      </c>
+      <c r="D156" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="E156" s="31"/>
-      <c r="F156" s="33" t="s">
+      <c r="E156" s="30"/>
+      <c r="F156" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G156" s="33" t="s">
+      <c r="G156" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="H156" s="31" t="s">
+      <c r="H156" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="J156" s="8">
+      <c r="J156" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="157" spans="1:10" s="8" customFormat="1">
-      <c r="A157" s="8">
+    <row r="157" spans="1:10" s="7" customFormat="1">
+      <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="31">
+      <c r="B157" s="30">
         <v>24</v>
       </c>
-      <c r="C157" s="31">
-        <v>1</v>
-      </c>
-      <c r="D157" s="32" t="s">
+      <c r="C157" s="30">
+        <v>1</v>
+      </c>
+      <c r="D157" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="E157" s="31"/>
-      <c r="F157" s="33" t="s">
+      <c r="E157" s="30"/>
+      <c r="F157" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G157" s="33" t="s">
+      <c r="G157" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="H157" s="31" t="s">
+      <c r="H157" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="J157" s="8">
+      <c r="J157" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="158" spans="1:10" s="8" customFormat="1">
-      <c r="A158" s="8">
+    <row r="158" spans="1:10" s="7" customFormat="1">
+      <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="31">
+      <c r="B158" s="30">
         <v>25</v>
       </c>
-      <c r="C158" s="31">
-        <v>1</v>
-      </c>
-      <c r="D158" s="32" t="s">
+      <c r="C158" s="30">
+        <v>1</v>
+      </c>
+      <c r="D158" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="E158" s="31"/>
-      <c r="F158" s="33" t="s">
+      <c r="E158" s="30"/>
+      <c r="F158" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G158" s="33" t="s">
+      <c r="G158" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="H158" s="31" t="s">
+      <c r="H158" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="J158" s="8">
+      <c r="J158" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="159" spans="1:10" s="8" customFormat="1">
-      <c r="A159" s="8">
+    <row r="159" spans="1:10" s="7" customFormat="1">
+      <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="31">
+      <c r="B159" s="30">
         <v>26</v>
       </c>
-      <c r="C159" s="31">
-        <v>1</v>
-      </c>
-      <c r="D159" s="32" t="s">
+      <c r="C159" s="30">
+        <v>1</v>
+      </c>
+      <c r="D159" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="E159" s="31"/>
-      <c r="F159" s="33" t="s">
+      <c r="E159" s="30"/>
+      <c r="F159" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G159" s="33" t="s">
+      <c r="G159" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="H159" s="31" t="s">
+      <c r="H159" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="J159" s="8">
+      <c r="J159" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="160" spans="1:10" s="8" customFormat="1">
-      <c r="A160" s="8">
+    <row r="160" spans="1:10" s="7" customFormat="1">
+      <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" s="31">
+      <c r="B160" s="30">
         <v>27</v>
       </c>
-      <c r="C160" s="31">
-        <v>1</v>
-      </c>
-      <c r="D160" s="32" t="s">
+      <c r="C160" s="30">
+        <v>1</v>
+      </c>
+      <c r="D160" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="E160" s="31"/>
-      <c r="F160" s="33" t="s">
+      <c r="E160" s="30"/>
+      <c r="F160" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G160" s="33" t="s">
+      <c r="G160" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="H160" s="31" t="s">
+      <c r="H160" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="J160" s="8">
+      <c r="J160" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="8" customFormat="1">
-      <c r="A161" s="8">
+    <row r="161" spans="1:10" s="7" customFormat="1">
+      <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="B161" s="31">
+      <c r="B161" s="30">
         <v>28</v>
       </c>
-      <c r="C161" s="31">
-        <v>1</v>
-      </c>
-      <c r="D161" s="32" t="s">
+      <c r="C161" s="30">
+        <v>1</v>
+      </c>
+      <c r="D161" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="E161" s="31"/>
-      <c r="F161" s="33" t="s">
+      <c r="E161" s="30"/>
+      <c r="F161" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G161" s="33" t="s">
+      <c r="G161" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="H161" s="31" t="s">
+      <c r="H161" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="J161" s="8">
+      <c r="J161" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="162" spans="1:10" s="8" customFormat="1">
-      <c r="A162" s="8">
+    <row r="162" spans="1:10" s="7" customFormat="1">
+      <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" s="31">
+      <c r="B162" s="30">
         <v>29</v>
       </c>
-      <c r="C162" s="31">
-        <v>1</v>
-      </c>
-      <c r="D162" s="32" t="s">
+      <c r="C162" s="30">
+        <v>1</v>
+      </c>
+      <c r="D162" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="E162" s="31"/>
-      <c r="F162" s="33" t="s">
+      <c r="E162" s="30"/>
+      <c r="F162" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G162" s="33" t="s">
+      <c r="G162" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="H162" s="31" t="s">
+      <c r="H162" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="J162" s="8">
+      <c r="J162" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="163" spans="1:10" s="8" customFormat="1">
-      <c r="A163" s="8">
+    <row r="163" spans="1:10" s="7" customFormat="1">
+      <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B163" s="19">
+      <c r="B163" s="30">
         <v>30</v>
       </c>
-      <c r="C163" s="19">
-        <v>1</v>
-      </c>
-      <c r="D163" s="34" t="s">
+      <c r="C163" s="30">
+        <v>1</v>
+      </c>
+      <c r="D163" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E163" s="19" t="s">
+      <c r="E163" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20" t="s">
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I163" s="17"/>
-      <c r="J163" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" s="8" customFormat="1">
-      <c r="A164" s="8">
+      <c r="J163" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" s="7" customFormat="1">
+      <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" s="19">
+      <c r="B164" s="30">
         <v>30</v>
       </c>
-      <c r="C164" s="19">
+      <c r="C164" s="30">
         <v>2</v>
       </c>
-      <c r="D164" s="34" t="s">
+      <c r="D164" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E164" s="19" t="s">
+      <c r="E164" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="20" t="s">
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" s="8" customFormat="1">
-      <c r="A165" s="8">
+      <c r="J164" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" s="7" customFormat="1">
+      <c r="A165" s="7">
         <v>164</v>
       </c>
-      <c r="B165" s="19">
+      <c r="B165" s="30">
         <v>30</v>
       </c>
-      <c r="C165" s="19">
+      <c r="C165" s="30">
         <v>3</v>
       </c>
-      <c r="D165" s="34" t="s">
+      <c r="D165" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E165" s="19" t="s">
+      <c r="E165" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="F165" s="17"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="20" t="s">
+      <c r="G165" s="32"/>
+      <c r="H165" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" s="8" customFormat="1">
-      <c r="A166" s="8">
+      <c r="J165" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="7" customFormat="1">
+      <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="B166" s="19">
+      <c r="B166" s="30">
         <v>30</v>
       </c>
-      <c r="C166" s="19">
+      <c r="C166" s="30">
         <v>4</v>
       </c>
-      <c r="D166" s="34" t="s">
+      <c r="D166" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E166" s="19"/>
-      <c r="F166" s="20" t="s">
+      <c r="E166" s="30"/>
+      <c r="F166" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G166" s="20" t="s">
+      <c r="G166" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H166" s="20" t="s">
+      <c r="H166" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="I166" s="17"/>
-      <c r="J166" s="17"/>
-    </row>
-    <row r="167" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A167" s="8">
+    </row>
+    <row r="167" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="B167" s="19">
+      <c r="B167" s="30">
         <v>30</v>
       </c>
-      <c r="C167" s="19">
+      <c r="C167" s="30">
         <v>5</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="D167" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E167" s="19"/>
-      <c r="F167" s="41" t="s">
+      <c r="E167" s="30"/>
+      <c r="F167" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G167" s="20" t="s">
+      <c r="G167" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H167" s="18" t="s">
+      <c r="H167" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I167" s="17"/>
-      <c r="J167" s="17">
+      <c r="J167" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A168" s="8">
+    <row r="168" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A168" s="7">
         <v>167</v>
       </c>
-      <c r="B168" s="19">
+      <c r="B168" s="30">
         <v>30</v>
       </c>
-      <c r="C168" s="19">
+      <c r="C168" s="30">
         <v>6</v>
       </c>
-      <c r="D168" s="34" t="s">
+      <c r="D168" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E168" s="19"/>
-      <c r="F168" s="41" t="s">
+      <c r="E168" s="30"/>
+      <c r="F168" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G168" s="20" t="s">
+      <c r="G168" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H168" s="18" t="s">
+      <c r="H168" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I168" s="17"/>
-      <c r="J168" s="17">
+      <c r="J168" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="8" customFormat="1">
-      <c r="A169" s="8">
+    <row r="169" spans="1:10" s="7" customFormat="1">
+      <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B169" s="19">
+      <c r="B169" s="30">
         <v>30</v>
       </c>
-      <c r="C169" s="19">
+      <c r="C169" s="30">
         <v>7</v>
       </c>
-      <c r="D169" s="34" t="s">
+      <c r="D169" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E169" s="19"/>
-      <c r="F169" s="20" t="s">
+      <c r="E169" s="30"/>
+      <c r="F169" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G169" s="20" t="s">
+      <c r="G169" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H169" s="18" t="s">
+      <c r="H169" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="I169" s="17"/>
-      <c r="J169" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A170" s="8">
+      <c r="J169" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" s="19">
+      <c r="B170" s="30">
         <v>30</v>
       </c>
-      <c r="C170" s="19">
+      <c r="C170" s="30">
         <v>8</v>
       </c>
-      <c r="D170" s="34" t="s">
+      <c r="D170" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E170" s="19"/>
-      <c r="F170" s="41" t="s">
+      <c r="E170" s="30"/>
+      <c r="F170" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="G170" s="20" t="s">
+      <c r="G170" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H170" s="20" t="s">
+      <c r="H170" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="I170" s="17"/>
-      <c r="J170" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" s="8" customFormat="1">
-      <c r="A171" s="8">
+      <c r="J170" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="7" customFormat="1">
+      <c r="A171" s="7">
         <v>170</v>
       </c>
-      <c r="B171" s="22">
+      <c r="B171" s="30">
         <v>31</v>
       </c>
-      <c r="C171" s="22">
-        <v>1</v>
-      </c>
-      <c r="D171" s="23" t="s">
+      <c r="C171" s="30">
+        <v>1</v>
+      </c>
+      <c r="D171" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E171" s="22" t="s">
+      <c r="E171" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24"/>
-      <c r="H171" s="24" t="s">
+      <c r="F171" s="32"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I171" s="21"/>
-      <c r="J171" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" s="8" customFormat="1">
-      <c r="A172" s="8">
+      <c r="J171" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="7" customFormat="1">
+      <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="B172" s="22">
+      <c r="B172" s="30">
         <v>31</v>
       </c>
-      <c r="C172" s="22">
+      <c r="C172" s="30">
         <v>2</v>
       </c>
-      <c r="D172" s="23" t="s">
+      <c r="D172" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E172" s="22" t="s">
+      <c r="E172" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="F172" s="24"/>
-      <c r="G172" s="24"/>
-      <c r="H172" s="24" t="s">
+      <c r="F172" s="32"/>
+      <c r="G172" s="32"/>
+      <c r="H172" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I172" s="21"/>
-      <c r="J172" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" s="8" customFormat="1">
-      <c r="A173" s="8">
+      <c r="J172" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="7" customFormat="1">
+      <c r="A173" s="7">
         <v>172</v>
       </c>
-      <c r="B173" s="22">
+      <c r="B173" s="30">
         <v>31</v>
       </c>
-      <c r="C173" s="22">
+      <c r="C173" s="30">
         <v>3</v>
       </c>
-      <c r="D173" s="23" t="s">
+      <c r="D173" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E173" s="22" t="s">
+      <c r="E173" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="F173" s="24"/>
-      <c r="G173" s="24"/>
-      <c r="H173" s="24" t="s">
+      <c r="F173" s="32"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I173" s="21"/>
-      <c r="J173" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" s="8" customFormat="1">
-      <c r="A174" s="8">
+      <c r="J173" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="7" customFormat="1">
+      <c r="A174" s="7">
         <v>173</v>
       </c>
-      <c r="B174" s="22">
+      <c r="B174" s="30">
         <v>31</v>
       </c>
-      <c r="C174" s="22">
+      <c r="C174" s="30">
         <v>4</v>
       </c>
-      <c r="D174" s="23" t="s">
+      <c r="D174" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E174" s="22"/>
-      <c r="F174" s="24" t="s">
+      <c r="E174" s="30"/>
+      <c r="F174" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="G174" s="24" t="s">
+      <c r="G174" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H174" s="24" t="s">
+      <c r="H174" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="I174" s="21"/>
-      <c r="J174" s="21"/>
-    </row>
-    <row r="175" spans="1:10" s="8" customFormat="1">
-      <c r="A175" s="8">
+    </row>
+    <row r="175" spans="1:10" s="7" customFormat="1">
+      <c r="A175" s="7">
         <v>174</v>
       </c>
-      <c r="B175" s="22">
+      <c r="B175" s="30">
         <v>31</v>
       </c>
-      <c r="C175" s="22">
+      <c r="C175" s="30">
         <v>5</v>
       </c>
-      <c r="D175" s="23" t="s">
+      <c r="D175" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E175" s="22"/>
-      <c r="F175" s="24" t="s">
+      <c r="E175" s="30"/>
+      <c r="F175" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G175" s="24" t="s">
+      <c r="G175" s="32" t="s">
         <v>62</v>
       </c>
       <c r="H175" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I175" s="21"/>
-      <c r="J175" s="21">
+      <c r="J175" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="8" customFormat="1">
-      <c r="A176" s="8">
+    <row r="176" spans="1:10" s="7" customFormat="1">
+      <c r="A176" s="7">
         <v>175</v>
       </c>
-      <c r="B176" s="22">
+      <c r="B176" s="30">
         <v>31</v>
       </c>
-      <c r="C176" s="22">
+      <c r="C176" s="30">
         <v>6</v>
       </c>
-      <c r="D176" s="23" t="s">
+      <c r="D176" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E176" s="22"/>
+      <c r="E176" s="30"/>
       <c r="F176" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G176" s="24" t="s">
+      <c r="G176" s="32" t="s">
         <v>178</v>
       </c>
       <c r="H176" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I176" s="21"/>
-      <c r="J176" s="21">
+      <c r="J176" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:10" s="8" customFormat="1">
-      <c r="A177" s="8">
+    <row r="177" spans="1:10" s="7" customFormat="1">
+      <c r="A177" s="7">
         <v>176</v>
       </c>
-      <c r="B177" s="22">
+      <c r="B177" s="30">
         <v>31</v>
       </c>
-      <c r="C177" s="22">
+      <c r="C177" s="30">
         <v>7</v>
       </c>
-      <c r="D177" s="23" t="s">
+      <c r="D177" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E177" s="22"/>
-      <c r="F177" s="24" t="s">
+      <c r="E177" s="30"/>
+      <c r="F177" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G177" s="24" t="s">
+      <c r="G177" s="32" t="s">
         <v>56</v>
       </c>
       <c r="H177" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="I177" s="21"/>
-      <c r="J177" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" s="8" customFormat="1">
-      <c r="A178" s="8">
+      <c r="J177" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" s="7" customFormat="1">
+      <c r="A178" s="7">
         <v>177</v>
       </c>
-      <c r="B178" s="22">
+      <c r="B178" s="30">
         <v>31</v>
       </c>
-      <c r="C178" s="22">
+      <c r="C178" s="30">
         <v>8</v>
       </c>
-      <c r="D178" s="23" t="s">
+      <c r="D178" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E178" s="22"/>
+      <c r="E178" s="30"/>
       <c r="F178" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G178" s="24" t="s">
+      <c r="G178" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="H178" s="24" t="s">
+      <c r="H178" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="I178" s="21"/>
-      <c r="J178" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
-      <c r="A179" s="9"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="12"/>
+      <c r="J178" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" s="7" customFormat="1">
+      <c r="A179" s="7">
+        <v>178</v>
+      </c>
+      <c r="B179" s="18">
+        <v>32</v>
+      </c>
+      <c r="C179" s="18">
+        <v>1</v>
+      </c>
+      <c r="D179" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I179" s="16"/>
+      <c r="J179" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" s="7" customFormat="1">
+      <c r="A180" s="7">
+        <v>179</v>
+      </c>
+      <c r="B180" s="18">
+        <v>32</v>
+      </c>
+      <c r="C180" s="18">
+        <v>2</v>
+      </c>
+      <c r="D180" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E180" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I180" s="16"/>
+      <c r="J180" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" s="7" customFormat="1">
+      <c r="A181" s="7">
+        <v>180</v>
+      </c>
+      <c r="B181" s="18">
+        <v>32</v>
+      </c>
+      <c r="C181" s="18">
+        <v>3</v>
+      </c>
+      <c r="D181" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E181" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F181" s="16"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I181" s="16"/>
+      <c r="J181" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" s="7" customFormat="1">
+      <c r="A182" s="7">
+        <v>181</v>
+      </c>
+      <c r="B182" s="18">
+        <v>32</v>
+      </c>
+      <c r="C182" s="18">
+        <v>4</v>
+      </c>
+      <c r="D182" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E182" s="18"/>
+      <c r="F182" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G182" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H182" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I182" s="16"/>
+      <c r="J182" s="16"/>
+    </row>
+    <row r="183" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A183" s="7">
+        <v>182</v>
+      </c>
+      <c r="B183" s="18">
+        <v>32</v>
+      </c>
+      <c r="C183" s="18">
+        <v>5</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E183" s="18"/>
+      <c r="F183" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G183" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H183" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I183" s="16"/>
+      <c r="J183" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A184" s="7">
+        <v>183</v>
+      </c>
+      <c r="B184" s="18">
+        <v>32</v>
+      </c>
+      <c r="C184" s="18">
+        <v>6</v>
+      </c>
+      <c r="D184" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E184" s="18"/>
+      <c r="F184" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G184" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H184" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I184" s="16"/>
+      <c r="J184" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" s="7" customFormat="1">
+      <c r="A185" s="7">
+        <v>184</v>
+      </c>
+      <c r="B185" s="18">
+        <v>32</v>
+      </c>
+      <c r="C185" s="18">
+        <v>7</v>
+      </c>
+      <c r="D185" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E185" s="18"/>
+      <c r="F185" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G185" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H185" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I185" s="16"/>
+      <c r="J185" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A186" s="7">
+        <v>185</v>
+      </c>
+      <c r="B186" s="18">
+        <v>32</v>
+      </c>
+      <c r="C186" s="18">
+        <v>8</v>
+      </c>
+      <c r="D186" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E186" s="18"/>
+      <c r="F186" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G186" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H186" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I186" s="16"/>
+      <c r="J186" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" s="7" customFormat="1">
+      <c r="A187" s="7">
+        <v>186</v>
+      </c>
+      <c r="B187" s="21">
+        <v>33</v>
+      </c>
+      <c r="C187" s="21">
+        <v>1</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E187" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="F187" s="23"/>
+      <c r="G187" s="23"/>
+      <c r="H187" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I187" s="20"/>
+      <c r="J187" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" s="7" customFormat="1">
+      <c r="A188" s="7">
+        <v>187</v>
+      </c>
+      <c r="B188" s="21">
+        <v>33</v>
+      </c>
+      <c r="C188" s="21">
+        <v>2</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E188" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="F188" s="23"/>
+      <c r="G188" s="23"/>
+      <c r="H188" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I188" s="20"/>
+      <c r="J188" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" s="7" customFormat="1">
+      <c r="A189" s="7">
+        <v>188</v>
+      </c>
+      <c r="B189" s="21">
+        <v>33</v>
+      </c>
+      <c r="C189" s="21">
+        <v>3</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E189" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F189" s="23"/>
+      <c r="G189" s="23"/>
+      <c r="H189" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I189" s="20"/>
+      <c r="J189" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" s="7" customFormat="1">
+      <c r="A190" s="7">
+        <v>189</v>
+      </c>
+      <c r="B190" s="21">
+        <v>33</v>
+      </c>
+      <c r="C190" s="21">
+        <v>4</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E190" s="21"/>
+      <c r="F190" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G190" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H190" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I190" s="20"/>
+      <c r="J190" s="20"/>
+    </row>
+    <row r="191" spans="1:10" s="7" customFormat="1">
+      <c r="A191" s="7">
+        <v>190</v>
+      </c>
+      <c r="B191" s="21">
+        <v>33</v>
+      </c>
+      <c r="C191" s="21">
+        <v>5</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E191" s="21"/>
+      <c r="F191" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G191" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H191" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I191" s="20"/>
+      <c r="J191" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" s="7" customFormat="1">
+      <c r="A192" s="7">
+        <v>191</v>
+      </c>
+      <c r="B192" s="21">
+        <v>33</v>
+      </c>
+      <c r="C192" s="21">
+        <v>6</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E192" s="21"/>
+      <c r="F192" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G192" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H192" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I192" s="20"/>
+      <c r="J192" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" s="7" customFormat="1">
+      <c r="A193" s="7">
+        <v>192</v>
+      </c>
+      <c r="B193" s="21">
+        <v>33</v>
+      </c>
+      <c r="C193" s="21">
+        <v>7</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E193" s="21"/>
+      <c r="F193" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G193" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H193" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I193" s="20"/>
+      <c r="J193" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" s="7" customFormat="1">
+      <c r="A194" s="7">
+        <v>193</v>
+      </c>
+      <c r="B194" s="21">
+        <v>33</v>
+      </c>
+      <c r="C194" s="21">
+        <v>8</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E194" s="21"/>
+      <c r="F194" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G194" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="H194" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I194" s="20"/>
+      <c r="J194" s="20">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="G2:G12">

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="main" sheetId="2" r:id="rId1"/>
     <sheet name="email|邮件" sheetId="4" r:id="rId2"/>
     <sheet name="award" sheetId="3" r:id="rId3"/>
+    <sheet name="all_powerful|万能兑换" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="308">
   <si>
     <t>id|</t>
   </si>
@@ -142,10 +143,6 @@
   </si>
   <si>
     <t>award_cfg_id|配置id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_id|兑换奖励id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1328,6 +1325,202 @@
   </si>
   <si>
     <t>金龙鱼大米5斤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_gdn_x","prop_gdn_n","prop_gdn_k","prop_gdn_l",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在过大年活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在过大年活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米10斤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3800,3800,3800,3800,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,2000,2000,2000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1250,1250,1250,1250,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,3000,3000,3000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,1500,1500,1500,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新年好礼-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-cjj</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_gdn_x","prop_gdn_n","prop_gdn_k","prop_gdn_l",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_powerful_type|万能道具类型</t>
+  </si>
+  <si>
+    <t>act_id|兑换id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_wn</t>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,800,0,800,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_id|兑换奖励id
+（一键兑换时，奖励消耗从大到小设置）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600,600,0,0,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6000,6000,6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--恭喜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--恭喜发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0,0,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵福利--cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_2",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_2",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>团团圆圆闹元宵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在元宵福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在元宵福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐福记礼盒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>琥珀核桃4罐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档纯棉浴巾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6000,6000,6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1414,7 +1607,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1441,7 +1634,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,7 +1696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1578,17 +1789,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1608,11 +1812,79 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1891,10 +2163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1904,9 +2176,9 @@
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
     <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="53.375" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="44" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="41" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="41" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="33" style="4" customWidth="1"/>
     <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
@@ -1929,10 +2201,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>10</v>
@@ -1969,7 +2241,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -1984,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -1994,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>1592868600</v>
@@ -2005,7 +2277,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -2028,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1">
         <v>1597707000</v>
@@ -2039,7 +2311,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -2061,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1">
         <v>1601335800</v>
@@ -2072,7 +2344,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -2092,7 +2364,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1">
         <v>1606176000</v>
@@ -2103,7 +2375,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -2125,7 +2397,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1">
         <v>1606176000</v>
@@ -2136,7 +2408,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -2158,7 +2430,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="7">
         <v>1607385600</v>
@@ -2169,7 +2441,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2191,7 +2463,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="7">
         <v>1607385600</v>
@@ -2202,7 +2474,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2224,7 +2496,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="7">
         <v>1607990400</v>
@@ -2235,7 +2507,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2257,7 +2529,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="7">
         <v>1607990400</v>
@@ -2268,7 +2540,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2290,7 +2562,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="28">
         <v>1609200000</v>
@@ -2301,7 +2573,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2323,7 +2595,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="28">
         <v>1609200000</v>
@@ -2334,7 +2606,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2356,7 +2628,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="28">
         <v>1609200000</v>
@@ -2367,7 +2639,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2389,7 +2661,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="28">
         <v>1609200000</v>
@@ -2400,7 +2672,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -2422,7 +2694,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="28">
         <v>1609804800</v>
@@ -2433,7 +2705,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2455,7 +2727,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="28">
         <v>1609804800</v>
@@ -2466,7 +2738,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2483,21 +2755,21 @@
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
     </row>
-    <row r="18" spans="1:16" s="42" customFormat="1">
+    <row r="18" spans="1:16" s="39" customFormat="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="41">
+        <v>186</v>
+      </c>
+      <c r="C18" s="38">
         <v>1610409600</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="38">
         <v>1610985599</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2516,8 +2788,8 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>188</v>
+      <c r="B19" s="40" t="s">
+        <v>187</v>
       </c>
       <c r="C19" s="7">
         <v>1610409600</v>
@@ -2528,7 +2800,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2543,12 +2815,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="42" customFormat="1">
+    <row r="20" spans="1:16" s="39" customFormat="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="7">
         <v>1611014400</v>
@@ -2557,7 +2829,7 @@
         <v>1611590399</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2577,7 +2849,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="7">
         <v>1611014400</v>
@@ -2588,7 +2860,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2608,7 +2880,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="7">
         <v>1611014400</v>
@@ -2618,14 +2890,14 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="H22" s="41">
-        <v>1</v>
-      </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="41">
+      <c r="G22" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" s="38">
+        <v>1</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="38">
         <v>21</v>
       </c>
       <c r="K22" s="26">
@@ -2639,7 +2911,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="7">
         <v>1611014400</v>
@@ -2649,14 +2921,14 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="41">
-        <v>1</v>
-      </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="41">
+      <c r="G23" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="38">
+        <v>1</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="38">
         <v>22</v>
       </c>
       <c r="K23" s="26">
@@ -2670,7 +2942,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C24" s="7">
         <v>1611014400</v>
@@ -2680,14 +2952,14 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="H24" s="41">
-        <v>1</v>
-      </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="41">
+      <c r="G24" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H24" s="38">
+        <v>1</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="38">
         <v>23</v>
       </c>
       <c r="K24" s="26">
@@ -2701,7 +2973,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="7">
         <v>1611014400</v>
@@ -2709,14 +2981,14 @@
       <c r="D25" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G25" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" s="41">
-        <v>1</v>
-      </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="41">
+      <c r="G25" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="38">
+        <v>1</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="38">
         <v>24</v>
       </c>
       <c r="K25" s="26">
@@ -2728,7 +3000,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="7">
         <v>1611014400</v>
@@ -2736,14 +3008,14 @@
       <c r="D26" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G26" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="H26" s="41">
-        <v>1</v>
-      </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="41">
+      <c r="G26" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="38">
+        <v>1</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="38">
         <v>25</v>
       </c>
       <c r="K26" s="26">
@@ -2755,7 +3027,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C27" s="7">
         <v>1611014400</v>
@@ -2765,14 +3037,14 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="H27" s="41">
-        <v>1</v>
-      </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="41">
+      <c r="G27" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" s="38">
+        <v>1</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="38">
         <v>26</v>
       </c>
       <c r="K27" s="26">
@@ -2784,7 +3056,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="7">
         <v>1611014400</v>
@@ -2794,14 +3066,14 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="H28" s="41">
-        <v>1</v>
-      </c>
-      <c r="I28" s="42"/>
-      <c r="J28" s="41">
+      <c r="G28" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" s="38">
+        <v>1</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="38">
         <v>27</v>
       </c>
       <c r="K28" s="26">
@@ -2813,7 +3085,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="7">
         <v>1611014400</v>
@@ -2823,14 +3095,14 @@
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="H29" s="41">
-        <v>1</v>
-      </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="41">
+      <c r="G29" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="38">
+        <v>1</v>
+      </c>
+      <c r="I29" s="39"/>
+      <c r="J29" s="38">
         <v>28</v>
       </c>
       <c r="K29" s="26">
@@ -2842,7 +3114,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C30" s="7">
         <v>1611014400</v>
@@ -2852,26 +3124,26 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="H30" s="41">
-        <v>1</v>
-      </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="41">
+      <c r="G30" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H30" s="38">
+        <v>1</v>
+      </c>
+      <c r="I30" s="39"/>
+      <c r="J30" s="38">
         <v>29</v>
       </c>
       <c r="K30" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="42" customFormat="1">
+    <row r="31" spans="1:16" s="39" customFormat="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C31" s="7">
         <v>1611619200</v>
@@ -2880,7 +3152,7 @@
         <v>1612195199</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2900,7 +3172,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="7">
         <v>1611619200</v>
@@ -2911,7 +3183,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2926,67 +3198,367 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="42" customFormat="1">
+    <row r="33" spans="1:16" s="39" customFormat="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="C33" s="20">
+      <c r="B33" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="7">
         <v>1612224000</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="7">
         <v>1612799999</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="20">
-        <v>1</v>
-      </c>
-      <c r="I33" s="20">
+      <c r="G33" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
         <v>23</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="15">
         <v>32</v>
       </c>
-      <c r="K33" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="26" customFormat="1">
+      <c r="K33" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="26" customFormat="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="37">
+      <c r="B34" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="7">
         <v>1612224000</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="7">
         <v>1612799999</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="H34" s="37">
-        <v>1</v>
-      </c>
-      <c r="I34" s="37">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
         <v>24</v>
       </c>
-      <c r="J34" s="46">
+      <c r="J34" s="15">
         <v>33</v>
       </c>
-      <c r="K34" s="47">
-        <v>1</v>
-      </c>
+      <c r="K34" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="46" customFormat="1">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D35" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="H35" s="48">
+        <v>1</v>
+      </c>
+      <c r="I35" s="16">
+        <v>25</v>
+      </c>
+      <c r="J35" s="45">
+        <v>34</v>
+      </c>
+      <c r="K35" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="29" customFormat="1">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="20">
+        <v>1612828800</v>
+      </c>
+      <c r="D36" s="20">
+        <v>1613404799</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="44">
+        <v>1</v>
+      </c>
+      <c r="I36" s="20">
+        <v>26</v>
+      </c>
+      <c r="J36" s="34">
+        <v>35</v>
+      </c>
+      <c r="K36" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" s="57">
+        <v>1613433600</v>
+      </c>
+      <c r="D37" s="57">
+        <v>1614009599</v>
+      </c>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="H37" s="59">
+        <v>1</v>
+      </c>
+      <c r="I37" s="60"/>
+      <c r="J37" s="59">
+        <v>36</v>
+      </c>
+      <c r="K37" s="61">
+        <v>1</v>
+      </c>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+    </row>
+    <row r="38" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" s="57">
+        <v>1613433600</v>
+      </c>
+      <c r="D38" s="57">
+        <v>1614009599</v>
+      </c>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="H38" s="59">
+        <v>1</v>
+      </c>
+      <c r="I38" s="60"/>
+      <c r="J38" s="59">
+        <v>37</v>
+      </c>
+      <c r="K38" s="61">
+        <v>1</v>
+      </c>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+    </row>
+    <row r="39" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="57">
+        <v>1613433600</v>
+      </c>
+      <c r="D39" s="57">
+        <v>1614009599</v>
+      </c>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="59">
+        <v>1</v>
+      </c>
+      <c r="I39" s="60"/>
+      <c r="J39" s="59">
+        <v>38</v>
+      </c>
+      <c r="K39" s="61">
+        <v>1</v>
+      </c>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+    </row>
+    <row r="40" spans="1:16" s="46" customFormat="1">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="66">
+        <v>1614038400</v>
+      </c>
+      <c r="D40" s="66">
+        <v>1614614399</v>
+      </c>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="H40" s="67">
+        <v>1</v>
+      </c>
+      <c r="I40" s="66">
+        <v>27</v>
+      </c>
+      <c r="J40" s="68">
+        <v>39</v>
+      </c>
+      <c r="K40" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="29" customFormat="1">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="66">
+        <v>1614038400</v>
+      </c>
+      <c r="D41" s="66">
+        <v>1614614399</v>
+      </c>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="70" t="s">
+        <v>295</v>
+      </c>
+      <c r="H41" s="67">
+        <v>1</v>
+      </c>
+      <c r="I41" s="66">
+        <v>28</v>
+      </c>
+      <c r="J41" s="68">
+        <v>40</v>
+      </c>
+      <c r="K41" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="26" customFormat="1">
+      <c r="A42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="44" spans="1:16" s="26" customFormat="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:16" s="26" customFormat="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:16" s="26" customFormat="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:16" s="26" customFormat="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:16" s="26" customFormat="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" s="26" customFormat="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="1:10" s="26" customFormat="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2999,10 +3571,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3033,10 +3605,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -3047,10 +3619,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -3061,10 +3633,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -3075,10 +3647,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3086,10 +3658,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3097,10 +3669,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3108,10 +3680,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3119,10 +3691,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1">
@@ -3130,10 +3702,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>152</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1">
@@ -3141,10 +3713,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1">
@@ -3152,10 +3724,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1">
@@ -3163,10 +3735,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1">
@@ -3174,25 +3746,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+        <v>165</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1">
@@ -3200,25 +3772,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+        <v>171</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:3" s="7" customFormat="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="7" customFormat="1">
@@ -3226,10 +3798,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="7" customFormat="1">
@@ -3237,10 +3809,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="7" customFormat="1">
@@ -3248,10 +3820,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="7" customFormat="1">
@@ -3259,10 +3831,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="7" customFormat="1">
@@ -3270,10 +3842,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="7" customFormat="1">
@@ -3281,32 +3853,76 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="7" customFormat="1">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="7" customFormat="1">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="37">
-        <v>24</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>259</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3319,13 +3935,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F189" sqref="F189"/>
+      <selection pane="bottomRight" activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3351,34 +3967,34 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>19</v>
@@ -3395,13 +4011,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -3421,19 +4037,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3447,13 +4063,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -3470,13 +4086,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3490,13 +4106,13 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
@@ -3513,13 +4129,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -3536,13 +4152,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -3559,16 +4175,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -3585,13 +4201,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -3608,13 +4224,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -3631,14 +4247,14 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -3655,15 +4271,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -3680,15 +4296,15 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -3706,13 +4322,13 @@
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="1">
         <v>3</v>
@@ -3730,13 +4346,13 @@
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
@@ -3754,13 +4370,13 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -3777,15 +4393,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -3802,15 +4418,15 @@
         <v>2</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -3827,15 +4443,15 @@
         <v>3</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -3854,13 +4470,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="11"/>
       <c r="F21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="H21" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3876,13 +4492,13 @@
       <c r="D22" s="8"/>
       <c r="E22" s="11"/>
       <c r="F22" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
@@ -3901,13 +4517,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="11"/>
       <c r="F23" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -3926,13 +4542,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="11"/>
       <c r="F24" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -3949,17 +4565,17 @@
         <v>8</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -3976,15 +4592,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" s="7">
         <v>1</v>
@@ -4001,15 +4617,15 @@
         <v>2</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J27" s="7">
         <v>1</v>
@@ -4026,15 +4642,15 @@
         <v>3</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" s="7">
         <v>1</v>
@@ -4051,17 +4667,17 @@
         <v>4</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="7" customFormat="1">
@@ -4075,17 +4691,17 @@
         <v>5</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J30" s="7">
         <v>3</v>
@@ -4102,17 +4718,17 @@
         <v>6</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J31" s="7">
         <v>2</v>
@@ -4129,17 +4745,17 @@
         <v>7</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" s="7">
         <v>1</v>
@@ -4156,17 +4772,17 @@
         <v>8</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J33" s="7">
         <v>1</v>
@@ -4183,15 +4799,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J34" s="7">
         <v>1</v>
@@ -4208,15 +4824,15 @@
         <v>2</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J35" s="7">
         <v>1</v>
@@ -4233,15 +4849,15 @@
         <v>3</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36" s="7">
         <v>1</v>
@@ -4258,17 +4874,17 @@
         <v>4</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1">
@@ -4282,17 +4898,17 @@
         <v>5</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J38" s="7">
         <v>3</v>
@@ -4309,17 +4925,17 @@
         <v>6</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39" s="30"/>
       <c r="F39" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J39" s="7">
         <v>2</v>
@@ -4336,17 +4952,17 @@
         <v>7</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" s="30"/>
       <c r="F40" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J40" s="7">
         <v>1</v>
@@ -4363,17 +4979,17 @@
         <v>8</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" s="30"/>
       <c r="F41" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J41" s="7">
         <v>1</v>
@@ -4390,15 +5006,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J42" s="7">
         <v>1</v>
@@ -4415,15 +5031,15 @@
         <v>2</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J43" s="7">
         <v>1</v>
@@ -4440,15 +5056,15 @@
         <v>3</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J44" s="7">
         <v>1</v>
@@ -4465,17 +5081,17 @@
         <v>4</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" s="30"/>
       <c r="F45" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1">
@@ -4489,17 +5105,17 @@
         <v>5</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J46" s="7">
         <v>3</v>
@@ -4516,17 +5132,17 @@
         <v>6</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J47" s="7">
         <v>2</v>
@@ -4543,17 +5159,17 @@
         <v>7</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" s="30"/>
       <c r="F48" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J48" s="7">
         <v>1</v>
@@ -4570,17 +5186,17 @@
         <v>8</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J49" s="7">
         <v>1</v>
@@ -4597,15 +5213,15 @@
         <v>1</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J50" s="7">
         <v>1</v>
@@ -4622,15 +5238,15 @@
         <v>2</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
       <c r="H51" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J51" s="7">
         <v>1</v>
@@ -4647,15 +5263,15 @@
         <v>3</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J52" s="7">
         <v>1</v>
@@ -4672,17 +5288,17 @@
         <v>4</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" s="30"/>
       <c r="F53" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1">
@@ -4696,17 +5312,17 @@
         <v>5</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="30"/>
       <c r="F54" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54" s="7">
         <v>3</v>
@@ -4723,17 +5339,17 @@
         <v>6</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E55" s="30"/>
       <c r="F55" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J55" s="7">
         <v>2</v>
@@ -4750,17 +5366,17 @@
         <v>7</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J56" s="7">
         <v>1</v>
@@ -4777,17 +5393,17 @@
         <v>8</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" s="30"/>
       <c r="F57" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J57" s="7">
         <v>1</v>
@@ -4804,15 +5420,15 @@
         <v>1</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J58" s="7">
         <v>1</v>
@@ -4829,15 +5445,15 @@
         <v>2</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J59" s="7">
         <v>1</v>
@@ -4854,15 +5470,15 @@
         <v>3</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
       <c r="H60" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J60" s="7">
         <v>1</v>
@@ -4879,17 +5495,17 @@
         <v>4</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" s="30"/>
       <c r="F61" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="7" customFormat="1">
@@ -4903,17 +5519,17 @@
         <v>5</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E62" s="30"/>
       <c r="F62" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J62" s="7">
         <v>3</v>
@@ -4930,17 +5546,17 @@
         <v>6</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E63" s="30"/>
       <c r="F63" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J63" s="7">
         <v>2</v>
@@ -4957,17 +5573,17 @@
         <v>7</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64" s="30"/>
       <c r="F64" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J64" s="7">
         <v>1</v>
@@ -4984,17 +5600,17 @@
         <v>8</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E65" s="30"/>
       <c r="F65" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H65" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J65" s="7">
         <v>1</v>
@@ -5011,15 +5627,15 @@
         <v>1</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
       <c r="H66" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J66" s="7">
         <v>1</v>
@@ -5036,15 +5652,15 @@
         <v>2</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
       <c r="H67" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J67" s="7">
         <v>1</v>
@@ -5061,15 +5677,15 @@
         <v>3</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
       <c r="H68" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J68" s="7">
         <v>1</v>
@@ -5086,17 +5702,17 @@
         <v>4</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" s="30"/>
       <c r="F69" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="7" customFormat="1">
@@ -5110,17 +5726,17 @@
         <v>5</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E70" s="30"/>
       <c r="F70" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J70" s="7">
         <v>3</v>
@@ -5137,17 +5753,17 @@
         <v>6</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" s="30"/>
       <c r="F71" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J71" s="7">
         <v>2</v>
@@ -5164,17 +5780,17 @@
         <v>7</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E72" s="30"/>
       <c r="F72" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J72" s="7">
         <v>1</v>
@@ -5191,17 +5807,17 @@
         <v>8</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J73" s="7">
         <v>1</v>
@@ -5218,15 +5834,15 @@
         <v>1</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
       <c r="H74" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="7">
         <v>1</v>
@@ -5243,15 +5859,15 @@
         <v>2</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
       <c r="H75" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J75" s="7">
         <v>1</v>
@@ -5268,15 +5884,15 @@
         <v>3</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
       <c r="H76" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J76" s="7">
         <v>1</v>
@@ -5293,17 +5909,17 @@
         <v>4</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="7" customFormat="1">
@@ -5317,17 +5933,17 @@
         <v>5</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J78" s="7">
         <v>3</v>
@@ -5344,17 +5960,17 @@
         <v>6</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E79" s="30"/>
       <c r="F79" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J79" s="7">
         <v>2</v>
@@ -5371,17 +5987,17 @@
         <v>7</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J80" s="7">
         <v>1</v>
@@ -5398,17 +6014,17 @@
         <v>8</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E81" s="30"/>
       <c r="F81" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J81" s="7">
         <v>1</v>
@@ -5425,15 +6041,15 @@
         <v>1</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F82" s="32"/>
       <c r="G82" s="32"/>
       <c r="H82" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J82" s="7">
         <v>1</v>
@@ -5450,15 +6066,15 @@
         <v>2</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="32"/>
       <c r="H83" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J83" s="7">
         <v>1</v>
@@ -5475,15 +6091,15 @@
         <v>3</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
       <c r="H84" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J84" s="7">
         <v>1</v>
@@ -5500,17 +6116,17 @@
         <v>4</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E85" s="30"/>
       <c r="F85" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="7" customFormat="1">
@@ -5524,17 +6140,17 @@
         <v>5</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" s="30"/>
       <c r="F86" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J86" s="7">
         <v>3</v>
@@ -5551,17 +6167,17 @@
         <v>6</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" s="30"/>
       <c r="F87" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J87" s="7">
         <v>2</v>
@@ -5578,17 +6194,17 @@
         <v>7</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E88" s="30"/>
       <c r="F88" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J88" s="7">
         <v>1</v>
@@ -5605,17 +6221,17 @@
         <v>8</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E89" s="30"/>
       <c r="F89" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J89" s="7">
         <v>1</v>
@@ -5632,15 +6248,15 @@
         <v>1</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F90" s="32"/>
       <c r="G90" s="32"/>
       <c r="H90" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J90" s="7">
         <v>1</v>
@@ -5657,15 +6273,15 @@
         <v>2</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F91" s="32"/>
       <c r="G91" s="32"/>
       <c r="H91" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J91" s="7">
         <v>1</v>
@@ -5682,15 +6298,15 @@
         <v>3</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E92" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F92" s="32"/>
       <c r="G92" s="32"/>
       <c r="H92" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J92" s="7">
         <v>1</v>
@@ -5707,17 +6323,17 @@
         <v>4</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E93" s="30"/>
       <c r="F93" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="7" customFormat="1">
@@ -5731,17 +6347,17 @@
         <v>5</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E94" s="30"/>
       <c r="F94" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J94" s="7">
         <v>3</v>
@@ -5758,17 +6374,17 @@
         <v>6</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E95" s="30"/>
       <c r="F95" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J95" s="7">
         <v>2</v>
@@ -5785,17 +6401,17 @@
         <v>7</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E96" s="30"/>
       <c r="F96" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H96" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J96" s="7">
         <v>1</v>
@@ -5812,17 +6428,17 @@
         <v>8</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E97" s="30"/>
       <c r="F97" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J97" s="7">
         <v>1</v>
@@ -5839,15 +6455,15 @@
         <v>1</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F98" s="32"/>
       <c r="G98" s="32"/>
       <c r="H98" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J98" s="7">
         <v>1</v>
@@ -5864,15 +6480,15 @@
         <v>2</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F99" s="32"/>
       <c r="G99" s="32"/>
       <c r="H99" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J99" s="7">
         <v>1</v>
@@ -5889,15 +6505,15 @@
         <v>3</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F100" s="32"/>
       <c r="G100" s="32"/>
       <c r="H100" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J100" s="7">
         <v>1</v>
@@ -5914,17 +6530,17 @@
         <v>4</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E101" s="30"/>
       <c r="F101" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H101" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="7" customFormat="1">
@@ -5938,17 +6554,17 @@
         <v>5</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102" s="30"/>
       <c r="F102" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J102" s="7">
         <v>3</v>
@@ -5965,17 +6581,17 @@
         <v>6</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E103" s="30"/>
       <c r="F103" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H103" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J103" s="7">
         <v>2</v>
@@ -5992,17 +6608,17 @@
         <v>7</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E104" s="30"/>
       <c r="F104" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J104" s="7">
         <v>1</v>
@@ -6019,17 +6635,17 @@
         <v>8</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E105" s="30"/>
       <c r="F105" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H105" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J105" s="7">
         <v>1</v>
@@ -6046,15 +6662,15 @@
         <v>1</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
       <c r="H106" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J106" s="7">
         <v>1</v>
@@ -6071,15 +6687,15 @@
         <v>2</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
       <c r="H107" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J107" s="7">
         <v>1</v>
@@ -6096,15 +6712,15 @@
         <v>3</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
       <c r="H108" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J108" s="7">
         <v>1</v>
@@ -6121,17 +6737,17 @@
         <v>4</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E109" s="30"/>
       <c r="F109" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H109" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="7" customFormat="1" ht="16.5">
@@ -6145,17 +6761,17 @@
         <v>5</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E110" s="30"/>
-      <c r="F110" s="39" t="s">
-        <v>182</v>
+      <c r="F110" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H110" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J110" s="7">
         <v>3</v>
@@ -6172,17 +6788,17 @@
         <v>6</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E111" s="30"/>
-      <c r="F111" s="39" t="s">
-        <v>183</v>
+      <c r="F111" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H111" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J111" s="7">
         <v>2</v>
@@ -6199,17 +6815,17 @@
         <v>7</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E112" s="30"/>
       <c r="F112" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H112" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J112" s="7">
         <v>1</v>
@@ -6226,17 +6842,17 @@
         <v>8</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E113" s="30"/>
-      <c r="F113" s="39" t="s">
-        <v>184</v>
+      <c r="F113" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H113" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J113" s="7">
         <v>1</v>
@@ -6253,15 +6869,15 @@
         <v>1</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="32"/>
       <c r="H114" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J114" s="7">
         <v>1</v>
@@ -6278,15 +6894,15 @@
         <v>2</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F115" s="32"/>
       <c r="G115" s="32"/>
       <c r="H115" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J115" s="7">
         <v>1</v>
@@ -6303,15 +6919,15 @@
         <v>3</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F116" s="32"/>
       <c r="G116" s="32"/>
       <c r="H116" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J116" s="7">
         <v>1</v>
@@ -6328,17 +6944,17 @@
         <v>4</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E117" s="30"/>
       <c r="F117" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="7" customFormat="1">
@@ -6352,17 +6968,17 @@
         <v>5</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E118" s="30"/>
       <c r="F118" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H118" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J118" s="7">
         <v>3</v>
@@ -6379,17 +6995,17 @@
         <v>6</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E119" s="30"/>
       <c r="F119" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H119" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J119" s="7">
         <v>2</v>
@@ -6406,17 +7022,17 @@
         <v>7</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E120" s="30"/>
       <c r="F120" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H120" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J120" s="7">
         <v>1</v>
@@ -6433,17 +7049,17 @@
         <v>8</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E121" s="30"/>
       <c r="F121" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H121" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J121" s="7">
         <v>1</v>
@@ -6460,15 +7076,15 @@
         <v>1</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F122" s="32"/>
       <c r="G122" s="32"/>
       <c r="H122" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J122" s="7">
         <v>1</v>
@@ -6485,15 +7101,15 @@
         <v>2</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F123" s="32"/>
       <c r="G123" s="32"/>
       <c r="H123" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J123" s="7">
         <v>1</v>
@@ -6510,14 +7126,14 @@
         <v>3</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G124" s="32"/>
       <c r="H124" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J124" s="7">
         <v>1</v>
@@ -6534,17 +7150,17 @@
         <v>4</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E125" s="30"/>
       <c r="F125" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H125" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="7" customFormat="1" ht="16.5">
@@ -6558,17 +7174,17 @@
         <v>5</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E126" s="30"/>
-      <c r="F126" s="39" t="s">
-        <v>182</v>
+      <c r="F126" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H126" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J126" s="7">
         <v>3</v>
@@ -6585,17 +7201,17 @@
         <v>6</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E127" s="30"/>
-      <c r="F127" s="39" t="s">
-        <v>183</v>
+      <c r="F127" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H127" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J127" s="7">
         <v>2</v>
@@ -6612,17 +7228,17 @@
         <v>7</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E128" s="30"/>
       <c r="F128" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G128" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J128" s="7">
         <v>1</v>
@@ -6639,17 +7255,17 @@
         <v>8</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E129" s="30"/>
-      <c r="F129" s="39" t="s">
-        <v>184</v>
+      <c r="F129" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="G129" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H129" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J129" s="7">
         <v>1</v>
@@ -6666,15 +7282,15 @@
         <v>1</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E130" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F130" s="32"/>
       <c r="G130" s="32"/>
       <c r="H130" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J130" s="7">
         <v>1</v>
@@ -6691,15 +7307,15 @@
         <v>2</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E131" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F131" s="32"/>
       <c r="G131" s="32"/>
       <c r="H131" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J131" s="7">
         <v>1</v>
@@ -6716,15 +7332,15 @@
         <v>3</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E132" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F132" s="32"/>
       <c r="G132" s="32"/>
       <c r="H132" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J132" s="7">
         <v>1</v>
@@ -6741,17 +7357,17 @@
         <v>4</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E133" s="30"/>
       <c r="F133" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G133" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H133" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="7" customFormat="1">
@@ -6765,17 +7381,17 @@
         <v>5</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E134" s="30"/>
       <c r="F134" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H134" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J134" s="7">
         <v>3</v>
@@ -6792,17 +7408,17 @@
         <v>6</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E135" s="30"/>
       <c r="F135" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H135" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J135" s="7">
         <v>2</v>
@@ -6819,17 +7435,17 @@
         <v>7</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E136" s="30"/>
       <c r="F136" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H136" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J136" s="7">
         <v>1</v>
@@ -6846,17 +7462,17 @@
         <v>8</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E137" s="30"/>
       <c r="F137" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G137" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H137" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J137" s="7">
         <v>1</v>
@@ -6873,15 +7489,15 @@
         <v>1</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E138" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F138" s="32"/>
       <c r="G138" s="32"/>
       <c r="H138" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J138" s="7">
         <v>1</v>
@@ -6898,15 +7514,15 @@
         <v>2</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E139" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F139" s="32"/>
       <c r="G139" s="32"/>
       <c r="H139" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J139" s="7">
         <v>1</v>
@@ -6923,14 +7539,14 @@
         <v>3</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E140" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G140" s="32"/>
       <c r="H140" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J140" s="7">
         <v>1</v>
@@ -6947,17 +7563,17 @@
         <v>4</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E141" s="30"/>
       <c r="F141" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G141" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H141" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="7" customFormat="1" ht="16.5">
@@ -6971,17 +7587,17 @@
         <v>5</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E142" s="30"/>
-      <c r="F142" s="39" t="s">
-        <v>182</v>
+      <c r="F142" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H142" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J142" s="7">
         <v>3</v>
@@ -6998,17 +7614,17 @@
         <v>6</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E143" s="30"/>
-      <c r="F143" s="39" t="s">
-        <v>183</v>
+      <c r="F143" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H143" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J143" s="7">
         <v>2</v>
@@ -7025,17 +7641,17 @@
         <v>7</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E144" s="30"/>
       <c r="F144" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H144" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J144" s="7">
         <v>1</v>
@@ -7052,17 +7668,17 @@
         <v>8</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E145" s="30"/>
-      <c r="F145" s="39" t="s">
-        <v>184</v>
+      <c r="F145" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H145" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J145" s="7">
         <v>1</v>
@@ -7079,15 +7695,15 @@
         <v>1</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E146" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F146" s="32"/>
       <c r="G146" s="32"/>
       <c r="H146" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J146" s="7">
         <v>1</v>
@@ -7104,15 +7720,15 @@
         <v>2</v>
       </c>
       <c r="D147" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E147" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F147" s="32"/>
       <c r="G147" s="32"/>
       <c r="H147" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J147" s="7">
         <v>1</v>
@@ -7129,15 +7745,15 @@
         <v>3</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E148" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F148" s="32"/>
       <c r="G148" s="32"/>
       <c r="H148" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J148" s="7">
         <v>1</v>
@@ -7154,17 +7770,17 @@
         <v>4</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E149" s="30"/>
       <c r="F149" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H149" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="7" customFormat="1">
@@ -7178,17 +7794,17 @@
         <v>5</v>
       </c>
       <c r="D150" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E150" s="30"/>
       <c r="F150" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H150" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J150" s="7">
         <v>3</v>
@@ -7205,17 +7821,17 @@
         <v>6</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E151" s="30"/>
       <c r="F151" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H151" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J151" s="7">
         <v>2</v>
@@ -7232,17 +7848,17 @@
         <v>7</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E152" s="30"/>
       <c r="F152" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H152" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J152" s="7">
         <v>1</v>
@@ -7259,17 +7875,17 @@
         <v>8</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E153" s="30"/>
       <c r="F153" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H153" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J153" s="7">
         <v>1</v>
@@ -7286,17 +7902,17 @@
         <v>1</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E154" s="30"/>
       <c r="F154" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G154" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G154" s="32" t="s">
-        <v>224</v>
-      </c>
       <c r="H154" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J154" s="7">
         <v>9999</v>
@@ -7313,17 +7929,17 @@
         <v>1</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E155" s="30"/>
       <c r="F155" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H155" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J155" s="7">
         <v>9999</v>
@@ -7340,17 +7956,17 @@
         <v>1</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E156" s="30"/>
       <c r="F156" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H156" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J156" s="7">
         <v>9999</v>
@@ -7367,17 +7983,17 @@
         <v>1</v>
       </c>
       <c r="D157" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E157" s="30"/>
       <c r="F157" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H157" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J157" s="7">
         <v>9999</v>
@@ -7394,17 +8010,17 @@
         <v>1</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E158" s="30"/>
       <c r="F158" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H158" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J158" s="7">
         <v>9999</v>
@@ -7421,17 +8037,17 @@
         <v>1</v>
       </c>
       <c r="D159" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E159" s="30"/>
       <c r="F159" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H159" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J159" s="7">
         <v>9999</v>
@@ -7448,17 +8064,17 @@
         <v>1</v>
       </c>
       <c r="D160" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E160" s="30"/>
       <c r="F160" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H160" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J160" s="7">
         <v>9999</v>
@@ -7475,17 +8091,17 @@
         <v>1</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E161" s="30"/>
       <c r="F161" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H161" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J161" s="7">
         <v>9999</v>
@@ -7502,17 +8118,17 @@
         <v>1</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E162" s="30"/>
       <c r="F162" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H162" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J162" s="7">
         <v>9999</v>
@@ -7529,15 +8145,15 @@
         <v>1</v>
       </c>
       <c r="D163" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E163" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F163" s="32"/>
       <c r="G163" s="32"/>
       <c r="H163" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J163" s="7">
         <v>1</v>
@@ -7554,15 +8170,15 @@
         <v>2</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E164" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="32"/>
       <c r="H164" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J164" s="7">
         <v>1</v>
@@ -7579,14 +8195,14 @@
         <v>3</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E165" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G165" s="32"/>
       <c r="H165" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J165" s="7">
         <v>1</v>
@@ -7603,17 +8219,17 @@
         <v>4</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E166" s="30"/>
       <c r="F166" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G166" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H166" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="167" spans="1:10" s="7" customFormat="1" ht="16.5">
@@ -7627,17 +8243,17 @@
         <v>5</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E167" s="30"/>
-      <c r="F167" s="39" t="s">
-        <v>182</v>
+      <c r="F167" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H167" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J167" s="7">
         <v>3</v>
@@ -7654,17 +8270,17 @@
         <v>6</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E168" s="30"/>
-      <c r="F168" s="39" t="s">
-        <v>183</v>
+      <c r="F168" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="G168" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H168" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J168" s="7">
         <v>2</v>
@@ -7681,17 +8297,17 @@
         <v>7</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E169" s="30"/>
       <c r="F169" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G169" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H169" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J169" s="7">
         <v>1</v>
@@ -7708,17 +8324,17 @@
         <v>8</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E170" s="30"/>
-      <c r="F170" s="39" t="s">
-        <v>184</v>
+      <c r="F170" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="G170" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H170" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J170" s="7">
         <v>1</v>
@@ -7735,15 +8351,15 @@
         <v>1</v>
       </c>
       <c r="D171" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E171" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F171" s="32"/>
       <c r="G171" s="32"/>
       <c r="H171" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J171" s="7">
         <v>1</v>
@@ -7760,15 +8376,15 @@
         <v>2</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E172" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F172" s="32"/>
       <c r="G172" s="32"/>
       <c r="H172" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J172" s="7">
         <v>1</v>
@@ -7785,15 +8401,15 @@
         <v>3</v>
       </c>
       <c r="D173" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E173" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F173" s="32"/>
       <c r="G173" s="32"/>
       <c r="H173" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J173" s="7">
         <v>1</v>
@@ -7810,17 +8426,17 @@
         <v>4</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E174" s="30"/>
       <c r="F174" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G174" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H174" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="175" spans="1:10" s="7" customFormat="1">
@@ -7834,17 +8450,17 @@
         <v>5</v>
       </c>
       <c r="D175" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E175" s="30"/>
       <c r="F175" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G175" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H175" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J175" s="7">
         <v>3</v>
@@ -7861,17 +8477,17 @@
         <v>6</v>
       </c>
       <c r="D176" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E176" s="30"/>
       <c r="F176" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G176" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H176" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J176" s="7">
         <v>2</v>
@@ -7888,17 +8504,17 @@
         <v>7</v>
       </c>
       <c r="D177" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E177" s="30"/>
       <c r="F177" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G177" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H177" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J177" s="7">
         <v>1</v>
@@ -7915,17 +8531,17 @@
         <v>8</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E178" s="30"/>
       <c r="F178" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G178" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H178" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J178" s="7">
         <v>1</v>
@@ -7935,25 +8551,24 @@
       <c r="A179" s="7">
         <v>178</v>
       </c>
-      <c r="B179" s="18">
+      <c r="B179" s="30">
         <v>32</v>
       </c>
-      <c r="C179" s="18">
-        <v>1</v>
-      </c>
-      <c r="D179" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E179" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="I179" s="16"/>
-      <c r="J179" s="16">
+      <c r="C179" s="30">
+        <v>1</v>
+      </c>
+      <c r="D179" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E179" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F179" s="32"/>
+      <c r="G179" s="32"/>
+      <c r="H179" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="J179" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7961,25 +8576,24 @@
       <c r="A180" s="7">
         <v>179</v>
       </c>
-      <c r="B180" s="18">
+      <c r="B180" s="30">
         <v>32</v>
       </c>
-      <c r="C180" s="18">
+      <c r="C180" s="30">
         <v>2</v>
       </c>
-      <c r="D180" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E180" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="I180" s="16"/>
-      <c r="J180" s="16">
+      <c r="D180" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E180" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F180" s="32"/>
+      <c r="G180" s="32"/>
+      <c r="H180" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J180" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7987,25 +8601,23 @@
       <c r="A181" s="7">
         <v>180</v>
       </c>
-      <c r="B181" s="18">
+      <c r="B181" s="30">
         <v>32</v>
       </c>
-      <c r="C181" s="18">
+      <c r="C181" s="30">
         <v>3</v>
       </c>
-      <c r="D181" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E181" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="F181" s="16"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I181" s="16"/>
-      <c r="J181" s="16">
+      <c r="D181" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E181" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G181" s="32"/>
+      <c r="H181" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J181" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8013,53 +8625,50 @@
       <c r="A182" s="7">
         <v>181</v>
       </c>
-      <c r="B182" s="18">
+      <c r="B182" s="30">
         <v>32</v>
       </c>
-      <c r="C182" s="18">
+      <c r="C182" s="30">
         <v>4</v>
       </c>
-      <c r="D182" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E182" s="18"/>
-      <c r="F182" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G182" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H182" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I182" s="16"/>
-      <c r="J182" s="16"/>
+      <c r="D182" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E182" s="30"/>
+      <c r="F182" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G182" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H182" s="32" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="183" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="B183" s="18">
+      <c r="B183" s="30">
         <v>32</v>
       </c>
-      <c r="C183" s="18">
+      <c r="C183" s="30">
         <v>5</v>
       </c>
-      <c r="D183" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E183" s="18"/>
-      <c r="F183" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="G183" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H183" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I183" s="16"/>
-      <c r="J183" s="16">
+      <c r="D183" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E183" s="30"/>
+      <c r="F183" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G183" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H183" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J183" s="7">
         <v>3</v>
       </c>
     </row>
@@ -8067,27 +8676,26 @@
       <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="B184" s="18">
+      <c r="B184" s="30">
         <v>32</v>
       </c>
-      <c r="C184" s="18">
+      <c r="C184" s="30">
         <v>6</v>
       </c>
-      <c r="D184" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E184" s="18"/>
-      <c r="F184" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="G184" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H184" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I184" s="16"/>
-      <c r="J184" s="16">
+      <c r="D184" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E184" s="30"/>
+      <c r="F184" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G184" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H184" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J184" s="7">
         <v>2</v>
       </c>
     </row>
@@ -8095,27 +8703,26 @@
       <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="B185" s="18">
+      <c r="B185" s="30">
         <v>32</v>
       </c>
-      <c r="C185" s="18">
+      <c r="C185" s="30">
         <v>7</v>
       </c>
-      <c r="D185" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E185" s="18"/>
-      <c r="F185" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G185" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H185" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I185" s="16"/>
-      <c r="J185" s="16">
+      <c r="D185" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E185" s="30"/>
+      <c r="F185" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G185" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H185" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J185" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8123,27 +8730,26 @@
       <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="B186" s="18">
+      <c r="B186" s="30">
         <v>32</v>
       </c>
-      <c r="C186" s="18">
+      <c r="C186" s="30">
         <v>8</v>
       </c>
-      <c r="D186" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E186" s="18"/>
-      <c r="F186" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G186" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H186" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I186" s="16"/>
-      <c r="J186" s="16">
+      <c r="D186" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E186" s="30"/>
+      <c r="F186" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G186" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H186" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J186" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8151,25 +8757,24 @@
       <c r="A187" s="7">
         <v>186</v>
       </c>
-      <c r="B187" s="21">
+      <c r="B187" s="30">
         <v>33</v>
       </c>
-      <c r="C187" s="21">
-        <v>1</v>
-      </c>
-      <c r="D187" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E187" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="F187" s="23"/>
-      <c r="G187" s="23"/>
-      <c r="H187" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I187" s="20"/>
-      <c r="J187" s="20">
+      <c r="C187" s="30">
+        <v>1</v>
+      </c>
+      <c r="D187" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E187" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F187" s="32"/>
+      <c r="G187" s="32"/>
+      <c r="H187" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="J187" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8177,25 +8782,24 @@
       <c r="A188" s="7">
         <v>187</v>
       </c>
-      <c r="B188" s="21">
+      <c r="B188" s="30">
         <v>33</v>
       </c>
-      <c r="C188" s="21">
+      <c r="C188" s="30">
         <v>2</v>
       </c>
-      <c r="D188" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E188" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="F188" s="23"/>
-      <c r="G188" s="23"/>
-      <c r="H188" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I188" s="20"/>
-      <c r="J188" s="20">
+      <c r="D188" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E188" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F188" s="32"/>
+      <c r="G188" s="32"/>
+      <c r="H188" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J188" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8203,25 +8807,24 @@
       <c r="A189" s="7">
         <v>188</v>
       </c>
-      <c r="B189" s="21">
+      <c r="B189" s="30">
         <v>33</v>
       </c>
-      <c r="C189" s="21">
+      <c r="C189" s="30">
         <v>3</v>
       </c>
-      <c r="D189" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E189" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="F189" s="23"/>
-      <c r="G189" s="23"/>
-      <c r="H189" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I189" s="20"/>
-      <c r="J189" s="20">
+      <c r="D189" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E189" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F189" s="32"/>
+      <c r="G189" s="32"/>
+      <c r="H189" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J189" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8229,53 +8832,50 @@
       <c r="A190" s="7">
         <v>189</v>
       </c>
-      <c r="B190" s="21">
+      <c r="B190" s="30">
         <v>33</v>
       </c>
-      <c r="C190" s="21">
+      <c r="C190" s="30">
         <v>4</v>
       </c>
-      <c r="D190" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E190" s="21"/>
-      <c r="F190" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G190" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="H190" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I190" s="20"/>
-      <c r="J190" s="20"/>
+      <c r="D190" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E190" s="30"/>
+      <c r="F190" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G190" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H190" s="32" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="191" spans="1:10" s="7" customFormat="1">
       <c r="A191" s="7">
         <v>190</v>
       </c>
-      <c r="B191" s="21">
+      <c r="B191" s="30">
         <v>33</v>
       </c>
-      <c r="C191" s="21">
+      <c r="C191" s="30">
         <v>5</v>
       </c>
-      <c r="D191" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E191" s="21"/>
-      <c r="F191" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G191" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H191" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I191" s="20"/>
-      <c r="J191" s="20">
+      <c r="D191" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E191" s="30"/>
+      <c r="F191" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G191" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H191" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J191" s="7">
         <v>3</v>
       </c>
     </row>
@@ -8283,27 +8883,26 @@
       <c r="A192" s="7">
         <v>191</v>
       </c>
-      <c r="B192" s="21">
+      <c r="B192" s="30">
         <v>33</v>
       </c>
-      <c r="C192" s="21">
+      <c r="C192" s="30">
         <v>6</v>
       </c>
-      <c r="D192" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E192" s="21"/>
-      <c r="F192" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="G192" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="H192" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I192" s="20"/>
-      <c r="J192" s="20">
+      <c r="D192" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E192" s="30"/>
+      <c r="F192" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G192" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="H192" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J192" s="7">
         <v>2</v>
       </c>
     </row>
@@ -8311,27 +8910,26 @@
       <c r="A193" s="7">
         <v>192</v>
       </c>
-      <c r="B193" s="21">
+      <c r="B193" s="30">
         <v>33</v>
       </c>
-      <c r="C193" s="21">
+      <c r="C193" s="30">
         <v>7</v>
       </c>
-      <c r="D193" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E193" s="21"/>
-      <c r="F193" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G193" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H193" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I193" s="20"/>
-      <c r="J193" s="20">
+      <c r="D193" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E193" s="30"/>
+      <c r="F193" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G193" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H193" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J193" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8339,27 +8937,1127 @@
       <c r="A194" s="7">
         <v>193</v>
       </c>
-      <c r="B194" s="21">
+      <c r="B194" s="30">
         <v>33</v>
       </c>
-      <c r="C194" s="21">
+      <c r="C194" s="30">
         <v>8</v>
       </c>
-      <c r="D194" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E194" s="21"/>
-      <c r="F194" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="G194" s="23" t="s">
+      <c r="D194" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E194" s="30"/>
+      <c r="F194" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G194" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H194" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J194" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" s="7" customFormat="1">
+      <c r="A195" s="7">
+        <v>194</v>
+      </c>
+      <c r="B195" s="45">
+        <v>34</v>
+      </c>
+      <c r="C195" s="30">
+        <v>2</v>
+      </c>
+      <c r="D195" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F195" s="19"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="I195" s="16"/>
+      <c r="J195" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" s="7" customFormat="1">
+      <c r="A196" s="7">
+        <v>195</v>
+      </c>
+      <c r="B196" s="45">
+        <v>34</v>
+      </c>
+      <c r="C196" s="30">
+        <v>4</v>
+      </c>
+      <c r="D196" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E196" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F196" s="19"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="I196" s="16"/>
+      <c r="J196" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" s="7" customFormat="1">
+      <c r="A197" s="7">
+        <v>196</v>
+      </c>
+      <c r="B197" s="45">
+        <v>34</v>
+      </c>
+      <c r="C197" s="30">
+        <v>6</v>
+      </c>
+      <c r="D197" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E197" s="18"/>
+      <c r="F197" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G197" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="H197" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="I197" s="16"/>
+      <c r="J197" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" s="7" customFormat="1">
+      <c r="A198" s="7">
+        <v>197</v>
+      </c>
+      <c r="B198" s="45">
+        <v>34</v>
+      </c>
+      <c r="C198" s="30">
+        <v>1</v>
+      </c>
+      <c r="D198" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E198" s="18"/>
+      <c r="F198" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G198" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H198" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="I198" s="16"/>
+      <c r="J198" s="16"/>
+    </row>
+    <row r="199" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A199" s="7">
+        <v>198</v>
+      </c>
+      <c r="B199" s="45">
+        <v>34</v>
+      </c>
+      <c r="C199" s="30">
+        <v>3</v>
+      </c>
+      <c r="D199" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E199" s="18"/>
+      <c r="F199" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G199" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H199" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I199" s="16"/>
+      <c r="J199" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A200" s="7">
+        <v>199</v>
+      </c>
+      <c r="B200" s="45">
+        <v>34</v>
+      </c>
+      <c r="C200" s="30">
+        <v>5</v>
+      </c>
+      <c r="D200" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E200" s="18"/>
+      <c r="F200" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G200" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H200" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="I200" s="16"/>
+      <c r="J200" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" s="7" customFormat="1">
+      <c r="A201" s="7">
+        <v>200</v>
+      </c>
+      <c r="B201" s="45">
+        <v>34</v>
+      </c>
+      <c r="C201" s="30">
+        <v>7</v>
+      </c>
+      <c r="D201" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E201" s="18"/>
+      <c r="F201" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G201" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H201" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="I201" s="16"/>
+      <c r="J201" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A202" s="7">
+        <v>201</v>
+      </c>
+      <c r="B202" s="45">
+        <v>34</v>
+      </c>
+      <c r="C202" s="30">
+        <v>8</v>
+      </c>
+      <c r="D202" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E202" s="18"/>
+      <c r="F202" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G202" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H202" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="I202" s="16"/>
+      <c r="J202" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" s="7" customFormat="1">
+      <c r="A203" s="7">
+        <v>202</v>
+      </c>
+      <c r="B203" s="34">
+        <v>35</v>
+      </c>
+      <c r="C203" s="30">
+        <v>2</v>
+      </c>
+      <c r="D203" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E203" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F203" s="23"/>
+      <c r="G203" s="23"/>
+      <c r="H203" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="I203" s="20"/>
+      <c r="J203" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" s="7" customFormat="1">
+      <c r="A204" s="7">
+        <v>203</v>
+      </c>
+      <c r="B204" s="34">
+        <v>35</v>
+      </c>
+      <c r="C204" s="30">
+        <v>4</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E204" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F204" s="23"/>
+      <c r="G204" s="23"/>
+      <c r="H204" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="I204" s="20"/>
+      <c r="J204" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" s="7" customFormat="1">
+      <c r="A205" s="7">
+        <v>204</v>
+      </c>
+      <c r="B205" s="34">
+        <v>35</v>
+      </c>
+      <c r="C205" s="30">
+        <v>6</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E205" s="21"/>
+      <c r="F205" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G205" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="H205" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="I205" s="20"/>
+      <c r="J205" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" s="7" customFormat="1">
+      <c r="A206" s="7">
+        <v>205</v>
+      </c>
+      <c r="B206" s="34">
+        <v>35</v>
+      </c>
+      <c r="C206" s="30">
+        <v>1</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E206" s="21"/>
+      <c r="F206" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G206" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H206" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="I206" s="20"/>
+      <c r="J206" s="20"/>
+    </row>
+    <row r="207" spans="1:10" s="7" customFormat="1">
+      <c r="A207" s="7">
+        <v>206</v>
+      </c>
+      <c r="B207" s="34">
+        <v>35</v>
+      </c>
+      <c r="C207" s="30">
+        <v>3</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E207" s="21"/>
+      <c r="F207" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G207" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H207" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="I207" s="20"/>
+      <c r="J207" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" s="7" customFormat="1">
+      <c r="A208" s="7">
+        <v>207</v>
+      </c>
+      <c r="B208" s="34">
+        <v>35</v>
+      </c>
+      <c r="C208" s="30">
+        <v>5</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E208" s="21"/>
+      <c r="F208" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G208" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="H208" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="I208" s="20"/>
+      <c r="J208" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" s="7" customFormat="1">
+      <c r="A209" s="7">
+        <v>208</v>
+      </c>
+      <c r="B209" s="34">
+        <v>35</v>
+      </c>
+      <c r="C209" s="30">
+        <v>7</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E209" s="21"/>
+      <c r="F209" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G209" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H209" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="I209" s="20"/>
+      <c r="J209" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" s="7" customFormat="1">
+      <c r="A210" s="7">
+        <v>209</v>
+      </c>
+      <c r="B210" s="34">
+        <v>35</v>
+      </c>
+      <c r="C210" s="30">
+        <v>8</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E210" s="21"/>
+      <c r="F210" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G210" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="H210" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="I210" s="20"/>
+      <c r="J210" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" s="7" customFormat="1">
+      <c r="A211" s="7">
+        <v>210</v>
+      </c>
+      <c r="B211" s="62">
+        <v>36</v>
+      </c>
+      <c r="C211" s="62">
+        <v>1</v>
+      </c>
+      <c r="D211" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="E211" s="62"/>
+      <c r="F211" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G211" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="H211" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="I211" s="57"/>
+      <c r="J211" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" s="7" customFormat="1">
+      <c r="A212" s="7">
+        <v>211</v>
+      </c>
+      <c r="B212" s="62">
+        <v>36</v>
+      </c>
+      <c r="C212" s="62">
+        <v>2</v>
+      </c>
+      <c r="D212" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="E212" s="62"/>
+      <c r="F212" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G212" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="H212" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="I212" s="57"/>
+      <c r="J212" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" s="7" customFormat="1">
+      <c r="A213" s="7">
+        <v>212</v>
+      </c>
+      <c r="B213" s="62">
+        <v>36</v>
+      </c>
+      <c r="C213" s="62">
+        <v>3</v>
+      </c>
+      <c r="D213" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="E213" s="62"/>
+      <c r="F213" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G213" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="H213" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="I213" s="57"/>
+      <c r="J213" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" s="7" customFormat="1">
+      <c r="A214" s="7">
+        <v>213</v>
+      </c>
+      <c r="B214" s="62">
+        <v>37</v>
+      </c>
+      <c r="C214" s="62">
+        <v>1</v>
+      </c>
+      <c r="D214" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="E214" s="62"/>
+      <c r="F214" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G214" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="H214" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="I214" s="57"/>
+      <c r="J214" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" s="7" customFormat="1">
+      <c r="A215" s="7">
         <v>214</v>
       </c>
-      <c r="H194" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="I194" s="20"/>
-      <c r="J194" s="20">
+      <c r="B215" s="62">
+        <v>37</v>
+      </c>
+      <c r="C215" s="62">
+        <v>2</v>
+      </c>
+      <c r="D215" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="E215" s="62"/>
+      <c r="F215" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G215" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H215" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="I215" s="57"/>
+      <c r="J215" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" s="7" customFormat="1">
+      <c r="A216" s="7">
+        <v>215</v>
+      </c>
+      <c r="B216" s="62">
+        <v>37</v>
+      </c>
+      <c r="C216" s="62">
+        <v>3</v>
+      </c>
+      <c r="D216" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="E216" s="62"/>
+      <c r="F216" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G216" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="H216" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="I216" s="57"/>
+      <c r="J216" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" s="7" customFormat="1">
+      <c r="A217" s="7">
+        <v>216</v>
+      </c>
+      <c r="B217" s="62">
+        <v>38</v>
+      </c>
+      <c r="C217" s="62">
+        <v>1</v>
+      </c>
+      <c r="D217" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="E217" s="62"/>
+      <c r="F217" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G217" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="H217" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I217" s="57"/>
+      <c r="J217" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" s="7" customFormat="1">
+      <c r="A218" s="7">
+        <v>217</v>
+      </c>
+      <c r="B218" s="62">
+        <v>38</v>
+      </c>
+      <c r="C218" s="62">
+        <v>2</v>
+      </c>
+      <c r="D218" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="E218" s="62"/>
+      <c r="F218" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G218" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="H218" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I218" s="57"/>
+      <c r="J218" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" s="7" customFormat="1">
+      <c r="A219" s="7">
+        <v>218</v>
+      </c>
+      <c r="B219" s="62">
+        <v>38</v>
+      </c>
+      <c r="C219" s="62">
+        <v>3</v>
+      </c>
+      <c r="D219" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="E219" s="62"/>
+      <c r="F219" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G219" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="H219" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I219" s="57"/>
+      <c r="J219" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" s="7" customFormat="1">
+      <c r="A220" s="7">
+        <v>219</v>
+      </c>
+      <c r="B220" s="30">
+        <v>39</v>
+      </c>
+      <c r="C220" s="30">
+        <v>1</v>
+      </c>
+      <c r="D220" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E220" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F220" s="32"/>
+      <c r="G220" s="32"/>
+      <c r="H220" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="J220" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" s="7" customFormat="1">
+      <c r="A221" s="7">
+        <v>220</v>
+      </c>
+      <c r="B221" s="30">
+        <v>39</v>
+      </c>
+      <c r="C221" s="30">
+        <v>2</v>
+      </c>
+      <c r="D221" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E221" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F221" s="32"/>
+      <c r="G221" s="32"/>
+      <c r="H221" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J221" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" s="7" customFormat="1">
+      <c r="A222" s="7">
+        <v>221</v>
+      </c>
+      <c r="B222" s="30">
+        <v>39</v>
+      </c>
+      <c r="C222" s="30">
+        <v>3</v>
+      </c>
+      <c r="D222" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E222" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G222" s="32"/>
+      <c r="H222" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J222" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" s="7" customFormat="1">
+      <c r="A223" s="7">
+        <v>222</v>
+      </c>
+      <c r="B223" s="30">
+        <v>39</v>
+      </c>
+      <c r="C223" s="30">
+        <v>4</v>
+      </c>
+      <c r="D223" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E223" s="30"/>
+      <c r="F223" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G223" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H223" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A224" s="7">
+        <v>223</v>
+      </c>
+      <c r="B224" s="30">
+        <v>39</v>
+      </c>
+      <c r="C224" s="30">
+        <v>5</v>
+      </c>
+      <c r="D224" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E224" s="30"/>
+      <c r="F224" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G224" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H224" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J224" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A225" s="7">
+        <v>224</v>
+      </c>
+      <c r="B225" s="30">
+        <v>39</v>
+      </c>
+      <c r="C225" s="30">
+        <v>6</v>
+      </c>
+      <c r="D225" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E225" s="30"/>
+      <c r="F225" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G225" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H225" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J225" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" s="7" customFormat="1">
+      <c r="A226" s="7">
+        <v>225</v>
+      </c>
+      <c r="B226" s="30">
+        <v>39</v>
+      </c>
+      <c r="C226" s="30">
+        <v>7</v>
+      </c>
+      <c r="D226" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E226" s="30"/>
+      <c r="F226" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G226" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H226" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J226" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A227" s="7">
+        <v>226</v>
+      </c>
+      <c r="B227" s="30">
+        <v>39</v>
+      </c>
+      <c r="C227" s="30">
+        <v>8</v>
+      </c>
+      <c r="D227" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E227" s="30"/>
+      <c r="F227" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G227" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H227" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J227" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" s="7" customFormat="1">
+      <c r="A228" s="7">
+        <v>227</v>
+      </c>
+      <c r="B228" s="30">
+        <v>40</v>
+      </c>
+      <c r="C228" s="30">
+        <v>1</v>
+      </c>
+      <c r="D228" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E228" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F228" s="32"/>
+      <c r="G228" s="32"/>
+      <c r="H228" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="J228" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" s="7" customFormat="1">
+      <c r="A229" s="7">
+        <v>228</v>
+      </c>
+      <c r="B229" s="30">
+        <v>40</v>
+      </c>
+      <c r="C229" s="30">
+        <v>2</v>
+      </c>
+      <c r="D229" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E229" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F229" s="32"/>
+      <c r="G229" s="32"/>
+      <c r="H229" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J229" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" s="7" customFormat="1">
+      <c r="A230" s="7">
+        <v>229</v>
+      </c>
+      <c r="B230" s="30">
+        <v>40</v>
+      </c>
+      <c r="C230" s="30">
+        <v>3</v>
+      </c>
+      <c r="D230" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E230" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="F230" s="32"/>
+      <c r="G230" s="32"/>
+      <c r="H230" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J230" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" s="7" customFormat="1">
+      <c r="A231" s="7">
+        <v>230</v>
+      </c>
+      <c r="B231" s="30">
+        <v>40</v>
+      </c>
+      <c r="C231" s="30">
+        <v>4</v>
+      </c>
+      <c r="D231" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E231" s="30"/>
+      <c r="F231" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G231" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H231" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" s="7" customFormat="1">
+      <c r="A232" s="7">
+        <v>231</v>
+      </c>
+      <c r="B232" s="30">
+        <v>40</v>
+      </c>
+      <c r="C232" s="30">
+        <v>5</v>
+      </c>
+      <c r="D232" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E232" s="30"/>
+      <c r="F232" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G232" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H232" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J232" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" s="7" customFormat="1">
+      <c r="A233" s="7">
+        <v>232</v>
+      </c>
+      <c r="B233" s="30">
+        <v>40</v>
+      </c>
+      <c r="C233" s="30">
+        <v>6</v>
+      </c>
+      <c r="D233" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E233" s="30"/>
+      <c r="F233" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G233" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="H233" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J233" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" s="7" customFormat="1">
+      <c r="A234" s="7">
+        <v>233</v>
+      </c>
+      <c r="B234" s="30">
+        <v>40</v>
+      </c>
+      <c r="C234" s="30">
+        <v>7</v>
+      </c>
+      <c r="D234" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E234" s="30"/>
+      <c r="F234" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G234" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H234" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J234" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" s="7" customFormat="1">
+      <c r="A235" s="7">
+        <v>234</v>
+      </c>
+      <c r="B235" s="30">
+        <v>40</v>
+      </c>
+      <c r="C235" s="30">
+        <v>8</v>
+      </c>
+      <c r="D235" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E235" s="30"/>
+      <c r="F235" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G235" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H235" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J235" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8371,4 +10069,104 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7">
+        <v>34</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7">
+        <v>35</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="41"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="41"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="41"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="41"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="41"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="41"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="41"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="41"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="41"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="41"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="41"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="41"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="319">
   <si>
     <t>id|</t>
   </si>
@@ -1500,27 +1500,66 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>女神的礼物</t>
+  </si>
+  <si>
+    <t>女神的礼物--cjj</t>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神节</t>
+  </si>
+  <si>
+    <t>恭喜您在女神的礼物活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>恭喜您在女神的礼物活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>高档保温杯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽玩偶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端皂3块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>6000,6000,6000,6000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_free_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_free_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1607,7 +1646,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1622,37 +1661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,7 +1711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1741,31 +1756,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1778,9 +1768,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1788,17 +1775,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1812,30 +1792,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1844,46 +1801,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2165,8 +2111,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2176,9 +2122,9 @@
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
     <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="53.375" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="41" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="28" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="41" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="28" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="33" style="4" customWidth="1"/>
     <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
@@ -2425,11 +2371,11 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" s="26" customFormat="1" ht="16.5">
+    <row r="8" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="16" t="s">
         <v>132</v>
       </c>
       <c r="C8" s="7">
@@ -2440,7 +2386,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="16" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="7">
@@ -2452,17 +2398,17 @@
       <c r="J8" s="15">
         <v>7</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="17">
         <v>0</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-    </row>
-    <row r="9" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="16" t="s">
         <v>133</v>
       </c>
       <c r="C9" s="7">
@@ -2473,7 +2419,7 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="16" t="s">
         <v>137</v>
       </c>
       <c r="H9" s="7">
@@ -2485,17 +2431,17 @@
       <c r="J9" s="15">
         <v>8</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="17">
         <v>0</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-    </row>
-    <row r="10" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C10" s="7">
@@ -2506,7 +2452,7 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="16" t="s">
         <v>143</v>
       </c>
       <c r="H10" s="7">
@@ -2518,17 +2464,17 @@
       <c r="J10" s="15">
         <v>9</v>
       </c>
-      <c r="K10" s="26">
-        <v>1</v>
-      </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-    </row>
-    <row r="11" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K10" s="17">
+        <v>1</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="16" t="s">
         <v>142</v>
       </c>
       <c r="C11" s="7">
@@ -2539,7 +2485,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="16" t="s">
         <v>143</v>
       </c>
       <c r="H11" s="7">
@@ -2551,28 +2497,28 @@
       <c r="J11" s="15">
         <v>10</v>
       </c>
-      <c r="K11" s="26">
-        <v>1</v>
-      </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-    </row>
-    <row r="12" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K11" s="17">
+        <v>1</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="19">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="19">
         <v>1609775999</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H12" s="7">
@@ -2584,28 +2530,28 @@
       <c r="J12" s="15">
         <v>11</v>
       </c>
-      <c r="K12" s="26">
-        <v>1</v>
-      </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-    </row>
-    <row r="13" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K12" s="17">
+        <v>1</v>
+      </c>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="19">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="19">
         <v>1609775999</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H13" s="7">
@@ -2617,28 +2563,28 @@
       <c r="J13" s="15">
         <v>12</v>
       </c>
-      <c r="K13" s="26">
-        <v>1</v>
-      </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-    </row>
-    <row r="14" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K13" s="17">
+        <v>1</v>
+      </c>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+    </row>
+    <row r="14" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="19">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="19">
         <v>1609775999</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H14" s="7">
@@ -2650,28 +2596,28 @@
       <c r="J14" s="15">
         <v>13</v>
       </c>
-      <c r="K14" s="26">
-        <v>1</v>
-      </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-    </row>
-    <row r="15" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K14" s="17">
+        <v>1</v>
+      </c>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+    </row>
+    <row r="15" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="19">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="19">
         <v>1609775999</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H15" s="7">
@@ -2683,28 +2629,28 @@
       <c r="J15" s="15">
         <v>14</v>
       </c>
-      <c r="K15" s="26">
-        <v>1</v>
-      </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-    </row>
-    <row r="16" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K15" s="17">
+        <v>1</v>
+      </c>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+    </row>
+    <row r="16" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="19">
         <v>1609804800</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="19">
         <v>1610380799</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="16" t="s">
         <v>178</v>
       </c>
       <c r="H16" s="7">
@@ -2716,28 +2662,28 @@
       <c r="J16" s="7">
         <v>15</v>
       </c>
-      <c r="K16" s="26">
-        <v>1</v>
-      </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-    </row>
-    <row r="17" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K16" s="17">
+        <v>1</v>
+      </c>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+    </row>
+    <row r="17" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="19">
         <v>1609804800</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="19">
         <v>1610380799</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="16" t="s">
         <v>178</v>
       </c>
       <c r="H17" s="7">
@@ -2749,26 +2695,26 @@
       <c r="J17" s="7">
         <v>16</v>
       </c>
-      <c r="K17" s="26">
-        <v>1</v>
-      </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-    </row>
-    <row r="18" spans="1:16" s="39" customFormat="1">
+      <c r="K17" s="17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+    </row>
+    <row r="18" spans="1:16" s="26" customFormat="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="25">
         <v>1610409600</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="25">
         <v>1610985599</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H18" s="7">
@@ -2780,15 +2726,15 @@
       <c r="J18" s="15">
         <v>17</v>
       </c>
-      <c r="K18" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="26" customFormat="1">
+      <c r="K18" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="17" customFormat="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="27" t="s">
         <v>187</v>
       </c>
       <c r="C19" s="7">
@@ -2799,7 +2745,7 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="16" t="s">
         <v>189</v>
       </c>
       <c r="H19" s="7">
@@ -2811,15 +2757,15 @@
       <c r="J19" s="15">
         <v>18</v>
       </c>
-      <c r="K19" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="39" customFormat="1">
+      <c r="K19" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="26" customFormat="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="16" t="s">
         <v>205</v>
       </c>
       <c r="C20" s="7">
@@ -2828,7 +2774,7 @@
       <c r="D20" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H20" s="7">
@@ -2840,15 +2786,15 @@
       <c r="J20" s="15">
         <v>19</v>
       </c>
-      <c r="K20" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="26" customFormat="1">
+      <c r="K20" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="17" customFormat="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="16" t="s">
         <v>206</v>
       </c>
       <c r="C21" s="7">
@@ -2859,7 +2805,7 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H21" s="7">
@@ -2871,15 +2817,15 @@
       <c r="J21" s="15">
         <v>20</v>
       </c>
-      <c r="K21" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="16" t="s">
         <v>217</v>
       </c>
       <c r="C22" s="7">
@@ -2890,27 +2836,27 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="H22" s="38">
-        <v>1</v>
-      </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="38">
+      <c r="H22" s="25">
+        <v>1</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="25">
         <v>21</v>
       </c>
-      <c r="K22" s="26">
-        <v>1</v>
-      </c>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-    </row>
-    <row r="23" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K22" s="17">
+        <v>1</v>
+      </c>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+    </row>
+    <row r="23" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="16" t="s">
         <v>218</v>
       </c>
       <c r="C23" s="7">
@@ -2921,27 +2867,27 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="H23" s="38">
-        <v>1</v>
-      </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="38">
+      <c r="H23" s="25">
+        <v>1</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="25">
         <v>22</v>
       </c>
-      <c r="K23" s="26">
-        <v>1</v>
-      </c>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-    </row>
-    <row r="24" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K23" s="17">
+        <v>1</v>
+      </c>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+    </row>
+    <row r="24" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="16" t="s">
         <v>219</v>
       </c>
       <c r="C24" s="7">
@@ -2952,27 +2898,27 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H24" s="38">
-        <v>1</v>
-      </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="38">
+      <c r="H24" s="25">
+        <v>1</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="25">
         <v>23</v>
       </c>
-      <c r="K24" s="26">
-        <v>1</v>
-      </c>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-    </row>
-    <row r="25" spans="1:16" s="26" customFormat="1">
+      <c r="K24" s="17">
+        <v>1</v>
+      </c>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+    </row>
+    <row r="25" spans="1:16" s="17" customFormat="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="16" t="s">
         <v>230</v>
       </c>
       <c r="C25" s="7">
@@ -2981,25 +2927,25 @@
       <c r="D25" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="H25" s="38">
-        <v>1</v>
-      </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="38">
+      <c r="H25" s="25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="25">
         <v>24</v>
       </c>
-      <c r="K25" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="26" customFormat="1">
+      <c r="K25" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="17" customFormat="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="16" t="s">
         <v>231</v>
       </c>
       <c r="C26" s="7">
@@ -3008,25 +2954,25 @@
       <c r="D26" s="7">
         <v>1611590399</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="H26" s="38">
-        <v>1</v>
-      </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="38">
+      <c r="H26" s="25">
+        <v>1</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="25">
         <v>25</v>
       </c>
-      <c r="K26" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="26" customFormat="1">
+      <c r="K26" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="17" customFormat="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="16" t="s">
         <v>232</v>
       </c>
       <c r="C27" s="7">
@@ -3037,25 +2983,25 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H27" s="38">
-        <v>1</v>
-      </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="38">
+      <c r="H27" s="25">
+        <v>1</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="25">
         <v>26</v>
       </c>
-      <c r="K27" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="26" customFormat="1">
+      <c r="K27" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="17" customFormat="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="16" t="s">
         <v>233</v>
       </c>
       <c r="C28" s="7">
@@ -3066,25 +3012,25 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="H28" s="38">
-        <v>1</v>
-      </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="38">
+      <c r="H28" s="25">
+        <v>1</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="25">
         <v>27</v>
       </c>
-      <c r="K28" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="26" customFormat="1">
+      <c r="K28" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="17" customFormat="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="16" t="s">
         <v>234</v>
       </c>
       <c r="C29" s="7">
@@ -3095,25 +3041,25 @@
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="H29" s="38">
-        <v>1</v>
-      </c>
-      <c r="I29" s="39"/>
-      <c r="J29" s="38">
+      <c r="H29" s="25">
+        <v>1</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="25">
         <v>28</v>
       </c>
-      <c r="K29" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="26" customFormat="1">
+      <c r="K29" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="17" customFormat="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C30" s="7">
@@ -3124,25 +3070,25 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H30" s="38">
-        <v>1</v>
-      </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="38">
+      <c r="H30" s="25">
+        <v>1</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="25">
         <v>29</v>
       </c>
-      <c r="K30" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="39" customFormat="1">
+      <c r="K30" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="26" customFormat="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="16" t="s">
         <v>251</v>
       </c>
       <c r="C31" s="7">
@@ -3151,7 +3097,7 @@
       <c r="D31" s="7">
         <v>1612195199</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H31" s="7">
@@ -3163,15 +3109,15 @@
       <c r="J31" s="15">
         <v>30</v>
       </c>
-      <c r="K31" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="26" customFormat="1">
+      <c r="K31" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="17" customFormat="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="16" t="s">
         <v>252</v>
       </c>
       <c r="C32" s="7">
@@ -3182,7 +3128,7 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H32" s="7">
@@ -3194,15 +3140,15 @@
       <c r="J32" s="15">
         <v>31</v>
       </c>
-      <c r="K32" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="39" customFormat="1">
+      <c r="K32" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="26" customFormat="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="16" t="s">
         <v>253</v>
       </c>
       <c r="C33" s="7">
@@ -3211,7 +3157,7 @@
       <c r="D33" s="7">
         <v>1612799999</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H33" s="7">
@@ -3223,15 +3169,15 @@
       <c r="J33" s="15">
         <v>32</v>
       </c>
-      <c r="K33" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="26" customFormat="1">
+      <c r="K33" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="17" customFormat="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="16" t="s">
         <v>254</v>
       </c>
       <c r="C34" s="7">
@@ -3242,7 +3188,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="16" t="s">
         <v>188</v>
       </c>
       <c r="H34" s="7">
@@ -3254,309 +3200,362 @@
       <c r="J34" s="15">
         <v>33</v>
       </c>
-      <c r="K34" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="46" customFormat="1">
+      <c r="K34" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="17" customFormat="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="7">
         <v>1612828800</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="7">
         <v>1613404799</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="47" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="H35" s="48">
-        <v>1</v>
-      </c>
-      <c r="I35" s="16">
+      <c r="H35" s="25">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
         <v>25</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="15">
         <v>34</v>
       </c>
-      <c r="K35" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="29" customFormat="1">
+      <c r="K35" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="17" customFormat="1">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="7">
         <v>1612828800</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="7">
         <v>1613404799</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="43" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="H36" s="44">
-        <v>1</v>
-      </c>
-      <c r="I36" s="20">
+      <c r="H36" s="25">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
         <v>26</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="15">
         <v>35</v>
       </c>
-      <c r="K36" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K36" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="7">
         <v>1613433600</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="7">
         <v>1614009599</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H37" s="59">
-        <v>1</v>
-      </c>
-      <c r="I37" s="60"/>
-      <c r="J37" s="59">
+      <c r="H37" s="25">
+        <v>1</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="25">
         <v>36</v>
       </c>
-      <c r="K37" s="61">
-        <v>1</v>
-      </c>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-    </row>
-    <row r="38" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K37" s="17">
+        <v>1</v>
+      </c>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+    </row>
+    <row r="38" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="7">
         <v>1613433600</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="7">
         <v>1614009599</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H38" s="59">
-        <v>1</v>
-      </c>
-      <c r="I38" s="60"/>
-      <c r="J38" s="59">
+      <c r="H38" s="25">
+        <v>1</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="25">
         <v>37</v>
       </c>
-      <c r="K38" s="61">
-        <v>1</v>
-      </c>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-    </row>
-    <row r="39" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="K38" s="17">
+        <v>1</v>
+      </c>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+    </row>
+    <row r="39" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="7">
         <v>1613433600</v>
       </c>
-      <c r="D39" s="57">
+      <c r="D39" s="7">
         <v>1614009599</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H39" s="59">
-        <v>1</v>
-      </c>
-      <c r="I39" s="60"/>
-      <c r="J39" s="59">
+      <c r="H39" s="25">
+        <v>1</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="25">
         <v>38</v>
       </c>
-      <c r="K39" s="61">
-        <v>1</v>
-      </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-    </row>
-    <row r="40" spans="1:16" s="46" customFormat="1">
+      <c r="K39" s="17">
+        <v>1</v>
+      </c>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+    </row>
+    <row r="40" spans="1:16" s="17" customFormat="1">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="7">
         <v>1614038400</v>
       </c>
-      <c r="D40" s="66">
+      <c r="D40" s="7">
         <v>1614614399</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="70" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="H40" s="67">
-        <v>1</v>
-      </c>
-      <c r="I40" s="66">
+      <c r="H40" s="25">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
         <v>27</v>
       </c>
-      <c r="J40" s="68">
+      <c r="J40" s="15">
         <v>39</v>
       </c>
-      <c r="K40" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="29" customFormat="1">
+      <c r="K40" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="17" customFormat="1">
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="C41" s="66">
+      <c r="C41" s="7">
         <v>1614038400</v>
       </c>
-      <c r="D41" s="66">
+      <c r="D41" s="7">
         <v>1614614399</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="70" t="s">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="H41" s="67">
-        <v>1</v>
-      </c>
-      <c r="I41" s="66">
+      <c r="H41" s="25">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
         <v>28</v>
       </c>
-      <c r="J41" s="68">
+      <c r="J41" s="15">
         <v>40</v>
       </c>
-      <c r="K41" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="26" customFormat="1">
-      <c r="A42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="15"/>
-    </row>
-    <row r="44" spans="1:16" s="26" customFormat="1">
+      <c r="K41" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="39" customFormat="1">
+      <c r="A42" s="34">
+        <v>41</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" s="34">
+        <v>1614643200</v>
+      </c>
+      <c r="D42" s="34">
+        <v>1615219199</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="H42" s="37">
+        <v>1</v>
+      </c>
+      <c r="I42" s="34">
+        <v>29</v>
+      </c>
+      <c r="J42" s="38">
+        <v>41</v>
+      </c>
+      <c r="K42" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="39" customFormat="1">
+      <c r="A43" s="34">
+        <v>42</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" s="34">
+        <v>1614643200</v>
+      </c>
+      <c r="D43" s="34">
+        <v>1615219199</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="H43" s="37">
+        <v>1</v>
+      </c>
+      <c r="I43" s="34">
+        <v>30</v>
+      </c>
+      <c r="J43" s="38">
+        <v>42</v>
+      </c>
+      <c r="K43" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="17" customFormat="1">
       <c r="A44" s="7"/>
-      <c r="B44" s="54"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="38"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="7"/>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:16" s="26" customFormat="1">
+    <row r="45" spans="1:16" s="17" customFormat="1">
       <c r="A45" s="7"/>
-      <c r="B45" s="54"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="38"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="7"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:16" s="26" customFormat="1">
+    <row r="46" spans="1:16" s="17" customFormat="1">
       <c r="A46" s="7"/>
-      <c r="B46" s="54"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="38"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="7"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:16" s="26" customFormat="1">
+    <row r="47" spans="1:16" s="17" customFormat="1">
       <c r="A47" s="7"/>
-      <c r="B47" s="54"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="38"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="7"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="1:16" s="26" customFormat="1">
+    <row r="48" spans="1:16" s="17" customFormat="1">
       <c r="A48" s="7"/>
-      <c r="B48" s="54"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="38"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="7"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" s="26" customFormat="1">
+    <row r="49" spans="1:10" s="17" customFormat="1">
       <c r="A49" s="7"/>
-      <c r="B49" s="54"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="38"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="7"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="1:10" s="26" customFormat="1">
+    <row r="50" spans="1:10" s="17" customFormat="1">
       <c r="A50" s="7"/>
-      <c r="B50" s="54"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="38"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="7"/>
       <c r="J50" s="15"/>
     </row>
@@ -3571,10 +3570,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3701,10 +3700,10 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="16" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3712,10 +3711,10 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3723,10 +3722,10 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="16" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3734,10 +3733,10 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="16" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3745,25 +3744,25 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="16" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3771,25 +3770,25 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:3" s="7" customFormat="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="16" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3800,7 +3799,7 @@
       <c r="B18" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3811,7 +3810,7 @@
       <c r="B19" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="16" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3819,10 +3818,10 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="16" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3830,10 +3829,10 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="16" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3841,10 +3840,10 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="16" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3852,10 +3851,10 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="16" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3863,10 +3862,10 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="16" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3874,55 +3873,77 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" s="7" customFormat="1">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" s="7" customFormat="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="16" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" s="7" customFormat="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3" s="7" customFormat="1">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="16" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="34" customFormat="1">
+      <c r="A30" s="34">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="34" customFormat="1">
+      <c r="A31" s="34">
+        <v>30</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3935,13 +3956,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E216" sqref="E216"/>
+      <selection pane="bottomRight" activeCell="G203" sqref="G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4585,21 +4606,21 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="20">
         <v>5</v>
       </c>
-      <c r="C26" s="30">
-        <v>1</v>
-      </c>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="30" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="20" t="s">
         <v>114</v>
       </c>
       <c r="J26" s="7">
@@ -4610,21 +4631,21 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="20">
         <v>5</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="20">
         <v>2</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="30" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="20" t="s">
         <v>115</v>
       </c>
       <c r="J27" s="7">
@@ -4635,21 +4656,21 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="20">
         <v>5</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="20">
         <v>3</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="30" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="20" t="s">
         <v>116</v>
       </c>
       <c r="J28" s="7">
@@ -4660,23 +4681,23 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="20">
         <v>5</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="20">
         <v>4</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="32" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="20" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4684,23 +4705,23 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="20">
         <v>5</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="20">
         <v>5</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="32" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J30" s="7">
@@ -4711,23 +4732,23 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="20">
         <v>5</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="20">
         <v>6</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="32" t="s">
+      <c r="E31" s="20"/>
+      <c r="F31" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J31" s="7">
@@ -4738,23 +4759,23 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="20">
         <v>5</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="20">
         <v>7</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="32" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J32" s="7">
@@ -4765,23 +4786,23 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="20">
         <v>5</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="20">
         <v>8</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="32" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="20" t="s">
         <v>120</v>
       </c>
       <c r="J33" s="7">
@@ -4792,21 +4813,21 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="20">
         <v>6</v>
       </c>
-      <c r="C34" s="30">
-        <v>1</v>
-      </c>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="20">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="30" t="s">
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J34" s="7">
@@ -4817,21 +4838,21 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="20">
         <v>6</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="20">
         <v>2</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="30" t="s">
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J35" s="7">
@@ -4842,21 +4863,21 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="20">
         <v>6</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="20">
         <v>3</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="30" t="s">
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J36" s="7">
@@ -4867,23 +4888,23 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="20">
         <v>6</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="20">
         <v>4</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="32" t="s">
+      <c r="E37" s="20"/>
+      <c r="F37" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4891,23 +4912,23 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="20">
         <v>6</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="20">
         <v>5</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="32" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J38" s="7">
@@ -4918,23 +4939,23 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="20">
         <v>6</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="20">
         <v>6</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="32" t="s">
+      <c r="E39" s="20"/>
+      <c r="F39" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J39" s="7">
@@ -4945,23 +4966,23 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="20">
         <v>6</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="20">
         <v>7</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="32" t="s">
+      <c r="E40" s="20"/>
+      <c r="F40" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J40" s="7">
@@ -4972,23 +4993,23 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="20">
         <v>6</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="20">
         <v>8</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="32" t="s">
+      <c r="E41" s="20"/>
+      <c r="F41" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J41" s="7">
@@ -4999,21 +5020,21 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="20">
         <v>7</v>
       </c>
-      <c r="C42" s="30">
-        <v>1</v>
-      </c>
-      <c r="D42" s="31" t="s">
+      <c r="C42" s="20">
+        <v>1</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="30" t="s">
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J42" s="7">
@@ -5024,21 +5045,21 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="30">
+      <c r="B43" s="20">
         <v>7</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="20">
         <v>2</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="30" t="s">
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J43" s="7">
@@ -5049,21 +5070,21 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="30">
+      <c r="B44" s="20">
         <v>7</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="20">
         <v>3</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="30" t="s">
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="20" t="s">
         <v>94</v>
       </c>
       <c r="J44" s="7">
@@ -5074,23 +5095,23 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="30">
+      <c r="B45" s="20">
         <v>7</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="20">
         <v>4</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="32" t="s">
+      <c r="E45" s="20"/>
+      <c r="F45" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5098,23 +5119,23 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B46" s="20">
         <v>7</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="20">
         <v>5</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="32" t="s">
+      <c r="E46" s="20"/>
+      <c r="F46" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="H46" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J46" s="7">
@@ -5125,23 +5146,23 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B47" s="20">
         <v>7</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="20">
         <v>6</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="32" t="s">
+      <c r="E47" s="20"/>
+      <c r="F47" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J47" s="7">
@@ -5152,23 +5173,23 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="20">
         <v>7</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="20">
         <v>7</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="32" t="s">
+      <c r="E48" s="20"/>
+      <c r="F48" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H48" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J48" s="7">
@@ -5179,23 +5200,23 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="20">
         <v>7</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="20">
         <v>8</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="32" t="s">
+      <c r="E49" s="20"/>
+      <c r="F49" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J49" s="7">
@@ -5206,21 +5227,21 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50" s="20">
         <v>8</v>
       </c>
-      <c r="C50" s="30">
-        <v>1</v>
-      </c>
-      <c r="D50" s="31" t="s">
+      <c r="C50" s="20">
+        <v>1</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="30" t="s">
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J50" s="7">
@@ -5231,21 +5252,21 @@
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="20">
         <v>8</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="20">
         <v>2</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="30" t="s">
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J51" s="7">
@@ -5256,21 +5277,21 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="30">
+      <c r="B52" s="20">
         <v>8</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="20">
         <v>3</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="30" t="s">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J52" s="7">
@@ -5281,23 +5302,23 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="30">
+      <c r="B53" s="20">
         <v>8</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="20">
         <v>4</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="32" t="s">
+      <c r="E53" s="20"/>
+      <c r="F53" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5305,23 +5326,23 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="30">
+      <c r="B54" s="20">
         <v>8</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="20">
         <v>5</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="32" t="s">
+      <c r="E54" s="20"/>
+      <c r="F54" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H54" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J54" s="7">
@@ -5332,23 +5353,23 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="20">
         <v>8</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="20">
         <v>6</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" s="32" t="s">
+      <c r="E55" s="20"/>
+      <c r="F55" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="25" t="s">
+      <c r="H55" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J55" s="7">
@@ -5359,23 +5380,23 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B56" s="20">
         <v>8</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="20">
         <v>7</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" s="32" t="s">
+      <c r="E56" s="20"/>
+      <c r="F56" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="25" t="s">
+      <c r="H56" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J56" s="7">
@@ -5386,23 +5407,23 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="20">
         <v>8</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C57" s="20">
         <v>8</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" s="32" t="s">
+      <c r="E57" s="20"/>
+      <c r="F57" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="H57" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J57" s="7">
@@ -5413,21 +5434,21 @@
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="30">
+      <c r="B58" s="20">
         <v>9</v>
       </c>
-      <c r="C58" s="30">
-        <v>1</v>
-      </c>
-      <c r="D58" s="31" t="s">
+      <c r="C58" s="20">
+        <v>1</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="30" t="s">
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J58" s="7">
@@ -5438,21 +5459,21 @@
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="30">
+      <c r="B59" s="20">
         <v>9</v>
       </c>
-      <c r="C59" s="30">
+      <c r="C59" s="20">
         <v>2</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="30" t="s">
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J59" s="7">
@@ -5463,21 +5484,21 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="30">
+      <c r="B60" s="20">
         <v>9</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="20">
         <v>3</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="30" t="s">
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J60" s="7">
@@ -5488,23 +5509,23 @@
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="30">
+      <c r="B61" s="20">
         <v>9</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="20">
         <v>4</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="32" t="s">
+      <c r="E61" s="20"/>
+      <c r="F61" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H61" s="30" t="s">
+      <c r="H61" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5512,23 +5533,23 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="30">
+      <c r="B62" s="20">
         <v>9</v>
       </c>
-      <c r="C62" s="30">
+      <c r="C62" s="20">
         <v>5</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="32" t="s">
+      <c r="E62" s="20"/>
+      <c r="F62" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H62" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J62" s="7">
@@ -5539,23 +5560,23 @@
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="20">
         <v>9</v>
       </c>
-      <c r="C63" s="30">
+      <c r="C63" s="20">
         <v>6</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" s="32" t="s">
+      <c r="E63" s="20"/>
+      <c r="F63" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="25" t="s">
+      <c r="H63" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J63" s="7">
@@ -5566,23 +5587,23 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="30">
+      <c r="B64" s="20">
         <v>9</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C64" s="20">
         <v>7</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" s="32" t="s">
+      <c r="E64" s="20"/>
+      <c r="F64" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J64" s="7">
@@ -5593,23 +5614,23 @@
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="30">
+      <c r="B65" s="20">
         <v>9</v>
       </c>
-      <c r="C65" s="30">
+      <c r="C65" s="20">
         <v>8</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" s="32" t="s">
+      <c r="E65" s="20"/>
+      <c r="F65" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H65" s="30" t="s">
+      <c r="H65" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J65" s="7">
@@ -5620,21 +5641,21 @@
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="30">
+      <c r="B66" s="20">
         <v>10</v>
       </c>
-      <c r="C66" s="30">
-        <v>1</v>
-      </c>
-      <c r="D66" s="31" t="s">
+      <c r="C66" s="20">
+        <v>1</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="30" t="s">
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J66" s="7">
@@ -5645,21 +5666,21 @@
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="30">
+      <c r="B67" s="20">
         <v>10</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C67" s="20">
         <v>2</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E67" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="30" t="s">
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J67" s="7">
@@ -5670,21 +5691,21 @@
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="30">
+      <c r="B68" s="20">
         <v>10</v>
       </c>
-      <c r="C68" s="30">
+      <c r="C68" s="20">
         <v>3</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="30" t="s">
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J68" s="7">
@@ -5695,23 +5716,23 @@
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="30">
+      <c r="B69" s="20">
         <v>10</v>
       </c>
-      <c r="C69" s="30">
+      <c r="C69" s="20">
         <v>4</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" s="32" t="s">
+      <c r="E69" s="20"/>
+      <c r="F69" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="H69" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5719,23 +5740,23 @@
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="30">
+      <c r="B70" s="20">
         <v>10</v>
       </c>
-      <c r="C70" s="30">
+      <c r="C70" s="20">
         <v>5</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" s="32" t="s">
+      <c r="E70" s="20"/>
+      <c r="F70" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H70" s="25" t="s">
+      <c r="H70" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J70" s="7">
@@ -5746,23 +5767,23 @@
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="30">
+      <c r="B71" s="20">
         <v>10</v>
       </c>
-      <c r="C71" s="30">
+      <c r="C71" s="20">
         <v>6</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="30"/>
-      <c r="F71" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" s="32" t="s">
+      <c r="E71" s="20"/>
+      <c r="F71" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H71" s="25" t="s">
+      <c r="H71" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J71" s="7">
@@ -5773,23 +5794,23 @@
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="30">
+      <c r="B72" s="20">
         <v>10</v>
       </c>
-      <c r="C72" s="30">
+      <c r="C72" s="20">
         <v>7</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G72" s="32" t="s">
+      <c r="E72" s="20"/>
+      <c r="F72" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="H72" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J72" s="7">
@@ -5800,23 +5821,23 @@
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="30">
+      <c r="B73" s="20">
         <v>10</v>
       </c>
-      <c r="C73" s="30">
+      <c r="C73" s="20">
         <v>8</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="30"/>
-      <c r="F73" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" s="32" t="s">
+      <c r="E73" s="20"/>
+      <c r="F73" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="30" t="s">
+      <c r="H73" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J73" s="7">
@@ -5827,21 +5848,21 @@
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="30">
+      <c r="B74" s="20">
         <v>11</v>
       </c>
-      <c r="C74" s="30">
-        <v>1</v>
-      </c>
-      <c r="D74" s="31" t="s">
+      <c r="C74" s="20">
+        <v>1</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="30" t="s">
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J74" s="7">
@@ -5852,21 +5873,21 @@
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="30">
+      <c r="B75" s="20">
         <v>11</v>
       </c>
-      <c r="C75" s="30">
+      <c r="C75" s="20">
         <v>2</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E75" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="30" t="s">
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J75" s="7">
@@ -5877,21 +5898,21 @@
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="30">
+      <c r="B76" s="20">
         <v>11</v>
       </c>
-      <c r="C76" s="30">
+      <c r="C76" s="20">
         <v>3</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="30" t="s">
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J76" s="7">
@@ -5902,23 +5923,23 @@
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="30">
+      <c r="B77" s="20">
         <v>11</v>
       </c>
-      <c r="C77" s="30">
+      <c r="C77" s="20">
         <v>4</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E77" s="30"/>
-      <c r="F77" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" s="32" t="s">
+      <c r="E77" s="20"/>
+      <c r="F77" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H77" s="30" t="s">
+      <c r="H77" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5926,23 +5947,23 @@
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="30">
+      <c r="B78" s="20">
         <v>11</v>
       </c>
-      <c r="C78" s="30">
+      <c r="C78" s="20">
         <v>5</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E78" s="30"/>
-      <c r="F78" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="32" t="s">
+      <c r="E78" s="20"/>
+      <c r="F78" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H78" s="25" t="s">
+      <c r="H78" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J78" s="7">
@@ -5953,23 +5974,23 @@
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="30">
+      <c r="B79" s="20">
         <v>11</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="20">
         <v>6</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="30"/>
-      <c r="F79" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G79" s="32" t="s">
+      <c r="E79" s="20"/>
+      <c r="F79" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="25" t="s">
+      <c r="H79" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J79" s="7">
@@ -5980,23 +6001,23 @@
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="30">
+      <c r="B80" s="20">
         <v>11</v>
       </c>
-      <c r="C80" s="30">
+      <c r="C80" s="20">
         <v>7</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="30"/>
-      <c r="F80" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G80" s="32" t="s">
+      <c r="E80" s="20"/>
+      <c r="F80" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G80" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="25" t="s">
+      <c r="H80" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J80" s="7">
@@ -6007,23 +6028,23 @@
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="30">
+      <c r="B81" s="20">
         <v>11</v>
       </c>
-      <c r="C81" s="30">
+      <c r="C81" s="20">
         <v>8</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E81" s="30"/>
-      <c r="F81" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" s="32" t="s">
+      <c r="E81" s="20"/>
+      <c r="F81" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H81" s="30" t="s">
+      <c r="H81" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J81" s="7">
@@ -6034,21 +6055,21 @@
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="30">
+      <c r="B82" s="20">
         <v>12</v>
       </c>
-      <c r="C82" s="30">
-        <v>1</v>
-      </c>
-      <c r="D82" s="31" t="s">
+      <c r="C82" s="20">
+        <v>1</v>
+      </c>
+      <c r="D82" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="30" t="s">
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J82" s="7">
@@ -6059,21 +6080,21 @@
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="30">
+      <c r="B83" s="20">
         <v>12</v>
       </c>
-      <c r="C83" s="30">
+      <c r="C83" s="20">
         <v>2</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="30" t="s">
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J83" s="7">
@@ -6084,21 +6105,21 @@
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="30">
+      <c r="B84" s="20">
         <v>12</v>
       </c>
-      <c r="C84" s="30">
+      <c r="C84" s="20">
         <v>3</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="30" t="s">
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J84" s="7">
@@ -6109,23 +6130,23 @@
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="30">
+      <c r="B85" s="20">
         <v>12</v>
       </c>
-      <c r="C85" s="30">
+      <c r="C85" s="20">
         <v>4</v>
       </c>
-      <c r="D85" s="31" t="s">
+      <c r="D85" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E85" s="30"/>
-      <c r="F85" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G85" s="32" t="s">
+      <c r="E85" s="20"/>
+      <c r="F85" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H85" s="30" t="s">
+      <c r="H85" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6133,23 +6154,23 @@
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="30">
+      <c r="B86" s="20">
         <v>12</v>
       </c>
-      <c r="C86" s="30">
+      <c r="C86" s="20">
         <v>5</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E86" s="30"/>
-      <c r="F86" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G86" s="32" t="s">
+      <c r="E86" s="20"/>
+      <c r="F86" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H86" s="25" t="s">
+      <c r="H86" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J86" s="7">
@@ -6160,23 +6181,23 @@
       <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="30">
+      <c r="B87" s="20">
         <v>12</v>
       </c>
-      <c r="C87" s="30">
+      <c r="C87" s="20">
         <v>6</v>
       </c>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E87" s="30"/>
-      <c r="F87" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G87" s="32" t="s">
+      <c r="E87" s="20"/>
+      <c r="F87" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H87" s="25" t="s">
+      <c r="H87" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J87" s="7">
@@ -6187,23 +6208,23 @@
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="30">
+      <c r="B88" s="20">
         <v>12</v>
       </c>
-      <c r="C88" s="30">
+      <c r="C88" s="20">
         <v>7</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E88" s="30"/>
-      <c r="F88" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88" s="32" t="s">
+      <c r="E88" s="20"/>
+      <c r="F88" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J88" s="7">
@@ -6214,23 +6235,23 @@
       <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="30">
+      <c r="B89" s="20">
         <v>12</v>
       </c>
-      <c r="C89" s="30">
+      <c r="C89" s="20">
         <v>8</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E89" s="30"/>
-      <c r="F89" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G89" s="32" t="s">
+      <c r="E89" s="20"/>
+      <c r="F89" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H89" s="30" t="s">
+      <c r="H89" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J89" s="7">
@@ -6241,21 +6262,21 @@
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="30">
+      <c r="B90" s="20">
         <v>13</v>
       </c>
-      <c r="C90" s="30">
-        <v>1</v>
-      </c>
-      <c r="D90" s="31" t="s">
+      <c r="C90" s="20">
+        <v>1</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="30" t="s">
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J90" s="7">
@@ -6266,21 +6287,21 @@
       <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="30">
+      <c r="B91" s="20">
         <v>13</v>
       </c>
-      <c r="C91" s="30">
+      <c r="C91" s="20">
         <v>2</v>
       </c>
-      <c r="D91" s="31" t="s">
+      <c r="D91" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="30" t="s">
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J91" s="7">
@@ -6291,21 +6312,21 @@
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="30">
+      <c r="B92" s="20">
         <v>13</v>
       </c>
-      <c r="C92" s="30">
+      <c r="C92" s="20">
         <v>3</v>
       </c>
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E92" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="30" t="s">
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J92" s="7">
@@ -6316,23 +6337,23 @@
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="30">
+      <c r="B93" s="20">
         <v>13</v>
       </c>
-      <c r="C93" s="30">
+      <c r="C93" s="20">
         <v>4</v>
       </c>
-      <c r="D93" s="31" t="s">
+      <c r="D93" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E93" s="30"/>
-      <c r="F93" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G93" s="32" t="s">
+      <c r="E93" s="20"/>
+      <c r="F93" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H93" s="30" t="s">
+      <c r="H93" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6340,23 +6361,23 @@
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="30">
+      <c r="B94" s="20">
         <v>13</v>
       </c>
-      <c r="C94" s="30">
+      <c r="C94" s="20">
         <v>5</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E94" s="30"/>
-      <c r="F94" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G94" s="32" t="s">
+      <c r="E94" s="20"/>
+      <c r="F94" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G94" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H94" s="25" t="s">
+      <c r="H94" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J94" s="7">
@@ -6367,23 +6388,23 @@
       <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="30">
+      <c r="B95" s="20">
         <v>13</v>
       </c>
-      <c r="C95" s="30">
+      <c r="C95" s="20">
         <v>6</v>
       </c>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E95" s="30"/>
-      <c r="F95" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95" s="32" t="s">
+      <c r="E95" s="20"/>
+      <c r="F95" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="25" t="s">
+      <c r="H95" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J95" s="7">
@@ -6394,23 +6415,23 @@
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="30">
+      <c r="B96" s="20">
         <v>13</v>
       </c>
-      <c r="C96" s="30">
+      <c r="C96" s="20">
         <v>7</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E96" s="30"/>
-      <c r="F96" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G96" s="32" t="s">
+      <c r="E96" s="20"/>
+      <c r="F96" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H96" s="25" t="s">
+      <c r="H96" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J96" s="7">
@@ -6421,23 +6442,23 @@
       <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="30">
+      <c r="B97" s="20">
         <v>13</v>
       </c>
-      <c r="C97" s="30">
+      <c r="C97" s="20">
         <v>8</v>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E97" s="30"/>
-      <c r="F97" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G97" s="32" t="s">
+      <c r="E97" s="20"/>
+      <c r="F97" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H97" s="30" t="s">
+      <c r="H97" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J97" s="7">
@@ -6448,21 +6469,21 @@
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="30">
+      <c r="B98" s="20">
         <v>14</v>
       </c>
-      <c r="C98" s="30">
-        <v>1</v>
-      </c>
-      <c r="D98" s="31" t="s">
+      <c r="C98" s="20">
+        <v>1</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="E98" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="30" t="s">
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J98" s="7">
@@ -6473,21 +6494,21 @@
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="30">
+      <c r="B99" s="20">
         <v>14</v>
       </c>
-      <c r="C99" s="30">
+      <c r="C99" s="20">
         <v>2</v>
       </c>
-      <c r="D99" s="31" t="s">
+      <c r="D99" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="30" t="s">
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J99" s="7">
@@ -6498,21 +6519,21 @@
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="30">
+      <c r="B100" s="20">
         <v>14</v>
       </c>
-      <c r="C100" s="30">
+      <c r="C100" s="20">
         <v>3</v>
       </c>
-      <c r="D100" s="31" t="s">
+      <c r="D100" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="30" t="s">
+      <c r="E100" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="30" t="s">
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J100" s="7">
@@ -6523,23 +6544,23 @@
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="30">
+      <c r="B101" s="20">
         <v>14</v>
       </c>
-      <c r="C101" s="30">
+      <c r="C101" s="20">
         <v>4</v>
       </c>
-      <c r="D101" s="31" t="s">
+      <c r="D101" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E101" s="30"/>
-      <c r="F101" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G101" s="32" t="s">
+      <c r="E101" s="20"/>
+      <c r="F101" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H101" s="30" t="s">
+      <c r="H101" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6547,23 +6568,23 @@
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="30">
+      <c r="B102" s="20">
         <v>14</v>
       </c>
-      <c r="C102" s="30">
+      <c r="C102" s="20">
         <v>5</v>
       </c>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E102" s="30"/>
-      <c r="F102" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G102" s="32" t="s">
+      <c r="E102" s="20"/>
+      <c r="F102" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G102" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H102" s="25" t="s">
+      <c r="H102" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J102" s="7">
@@ -6574,23 +6595,23 @@
       <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="30">
+      <c r="B103" s="20">
         <v>14</v>
       </c>
-      <c r="C103" s="30">
+      <c r="C103" s="20">
         <v>6</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E103" s="30"/>
-      <c r="F103" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G103" s="32" t="s">
+      <c r="E103" s="20"/>
+      <c r="F103" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G103" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H103" s="25" t="s">
+      <c r="H103" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J103" s="7">
@@ -6601,23 +6622,23 @@
       <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="30">
+      <c r="B104" s="20">
         <v>14</v>
       </c>
-      <c r="C104" s="30">
+      <c r="C104" s="20">
         <v>7</v>
       </c>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E104" s="30"/>
-      <c r="F104" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G104" s="32" t="s">
+      <c r="E104" s="20"/>
+      <c r="F104" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G104" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H104" s="25" t="s">
+      <c r="H104" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J104" s="7">
@@ -6628,23 +6649,23 @@
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="30">
+      <c r="B105" s="20">
         <v>14</v>
       </c>
-      <c r="C105" s="30">
+      <c r="C105" s="20">
         <v>8</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E105" s="30"/>
-      <c r="F105" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G105" s="32" t="s">
+      <c r="E105" s="20"/>
+      <c r="F105" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H105" s="30" t="s">
+      <c r="H105" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J105" s="7">
@@ -6655,21 +6676,21 @@
       <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="30">
+      <c r="B106" s="20">
         <v>15</v>
       </c>
-      <c r="C106" s="30">
-        <v>1</v>
-      </c>
-      <c r="D106" s="31" t="s">
+      <c r="C106" s="20">
+        <v>1</v>
+      </c>
+      <c r="D106" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="E106" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="30" t="s">
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J106" s="7">
@@ -6680,21 +6701,21 @@
       <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="30">
+      <c r="B107" s="20">
         <v>15</v>
       </c>
-      <c r="C107" s="30">
+      <c r="C107" s="20">
         <v>2</v>
       </c>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E107" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="30" t="s">
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J107" s="7">
@@ -6705,21 +6726,21 @@
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="30">
+      <c r="B108" s="20">
         <v>15</v>
       </c>
-      <c r="C108" s="30">
+      <c r="C108" s="20">
         <v>3</v>
       </c>
-      <c r="D108" s="31" t="s">
+      <c r="D108" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="E108" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="30" t="s">
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J108" s="7">
@@ -6730,23 +6751,23 @@
       <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="30">
+      <c r="B109" s="20">
         <v>15</v>
       </c>
-      <c r="C109" s="30">
+      <c r="C109" s="20">
         <v>4</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E109" s="30"/>
-      <c r="F109" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G109" s="32" t="s">
+      <c r="E109" s="20"/>
+      <c r="F109" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G109" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H109" s="30" t="s">
+      <c r="H109" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6754,23 +6775,23 @@
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="30">
+      <c r="B110" s="20">
         <v>15</v>
       </c>
-      <c r="C110" s="30">
+      <c r="C110" s="20">
         <v>5</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E110" s="30"/>
-      <c r="F110" s="36" t="s">
+      <c r="E110" s="20"/>
+      <c r="F110" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G110" s="32" t="s">
+      <c r="G110" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="H110" s="25" t="s">
+      <c r="H110" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J110" s="7">
@@ -6781,23 +6802,23 @@
       <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="30">
+      <c r="B111" s="20">
         <v>15</v>
       </c>
-      <c r="C111" s="30">
+      <c r="C111" s="20">
         <v>6</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E111" s="30"/>
-      <c r="F111" s="36" t="s">
+      <c r="E111" s="20"/>
+      <c r="F111" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G111" s="32" t="s">
+      <c r="G111" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H111" s="25" t="s">
+      <c r="H111" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J111" s="7">
@@ -6808,23 +6829,23 @@
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="30">
+      <c r="B112" s="20">
         <v>15</v>
       </c>
-      <c r="C112" s="30">
+      <c r="C112" s="20">
         <v>7</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E112" s="30"/>
-      <c r="F112" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G112" s="32" t="s">
+      <c r="E112" s="20"/>
+      <c r="F112" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G112" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H112" s="25" t="s">
+      <c r="H112" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J112" s="7">
@@ -6835,23 +6856,23 @@
       <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="30">
+      <c r="B113" s="20">
         <v>15</v>
       </c>
-      <c r="C113" s="30">
+      <c r="C113" s="20">
         <v>8</v>
       </c>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E113" s="30"/>
-      <c r="F113" s="36" t="s">
+      <c r="E113" s="20"/>
+      <c r="F113" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G113" s="32" t="s">
+      <c r="G113" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="H113" s="30" t="s">
+      <c r="H113" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J113" s="7">
@@ -6862,21 +6883,21 @@
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="30">
+      <c r="B114" s="20">
         <v>16</v>
       </c>
-      <c r="C114" s="30">
-        <v>1</v>
-      </c>
-      <c r="D114" s="31" t="s">
+      <c r="C114" s="20">
+        <v>1</v>
+      </c>
+      <c r="D114" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E114" s="30" t="s">
+      <c r="E114" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="30" t="s">
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="20" t="s">
         <v>92</v>
       </c>
       <c r="J114" s="7">
@@ -6887,21 +6908,21 @@
       <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="30">
+      <c r="B115" s="20">
         <v>16</v>
       </c>
-      <c r="C115" s="30">
+      <c r="C115" s="20">
         <v>2</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F115" s="32"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="30" t="s">
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J115" s="7">
@@ -6912,21 +6933,21 @@
       <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="30">
+      <c r="B116" s="20">
         <v>16</v>
       </c>
-      <c r="C116" s="30">
+      <c r="C116" s="20">
         <v>3</v>
       </c>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="30" t="s">
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J116" s="7">
@@ -6937,23 +6958,23 @@
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="30">
+      <c r="B117" s="20">
         <v>16</v>
       </c>
-      <c r="C117" s="30">
+      <c r="C117" s="20">
         <v>4</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E117" s="30"/>
-      <c r="F117" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G117" s="32" t="s">
+      <c r="E117" s="20"/>
+      <c r="F117" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G117" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H117" s="30" t="s">
+      <c r="H117" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6961,23 +6982,23 @@
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="30">
+      <c r="B118" s="20">
         <v>16</v>
       </c>
-      <c r="C118" s="30">
+      <c r="C118" s="20">
         <v>5</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E118" s="30"/>
-      <c r="F118" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G118" s="32" t="s">
+      <c r="E118" s="20"/>
+      <c r="F118" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G118" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H118" s="25" t="s">
+      <c r="H118" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J118" s="7">
@@ -6988,23 +7009,23 @@
       <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="30">
+      <c r="B119" s="20">
         <v>16</v>
       </c>
-      <c r="C119" s="30">
+      <c r="C119" s="20">
         <v>6</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E119" s="30"/>
-      <c r="F119" s="25" t="s">
+      <c r="E119" s="20"/>
+      <c r="F119" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G119" s="32" t="s">
+      <c r="G119" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H119" s="25" t="s">
+      <c r="H119" s="16" t="s">
         <v>118</v>
       </c>
       <c r="J119" s="7">
@@ -7015,23 +7036,23 @@
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="30">
+      <c r="B120" s="20">
         <v>16</v>
       </c>
-      <c r="C120" s="30">
+      <c r="C120" s="20">
         <v>7</v>
       </c>
-      <c r="D120" s="31" t="s">
+      <c r="D120" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E120" s="30"/>
-      <c r="F120" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G120" s="32" t="s">
+      <c r="E120" s="20"/>
+      <c r="F120" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G120" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H120" s="25" t="s">
+      <c r="H120" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J120" s="7">
@@ -7042,23 +7063,23 @@
       <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="30">
+      <c r="B121" s="20">
         <v>16</v>
       </c>
-      <c r="C121" s="30">
+      <c r="C121" s="20">
         <v>8</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E121" s="30"/>
-      <c r="F121" s="25" t="s">
+      <c r="E121" s="20"/>
+      <c r="F121" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G121" s="32" t="s">
+      <c r="G121" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H121" s="30" t="s">
+      <c r="H121" s="20" t="s">
         <v>99</v>
       </c>
       <c r="J121" s="7">
@@ -7069,21 +7090,21 @@
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="30">
+      <c r="B122" s="20">
         <v>17</v>
       </c>
-      <c r="C122" s="30">
-        <v>1</v>
-      </c>
-      <c r="D122" s="31" t="s">
+      <c r="C122" s="20">
+        <v>1</v>
+      </c>
+      <c r="D122" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E122" s="30" t="s">
+      <c r="E122" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32" t="s">
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22" t="s">
         <v>202</v>
       </c>
       <c r="J122" s="7">
@@ -7094,21 +7115,21 @@
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="30">
+      <c r="B123" s="20">
         <v>17</v>
       </c>
-      <c r="C123" s="30">
+      <c r="C123" s="20">
         <v>2</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E123" s="30" t="s">
+      <c r="E123" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="32" t="s">
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22" t="s">
         <v>203</v>
       </c>
       <c r="J123" s="7">
@@ -7119,20 +7140,20 @@
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="30">
+      <c r="B124" s="20">
         <v>17</v>
       </c>
-      <c r="C124" s="30">
+      <c r="C124" s="20">
         <v>3</v>
       </c>
-      <c r="D124" s="31" t="s">
+      <c r="D124" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E124" s="30" t="s">
+      <c r="E124" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="G124" s="32"/>
-      <c r="H124" s="32" t="s">
+      <c r="G124" s="22"/>
+      <c r="H124" s="22" t="s">
         <v>204</v>
       </c>
       <c r="J124" s="7">
@@ -7143,23 +7164,23 @@
       <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="30">
+      <c r="B125" s="20">
         <v>17</v>
       </c>
-      <c r="C125" s="30">
+      <c r="C125" s="20">
         <v>4</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E125" s="30"/>
-      <c r="F125" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G125" s="32" t="s">
+      <c r="E125" s="20"/>
+      <c r="F125" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G125" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H125" s="32" t="s">
+      <c r="H125" s="22" t="s">
         <v>194</v>
       </c>
     </row>
@@ -7167,23 +7188,23 @@
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="30">
+      <c r="B126" s="20">
         <v>17</v>
       </c>
-      <c r="C126" s="30">
+      <c r="C126" s="20">
         <v>5</v>
       </c>
-      <c r="D126" s="31" t="s">
+      <c r="D126" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E126" s="30"/>
-      <c r="F126" s="36" t="s">
+      <c r="E126" s="20"/>
+      <c r="F126" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G126" s="32" t="s">
+      <c r="G126" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H126" s="25" t="s">
+      <c r="H126" s="16" t="s">
         <v>198</v>
       </c>
       <c r="J126" s="7">
@@ -7194,23 +7215,23 @@
       <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="30">
+      <c r="B127" s="20">
         <v>17</v>
       </c>
-      <c r="C127" s="30">
+      <c r="C127" s="20">
         <v>6</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E127" s="30"/>
-      <c r="F127" s="36" t="s">
+      <c r="E127" s="20"/>
+      <c r="F127" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G127" s="32" t="s">
+      <c r="G127" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H127" s="25" t="s">
+      <c r="H127" s="16" t="s">
         <v>199</v>
       </c>
       <c r="J127" s="7">
@@ -7221,23 +7242,23 @@
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="30">
+      <c r="B128" s="20">
         <v>17</v>
       </c>
-      <c r="C128" s="30">
+      <c r="C128" s="20">
         <v>7</v>
       </c>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E128" s="30"/>
-      <c r="F128" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G128" s="32" t="s">
+      <c r="E128" s="20"/>
+      <c r="F128" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G128" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H128" s="25" t="s">
+      <c r="H128" s="16" t="s">
         <v>196</v>
       </c>
       <c r="J128" s="7">
@@ -7248,23 +7269,23 @@
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="30">
+      <c r="B129" s="20">
         <v>17</v>
       </c>
-      <c r="C129" s="30">
+      <c r="C129" s="20">
         <v>8</v>
       </c>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E129" s="30"/>
-      <c r="F129" s="36" t="s">
+      <c r="E129" s="20"/>
+      <c r="F129" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G129" s="32" t="s">
+      <c r="G129" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H129" s="32" t="s">
+      <c r="H129" s="22" t="s">
         <v>195</v>
       </c>
       <c r="J129" s="7">
@@ -7275,21 +7296,21 @@
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="30">
+      <c r="B130" s="20">
         <v>18</v>
       </c>
-      <c r="C130" s="30">
-        <v>1</v>
-      </c>
-      <c r="D130" s="31" t="s">
+      <c r="C130" s="20">
+        <v>1</v>
+      </c>
+      <c r="D130" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E130" s="30" t="s">
+      <c r="E130" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F130" s="32"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="32" t="s">
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22" t="s">
         <v>202</v>
       </c>
       <c r="J130" s="7">
@@ -7300,21 +7321,21 @@
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="30">
+      <c r="B131" s="20">
         <v>18</v>
       </c>
-      <c r="C131" s="30">
+      <c r="C131" s="20">
         <v>2</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E131" s="30" t="s">
+      <c r="E131" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="32" t="s">
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22" t="s">
         <v>203</v>
       </c>
       <c r="J131" s="7">
@@ -7325,21 +7346,21 @@
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="30">
+      <c r="B132" s="20">
         <v>18</v>
       </c>
-      <c r="C132" s="30">
+      <c r="C132" s="20">
         <v>3</v>
       </c>
-      <c r="D132" s="31" t="s">
+      <c r="D132" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E132" s="30" t="s">
+      <c r="E132" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="32" t="s">
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22" t="s">
         <v>204</v>
       </c>
       <c r="J132" s="7">
@@ -7350,23 +7371,23 @@
       <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="30">
+      <c r="B133" s="20">
         <v>18</v>
       </c>
-      <c r="C133" s="30">
+      <c r="C133" s="20">
         <v>4</v>
       </c>
-      <c r="D133" s="31" t="s">
+      <c r="D133" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E133" s="30"/>
-      <c r="F133" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G133" s="32" t="s">
+      <c r="E133" s="20"/>
+      <c r="F133" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G133" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H133" s="32" t="s">
+      <c r="H133" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7374,23 +7395,23 @@
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="30">
+      <c r="B134" s="20">
         <v>18</v>
       </c>
-      <c r="C134" s="30">
+      <c r="C134" s="20">
         <v>5</v>
       </c>
-      <c r="D134" s="31" t="s">
+      <c r="D134" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E134" s="30"/>
-      <c r="F134" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G134" s="32" t="s">
+      <c r="E134" s="20"/>
+      <c r="F134" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G134" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H134" s="25" t="s">
+      <c r="H134" s="16" t="s">
         <v>200</v>
       </c>
       <c r="J134" s="7">
@@ -7401,23 +7422,23 @@
       <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="30">
+      <c r="B135" s="20">
         <v>18</v>
       </c>
-      <c r="C135" s="30">
+      <c r="C135" s="20">
         <v>6</v>
       </c>
-      <c r="D135" s="31" t="s">
+      <c r="D135" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E135" s="30"/>
-      <c r="F135" s="25" t="s">
+      <c r="E135" s="20"/>
+      <c r="F135" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G135" s="32" t="s">
+      <c r="G135" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H135" s="25" t="s">
+      <c r="H135" s="16" t="s">
         <v>197</v>
       </c>
       <c r="J135" s="7">
@@ -7428,23 +7449,23 @@
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="30">
+      <c r="B136" s="20">
         <v>18</v>
       </c>
-      <c r="C136" s="30">
+      <c r="C136" s="20">
         <v>7</v>
       </c>
-      <c r="D136" s="31" t="s">
+      <c r="D136" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E136" s="30"/>
-      <c r="F136" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G136" s="32" t="s">
+      <c r="E136" s="20"/>
+      <c r="F136" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G136" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H136" s="25" t="s">
+      <c r="H136" s="16" t="s">
         <v>201</v>
       </c>
       <c r="J136" s="7">
@@ -7455,23 +7476,23 @@
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="30">
+      <c r="B137" s="20">
         <v>18</v>
       </c>
-      <c r="C137" s="30">
+      <c r="C137" s="20">
         <v>8</v>
       </c>
-      <c r="D137" s="31" t="s">
+      <c r="D137" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E137" s="30"/>
-      <c r="F137" s="25" t="s">
+      <c r="E137" s="20"/>
+      <c r="F137" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G137" s="32" t="s">
+      <c r="G137" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H137" s="32" t="s">
+      <c r="H137" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J137" s="7">
@@ -7482,21 +7503,21 @@
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="30">
+      <c r="B138" s="20">
         <v>19</v>
       </c>
-      <c r="C138" s="30">
-        <v>1</v>
-      </c>
-      <c r="D138" s="31" t="s">
+      <c r="C138" s="20">
+        <v>1</v>
+      </c>
+      <c r="D138" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E138" s="30" t="s">
+      <c r="E138" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F138" s="32"/>
-      <c r="G138" s="32"/>
-      <c r="H138" s="32" t="s">
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J138" s="7">
@@ -7507,21 +7528,21 @@
       <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="30">
+      <c r="B139" s="20">
         <v>19</v>
       </c>
-      <c r="C139" s="30">
+      <c r="C139" s="20">
         <v>2</v>
       </c>
-      <c r="D139" s="31" t="s">
+      <c r="D139" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E139" s="30" t="s">
+      <c r="E139" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="32" t="s">
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J139" s="7">
@@ -7532,20 +7553,20 @@
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="30">
+      <c r="B140" s="20">
         <v>19</v>
       </c>
-      <c r="C140" s="30">
+      <c r="C140" s="20">
         <v>3</v>
       </c>
-      <c r="D140" s="31" t="s">
+      <c r="D140" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E140" s="30" t="s">
+      <c r="E140" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="G140" s="32"/>
-      <c r="H140" s="32" t="s">
+      <c r="G140" s="22"/>
+      <c r="H140" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J140" s="7">
@@ -7556,23 +7577,23 @@
       <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="30">
+      <c r="B141" s="20">
         <v>19</v>
       </c>
-      <c r="C141" s="30">
+      <c r="C141" s="20">
         <v>4</v>
       </c>
-      <c r="D141" s="31" t="s">
+      <c r="D141" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E141" s="30"/>
-      <c r="F141" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G141" s="32" t="s">
+      <c r="E141" s="20"/>
+      <c r="F141" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H141" s="32" t="s">
+      <c r="H141" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7580,23 +7601,23 @@
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="30">
+      <c r="B142" s="20">
         <v>19</v>
       </c>
-      <c r="C142" s="30">
+      <c r="C142" s="20">
         <v>5</v>
       </c>
-      <c r="D142" s="31" t="s">
+      <c r="D142" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E142" s="30"/>
-      <c r="F142" s="36" t="s">
+      <c r="E142" s="20"/>
+      <c r="F142" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G142" s="32" t="s">
+      <c r="G142" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H142" s="25" t="s">
+      <c r="H142" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J142" s="7">
@@ -7607,23 +7628,23 @@
       <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="30">
+      <c r="B143" s="20">
         <v>19</v>
       </c>
-      <c r="C143" s="30">
+      <c r="C143" s="20">
         <v>6</v>
       </c>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E143" s="30"/>
-      <c r="F143" s="36" t="s">
+      <c r="E143" s="20"/>
+      <c r="F143" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G143" s="32" t="s">
+      <c r="G143" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H143" s="25" t="s">
+      <c r="H143" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J143" s="7">
@@ -7634,23 +7655,23 @@
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="30">
+      <c r="B144" s="20">
         <v>19</v>
       </c>
-      <c r="C144" s="30">
+      <c r="C144" s="20">
         <v>7</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D144" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E144" s="30"/>
-      <c r="F144" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G144" s="32" t="s">
+      <c r="E144" s="20"/>
+      <c r="F144" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G144" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H144" s="25" t="s">
+      <c r="H144" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J144" s="7">
@@ -7661,23 +7682,23 @@
       <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="30">
+      <c r="B145" s="20">
         <v>19</v>
       </c>
-      <c r="C145" s="30">
+      <c r="C145" s="20">
         <v>8</v>
       </c>
-      <c r="D145" s="31" t="s">
+      <c r="D145" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E145" s="30"/>
-      <c r="F145" s="36" t="s">
+      <c r="E145" s="20"/>
+      <c r="F145" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G145" s="32" t="s">
+      <c r="G145" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H145" s="32" t="s">
+      <c r="H145" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J145" s="7">
@@ -7688,21 +7709,21 @@
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="30">
+      <c r="B146" s="20">
         <v>20</v>
       </c>
-      <c r="C146" s="30">
-        <v>1</v>
-      </c>
-      <c r="D146" s="31" t="s">
+      <c r="C146" s="20">
+        <v>1</v>
+      </c>
+      <c r="D146" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E146" s="30" t="s">
+      <c r="E146" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="32" t="s">
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J146" s="7">
@@ -7713,21 +7734,21 @@
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="30">
+      <c r="B147" s="20">
         <v>20</v>
       </c>
-      <c r="C147" s="30">
+      <c r="C147" s="20">
         <v>2</v>
       </c>
-      <c r="D147" s="31" t="s">
+      <c r="D147" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E147" s="30" t="s">
+      <c r="E147" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F147" s="32"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="32" t="s">
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J147" s="7">
@@ -7738,21 +7759,21 @@
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="30">
+      <c r="B148" s="20">
         <v>20</v>
       </c>
-      <c r="C148" s="30">
+      <c r="C148" s="20">
         <v>3</v>
       </c>
-      <c r="D148" s="31" t="s">
+      <c r="D148" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E148" s="30" t="s">
+      <c r="E148" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F148" s="32"/>
-      <c r="G148" s="32"/>
-      <c r="H148" s="32" t="s">
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J148" s="7">
@@ -7763,23 +7784,23 @@
       <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="30">
+      <c r="B149" s="20">
         <v>20</v>
       </c>
-      <c r="C149" s="30">
+      <c r="C149" s="20">
         <v>4</v>
       </c>
-      <c r="D149" s="31" t="s">
+      <c r="D149" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E149" s="30"/>
-      <c r="F149" s="32" t="s">
+      <c r="E149" s="20"/>
+      <c r="F149" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G149" s="32" t="s">
+      <c r="G149" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H149" s="32" t="s">
+      <c r="H149" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7787,23 +7808,23 @@
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="30">
+      <c r="B150" s="20">
         <v>20</v>
       </c>
-      <c r="C150" s="30">
+      <c r="C150" s="20">
         <v>5</v>
       </c>
-      <c r="D150" s="31" t="s">
+      <c r="D150" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E150" s="30"/>
-      <c r="F150" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G150" s="32" t="s">
+      <c r="E150" s="20"/>
+      <c r="F150" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G150" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H150" s="25" t="s">
+      <c r="H150" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J150" s="7">
@@ -7814,23 +7835,23 @@
       <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="30">
+      <c r="B151" s="20">
         <v>20</v>
       </c>
-      <c r="C151" s="30">
+      <c r="C151" s="20">
         <v>6</v>
       </c>
-      <c r="D151" s="31" t="s">
+      <c r="D151" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E151" s="30"/>
-      <c r="F151" s="25" t="s">
+      <c r="E151" s="20"/>
+      <c r="F151" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G151" s="32" t="s">
+      <c r="G151" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H151" s="25" t="s">
+      <c r="H151" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J151" s="7">
@@ -7841,23 +7862,23 @@
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="30">
+      <c r="B152" s="20">
         <v>20</v>
       </c>
-      <c r="C152" s="30">
+      <c r="C152" s="20">
         <v>7</v>
       </c>
-      <c r="D152" s="31" t="s">
+      <c r="D152" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E152" s="30"/>
-      <c r="F152" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G152" s="32" t="s">
+      <c r="E152" s="20"/>
+      <c r="F152" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G152" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H152" s="25" t="s">
+      <c r="H152" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J152" s="7">
@@ -7868,23 +7889,23 @@
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="30">
+      <c r="B153" s="20">
         <v>20</v>
       </c>
-      <c r="C153" s="30">
+      <c r="C153" s="20">
         <v>8</v>
       </c>
-      <c r="D153" s="31" t="s">
+      <c r="D153" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E153" s="30"/>
-      <c r="F153" s="25" t="s">
+      <c r="E153" s="20"/>
+      <c r="F153" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G153" s="32" t="s">
+      <c r="G153" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H153" s="32" t="s">
+      <c r="H153" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J153" s="7">
@@ -7895,23 +7916,23 @@
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="30">
+      <c r="B154" s="20">
         <v>21</v>
       </c>
-      <c r="C154" s="30">
-        <v>1</v>
-      </c>
-      <c r="D154" s="31" t="s">
+      <c r="C154" s="20">
+        <v>1</v>
+      </c>
+      <c r="D154" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E154" s="30"/>
-      <c r="F154" s="32" t="s">
+      <c r="E154" s="20"/>
+      <c r="F154" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G154" s="32" t="s">
+      <c r="G154" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H154" s="30" t="s">
+      <c r="H154" s="20" t="s">
         <v>227</v>
       </c>
       <c r="J154" s="7">
@@ -7922,23 +7943,23 @@
       <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="30">
+      <c r="B155" s="20">
         <v>22</v>
       </c>
-      <c r="C155" s="30">
-        <v>1</v>
-      </c>
-      <c r="D155" s="31" t="s">
+      <c r="C155" s="20">
+        <v>1</v>
+      </c>
+      <c r="D155" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E155" s="30"/>
-      <c r="F155" s="32" t="s">
+      <c r="E155" s="20"/>
+      <c r="F155" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G155" s="32" t="s">
+      <c r="G155" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H155" s="30" t="s">
+      <c r="H155" s="20" t="s">
         <v>228</v>
       </c>
       <c r="J155" s="7">
@@ -7949,23 +7970,23 @@
       <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="30">
+      <c r="B156" s="20">
         <v>23</v>
       </c>
-      <c r="C156" s="30">
-        <v>1</v>
-      </c>
-      <c r="D156" s="31" t="s">
+      <c r="C156" s="20">
+        <v>1</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E156" s="30"/>
-      <c r="F156" s="32" t="s">
+      <c r="E156" s="20"/>
+      <c r="F156" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G156" s="32" t="s">
+      <c r="G156" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="H156" s="30" t="s">
+      <c r="H156" s="20" t="s">
         <v>229</v>
       </c>
       <c r="J156" s="7">
@@ -7976,23 +7997,23 @@
       <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="30">
+      <c r="B157" s="20">
         <v>24</v>
       </c>
-      <c r="C157" s="30">
-        <v>1</v>
-      </c>
-      <c r="D157" s="31" t="s">
+      <c r="C157" s="20">
+        <v>1</v>
+      </c>
+      <c r="D157" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E157" s="30"/>
-      <c r="F157" s="32" t="s">
+      <c r="E157" s="20"/>
+      <c r="F157" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G157" s="32" t="s">
+      <c r="G157" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H157" s="30" t="s">
+      <c r="H157" s="20" t="s">
         <v>226</v>
       </c>
       <c r="J157" s="7">
@@ -8003,23 +8024,23 @@
       <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="30">
+      <c r="B158" s="20">
         <v>25</v>
       </c>
-      <c r="C158" s="30">
-        <v>1</v>
-      </c>
-      <c r="D158" s="31" t="s">
+      <c r="C158" s="20">
+        <v>1</v>
+      </c>
+      <c r="D158" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E158" s="30"/>
-      <c r="F158" s="32" t="s">
+      <c r="E158" s="20"/>
+      <c r="F158" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G158" s="32" t="s">
+      <c r="G158" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="H158" s="30" t="s">
+      <c r="H158" s="20" t="s">
         <v>226</v>
       </c>
       <c r="J158" s="7">
@@ -8030,23 +8051,23 @@
       <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="30">
+      <c r="B159" s="20">
         <v>26</v>
       </c>
-      <c r="C159" s="30">
-        <v>1</v>
-      </c>
-      <c r="D159" s="31" t="s">
+      <c r="C159" s="20">
+        <v>1</v>
+      </c>
+      <c r="D159" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E159" s="30"/>
-      <c r="F159" s="32" t="s">
+      <c r="E159" s="20"/>
+      <c r="F159" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G159" s="32" t="s">
+      <c r="G159" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="H159" s="30" t="s">
+      <c r="H159" s="20" t="s">
         <v>238</v>
       </c>
       <c r="J159" s="7">
@@ -8057,23 +8078,23 @@
       <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" s="30">
+      <c r="B160" s="20">
         <v>27</v>
       </c>
-      <c r="C160" s="30">
-        <v>1</v>
-      </c>
-      <c r="D160" s="31" t="s">
+      <c r="C160" s="20">
+        <v>1</v>
+      </c>
+      <c r="D160" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E160" s="30"/>
-      <c r="F160" s="32" t="s">
+      <c r="E160" s="20"/>
+      <c r="F160" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G160" s="32" t="s">
+      <c r="G160" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="H160" s="30" t="s">
+      <c r="H160" s="20" t="s">
         <v>226</v>
       </c>
       <c r="J160" s="7">
@@ -8084,23 +8105,23 @@
       <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="B161" s="30">
+      <c r="B161" s="20">
         <v>28</v>
       </c>
-      <c r="C161" s="30">
-        <v>1</v>
-      </c>
-      <c r="D161" s="31" t="s">
+      <c r="C161" s="20">
+        <v>1</v>
+      </c>
+      <c r="D161" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E161" s="30"/>
-      <c r="F161" s="32" t="s">
+      <c r="E161" s="20"/>
+      <c r="F161" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G161" s="32" t="s">
+      <c r="G161" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="H161" s="30" t="s">
+      <c r="H161" s="20" t="s">
         <v>226</v>
       </c>
       <c r="J161" s="7">
@@ -8111,23 +8132,23 @@
       <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" s="30">
+      <c r="B162" s="20">
         <v>29</v>
       </c>
-      <c r="C162" s="30">
-        <v>1</v>
-      </c>
-      <c r="D162" s="31" t="s">
+      <c r="C162" s="20">
+        <v>1</v>
+      </c>
+      <c r="D162" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E162" s="30"/>
-      <c r="F162" s="32" t="s">
+      <c r="E162" s="20"/>
+      <c r="F162" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G162" s="32" t="s">
+      <c r="G162" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="H162" s="30" t="s">
+      <c r="H162" s="20" t="s">
         <v>229</v>
       </c>
       <c r="J162" s="7">
@@ -8138,21 +8159,21 @@
       <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B163" s="30">
+      <c r="B163" s="20">
         <v>30</v>
       </c>
-      <c r="C163" s="30">
-        <v>1</v>
-      </c>
-      <c r="D163" s="31" t="s">
+      <c r="C163" s="20">
+        <v>1</v>
+      </c>
+      <c r="D163" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E163" s="30" t="s">
+      <c r="E163" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="F163" s="32"/>
-      <c r="G163" s="32"/>
-      <c r="H163" s="32" t="s">
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J163" s="7">
@@ -8163,21 +8184,21 @@
       <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" s="30">
+      <c r="B164" s="20">
         <v>30</v>
       </c>
-      <c r="C164" s="30">
+      <c r="C164" s="20">
         <v>2</v>
       </c>
-      <c r="D164" s="31" t="s">
+      <c r="D164" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E164" s="30" t="s">
+      <c r="E164" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="F164" s="32"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="32" t="s">
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J164" s="7">
@@ -8188,20 +8209,20 @@
       <c r="A165" s="7">
         <v>164</v>
       </c>
-      <c r="B165" s="30">
+      <c r="B165" s="20">
         <v>30</v>
       </c>
-      <c r="C165" s="30">
+      <c r="C165" s="20">
         <v>3</v>
       </c>
-      <c r="D165" s="31" t="s">
+      <c r="D165" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E165" s="30" t="s">
+      <c r="E165" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="G165" s="32"/>
-      <c r="H165" s="32" t="s">
+      <c r="G165" s="22"/>
+      <c r="H165" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J165" s="7">
@@ -8212,23 +8233,23 @@
       <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="B166" s="30">
+      <c r="B166" s="20">
         <v>30</v>
       </c>
-      <c r="C166" s="30">
+      <c r="C166" s="20">
         <v>4</v>
       </c>
-      <c r="D166" s="31" t="s">
+      <c r="D166" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E166" s="30"/>
-      <c r="F166" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G166" s="32" t="s">
+      <c r="E166" s="20"/>
+      <c r="F166" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G166" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H166" s="32" t="s">
+      <c r="H166" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8236,23 +8257,23 @@
       <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="B167" s="30">
+      <c r="B167" s="20">
         <v>30</v>
       </c>
-      <c r="C167" s="30">
+      <c r="C167" s="20">
         <v>5</v>
       </c>
-      <c r="D167" s="31" t="s">
+      <c r="D167" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E167" s="30"/>
-      <c r="F167" s="36" t="s">
+      <c r="E167" s="20"/>
+      <c r="F167" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G167" s="32" t="s">
+      <c r="G167" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H167" s="25" t="s">
+      <c r="H167" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J167" s="7">
@@ -8263,23 +8284,23 @@
       <c r="A168" s="7">
         <v>167</v>
       </c>
-      <c r="B168" s="30">
+      <c r="B168" s="20">
         <v>30</v>
       </c>
-      <c r="C168" s="30">
+      <c r="C168" s="20">
         <v>6</v>
       </c>
-      <c r="D168" s="31" t="s">
+      <c r="D168" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E168" s="30"/>
-      <c r="F168" s="36" t="s">
+      <c r="E168" s="20"/>
+      <c r="F168" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G168" s="32" t="s">
+      <c r="G168" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H168" s="25" t="s">
+      <c r="H168" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J168" s="7">
@@ -8290,23 +8311,23 @@
       <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B169" s="30">
+      <c r="B169" s="20">
         <v>30</v>
       </c>
-      <c r="C169" s="30">
+      <c r="C169" s="20">
         <v>7</v>
       </c>
-      <c r="D169" s="31" t="s">
+      <c r="D169" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E169" s="30"/>
-      <c r="F169" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G169" s="32" t="s">
+      <c r="E169" s="20"/>
+      <c r="F169" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G169" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H169" s="25" t="s">
+      <c r="H169" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J169" s="7">
@@ -8317,23 +8338,23 @@
       <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" s="30">
+      <c r="B170" s="20">
         <v>30</v>
       </c>
-      <c r="C170" s="30">
+      <c r="C170" s="20">
         <v>8</v>
       </c>
-      <c r="D170" s="31" t="s">
+      <c r="D170" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E170" s="30"/>
-      <c r="F170" s="36" t="s">
+      <c r="E170" s="20"/>
+      <c r="F170" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G170" s="32" t="s">
+      <c r="G170" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H170" s="32" t="s">
+      <c r="H170" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J170" s="7">
@@ -8344,21 +8365,21 @@
       <c r="A171" s="7">
         <v>170</v>
       </c>
-      <c r="B171" s="30">
+      <c r="B171" s="20">
         <v>31</v>
       </c>
-      <c r="C171" s="30">
-        <v>1</v>
-      </c>
-      <c r="D171" s="31" t="s">
+      <c r="C171" s="20">
+        <v>1</v>
+      </c>
+      <c r="D171" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E171" s="30" t="s">
+      <c r="E171" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="F171" s="32"/>
-      <c r="G171" s="32"/>
-      <c r="H171" s="32" t="s">
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J171" s="7">
@@ -8369,21 +8390,21 @@
       <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="B172" s="30">
+      <c r="B172" s="20">
         <v>31</v>
       </c>
-      <c r="C172" s="30">
+      <c r="C172" s="20">
         <v>2</v>
       </c>
-      <c r="D172" s="31" t="s">
+      <c r="D172" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E172" s="30" t="s">
+      <c r="E172" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="F172" s="32"/>
-      <c r="G172" s="32"/>
-      <c r="H172" s="32" t="s">
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
+      <c r="H172" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J172" s="7">
@@ -8394,21 +8415,21 @@
       <c r="A173" s="7">
         <v>172</v>
       </c>
-      <c r="B173" s="30">
+      <c r="B173" s="20">
         <v>31</v>
       </c>
-      <c r="C173" s="30">
+      <c r="C173" s="20">
         <v>3</v>
       </c>
-      <c r="D173" s="31" t="s">
+      <c r="D173" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E173" s="30" t="s">
+      <c r="E173" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="F173" s="32"/>
-      <c r="G173" s="32"/>
-      <c r="H173" s="32" t="s">
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J173" s="7">
@@ -8419,23 +8440,23 @@
       <c r="A174" s="7">
         <v>173</v>
       </c>
-      <c r="B174" s="30">
+      <c r="B174" s="20">
         <v>31</v>
       </c>
-      <c r="C174" s="30">
+      <c r="C174" s="20">
         <v>4</v>
       </c>
-      <c r="D174" s="31" t="s">
+      <c r="D174" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E174" s="30"/>
-      <c r="F174" s="32" t="s">
+      <c r="E174" s="20"/>
+      <c r="F174" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G174" s="32" t="s">
+      <c r="G174" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H174" s="32" t="s">
+      <c r="H174" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8443,23 +8464,23 @@
       <c r="A175" s="7">
         <v>174</v>
       </c>
-      <c r="B175" s="30">
+      <c r="B175" s="20">
         <v>31</v>
       </c>
-      <c r="C175" s="30">
+      <c r="C175" s="20">
         <v>5</v>
       </c>
-      <c r="D175" s="31" t="s">
+      <c r="D175" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E175" s="30"/>
-      <c r="F175" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G175" s="32" t="s">
+      <c r="E175" s="20"/>
+      <c r="F175" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G175" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H175" s="25" t="s">
+      <c r="H175" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J175" s="7">
@@ -8470,23 +8491,23 @@
       <c r="A176" s="7">
         <v>175</v>
       </c>
-      <c r="B176" s="30">
+      <c r="B176" s="20">
         <v>31</v>
       </c>
-      <c r="C176" s="30">
+      <c r="C176" s="20">
         <v>6</v>
       </c>
-      <c r="D176" s="31" t="s">
+      <c r="D176" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E176" s="30"/>
-      <c r="F176" s="25" t="s">
+      <c r="E176" s="20"/>
+      <c r="F176" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G176" s="32" t="s">
+      <c r="G176" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H176" s="25" t="s">
+      <c r="H176" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J176" s="7">
@@ -8497,23 +8518,23 @@
       <c r="A177" s="7">
         <v>176</v>
       </c>
-      <c r="B177" s="30">
+      <c r="B177" s="20">
         <v>31</v>
       </c>
-      <c r="C177" s="30">
+      <c r="C177" s="20">
         <v>7</v>
       </c>
-      <c r="D177" s="31" t="s">
+      <c r="D177" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E177" s="30"/>
-      <c r="F177" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G177" s="32" t="s">
+      <c r="E177" s="20"/>
+      <c r="F177" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G177" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H177" s="25" t="s">
+      <c r="H177" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J177" s="7">
@@ -8524,23 +8545,23 @@
       <c r="A178" s="7">
         <v>177</v>
       </c>
-      <c r="B178" s="30">
+      <c r="B178" s="20">
         <v>31</v>
       </c>
-      <c r="C178" s="30">
+      <c r="C178" s="20">
         <v>8</v>
       </c>
-      <c r="D178" s="31" t="s">
+      <c r="D178" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E178" s="30"/>
-      <c r="F178" s="25" t="s">
+      <c r="E178" s="20"/>
+      <c r="F178" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G178" s="32" t="s">
+      <c r="G178" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H178" s="32" t="s">
+      <c r="H178" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J178" s="7">
@@ -8551,21 +8572,21 @@
       <c r="A179" s="7">
         <v>178</v>
       </c>
-      <c r="B179" s="30">
+      <c r="B179" s="20">
         <v>32</v>
       </c>
-      <c r="C179" s="30">
-        <v>1</v>
-      </c>
-      <c r="D179" s="31" t="s">
+      <c r="C179" s="20">
+        <v>1</v>
+      </c>
+      <c r="D179" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E179" s="30" t="s">
+      <c r="E179" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="F179" s="32"/>
-      <c r="G179" s="32"/>
-      <c r="H179" s="32" t="s">
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J179" s="7">
@@ -8576,21 +8597,21 @@
       <c r="A180" s="7">
         <v>179</v>
       </c>
-      <c r="B180" s="30">
+      <c r="B180" s="20">
         <v>32</v>
       </c>
-      <c r="C180" s="30">
+      <c r="C180" s="20">
         <v>2</v>
       </c>
-      <c r="D180" s="31" t="s">
+      <c r="D180" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E180" s="30" t="s">
+      <c r="E180" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="F180" s="32"/>
-      <c r="G180" s="32"/>
-      <c r="H180" s="32" t="s">
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J180" s="7">
@@ -8601,20 +8622,20 @@
       <c r="A181" s="7">
         <v>180</v>
       </c>
-      <c r="B181" s="30">
+      <c r="B181" s="20">
         <v>32</v>
       </c>
-      <c r="C181" s="30">
+      <c r="C181" s="20">
         <v>3</v>
       </c>
-      <c r="D181" s="31" t="s">
+      <c r="D181" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E181" s="30" t="s">
+      <c r="E181" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="G181" s="32"/>
-      <c r="H181" s="32" t="s">
+      <c r="G181" s="22"/>
+      <c r="H181" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J181" s="7">
@@ -8625,23 +8646,23 @@
       <c r="A182" s="7">
         <v>181</v>
       </c>
-      <c r="B182" s="30">
+      <c r="B182" s="20">
         <v>32</v>
       </c>
-      <c r="C182" s="30">
+      <c r="C182" s="20">
         <v>4</v>
       </c>
-      <c r="D182" s="31" t="s">
+      <c r="D182" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E182" s="30"/>
-      <c r="F182" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G182" s="32" t="s">
+      <c r="E182" s="20"/>
+      <c r="F182" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G182" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H182" s="32" t="s">
+      <c r="H182" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8649,23 +8670,23 @@
       <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="B183" s="30">
+      <c r="B183" s="20">
         <v>32</v>
       </c>
-      <c r="C183" s="30">
+      <c r="C183" s="20">
         <v>5</v>
       </c>
-      <c r="D183" s="31" t="s">
+      <c r="D183" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E183" s="30"/>
-      <c r="F183" s="36" t="s">
+      <c r="E183" s="20"/>
+      <c r="F183" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G183" s="32" t="s">
+      <c r="G183" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H183" s="25" t="s">
+      <c r="H183" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J183" s="7">
@@ -8676,23 +8697,23 @@
       <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="B184" s="30">
+      <c r="B184" s="20">
         <v>32</v>
       </c>
-      <c r="C184" s="30">
+      <c r="C184" s="20">
         <v>6</v>
       </c>
-      <c r="D184" s="31" t="s">
+      <c r="D184" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E184" s="30"/>
-      <c r="F184" s="36" t="s">
+      <c r="E184" s="20"/>
+      <c r="F184" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G184" s="32" t="s">
+      <c r="G184" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H184" s="25" t="s">
+      <c r="H184" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J184" s="7">
@@ -8703,23 +8724,23 @@
       <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="B185" s="30">
+      <c r="B185" s="20">
         <v>32</v>
       </c>
-      <c r="C185" s="30">
+      <c r="C185" s="20">
         <v>7</v>
       </c>
-      <c r="D185" s="31" t="s">
+      <c r="D185" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E185" s="30"/>
-      <c r="F185" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G185" s="32" t="s">
+      <c r="E185" s="20"/>
+      <c r="F185" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G185" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H185" s="25" t="s">
+      <c r="H185" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J185" s="7">
@@ -8730,23 +8751,23 @@
       <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="B186" s="30">
+      <c r="B186" s="20">
         <v>32</v>
       </c>
-      <c r="C186" s="30">
+      <c r="C186" s="20">
         <v>8</v>
       </c>
-      <c r="D186" s="31" t="s">
+      <c r="D186" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E186" s="30"/>
-      <c r="F186" s="36" t="s">
+      <c r="E186" s="20"/>
+      <c r="F186" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G186" s="32" t="s">
+      <c r="G186" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H186" s="32" t="s">
+      <c r="H186" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J186" s="7">
@@ -8757,21 +8778,21 @@
       <c r="A187" s="7">
         <v>186</v>
       </c>
-      <c r="B187" s="30">
+      <c r="B187" s="20">
         <v>33</v>
       </c>
-      <c r="C187" s="30">
-        <v>1</v>
-      </c>
-      <c r="D187" s="31" t="s">
+      <c r="C187" s="20">
+        <v>1</v>
+      </c>
+      <c r="D187" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E187" s="30" t="s">
+      <c r="E187" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="F187" s="32"/>
-      <c r="G187" s="32"/>
-      <c r="H187" s="32" t="s">
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J187" s="7">
@@ -8782,21 +8803,21 @@
       <c r="A188" s="7">
         <v>187</v>
       </c>
-      <c r="B188" s="30">
+      <c r="B188" s="20">
         <v>33</v>
       </c>
-      <c r="C188" s="30">
+      <c r="C188" s="20">
         <v>2</v>
       </c>
-      <c r="D188" s="31" t="s">
+      <c r="D188" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E188" s="30" t="s">
+      <c r="E188" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="F188" s="32"/>
-      <c r="G188" s="32"/>
-      <c r="H188" s="32" t="s">
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
+      <c r="H188" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J188" s="7">
@@ -8807,21 +8828,21 @@
       <c r="A189" s="7">
         <v>188</v>
       </c>
-      <c r="B189" s="30">
+      <c r="B189" s="20">
         <v>33</v>
       </c>
-      <c r="C189" s="30">
+      <c r="C189" s="20">
         <v>3</v>
       </c>
-      <c r="D189" s="31" t="s">
+      <c r="D189" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E189" s="30" t="s">
+      <c r="E189" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="F189" s="32"/>
-      <c r="G189" s="32"/>
-      <c r="H189" s="32" t="s">
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J189" s="7">
@@ -8832,23 +8853,23 @@
       <c r="A190" s="7">
         <v>189</v>
       </c>
-      <c r="B190" s="30">
+      <c r="B190" s="20">
         <v>33</v>
       </c>
-      <c r="C190" s="30">
+      <c r="C190" s="20">
         <v>4</v>
       </c>
-      <c r="D190" s="31" t="s">
+      <c r="D190" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E190" s="30"/>
-      <c r="F190" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G190" s="32" t="s">
+      <c r="E190" s="20"/>
+      <c r="F190" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G190" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H190" s="32" t="s">
+      <c r="H190" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8856,23 +8877,23 @@
       <c r="A191" s="7">
         <v>190</v>
       </c>
-      <c r="B191" s="30">
+      <c r="B191" s="20">
         <v>33</v>
       </c>
-      <c r="C191" s="30">
+      <c r="C191" s="20">
         <v>5</v>
       </c>
-      <c r="D191" s="31" t="s">
+      <c r="D191" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E191" s="30"/>
-      <c r="F191" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G191" s="32" t="s">
+      <c r="E191" s="20"/>
+      <c r="F191" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G191" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H191" s="25" t="s">
+      <c r="H191" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J191" s="7">
@@ -8883,23 +8904,23 @@
       <c r="A192" s="7">
         <v>191</v>
       </c>
-      <c r="B192" s="30">
+      <c r="B192" s="20">
         <v>33</v>
       </c>
-      <c r="C192" s="30">
+      <c r="C192" s="20">
         <v>6</v>
       </c>
-      <c r="D192" s="31" t="s">
+      <c r="D192" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E192" s="30"/>
-      <c r="F192" s="25" t="s">
+      <c r="E192" s="20"/>
+      <c r="F192" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G192" s="32" t="s">
+      <c r="G192" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H192" s="25" t="s">
+      <c r="H192" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J192" s="7">
@@ -8910,23 +8931,23 @@
       <c r="A193" s="7">
         <v>192</v>
       </c>
-      <c r="B193" s="30">
+      <c r="B193" s="20">
         <v>33</v>
       </c>
-      <c r="C193" s="30">
+      <c r="C193" s="20">
         <v>7</v>
       </c>
-      <c r="D193" s="31" t="s">
+      <c r="D193" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E193" s="30"/>
-      <c r="F193" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G193" s="32" t="s">
+      <c r="E193" s="20"/>
+      <c r="F193" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G193" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H193" s="25" t="s">
+      <c r="H193" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J193" s="7">
@@ -8937,23 +8958,23 @@
       <c r="A194" s="7">
         <v>193</v>
       </c>
-      <c r="B194" s="30">
+      <c r="B194" s="20">
         <v>33</v>
       </c>
-      <c r="C194" s="30">
+      <c r="C194" s="20">
         <v>8</v>
       </c>
-      <c r="D194" s="31" t="s">
+      <c r="D194" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E194" s="30"/>
-      <c r="F194" s="25" t="s">
+      <c r="E194" s="20"/>
+      <c r="F194" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G194" s="32" t="s">
+      <c r="G194" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H194" s="32" t="s">
+      <c r="H194" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J194" s="7">
@@ -8964,25 +8985,24 @@
       <c r="A195" s="7">
         <v>194</v>
       </c>
-      <c r="B195" s="45">
+      <c r="B195" s="15">
         <v>34</v>
       </c>
-      <c r="C195" s="30">
+      <c r="C195" s="20">
         <v>2</v>
       </c>
-      <c r="D195" s="33" t="s">
+      <c r="D195" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E195" s="18" t="s">
+      <c r="E195" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="19" t="s">
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="I195" s="16"/>
-      <c r="J195" s="16">
+      <c r="J195" s="7">
         <v>1</v>
       </c>
     </row>
@@ -8990,25 +9010,24 @@
       <c r="A196" s="7">
         <v>195</v>
       </c>
-      <c r="B196" s="45">
+      <c r="B196" s="15">
         <v>34</v>
       </c>
-      <c r="C196" s="30">
+      <c r="C196" s="20">
         <v>4</v>
       </c>
-      <c r="D196" s="33" t="s">
+      <c r="D196" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E196" s="18" t="s">
+      <c r="E196" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19"/>
-      <c r="H196" s="19" t="s">
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="I196" s="16"/>
-      <c r="J196" s="16">
+      <c r="J196" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9016,27 +9035,26 @@
       <c r="A197" s="7">
         <v>196</v>
       </c>
-      <c r="B197" s="45">
+      <c r="B197" s="15">
         <v>34</v>
       </c>
-      <c r="C197" s="30">
+      <c r="C197" s="20">
         <v>6</v>
       </c>
-      <c r="D197" s="33" t="s">
+      <c r="D197" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E197" s="18"/>
-      <c r="F197" s="53" t="s">
+      <c r="E197" s="20"/>
+      <c r="F197" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G197" s="19" t="s">
+      <c r="G197" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="H197" s="19" t="s">
+      <c r="H197" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="I197" s="16"/>
-      <c r="J197" s="16">
+      <c r="J197" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9044,53 +9062,50 @@
       <c r="A198" s="7">
         <v>197</v>
       </c>
-      <c r="B198" s="45">
+      <c r="B198" s="15">
         <v>34</v>
       </c>
-      <c r="C198" s="30">
-        <v>1</v>
-      </c>
-      <c r="D198" s="33" t="s">
+      <c r="C198" s="20">
+        <v>1</v>
+      </c>
+      <c r="D198" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E198" s="18"/>
-      <c r="F198" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G198" s="19" t="s">
+      <c r="E198" s="20"/>
+      <c r="F198" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G198" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H198" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="I198" s="16"/>
-      <c r="J198" s="16"/>
+      <c r="H198" s="22" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="199" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A199" s="7">
         <v>198</v>
       </c>
-      <c r="B199" s="45">
+      <c r="B199" s="15">
         <v>34</v>
       </c>
-      <c r="C199" s="30">
+      <c r="C199" s="20">
         <v>3</v>
       </c>
-      <c r="D199" s="33" t="s">
+      <c r="D199" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E199" s="18"/>
-      <c r="F199" s="37" t="s">
+      <c r="E199" s="20"/>
+      <c r="F199" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G199" s="19" t="s">
+      <c r="G199" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H199" s="17" t="s">
+      <c r="H199" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I199" s="16"/>
-      <c r="J199" s="16">
+      <c r="J199" s="7">
         <v>3</v>
       </c>
     </row>
@@ -9098,27 +9113,26 @@
       <c r="A200" s="7">
         <v>199</v>
       </c>
-      <c r="B200" s="45">
+      <c r="B200" s="15">
         <v>34</v>
       </c>
-      <c r="C200" s="30">
+      <c r="C200" s="20">
         <v>5</v>
       </c>
-      <c r="D200" s="33" t="s">
+      <c r="D200" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E200" s="18"/>
-      <c r="F200" s="37" t="s">
+      <c r="E200" s="20"/>
+      <c r="F200" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G200" s="19" t="s">
+      <c r="G200" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H200" s="17" t="s">
+      <c r="H200" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="I200" s="16"/>
-      <c r="J200" s="16">
+      <c r="J200" s="7">
         <v>2</v>
       </c>
     </row>
@@ -9126,27 +9140,26 @@
       <c r="A201" s="7">
         <v>200</v>
       </c>
-      <c r="B201" s="45">
+      <c r="B201" s="15">
         <v>34</v>
       </c>
-      <c r="C201" s="30">
+      <c r="C201" s="20">
         <v>7</v>
       </c>
-      <c r="D201" s="33" t="s">
+      <c r="D201" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E201" s="18"/>
-      <c r="F201" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G201" s="19" t="s">
+      <c r="E201" s="20"/>
+      <c r="F201" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G201" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H201" s="17" t="s">
+      <c r="H201" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="I201" s="16"/>
-      <c r="J201" s="16">
+      <c r="J201" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9154,27 +9167,26 @@
       <c r="A202" s="7">
         <v>201</v>
       </c>
-      <c r="B202" s="45">
+      <c r="B202" s="15">
         <v>34</v>
       </c>
-      <c r="C202" s="30">
+      <c r="C202" s="20">
         <v>8</v>
       </c>
-      <c r="D202" s="33" t="s">
+      <c r="D202" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E202" s="18"/>
-      <c r="F202" s="37" t="s">
+      <c r="E202" s="20"/>
+      <c r="F202" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G202" s="19" t="s">
+      <c r="G202" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H202" s="19" t="s">
+      <c r="H202" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="I202" s="16"/>
-      <c r="J202" s="16">
+      <c r="J202" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9182,25 +9194,24 @@
       <c r="A203" s="7">
         <v>202</v>
       </c>
-      <c r="B203" s="34">
+      <c r="B203" s="15">
         <v>35</v>
       </c>
-      <c r="C203" s="30">
+      <c r="C203" s="20">
         <v>2</v>
       </c>
-      <c r="D203" s="22" t="s">
+      <c r="D203" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E203" s="21" t="s">
+      <c r="E203" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F203" s="23"/>
-      <c r="G203" s="23"/>
-      <c r="H203" s="23" t="s">
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="I203" s="20"/>
-      <c r="J203" s="20">
+      <c r="J203" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9208,25 +9219,24 @@
       <c r="A204" s="7">
         <v>203</v>
       </c>
-      <c r="B204" s="34">
+      <c r="B204" s="15">
         <v>35</v>
       </c>
-      <c r="C204" s="30">
+      <c r="C204" s="20">
         <v>4</v>
       </c>
-      <c r="D204" s="22" t="s">
+      <c r="D204" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E204" s="21" t="s">
+      <c r="E204" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="F204" s="23"/>
-      <c r="G204" s="23"/>
-      <c r="H204" s="23" t="s">
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="I204" s="20"/>
-      <c r="J204" s="20">
+      <c r="J204" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9234,27 +9244,26 @@
       <c r="A205" s="7">
         <v>204</v>
       </c>
-      <c r="B205" s="34">
+      <c r="B205" s="15">
         <v>35</v>
       </c>
-      <c r="C205" s="30">
+      <c r="C205" s="20">
         <v>6</v>
       </c>
-      <c r="D205" s="22" t="s">
+      <c r="D205" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E205" s="21"/>
-      <c r="F205" s="52" t="s">
+      <c r="E205" s="20"/>
+      <c r="F205" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="G205" s="23" t="s">
+      <c r="G205" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="H205" s="23" t="s">
+      <c r="H205" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="I205" s="20"/>
-      <c r="J205" s="20">
+      <c r="J205" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9262,53 +9271,50 @@
       <c r="A206" s="7">
         <v>205</v>
       </c>
-      <c r="B206" s="34">
+      <c r="B206" s="15">
         <v>35</v>
       </c>
-      <c r="C206" s="30">
-        <v>1</v>
-      </c>
-      <c r="D206" s="22" t="s">
+      <c r="C206" s="20">
+        <v>1</v>
+      </c>
+      <c r="D206" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E206" s="21"/>
-      <c r="F206" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G206" s="23" t="s">
+      <c r="E206" s="20"/>
+      <c r="F206" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G206" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H206" s="23" t="s">
+      <c r="H206" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="I206" s="20"/>
-      <c r="J206" s="20"/>
     </row>
     <row r="207" spans="1:10" s="7" customFormat="1">
       <c r="A207" s="7">
         <v>206</v>
       </c>
-      <c r="B207" s="34">
+      <c r="B207" s="15">
         <v>35</v>
       </c>
-      <c r="C207" s="30">
+      <c r="C207" s="20">
         <v>3</v>
       </c>
-      <c r="D207" s="22" t="s">
+      <c r="D207" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E207" s="21"/>
-      <c r="F207" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G207" s="23" t="s">
+      <c r="E207" s="20"/>
+      <c r="F207" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G207" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H207" s="24" t="s">
+      <c r="H207" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I207" s="20"/>
-      <c r="J207" s="20">
+      <c r="J207" s="7">
         <v>3</v>
       </c>
     </row>
@@ -9316,27 +9322,26 @@
       <c r="A208" s="7">
         <v>207</v>
       </c>
-      <c r="B208" s="34">
+      <c r="B208" s="15">
         <v>35</v>
       </c>
-      <c r="C208" s="30">
+      <c r="C208" s="20">
         <v>5</v>
       </c>
-      <c r="D208" s="22" t="s">
+      <c r="D208" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E208" s="21"/>
-      <c r="F208" s="24" t="s">
+      <c r="E208" s="20"/>
+      <c r="F208" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G208" s="23" t="s">
+      <c r="G208" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H208" s="24" t="s">
+      <c r="H208" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="I208" s="20"/>
-      <c r="J208" s="20">
+      <c r="J208" s="7">
         <v>2</v>
       </c>
     </row>
@@ -9344,27 +9349,26 @@
       <c r="A209" s="7">
         <v>208</v>
       </c>
-      <c r="B209" s="34">
+      <c r="B209" s="15">
         <v>35</v>
       </c>
-      <c r="C209" s="30">
+      <c r="C209" s="20">
         <v>7</v>
       </c>
-      <c r="D209" s="22" t="s">
+      <c r="D209" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E209" s="21"/>
-      <c r="F209" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G209" s="23" t="s">
+      <c r="E209" s="20"/>
+      <c r="F209" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G209" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H209" s="24" t="s">
+      <c r="H209" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="I209" s="20"/>
-      <c r="J209" s="20">
+      <c r="J209" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9372,27 +9376,26 @@
       <c r="A210" s="7">
         <v>209</v>
       </c>
-      <c r="B210" s="34">
+      <c r="B210" s="15">
         <v>35</v>
       </c>
-      <c r="C210" s="30">
+      <c r="C210" s="20">
         <v>8</v>
       </c>
-      <c r="D210" s="22" t="s">
+      <c r="D210" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E210" s="21"/>
-      <c r="F210" s="24" t="s">
+      <c r="E210" s="20"/>
+      <c r="F210" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G210" s="23" t="s">
+      <c r="G210" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H210" s="23" t="s">
+      <c r="H210" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="I210" s="20"/>
-      <c r="J210" s="20">
+      <c r="J210" s="7">
         <v>1</v>
       </c>
     </row>
@@ -9400,27 +9403,26 @@
       <c r="A211" s="7">
         <v>210</v>
       </c>
-      <c r="B211" s="62">
+      <c r="B211" s="20">
         <v>36</v>
       </c>
-      <c r="C211" s="62">
-        <v>1</v>
-      </c>
-      <c r="D211" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="E211" s="62"/>
-      <c r="F211" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G211" s="64" t="s">
+      <c r="C211" s="20">
+        <v>1</v>
+      </c>
+      <c r="D211" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="E211" s="20"/>
+      <c r="F211" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G211" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H211" s="62" t="s">
+      <c r="H211" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I211" s="57"/>
-      <c r="J211" s="57">
+      <c r="J211" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9428,27 +9430,26 @@
       <c r="A212" s="7">
         <v>211</v>
       </c>
-      <c r="B212" s="62">
+      <c r="B212" s="20">
         <v>36</v>
       </c>
-      <c r="C212" s="62">
+      <c r="C212" s="20">
         <v>2</v>
       </c>
-      <c r="D212" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="E212" s="62"/>
-      <c r="F212" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G212" s="64" t="s">
+      <c r="D212" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E212" s="20"/>
+      <c r="F212" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G212" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H212" s="62" t="s">
+      <c r="H212" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I212" s="57"/>
-      <c r="J212" s="57">
+      <c r="J212" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9456,27 +9457,26 @@
       <c r="A213" s="7">
         <v>212</v>
       </c>
-      <c r="B213" s="62">
+      <c r="B213" s="20">
         <v>36</v>
       </c>
-      <c r="C213" s="62">
+      <c r="C213" s="20">
         <v>3</v>
       </c>
-      <c r="D213" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="E213" s="62"/>
-      <c r="F213" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G213" s="64" t="s">
+      <c r="D213" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="E213" s="20"/>
+      <c r="F213" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G213" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="H213" s="62" t="s">
+      <c r="H213" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I213" s="57"/>
-      <c r="J213" s="57">
+      <c r="J213" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9484,27 +9484,26 @@
       <c r="A214" s="7">
         <v>213</v>
       </c>
-      <c r="B214" s="62">
+      <c r="B214" s="20">
         <v>37</v>
       </c>
-      <c r="C214" s="62">
-        <v>1</v>
-      </c>
-      <c r="D214" s="63" t="s">
-        <v>306</v>
-      </c>
-      <c r="E214" s="62"/>
-      <c r="F214" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G214" s="64" t="s">
+      <c r="C214" s="20">
+        <v>1</v>
+      </c>
+      <c r="D214" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E214" s="20"/>
+      <c r="F214" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G214" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H214" s="62" t="s">
+      <c r="H214" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="I214" s="57"/>
-      <c r="J214" s="57">
+      <c r="J214" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9512,27 +9511,26 @@
       <c r="A215" s="7">
         <v>214</v>
       </c>
-      <c r="B215" s="62">
+      <c r="B215" s="20">
         <v>37</v>
       </c>
-      <c r="C215" s="62">
+      <c r="C215" s="20">
         <v>2</v>
       </c>
-      <c r="D215" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="E215" s="62"/>
-      <c r="F215" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G215" s="64" t="s">
+      <c r="D215" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E215" s="20"/>
+      <c r="F215" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G215" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H215" s="62" t="s">
+      <c r="H215" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="I215" s="57"/>
-      <c r="J215" s="57">
+      <c r="J215" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9540,27 +9538,26 @@
       <c r="A216" s="7">
         <v>215</v>
       </c>
-      <c r="B216" s="62">
+      <c r="B216" s="20">
         <v>37</v>
       </c>
-      <c r="C216" s="62">
+      <c r="C216" s="20">
         <v>3</v>
       </c>
-      <c r="D216" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="E216" s="62"/>
-      <c r="F216" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G216" s="64" t="s">
+      <c r="D216" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="E216" s="20"/>
+      <c r="F216" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G216" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="H216" s="62" t="s">
+      <c r="H216" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="I216" s="57"/>
-      <c r="J216" s="57">
+      <c r="J216" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9568,27 +9565,26 @@
       <c r="A217" s="7">
         <v>216</v>
       </c>
-      <c r="B217" s="62">
+      <c r="B217" s="20">
         <v>38</v>
       </c>
-      <c r="C217" s="62">
-        <v>1</v>
-      </c>
-      <c r="D217" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="E217" s="62"/>
-      <c r="F217" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G217" s="64" t="s">
+      <c r="C217" s="20">
+        <v>1</v>
+      </c>
+      <c r="D217" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E217" s="20"/>
+      <c r="F217" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G217" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="H217" s="62" t="s">
+      <c r="H217" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I217" s="57"/>
-      <c r="J217" s="57">
+      <c r="J217" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9596,27 +9592,26 @@
       <c r="A218" s="7">
         <v>217</v>
       </c>
-      <c r="B218" s="62">
+      <c r="B218" s="20">
         <v>38</v>
       </c>
-      <c r="C218" s="62">
+      <c r="C218" s="20">
         <v>2</v>
       </c>
-      <c r="D218" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="E218" s="62"/>
-      <c r="F218" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G218" s="64" t="s">
+      <c r="D218" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E218" s="20"/>
+      <c r="F218" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G218" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="H218" s="62" t="s">
+      <c r="H218" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I218" s="57"/>
-      <c r="J218" s="57">
+      <c r="J218" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9624,27 +9619,26 @@
       <c r="A219" s="7">
         <v>218</v>
       </c>
-      <c r="B219" s="62">
+      <c r="B219" s="20">
         <v>38</v>
       </c>
-      <c r="C219" s="62">
+      <c r="C219" s="20">
         <v>3</v>
       </c>
-      <c r="D219" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="E219" s="62"/>
-      <c r="F219" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G219" s="64" t="s">
+      <c r="D219" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E219" s="20"/>
+      <c r="F219" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G219" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="H219" s="62" t="s">
+      <c r="H219" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I219" s="57"/>
-      <c r="J219" s="57">
+      <c r="J219" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -9652,21 +9646,21 @@
       <c r="A220" s="7">
         <v>219</v>
       </c>
-      <c r="B220" s="30">
+      <c r="B220" s="20">
         <v>39</v>
       </c>
-      <c r="C220" s="30">
-        <v>1</v>
-      </c>
-      <c r="D220" s="31" t="s">
+      <c r="C220" s="20">
+        <v>1</v>
+      </c>
+      <c r="D220" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E220" s="30" t="s">
+      <c r="E220" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="F220" s="32"/>
-      <c r="G220" s="32"/>
-      <c r="H220" s="32" t="s">
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J220" s="7">
@@ -9677,21 +9671,21 @@
       <c r="A221" s="7">
         <v>220</v>
       </c>
-      <c r="B221" s="30">
+      <c r="B221" s="20">
         <v>39</v>
       </c>
-      <c r="C221" s="30">
+      <c r="C221" s="20">
         <v>2</v>
       </c>
-      <c r="D221" s="31" t="s">
+      <c r="D221" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E221" s="30" t="s">
+      <c r="E221" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="F221" s="32"/>
-      <c r="G221" s="32"/>
-      <c r="H221" s="32" t="s">
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J221" s="7">
@@ -9702,20 +9696,20 @@
       <c r="A222" s="7">
         <v>221</v>
       </c>
-      <c r="B222" s="30">
+      <c r="B222" s="20">
         <v>39</v>
       </c>
-      <c r="C222" s="30">
+      <c r="C222" s="20">
         <v>3</v>
       </c>
-      <c r="D222" s="31" t="s">
+      <c r="D222" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E222" s="30" t="s">
+      <c r="E222" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="G222" s="32"/>
-      <c r="H222" s="32" t="s">
+      <c r="G222" s="22"/>
+      <c r="H222" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J222" s="7">
@@ -9726,23 +9720,23 @@
       <c r="A223" s="7">
         <v>222</v>
       </c>
-      <c r="B223" s="30">
+      <c r="B223" s="20">
         <v>39</v>
       </c>
-      <c r="C223" s="30">
+      <c r="C223" s="20">
         <v>4</v>
       </c>
-      <c r="D223" s="31" t="s">
+      <c r="D223" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E223" s="30"/>
-      <c r="F223" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G223" s="32" t="s">
+      <c r="E223" s="20"/>
+      <c r="F223" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G223" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H223" s="32" t="s">
+      <c r="H223" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9750,23 +9744,23 @@
       <c r="A224" s="7">
         <v>223</v>
       </c>
-      <c r="B224" s="30">
+      <c r="B224" s="20">
         <v>39</v>
       </c>
-      <c r="C224" s="30">
+      <c r="C224" s="20">
         <v>5</v>
       </c>
-      <c r="D224" s="31" t="s">
+      <c r="D224" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E224" s="30"/>
-      <c r="F224" s="36" t="s">
+      <c r="E224" s="20"/>
+      <c r="F224" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G224" s="32" t="s">
+      <c r="G224" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H224" s="25" t="s">
+      <c r="H224" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J224" s="7">
@@ -9777,23 +9771,23 @@
       <c r="A225" s="7">
         <v>224</v>
       </c>
-      <c r="B225" s="30">
+      <c r="B225" s="20">
         <v>39</v>
       </c>
-      <c r="C225" s="30">
+      <c r="C225" s="20">
         <v>6</v>
       </c>
-      <c r="D225" s="31" t="s">
+      <c r="D225" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E225" s="30"/>
-      <c r="F225" s="36" t="s">
+      <c r="E225" s="20"/>
+      <c r="F225" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G225" s="32" t="s">
+      <c r="G225" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H225" s="25" t="s">
+      <c r="H225" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J225" s="7">
@@ -9804,23 +9798,23 @@
       <c r="A226" s="7">
         <v>225</v>
       </c>
-      <c r="B226" s="30">
+      <c r="B226" s="20">
         <v>39</v>
       </c>
-      <c r="C226" s="30">
+      <c r="C226" s="20">
         <v>7</v>
       </c>
-      <c r="D226" s="31" t="s">
+      <c r="D226" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E226" s="30"/>
-      <c r="F226" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G226" s="32" t="s">
+      <c r="E226" s="20"/>
+      <c r="F226" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G226" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H226" s="25" t="s">
+      <c r="H226" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J226" s="7">
@@ -9831,23 +9825,23 @@
       <c r="A227" s="7">
         <v>226</v>
       </c>
-      <c r="B227" s="30">
+      <c r="B227" s="20">
         <v>39</v>
       </c>
-      <c r="C227" s="30">
+      <c r="C227" s="20">
         <v>8</v>
       </c>
-      <c r="D227" s="31" t="s">
+      <c r="D227" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E227" s="30"/>
-      <c r="F227" s="36" t="s">
+      <c r="E227" s="20"/>
+      <c r="F227" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G227" s="32" t="s">
+      <c r="G227" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H227" s="32" t="s">
+      <c r="H227" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J227" s="7">
@@ -9858,21 +9852,21 @@
       <c r="A228" s="7">
         <v>227</v>
       </c>
-      <c r="B228" s="30">
+      <c r="B228" s="20">
         <v>40</v>
       </c>
-      <c r="C228" s="30">
-        <v>1</v>
-      </c>
-      <c r="D228" s="31" t="s">
+      <c r="C228" s="20">
+        <v>1</v>
+      </c>
+      <c r="D228" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E228" s="30" t="s">
+      <c r="E228" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="F228" s="32"/>
-      <c r="G228" s="32"/>
-      <c r="H228" s="32" t="s">
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="22" t="s">
         <v>92</v>
       </c>
       <c r="J228" s="7">
@@ -9883,21 +9877,21 @@
       <c r="A229" s="7">
         <v>228</v>
       </c>
-      <c r="B229" s="30">
+      <c r="B229" s="20">
         <v>40</v>
       </c>
-      <c r="C229" s="30">
+      <c r="C229" s="20">
         <v>2</v>
       </c>
-      <c r="D229" s="31" t="s">
+      <c r="D229" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E229" s="30" t="s">
+      <c r="E229" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="F229" s="32"/>
-      <c r="G229" s="32"/>
-      <c r="H229" s="32" t="s">
+      <c r="F229" s="22"/>
+      <c r="G229" s="22"/>
+      <c r="H229" s="22" t="s">
         <v>93</v>
       </c>
       <c r="J229" s="7">
@@ -9908,21 +9902,21 @@
       <c r="A230" s="7">
         <v>229</v>
       </c>
-      <c r="B230" s="30">
+      <c r="B230" s="20">
         <v>40</v>
       </c>
-      <c r="C230" s="30">
+      <c r="C230" s="20">
         <v>3</v>
       </c>
-      <c r="D230" s="31" t="s">
+      <c r="D230" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E230" s="30" t="s">
+      <c r="E230" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="F230" s="32"/>
-      <c r="G230" s="32"/>
-      <c r="H230" s="32" t="s">
+      <c r="F230" s="22"/>
+      <c r="G230" s="22"/>
+      <c r="H230" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J230" s="7">
@@ -9933,23 +9927,23 @@
       <c r="A231" s="7">
         <v>230</v>
       </c>
-      <c r="B231" s="30">
+      <c r="B231" s="20">
         <v>40</v>
       </c>
-      <c r="C231" s="30">
+      <c r="C231" s="20">
         <v>4</v>
       </c>
-      <c r="D231" s="31" t="s">
+      <c r="D231" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E231" s="30"/>
-      <c r="F231" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G231" s="32" t="s">
+      <c r="E231" s="20"/>
+      <c r="F231" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G231" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H231" s="32" t="s">
+      <c r="H231" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9957,23 +9951,23 @@
       <c r="A232" s="7">
         <v>231</v>
       </c>
-      <c r="B232" s="30">
+      <c r="B232" s="20">
         <v>40</v>
       </c>
-      <c r="C232" s="30">
+      <c r="C232" s="20">
         <v>5</v>
       </c>
-      <c r="D232" s="31" t="s">
+      <c r="D232" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E232" s="30"/>
-      <c r="F232" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G232" s="32" t="s">
+      <c r="E232" s="20"/>
+      <c r="F232" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G232" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H232" s="25" t="s">
+      <c r="H232" s="16" t="s">
         <v>81</v>
       </c>
       <c r="J232" s="7">
@@ -9984,23 +9978,23 @@
       <c r="A233" s="7">
         <v>232</v>
       </c>
-      <c r="B233" s="30">
+      <c r="B233" s="20">
         <v>40</v>
       </c>
-      <c r="C233" s="30">
+      <c r="C233" s="20">
         <v>6</v>
       </c>
-      <c r="D233" s="31" t="s">
+      <c r="D233" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E233" s="30"/>
-      <c r="F233" s="25" t="s">
+      <c r="E233" s="20"/>
+      <c r="F233" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G233" s="32" t="s">
+      <c r="G233" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H233" s="25" t="s">
+      <c r="H233" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J233" s="7">
@@ -10011,23 +10005,23 @@
       <c r="A234" s="7">
         <v>233</v>
       </c>
-      <c r="B234" s="30">
+      <c r="B234" s="20">
         <v>40</v>
       </c>
-      <c r="C234" s="30">
+      <c r="C234" s="20">
         <v>7</v>
       </c>
-      <c r="D234" s="31" t="s">
+      <c r="D234" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E234" s="30"/>
-      <c r="F234" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G234" s="32" t="s">
+      <c r="E234" s="20"/>
+      <c r="F234" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G234" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H234" s="25" t="s">
+      <c r="H234" s="16" t="s">
         <v>98</v>
       </c>
       <c r="J234" s="7">
@@ -10038,26 +10032,439 @@
       <c r="A235" s="7">
         <v>234</v>
       </c>
-      <c r="B235" s="30">
+      <c r="B235" s="20">
         <v>40</v>
       </c>
-      <c r="C235" s="30">
+      <c r="C235" s="20">
         <v>8</v>
       </c>
-      <c r="D235" s="31" t="s">
+      <c r="D235" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E235" s="30"/>
-      <c r="F235" s="25" t="s">
+      <c r="E235" s="20"/>
+      <c r="F235" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G235" s="32" t="s">
+      <c r="G235" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H235" s="32" t="s">
+      <c r="H235" s="22" t="s">
         <v>99</v>
       </c>
       <c r="J235" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" s="34" customFormat="1">
+      <c r="A236" s="34">
+        <v>235</v>
+      </c>
+      <c r="B236" s="40">
+        <v>41</v>
+      </c>
+      <c r="C236" s="40">
+        <v>1</v>
+      </c>
+      <c r="D236" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E236" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F236" s="42"/>
+      <c r="G236" s="42"/>
+      <c r="H236" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J236" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" s="34" customFormat="1">
+      <c r="A237" s="34">
+        <v>236</v>
+      </c>
+      <c r="B237" s="40">
+        <v>41</v>
+      </c>
+      <c r="C237" s="40">
+        <v>2</v>
+      </c>
+      <c r="D237" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E237" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="F237" s="42"/>
+      <c r="G237" s="42"/>
+      <c r="H237" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="J237" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" s="34" customFormat="1">
+      <c r="A238" s="34">
+        <v>237</v>
+      </c>
+      <c r="B238" s="40">
+        <v>41</v>
+      </c>
+      <c r="C238" s="40">
+        <v>3</v>
+      </c>
+      <c r="D238" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E238" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="G238" s="42"/>
+      <c r="H238" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J238" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" s="34" customFormat="1">
+      <c r="A239" s="34">
+        <v>238</v>
+      </c>
+      <c r="B239" s="40">
+        <v>41</v>
+      </c>
+      <c r="C239" s="40">
+        <v>4</v>
+      </c>
+      <c r="D239" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E239" s="40"/>
+      <c r="F239" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G239" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H239" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" s="34" customFormat="1" ht="16.5">
+      <c r="A240" s="34">
+        <v>239</v>
+      </c>
+      <c r="B240" s="40">
+        <v>41</v>
+      </c>
+      <c r="C240" s="40">
+        <v>5</v>
+      </c>
+      <c r="D240" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E240" s="40"/>
+      <c r="F240" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G240" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="H240" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J240" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" s="34" customFormat="1" ht="16.5">
+      <c r="A241" s="34">
+        <v>240</v>
+      </c>
+      <c r="B241" s="40">
+        <v>41</v>
+      </c>
+      <c r="C241" s="40">
+        <v>6</v>
+      </c>
+      <c r="D241" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E241" s="40"/>
+      <c r="F241" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G241" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="H241" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J241" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" s="34" customFormat="1">
+      <c r="A242" s="34">
+        <v>241</v>
+      </c>
+      <c r="B242" s="40">
+        <v>41</v>
+      </c>
+      <c r="C242" s="40">
+        <v>7</v>
+      </c>
+      <c r="D242" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E242" s="40"/>
+      <c r="F242" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G242" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H242" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J242" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" s="34" customFormat="1" ht="16.5">
+      <c r="A243" s="34">
+        <v>242</v>
+      </c>
+      <c r="B243" s="40">
+        <v>41</v>
+      </c>
+      <c r="C243" s="40">
+        <v>8</v>
+      </c>
+      <c r="D243" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E243" s="40"/>
+      <c r="F243" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G243" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="H243" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J243" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" s="34" customFormat="1">
+      <c r="A244" s="34">
+        <v>243</v>
+      </c>
+      <c r="B244" s="40">
+        <v>42</v>
+      </c>
+      <c r="C244" s="40">
+        <v>1</v>
+      </c>
+      <c r="D244" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E244" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F244" s="42"/>
+      <c r="G244" s="42"/>
+      <c r="H244" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J244" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" s="34" customFormat="1">
+      <c r="A245" s="34">
+        <v>244</v>
+      </c>
+      <c r="B245" s="40">
+        <v>42</v>
+      </c>
+      <c r="C245" s="40">
+        <v>2</v>
+      </c>
+      <c r="D245" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E245" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="F245" s="42"/>
+      <c r="G245" s="42"/>
+      <c r="H245" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="J245" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" s="34" customFormat="1">
+      <c r="A246" s="34">
+        <v>245</v>
+      </c>
+      <c r="B246" s="40">
+        <v>42</v>
+      </c>
+      <c r="C246" s="40">
+        <v>3</v>
+      </c>
+      <c r="D246" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E246" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="F246" s="42"/>
+      <c r="G246" s="42"/>
+      <c r="H246" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J246" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" s="34" customFormat="1">
+      <c r="A247" s="34">
+        <v>246</v>
+      </c>
+      <c r="B247" s="40">
+        <v>42</v>
+      </c>
+      <c r="C247" s="40">
+        <v>4</v>
+      </c>
+      <c r="D247" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E247" s="40"/>
+      <c r="F247" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G247" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H247" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" s="34" customFormat="1">
+      <c r="A248" s="34">
+        <v>247</v>
+      </c>
+      <c r="B248" s="40">
+        <v>42</v>
+      </c>
+      <c r="C248" s="40">
+        <v>5</v>
+      </c>
+      <c r="D248" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E248" s="40"/>
+      <c r="F248" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G248" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H248" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J248" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" s="34" customFormat="1">
+      <c r="A249" s="34">
+        <v>248</v>
+      </c>
+      <c r="B249" s="40">
+        <v>42</v>
+      </c>
+      <c r="C249" s="40">
+        <v>6</v>
+      </c>
+      <c r="D249" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E249" s="40"/>
+      <c r="F249" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="G249" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="H249" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J249" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" s="34" customFormat="1">
+      <c r="A250" s="34">
+        <v>249</v>
+      </c>
+      <c r="B250" s="40">
+        <v>42</v>
+      </c>
+      <c r="C250" s="40">
+        <v>7</v>
+      </c>
+      <c r="D250" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E250" s="40"/>
+      <c r="F250" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G250" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H250" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J250" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" s="34" customFormat="1">
+      <c r="A251" s="34">
+        <v>250</v>
+      </c>
+      <c r="B251" s="40">
+        <v>42</v>
+      </c>
+      <c r="C251" s="40">
+        <v>8</v>
+      </c>
+      <c r="D251" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E251" s="40"/>
+      <c r="F251" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="G251" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="H251" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J251" s="34">
         <v>1</v>
       </c>
     </row>
@@ -10076,7 +10483,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10086,10 +10493,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="30" t="s">
         <v>275</v>
       </c>
     </row>
@@ -10097,7 +10504,7 @@
       <c r="A2" s="7">
         <v>34</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="28" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10105,65 +10512,121 @@
       <c r="A3" s="7">
         <v>35</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="28" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="7">
+        <v>36</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="7">
+        <v>37</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="7">
+        <v>38</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="7">
+        <v>39</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="7">
+        <v>40</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="7">
+        <v>41</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="7">
+        <v>42</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="7">
+        <v>43</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="7">
+        <v>44</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="7">
+        <v>45</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="7">
+        <v>46</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="7">
+        <v>47</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="7">
+        <v>48</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="7">
+        <v>49</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="392">
   <si>
     <t>id|</t>
   </si>
@@ -1412,10 +1412,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>800,800,0,800,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1758,10 +1754,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_id|兑换id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>award_num|兑换次数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1794,7 +1786,61 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"fish_coin",</t>
+    <t>兑换奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换奖励--cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>春暖花开</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的空调</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>880000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1802,6 +1848,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>3,3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1813,6 +1871,14 @@
   </si>
   <si>
     <t>6,6</t>
+  </si>
+  <si>
+    <t>荣耀手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2382,8 +2448,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3542,7 +3608,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C37" s="7">
         <v>1613433600</v>
@@ -3573,7 +3639,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C38" s="7">
         <v>1613433600</v>
@@ -3604,7 +3670,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C39" s="7">
         <v>1613433600</v>
@@ -3635,7 +3701,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C40" s="7">
         <v>1614038400</v>
@@ -3646,7 +3712,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H40" s="23">
         <v>1</v>
@@ -3666,7 +3732,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C41" s="7">
         <v>1614038400</v>
@@ -3677,7 +3743,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H41" s="23">
         <v>1</v>
@@ -3697,7 +3763,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C42" s="7">
         <v>1614643200</v>
@@ -3708,7 +3774,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H42" s="23">
         <v>1</v>
@@ -3728,7 +3794,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" s="7">
         <v>1614643200</v>
@@ -3739,7 +3805,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H43" s="23">
         <v>1</v>
@@ -3759,7 +3825,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C44" s="7">
         <v>1615248000</v>
@@ -3770,7 +3836,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H44" s="23">
         <v>1</v>
@@ -3788,7 +3854,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C45" s="7">
         <v>1615248000</v>
@@ -3799,7 +3865,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H45" s="23">
         <v>1</v>
@@ -3812,89 +3878,131 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="37" customFormat="1">
-      <c r="A46" s="32">
+    <row r="46" spans="1:16" s="16" customFormat="1">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1615248000</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1615823999</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="23">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7">
+        <v>31</v>
+      </c>
+      <c r="J46" s="14">
+        <v>45</v>
+      </c>
+      <c r="K46" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="16" customFormat="1">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C47" s="7">
         <v>1615248000</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D47" s="7">
         <v>1615823999</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="34" t="s">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="35">
-        <v>1</v>
-      </c>
-      <c r="I46" s="32">
-        <v>31</v>
-      </c>
-      <c r="J46" s="36">
-        <v>45</v>
-      </c>
-      <c r="K46" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="37" customFormat="1">
-      <c r="A47" s="32">
+      <c r="H47" s="23">
+        <v>1</v>
+      </c>
+      <c r="I47" s="7">
+        <v>32</v>
+      </c>
+      <c r="J47" s="14">
         <v>46</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="C47" s="32">
-        <v>1615248000</v>
-      </c>
-      <c r="D47" s="32">
-        <v>1615823999</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="34" t="s">
+      <c r="K47" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="37" customFormat="1">
+      <c r="A48" s="32">
+        <v>47</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C48" s="32">
+        <v>1615852800</v>
+      </c>
+      <c r="D48" s="32">
+        <v>1616428799</v>
+      </c>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="35">
-        <v>1</v>
-      </c>
-      <c r="I47" s="32">
-        <v>32</v>
-      </c>
-      <c r="J47" s="36">
-        <v>46</v>
-      </c>
-      <c r="K47" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="16" customFormat="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" spans="1:10" s="16" customFormat="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="1:10" s="16" customFormat="1">
+      <c r="H48" s="35">
+        <v>1</v>
+      </c>
+      <c r="I48" s="32">
+        <v>33</v>
+      </c>
+      <c r="J48" s="36">
+        <v>47</v>
+      </c>
+      <c r="K48" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="37" customFormat="1">
+      <c r="A49" s="32">
+        <v>48</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C49" s="32">
+        <v>1615852800</v>
+      </c>
+      <c r="D49" s="32">
+        <v>1616428799</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="35">
+        <v>1</v>
+      </c>
+      <c r="I49" s="32">
+        <v>34</v>
+      </c>
+      <c r="J49" s="36">
+        <v>48</v>
+      </c>
+      <c r="K49" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="16" customFormat="1">
       <c r="A50" s="7"/>
       <c r="B50" s="30"/>
       <c r="C50" s="7"/>
@@ -3915,10 +4023,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4252,10 +4360,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="7" customFormat="1">
@@ -4263,10 +4371,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="7" customFormat="1">
@@ -4274,10 +4382,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>305</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="7" customFormat="1">
@@ -4285,32 +4393,54 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="32" customFormat="1">
-      <c r="A32" s="32">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="7" customFormat="1">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="7" customFormat="1">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C33" s="15" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="32" customFormat="1">
-      <c r="A33" s="32">
-        <v>32</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>340</v>
+    <row r="34" spans="1:3" s="32" customFormat="1">
+      <c r="A34" s="32">
+        <v>33</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="32" customFormat="1">
+      <c r="A35" s="32">
+        <v>34</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4323,13 +4453,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M285"/>
+  <dimension ref="A1:M295"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C248" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G278" sqref="G278"/>
+      <selection pane="bottomRight" activeCell="E290" sqref="E290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4355,7 +4485,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>34</v>
@@ -9446,7 +9576,7 @@
         <v>102</v>
       </c>
       <c r="H198" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="199" spans="1:10" s="7" customFormat="1" ht="16.5">
@@ -9524,7 +9654,7 @@
         <v>55</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J201" s="7">
         <v>1</v>
@@ -9551,7 +9681,7 @@
         <v>174</v>
       </c>
       <c r="H202" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J202" s="7">
         <v>1</v>
@@ -9622,7 +9752,7 @@
       </c>
       <c r="E205" s="19"/>
       <c r="F205" s="31" t="s">
-        <v>280</v>
+        <v>51</v>
       </c>
       <c r="G205" s="20" t="s">
         <v>278</v>
@@ -9655,7 +9785,7 @@
         <v>102</v>
       </c>
       <c r="H206" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="207" spans="1:10" s="7" customFormat="1">
@@ -9733,7 +9863,7 @@
         <v>55</v>
       </c>
       <c r="H209" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J209" s="7">
         <v>1</v>
@@ -9760,7 +9890,7 @@
         <v>213</v>
       </c>
       <c r="H210" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J210" s="7">
         <v>1</v>
@@ -9777,7 +9907,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E211" s="19"/>
       <c r="F211" s="20" t="s">
@@ -9787,7 +9917,7 @@
         <v>223</v>
       </c>
       <c r="H211" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J211" s="7">
         <v>9999</v>
@@ -9804,7 +9934,7 @@
         <v>2</v>
       </c>
       <c r="D212" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" s="20" t="s">
@@ -9814,7 +9944,7 @@
         <v>224</v>
       </c>
       <c r="H212" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J212" s="7">
         <v>9999</v>
@@ -9831,7 +9961,7 @@
         <v>3</v>
       </c>
       <c r="D213" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="20" t="s">
@@ -9841,7 +9971,7 @@
         <v>241</v>
       </c>
       <c r="H213" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J213" s="7">
         <v>9999</v>
@@ -9858,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="20" t="s">
@@ -9868,7 +9998,7 @@
         <v>224</v>
       </c>
       <c r="H214" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J214" s="7">
         <v>9999</v>
@@ -9885,7 +10015,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" s="20" t="s">
@@ -9895,7 +10025,7 @@
         <v>37</v>
       </c>
       <c r="H215" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J215" s="7">
         <v>9999</v>
@@ -9912,7 +10042,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="20" t="s">
@@ -9922,7 +10052,7 @@
         <v>242</v>
       </c>
       <c r="H216" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J216" s="7">
         <v>9999</v>
@@ -9939,14 +10069,14 @@
         <v>1</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G217" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H217" s="19" t="s">
         <v>229</v>
@@ -9966,14 +10096,14 @@
         <v>2</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E218" s="19"/>
       <c r="F218" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G218" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H218" s="19" t="s">
         <v>229</v>
@@ -9993,7 +10123,7 @@
         <v>3</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E219" s="19"/>
       <c r="F219" s="20" t="s">
@@ -10023,7 +10153,7 @@
         <v>130</v>
       </c>
       <c r="E220" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F220" s="20"/>
       <c r="G220" s="20"/>
@@ -10048,7 +10178,7 @@
         <v>130</v>
       </c>
       <c r="E221" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F221" s="20"/>
       <c r="G221" s="20"/>
@@ -10073,7 +10203,7 @@
         <v>130</v>
       </c>
       <c r="E222" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="20" t="s">
@@ -10229,7 +10359,7 @@
         <v>131</v>
       </c>
       <c r="E228" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F228" s="20"/>
       <c r="G228" s="20"/>
@@ -10254,7 +10384,7 @@
         <v>131</v>
       </c>
       <c r="E229" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F229" s="20"/>
       <c r="G229" s="20"/>
@@ -10279,7 +10409,7 @@
         <v>131</v>
       </c>
       <c r="E230" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F230" s="20"/>
       <c r="G230" s="20"/>
@@ -10436,7 +10566,7 @@
         <v>130</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F236" s="20"/>
       <c r="G236" s="20"/>
@@ -10461,7 +10591,7 @@
         <v>130</v>
       </c>
       <c r="E237" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F237" s="20"/>
       <c r="G237" s="20"/>
@@ -10486,7 +10616,7 @@
         <v>130</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G238" s="20"/>
       <c r="H238" s="20" t="s">
@@ -10612,7 +10742,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E243" s="19"/>
       <c r="F243" s="22" t="s">
@@ -10639,10 +10769,10 @@
         <v>1</v>
       </c>
       <c r="D244" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E244" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
@@ -10664,10 +10794,10 @@
         <v>2</v>
       </c>
       <c r="D245" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F245" s="20"/>
       <c r="G245" s="20"/>
@@ -10692,7 +10822,7 @@
         <v>131</v>
       </c>
       <c r="E246" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F246" s="20"/>
       <c r="G246" s="20"/>
@@ -10846,16 +10976,16 @@
         <v>1</v>
       </c>
       <c r="D252" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F252" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G252" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H252" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="253" spans="1:10" s="42" customFormat="1">
@@ -10869,16 +10999,16 @@
         <v>2</v>
       </c>
       <c r="D253" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F253" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="G253" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="H253" s="43" t="s">
         <v>328</v>
-      </c>
-      <c r="G253" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="H253" s="43" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="254" spans="1:10" s="42" customFormat="1">
@@ -10892,16 +11022,16 @@
         <v>3</v>
       </c>
       <c r="D254" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F254" s="43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G254" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H254" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="255" spans="1:10" s="42" customFormat="1">
@@ -10915,16 +11045,16 @@
         <v>4</v>
       </c>
       <c r="D255" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F255" s="43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G255" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H255" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="256" spans="1:10" s="42" customFormat="1">
@@ -10938,16 +11068,16 @@
         <v>5</v>
       </c>
       <c r="D256" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F256" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G256" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H256" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="257" spans="1:10" s="42" customFormat="1">
@@ -10961,16 +11091,16 @@
         <v>6</v>
       </c>
       <c r="D257" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F257" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="G257" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="G257" s="43" t="s">
+      <c r="H257" s="43" t="s">
         <v>332</v>
-      </c>
-      <c r="H257" s="43" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="258" spans="1:10" s="42" customFormat="1">
@@ -10984,16 +11114,16 @@
         <v>1</v>
       </c>
       <c r="D258" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F258" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G258" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F258" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="G258" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H258" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="259" spans="1:10" s="42" customFormat="1">
@@ -11007,16 +11137,16 @@
         <v>2</v>
       </c>
       <c r="D259" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F259" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G259" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H259" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="260" spans="1:10" s="42" customFormat="1">
@@ -11030,16 +11160,16 @@
         <v>3</v>
       </c>
       <c r="D260" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F260" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="G260" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F260" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="G260" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H260" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="261" spans="1:10" s="42" customFormat="1">
@@ -11053,16 +11183,16 @@
         <v>4</v>
       </c>
       <c r="D261" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F261" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="G261" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F261" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="G261" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H261" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="262" spans="1:10" s="42" customFormat="1">
@@ -11076,16 +11206,16 @@
         <v>5</v>
       </c>
       <c r="D262" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F262" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="G262" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F262" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="G262" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H262" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="263" spans="1:10" s="42" customFormat="1">
@@ -11099,459 +11229,831 @@
         <v>6</v>
       </c>
       <c r="D263" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F263" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="G263" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F263" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="G263" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H263" s="43" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" s="32" customFormat="1">
-      <c r="A264" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" s="7" customFormat="1">
+      <c r="A264" s="7">
         <v>263</v>
       </c>
-      <c r="B264" s="38">
+      <c r="B264" s="19">
         <v>45</v>
       </c>
-      <c r="C264" s="38">
-        <v>1</v>
-      </c>
-      <c r="D264" s="41" t="s">
+      <c r="C264" s="19">
+        <v>1</v>
+      </c>
+      <c r="D264" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="E264" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F264" s="20"/>
+      <c r="G264" s="20"/>
+      <c r="H264" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="J264" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" s="7" customFormat="1">
+      <c r="A265" s="7">
+        <v>264</v>
+      </c>
+      <c r="B265" s="19">
+        <v>45</v>
+      </c>
+      <c r="C265" s="19">
+        <v>2</v>
+      </c>
+      <c r="D265" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E265" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="F265" s="20"/>
+      <c r="G265" s="20"/>
+      <c r="H265" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J265" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" s="7" customFormat="1">
+      <c r="A266" s="7">
+        <v>265</v>
+      </c>
+      <c r="B266" s="19">
+        <v>45</v>
+      </c>
+      <c r="C266" s="19">
+        <v>3</v>
+      </c>
+      <c r="D266" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E266" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="G266" s="20"/>
+      <c r="H266" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J266" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A267" s="7">
+        <v>266</v>
+      </c>
+      <c r="B267" s="19">
+        <v>45</v>
+      </c>
+      <c r="C267" s="19">
+        <v>4</v>
+      </c>
+      <c r="D267" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E267" s="19"/>
+      <c r="F267" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G267" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H267" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" s="7" customFormat="1">
+      <c r="A268" s="7">
+        <v>267</v>
+      </c>
+      <c r="B268" s="19">
+        <v>45</v>
+      </c>
+      <c r="C268" s="19">
+        <v>5</v>
+      </c>
+      <c r="D268" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E268" s="19"/>
+      <c r="F268" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G268" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H268" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J268" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" s="7" customFormat="1">
+      <c r="A269" s="7">
+        <v>268</v>
+      </c>
+      <c r="B269" s="19">
+        <v>45</v>
+      </c>
+      <c r="C269" s="19">
+        <v>6</v>
+      </c>
+      <c r="D269" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E269" s="19"/>
+      <c r="F269" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="G269" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="H269" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="J269" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" s="7" customFormat="1">
+      <c r="A270" s="7">
+        <v>269</v>
+      </c>
+      <c r="B270" s="19">
+        <v>45</v>
+      </c>
+      <c r="C270" s="19">
+        <v>7</v>
+      </c>
+      <c r="D270" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E270" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G270" s="20"/>
+      <c r="H270" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J270" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A271" s="7">
+        <v>270</v>
+      </c>
+      <c r="B271" s="19">
+        <v>45</v>
+      </c>
+      <c r="C271" s="19">
+        <v>8</v>
+      </c>
+      <c r="D271" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E271" s="19"/>
+      <c r="F271" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G271" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H271" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="J271" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" s="7" customFormat="1">
+      <c r="A272" s="7">
+        <v>271</v>
+      </c>
+      <c r="B272" s="19">
+        <v>46</v>
+      </c>
+      <c r="C272" s="19">
+        <v>1</v>
+      </c>
+      <c r="D272" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="E264" s="38" t="s">
+      <c r="E272" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F272" s="20"/>
+      <c r="G272" s="20"/>
+      <c r="H272" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="J272" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" s="7" customFormat="1">
+      <c r="A273" s="7">
+        <v>272</v>
+      </c>
+      <c r="B273" s="19">
+        <v>46</v>
+      </c>
+      <c r="C273" s="19">
+        <v>2</v>
+      </c>
+      <c r="D273" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="E273" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="F264" s="39"/>
-      <c r="G264" s="39"/>
-      <c r="H264" s="39" t="s">
+      <c r="F273" s="20"/>
+      <c r="G273" s="20"/>
+      <c r="H273" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J273" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" s="7" customFormat="1">
+      <c r="A274" s="7">
+        <v>273</v>
+      </c>
+      <c r="B274" s="19">
+        <v>46</v>
+      </c>
+      <c r="C274" s="19">
+        <v>3</v>
+      </c>
+      <c r="D274" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E274" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="G274" s="20"/>
+      <c r="H274" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="J264" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" s="32" customFormat="1">
-      <c r="A265" s="1">
-        <v>264</v>
-      </c>
-      <c r="B265" s="38">
-        <v>45</v>
-      </c>
-      <c r="C265" s="38">
+      <c r="J274" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" s="7" customFormat="1">
+      <c r="A275" s="7">
+        <v>274</v>
+      </c>
+      <c r="B275" s="19">
+        <v>46</v>
+      </c>
+      <c r="C275" s="19">
+        <v>4</v>
+      </c>
+      <c r="D275" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E275" s="19"/>
+      <c r="F275" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G275" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H275" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" s="7" customFormat="1">
+      <c r="A276" s="7">
+        <v>275</v>
+      </c>
+      <c r="B276" s="19">
+        <v>46</v>
+      </c>
+      <c r="C276" s="19">
+        <v>5</v>
+      </c>
+      <c r="D276" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E276" s="19"/>
+      <c r="F276" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G276" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H276" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J276" s="7">
         <v>2</v>
       </c>
-      <c r="D265" s="38" t="s">
+    </row>
+    <row r="277" spans="1:10" s="7" customFormat="1">
+      <c r="A277" s="7">
+        <v>276</v>
+      </c>
+      <c r="B277" s="19">
+        <v>46</v>
+      </c>
+      <c r="C277" s="19">
+        <v>6</v>
+      </c>
+      <c r="D277" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E277" s="19"/>
+      <c r="F277" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="G277" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="H277" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="J277" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" s="7" customFormat="1">
+      <c r="A278" s="7">
+        <v>277</v>
+      </c>
+      <c r="B278" s="19">
+        <v>46</v>
+      </c>
+      <c r="C278" s="19">
+        <v>7</v>
+      </c>
+      <c r="D278" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E278" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G278" s="20"/>
+      <c r="H278" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J278" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" s="7" customFormat="1">
+      <c r="A279" s="7">
+        <v>278</v>
+      </c>
+      <c r="B279" s="19">
+        <v>46</v>
+      </c>
+      <c r="C279" s="19">
+        <v>8</v>
+      </c>
+      <c r="D279" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E279" s="19"/>
+      <c r="F279" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="G279" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H279" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="J279" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" s="32" customFormat="1">
+      <c r="A280" s="7">
+        <v>279</v>
+      </c>
+      <c r="B280" s="38">
+        <v>47</v>
+      </c>
+      <c r="C280" s="38">
+        <v>1</v>
+      </c>
+      <c r="D280" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E280" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="F280" s="39"/>
+      <c r="G280" s="39"/>
+      <c r="H280" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="J280" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" s="32" customFormat="1">
+      <c r="A281" s="7">
+        <v>280</v>
+      </c>
+      <c r="B281" s="38">
+        <v>47</v>
+      </c>
+      <c r="C281" s="38">
+        <v>2</v>
+      </c>
+      <c r="D281" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E281" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="F281" s="39"/>
+      <c r="G281" s="39"/>
+      <c r="H281" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="J281" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" s="32" customFormat="1">
+      <c r="A282" s="7">
+        <v>281</v>
+      </c>
+      <c r="B282" s="38">
+        <v>47</v>
+      </c>
+      <c r="C282" s="38">
+        <v>3</v>
+      </c>
+      <c r="D282" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E265" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="F265" s="39"/>
-      <c r="G265" s="39"/>
-      <c r="H265" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="J265" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" s="32" customFormat="1">
-      <c r="A266" s="1">
-        <v>265</v>
-      </c>
-      <c r="B266" s="38">
-        <v>45</v>
-      </c>
-      <c r="C266" s="38">
+      <c r="E282" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="G282" s="39"/>
+      <c r="H282" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J282" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A283" s="7">
+        <v>282</v>
+      </c>
+      <c r="B283" s="38">
+        <v>47</v>
+      </c>
+      <c r="C283" s="38">
+        <v>4</v>
+      </c>
+      <c r="D283" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E283" s="38"/>
+      <c r="F283" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="G283" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="H283" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="J283" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" s="32" customFormat="1">
+      <c r="A284" s="7">
+        <v>283</v>
+      </c>
+      <c r="B284" s="38">
+        <v>47</v>
+      </c>
+      <c r="C284" s="38">
+        <v>5</v>
+      </c>
+      <c r="D284" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E284" s="38"/>
+      <c r="F284" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G284" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H284" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" s="32" customFormat="1">
+      <c r="A285" s="7">
+        <v>284</v>
+      </c>
+      <c r="B285" s="38">
+        <v>47</v>
+      </c>
+      <c r="C285" s="38">
+        <v>6</v>
+      </c>
+      <c r="D285" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E285" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="F285" s="39"/>
+      <c r="G285" s="39"/>
+      <c r="H285" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J285" s="32">
         <v>3</v>
       </c>
-      <c r="D266" s="38" t="s">
+    </row>
+    <row r="286" spans="1:10" s="32" customFormat="1">
+      <c r="A286" s="7">
+        <v>285</v>
+      </c>
+      <c r="B286" s="38">
+        <v>47</v>
+      </c>
+      <c r="C286" s="38">
+        <v>7</v>
+      </c>
+      <c r="D286" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E266" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="G266" s="39"/>
-      <c r="H266" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="J266" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" s="32" customFormat="1" ht="16.5">
-      <c r="A267" s="1">
-        <v>266</v>
-      </c>
-      <c r="B267" s="38">
-        <v>45</v>
-      </c>
-      <c r="C267" s="38">
+      <c r="E286" s="38"/>
+      <c r="F286" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="G286" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="H286" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="J286" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A287" s="7">
+        <v>286</v>
+      </c>
+      <c r="B287" s="38">
+        <v>47</v>
+      </c>
+      <c r="C287" s="38">
+        <v>8</v>
+      </c>
+      <c r="D287" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="E287" s="38"/>
+      <c r="F287" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G287" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H287" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J287" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" s="32" customFormat="1">
+      <c r="A288" s="7">
+        <v>287</v>
+      </c>
+      <c r="B288" s="38">
+        <v>48</v>
+      </c>
+      <c r="C288" s="38">
+        <v>1</v>
+      </c>
+      <c r="D288" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E288" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="F288" s="39"/>
+      <c r="G288" s="39"/>
+      <c r="H288" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="J288" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" s="32" customFormat="1">
+      <c r="A289" s="7">
+        <v>288</v>
+      </c>
+      <c r="B289" s="38">
+        <v>48</v>
+      </c>
+      <c r="C289" s="38">
+        <v>2</v>
+      </c>
+      <c r="D289" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="E289" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="F289" s="39"/>
+      <c r="G289" s="39"/>
+      <c r="H289" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="J289" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" s="32" customFormat="1">
+      <c r="A290" s="7">
+        <v>289</v>
+      </c>
+      <c r="B290" s="38">
+        <v>48</v>
+      </c>
+      <c r="C290" s="38">
+        <v>3</v>
+      </c>
+      <c r="D290" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E290" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="G290" s="39"/>
+      <c r="H290" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J290" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A291" s="7">
+        <v>290</v>
+      </c>
+      <c r="B291" s="38">
+        <v>48</v>
+      </c>
+      <c r="C291" s="38">
         <v>4</v>
       </c>
-      <c r="D267" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E267" s="38"/>
-      <c r="F267" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="G267" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="H267" s="39" t="s">
+      <c r="D291" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E291" s="38"/>
+      <c r="F291" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="G291" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="H291" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="J291" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" s="32" customFormat="1">
+      <c r="A292" s="7">
+        <v>291</v>
+      </c>
+      <c r="B292" s="38">
+        <v>48</v>
+      </c>
+      <c r="C292" s="38">
+        <v>5</v>
+      </c>
+      <c r="D292" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E292" s="38"/>
+      <c r="F292" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="G292" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H292" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" s="32" customFormat="1">
+      <c r="A293" s="7">
+        <v>292</v>
+      </c>
+      <c r="B293" s="38">
+        <v>48</v>
+      </c>
+      <c r="C293" s="38">
+        <v>6</v>
+      </c>
+      <c r="D293" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E293" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="F293" s="39"/>
+      <c r="G293" s="39"/>
+      <c r="H293" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J293" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" s="32" customFormat="1">
+      <c r="A294" s="7">
+        <v>293</v>
+      </c>
+      <c r="B294" s="38">
+        <v>48</v>
+      </c>
+      <c r="C294" s="38">
+        <v>7</v>
+      </c>
+      <c r="D294" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E294" s="38"/>
+      <c r="F294" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="G294" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="H294" s="34" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" s="32" customFormat="1">
-      <c r="A268" s="1">
-        <v>267</v>
-      </c>
-      <c r="B268" s="38">
-        <v>45</v>
-      </c>
-      <c r="C268" s="38">
-        <v>5</v>
-      </c>
-      <c r="D268" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E268" s="38"/>
-      <c r="F268" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G268" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="H268" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J268" s="32">
+      <c r="J294" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:10" s="32" customFormat="1">
-      <c r="A269" s="1">
-        <v>268</v>
-      </c>
-      <c r="B269" s="38">
-        <v>45</v>
-      </c>
-      <c r="C269" s="38">
-        <v>6</v>
-      </c>
-      <c r="D269" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E269" s="38"/>
-      <c r="F269" s="39" t="s">
-        <v>369</v>
-      </c>
-      <c r="G269" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="H269" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="J269" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" s="32" customFormat="1">
-      <c r="A270" s="1">
-        <v>269</v>
-      </c>
-      <c r="B270" s="38">
-        <v>45</v>
-      </c>
-      <c r="C270" s="38">
-        <v>7</v>
-      </c>
-      <c r="D270" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E270" s="38" t="s">
+    <row r="295" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A295" s="7">
+        <v>294</v>
+      </c>
+      <c r="B295" s="38">
+        <v>48</v>
+      </c>
+      <c r="C295" s="38">
+        <v>8</v>
+      </c>
+      <c r="D295" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E295" s="38"/>
+      <c r="F295" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="G295" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H295" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="G270" s="39"/>
-      <c r="H270" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="J270" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" s="32" customFormat="1" ht="16.5">
-      <c r="A271" s="1">
-        <v>270</v>
-      </c>
-      <c r="B271" s="38">
-        <v>45</v>
-      </c>
-      <c r="C271" s="38">
-        <v>8</v>
-      </c>
-      <c r="D271" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="E271" s="38"/>
-      <c r="F271" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="G271" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H271" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="J271" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" s="32" customFormat="1">
-      <c r="A272" s="1">
-        <v>271</v>
-      </c>
-      <c r="B272" s="38">
-        <v>46</v>
-      </c>
-      <c r="C272" s="38">
-        <v>1</v>
-      </c>
-      <c r="D272" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="E272" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="F272" s="39"/>
-      <c r="G272" s="39"/>
-      <c r="H272" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="J272" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" s="32" customFormat="1">
-      <c r="A273" s="1">
-        <v>272</v>
-      </c>
-      <c r="B273" s="38">
-        <v>46</v>
-      </c>
-      <c r="C273" s="38">
-        <v>2</v>
-      </c>
-      <c r="D273" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="E273" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="F273" s="39"/>
-      <c r="G273" s="39"/>
-      <c r="H273" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="J273" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" s="32" customFormat="1">
-      <c r="A274" s="1">
-        <v>273</v>
-      </c>
-      <c r="B274" s="38">
-        <v>46</v>
-      </c>
-      <c r="C274" s="38">
+      <c r="J295" s="32">
         <v>3</v>
       </c>
-      <c r="D274" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E274" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="G274" s="39"/>
-      <c r="H274" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="J274" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" s="32" customFormat="1">
-      <c r="A275" s="1">
-        <v>274</v>
-      </c>
-      <c r="B275" s="38">
-        <v>46</v>
-      </c>
-      <c r="C275" s="38">
-        <v>4</v>
-      </c>
-      <c r="D275" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E275" s="38"/>
-      <c r="F275" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G275" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="H275" s="39" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" s="32" customFormat="1">
-      <c r="A276" s="1">
-        <v>275</v>
-      </c>
-      <c r="B276" s="38">
-        <v>46</v>
-      </c>
-      <c r="C276" s="38">
-        <v>5</v>
-      </c>
-      <c r="D276" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E276" s="38"/>
-      <c r="F276" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G276" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="H276" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J276" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" s="32" customFormat="1">
-      <c r="A277" s="1">
-        <v>276</v>
-      </c>
-      <c r="B277" s="38">
-        <v>46</v>
-      </c>
-      <c r="C277" s="38">
-        <v>6</v>
-      </c>
-      <c r="D277" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E277" s="38"/>
-      <c r="F277" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="G277" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="H277" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="J277" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" s="32" customFormat="1">
-      <c r="A278" s="1">
-        <v>277</v>
-      </c>
-      <c r="B278" s="38">
-        <v>46</v>
-      </c>
-      <c r="C278" s="38">
-        <v>7</v>
-      </c>
-      <c r="D278" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E278" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="G278" s="39"/>
-      <c r="H278" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="J278" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" s="32" customFormat="1">
-      <c r="A279" s="1">
-        <v>278</v>
-      </c>
-      <c r="B279" s="38">
-        <v>46</v>
-      </c>
-      <c r="C279" s="38">
-        <v>8</v>
-      </c>
-      <c r="D279" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E279" s="38"/>
-      <c r="F279" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="G279" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="H279" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="J279" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10">
-      <c r="F280" s="15"/>
-      <c r="G280" s="15"/>
-      <c r="H280" s="7"/>
-      <c r="I280" s="7"/>
-    </row>
-    <row r="281" spans="1:10">
-      <c r="F281" s="15"/>
-      <c r="G281" s="20"/>
-      <c r="H281" s="20"/>
-      <c r="I281" s="20"/>
-    </row>
-    <row r="282" spans="1:10">
-      <c r="F282" s="20"/>
-      <c r="G282" s="20"/>
-      <c r="H282" s="20"/>
-      <c r="I282" s="15"/>
-    </row>
-    <row r="283" spans="1:10">
-      <c r="F283" s="15"/>
-      <c r="G283" s="15"/>
-      <c r="H283" s="7"/>
-      <c r="I283" s="15"/>
-    </row>
-    <row r="284" spans="1:10" ht="16.5">
-      <c r="F284" s="22"/>
-      <c r="G284" s="20"/>
-      <c r="H284" s="20"/>
-      <c r="I284" s="15"/>
-    </row>
-    <row r="285" spans="1:10">
-      <c r="F285" s="15"/>
-      <c r="G285" s="15"/>
-      <c r="H285" s="7"/>
-      <c r="I285" s="20"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">
@@ -11568,7 +12070,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A4" sqref="A4:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11667,8 +12169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11681,16 +12183,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>363</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>364</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11701,7 +12203,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -11715,7 +12217,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -11729,7 +12231,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -11743,7 +12245,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -11757,7 +12259,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -11771,7 +12273,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -11785,7 +12287,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -11799,7 +12301,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -11813,7 +12315,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -11827,7 +12329,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -11841,7 +12343,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -11855,7 +12357,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>
@@ -11864,6 +12366,5 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="397">
   <si>
     <t>id|</t>
   </si>
@@ -1808,6 +1808,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>华为荣耀手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>扫地机器人</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1873,11 +1877,27 @@
     <t>6,6</t>
   </si>
   <si>
-    <t>荣耀手机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣耀手机</t>
+    <t>月末狂欢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的微波炉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2446,10 +2466,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3940,77 +3960,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="37" customFormat="1">
-      <c r="A48" s="32">
+    <row r="48" spans="1:16" s="16" customFormat="1">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="7">
         <v>1615852800</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="7">
         <v>1616428799</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="34" t="s">
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H48" s="35">
-        <v>1</v>
-      </c>
-      <c r="I48" s="32">
+      <c r="H48" s="23">
+        <v>1</v>
+      </c>
+      <c r="I48" s="7">
         <v>33</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="14">
         <v>47</v>
       </c>
-      <c r="K48" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="37" customFormat="1">
-      <c r="A49" s="32">
+      <c r="K48" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="16" customFormat="1">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="7">
         <v>1615852800</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="7">
         <v>1616428799</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="34" t="s">
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H49" s="35">
-        <v>1</v>
-      </c>
-      <c r="I49" s="32">
+      <c r="H49" s="23">
+        <v>1</v>
+      </c>
+      <c r="I49" s="7">
         <v>34</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49" s="14">
         <v>48</v>
       </c>
-      <c r="K49" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="16" customFormat="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="14"/>
+      <c r="K49" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="37" customFormat="1">
+      <c r="A50" s="32">
+        <v>49</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="32">
+        <v>1616457600</v>
+      </c>
+      <c r="D50" s="32">
+        <v>1617033599</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="35">
+        <v>1</v>
+      </c>
+      <c r="I50" s="32">
+        <v>35</v>
+      </c>
+      <c r="J50" s="36">
+        <v>49</v>
+      </c>
+      <c r="K50" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="37" customFormat="1">
+      <c r="A51" s="32">
+        <v>50</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C51" s="32">
+        <v>1616457600</v>
+      </c>
+      <c r="D51" s="32">
+        <v>1617033599</v>
+      </c>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="35">
+        <v>1</v>
+      </c>
+      <c r="I51" s="32">
+        <v>36</v>
+      </c>
+      <c r="J51" s="36">
+        <v>50</v>
+      </c>
+      <c r="K51" s="37">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4023,10 +4095,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4421,25 +4493,47 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="32" customFormat="1">
-      <c r="A34" s="32">
+    <row r="34" spans="1:3" s="7" customFormat="1">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="15" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="32" customFormat="1">
-      <c r="A35" s="32">
+    <row r="35" spans="1:3" s="7" customFormat="1">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="32" customFormat="1">
+      <c r="A36" s="32">
+        <v>35</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="32" customFormat="1">
+      <c r="A37" s="32">
+        <v>36</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" s="34" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4453,13 +4547,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M295"/>
+  <dimension ref="A1:M311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E290" sqref="E290"/>
+      <selection pane="bottomRight" activeCell="H315" sqref="H315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11584,7 +11678,7 @@
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G277" s="20" t="s">
         <v>347</v>
@@ -11635,7 +11729,7 @@
       </c>
       <c r="E279" s="19"/>
       <c r="F279" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G279" s="20" t="s">
         <v>213</v>
@@ -11647,411 +11741,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:10" s="32" customFormat="1">
+    <row r="280" spans="1:10" s="7" customFormat="1">
       <c r="A280" s="7">
         <v>279</v>
       </c>
-      <c r="B280" s="38">
+      <c r="B280" s="19">
         <v>47</v>
       </c>
-      <c r="C280" s="38">
-        <v>1</v>
-      </c>
-      <c r="D280" s="41" t="s">
+      <c r="C280" s="19">
+        <v>1</v>
+      </c>
+      <c r="D280" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="E280" s="38" t="s">
+      <c r="E280" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F280" s="39"/>
-      <c r="G280" s="39"/>
-      <c r="H280" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="J280" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" s="32" customFormat="1">
+      <c r="F280" s="20"/>
+      <c r="G280" s="20"/>
+      <c r="H280" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="J280" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" s="7" customFormat="1">
       <c r="A281" s="7">
         <v>280</v>
       </c>
-      <c r="B281" s="38">
+      <c r="B281" s="19">
         <v>47</v>
       </c>
-      <c r="C281" s="38">
+      <c r="C281" s="19">
         <v>2</v>
       </c>
-      <c r="D281" s="41" t="s">
+      <c r="D281" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="E281" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="F281" s="39"/>
-      <c r="G281" s="39"/>
-      <c r="H281" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="J281" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" s="32" customFormat="1">
+      <c r="E281" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F281" s="20"/>
+      <c r="G281" s="20"/>
+      <c r="H281" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="J281" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" s="7" customFormat="1">
       <c r="A282" s="7">
         <v>281</v>
       </c>
-      <c r="B282" s="38">
+      <c r="B282" s="19">
         <v>47</v>
       </c>
-      <c r="C282" s="38">
+      <c r="C282" s="19">
         <v>3</v>
       </c>
-      <c r="D282" s="38" t="s">
+      <c r="D282" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E282" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="G282" s="39"/>
-      <c r="H282" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="J282" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="E282" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="G282" s="20"/>
+      <c r="H282" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="J282" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A283" s="7">
         <v>282</v>
       </c>
-      <c r="B283" s="38">
+      <c r="B283" s="19">
         <v>47</v>
       </c>
-      <c r="C283" s="38">
+      <c r="C283" s="19">
         <v>4</v>
       </c>
-      <c r="D283" s="38" t="s">
+      <c r="D283" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E283" s="38"/>
-      <c r="F283" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="G283" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="H283" s="39" t="s">
+      <c r="E283" s="19"/>
+      <c r="F283" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="G283" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="J283" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" s="32" customFormat="1">
+      <c r="H283" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="J283" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" s="7" customFormat="1">
       <c r="A284" s="7">
         <v>283</v>
       </c>
-      <c r="B284" s="38">
+      <c r="B284" s="19">
         <v>47</v>
       </c>
-      <c r="C284" s="38">
+      <c r="C284" s="19">
         <v>5</v>
       </c>
-      <c r="D284" s="38" t="s">
+      <c r="D284" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E284" s="38"/>
-      <c r="F284" s="39" t="s">
+      <c r="E284" s="19"/>
+      <c r="F284" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="G284" s="39" t="s">
+      <c r="G284" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H284" s="34" t="s">
+      <c r="H284" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="285" spans="1:10" s="32" customFormat="1">
+    <row r="285" spans="1:10" s="7" customFormat="1">
       <c r="A285" s="7">
         <v>284</v>
       </c>
-      <c r="B285" s="38">
+      <c r="B285" s="19">
         <v>47</v>
       </c>
-      <c r="C285" s="38">
+      <c r="C285" s="19">
         <v>6</v>
       </c>
-      <c r="D285" s="38" t="s">
+      <c r="D285" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E285" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="F285" s="39"/>
-      <c r="G285" s="39"/>
-      <c r="H285" s="34" t="s">
+      <c r="E285" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F285" s="20"/>
+      <c r="G285" s="20"/>
+      <c r="H285" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J285" s="32">
+      <c r="J285" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:10" s="32" customFormat="1">
+    <row r="286" spans="1:10" s="7" customFormat="1">
       <c r="A286" s="7">
         <v>285</v>
       </c>
-      <c r="B286" s="38">
+      <c r="B286" s="19">
         <v>47</v>
       </c>
-      <c r="C286" s="38">
+      <c r="C286" s="19">
         <v>7</v>
       </c>
-      <c r="D286" s="38" t="s">
+      <c r="D286" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E286" s="38"/>
-      <c r="F286" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="G286" s="39" t="s">
+      <c r="E286" s="19"/>
+      <c r="F286" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="H286" s="34" t="s">
+      <c r="G286" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="H286" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="J286" s="32">
+      <c r="J286" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:10" s="32" customFormat="1" ht="16.5">
+    <row r="287" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A287" s="7">
         <v>286</v>
       </c>
-      <c r="B287" s="38">
+      <c r="B287" s="19">
         <v>47</v>
       </c>
-      <c r="C287" s="38">
+      <c r="C287" s="19">
         <v>8</v>
       </c>
-      <c r="D287" s="38" t="s">
+      <c r="D287" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="E287" s="38"/>
-      <c r="F287" s="40" t="s">
+      <c r="E287" s="19"/>
+      <c r="F287" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="G287" s="39" t="s">
+      <c r="G287" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="H287" s="39" t="s">
+      <c r="H287" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="J287" s="32">
+      <c r="J287" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:10" s="32" customFormat="1">
+    <row r="288" spans="1:10" s="7" customFormat="1">
       <c r="A288" s="7">
         <v>287</v>
       </c>
-      <c r="B288" s="38">
+      <c r="B288" s="19">
         <v>48</v>
       </c>
-      <c r="C288" s="38">
-        <v>1</v>
-      </c>
-      <c r="D288" s="38" t="s">
+      <c r="C288" s="19">
+        <v>1</v>
+      </c>
+      <c r="D288" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="E288" s="38" t="s">
+      <c r="E288" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F288" s="39"/>
-      <c r="G288" s="39"/>
-      <c r="H288" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="J288" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" s="32" customFormat="1">
+      <c r="F288" s="20"/>
+      <c r="G288" s="20"/>
+      <c r="H288" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="J288" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" s="7" customFormat="1">
       <c r="A289" s="7">
         <v>288</v>
       </c>
-      <c r="B289" s="38">
+      <c r="B289" s="19">
         <v>48</v>
       </c>
-      <c r="C289" s="38">
+      <c r="C289" s="19">
         <v>2</v>
       </c>
-      <c r="D289" s="38" t="s">
+      <c r="D289" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="E289" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="F289" s="39"/>
-      <c r="G289" s="39"/>
-      <c r="H289" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="J289" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" s="32" customFormat="1">
+      <c r="E289" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F289" s="20"/>
+      <c r="G289" s="20"/>
+      <c r="H289" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="J289" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" s="7" customFormat="1">
       <c r="A290" s="7">
         <v>289</v>
       </c>
-      <c r="B290" s="38">
+      <c r="B290" s="19">
         <v>48</v>
       </c>
-      <c r="C290" s="38">
+      <c r="C290" s="19">
         <v>3</v>
       </c>
-      <c r="D290" s="38" t="s">
+      <c r="D290" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E290" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="G290" s="39"/>
-      <c r="H290" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="J290" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="E290" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="G290" s="20"/>
+      <c r="H290" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="J290" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A291" s="7">
         <v>290</v>
       </c>
-      <c r="B291" s="38">
+      <c r="B291" s="19">
         <v>48</v>
       </c>
-      <c r="C291" s="38">
+      <c r="C291" s="19">
         <v>4</v>
       </c>
-      <c r="D291" s="38" t="s">
+      <c r="D291" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E291" s="38"/>
-      <c r="F291" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="G291" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="H291" s="39" t="s">
+      <c r="E291" s="19"/>
+      <c r="F291" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="G291" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="J291" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" s="32" customFormat="1">
+      <c r="H291" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="J291" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" s="7" customFormat="1">
       <c r="A292" s="7">
         <v>291</v>
       </c>
-      <c r="B292" s="38">
+      <c r="B292" s="19">
         <v>48</v>
       </c>
-      <c r="C292" s="38">
+      <c r="C292" s="19">
         <v>5</v>
       </c>
-      <c r="D292" s="38" t="s">
+      <c r="D292" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E292" s="38"/>
-      <c r="F292" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="G292" s="39" t="s">
+      <c r="E292" s="19"/>
+      <c r="F292" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="G292" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H292" s="34" t="s">
+      <c r="H292" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="293" spans="1:10" s="32" customFormat="1">
+    <row r="293" spans="1:10" s="7" customFormat="1">
       <c r="A293" s="7">
         <v>292</v>
       </c>
-      <c r="B293" s="38">
+      <c r="B293" s="19">
         <v>48</v>
       </c>
-      <c r="C293" s="38">
+      <c r="C293" s="19">
         <v>6</v>
       </c>
-      <c r="D293" s="38" t="s">
+      <c r="D293" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E293" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="F293" s="39"/>
-      <c r="G293" s="39"/>
-      <c r="H293" s="34" t="s">
+      <c r="E293" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F293" s="20"/>
+      <c r="G293" s="20"/>
+      <c r="H293" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J293" s="32">
+      <c r="J293" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:10" s="32" customFormat="1">
+    <row r="294" spans="1:10" s="7" customFormat="1">
       <c r="A294" s="7">
         <v>293</v>
       </c>
-      <c r="B294" s="38">
+      <c r="B294" s="19">
         <v>48</v>
       </c>
-      <c r="C294" s="38">
+      <c r="C294" s="19">
         <v>7</v>
       </c>
-      <c r="D294" s="38" t="s">
+      <c r="D294" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E294" s="38"/>
-      <c r="F294" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="G294" s="39" t="s">
+      <c r="E294" s="19"/>
+      <c r="F294" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="H294" s="34" t="s">
+      <c r="G294" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="H294" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="J294" s="32">
+      <c r="J294" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:10" s="32" customFormat="1" ht="16.5">
+    <row r="295" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A295" s="7">
         <v>294</v>
       </c>
-      <c r="B295" s="38">
+      <c r="B295" s="19">
         <v>48</v>
       </c>
-      <c r="C295" s="38">
+      <c r="C295" s="19">
         <v>8</v>
       </c>
-      <c r="D295" s="38" t="s">
+      <c r="D295" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E295" s="38"/>
-      <c r="F295" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="G295" s="39" t="s">
+      <c r="E295" s="19"/>
+      <c r="F295" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="G295" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="H295" s="39" t="s">
+      <c r="H295" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="J295" s="32">
+      <c r="J295" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" s="32" customFormat="1">
+      <c r="A296" s="7">
+        <v>295</v>
+      </c>
+      <c r="B296" s="38">
+        <v>49</v>
+      </c>
+      <c r="C296" s="38">
+        <v>1</v>
+      </c>
+      <c r="D296" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E296" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="F296" s="39"/>
+      <c r="G296" s="39"/>
+      <c r="H296" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="J296" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" s="32" customFormat="1">
+      <c r="A297" s="7">
+        <v>296</v>
+      </c>
+      <c r="B297" s="38">
+        <v>49</v>
+      </c>
+      <c r="C297" s="38">
+        <v>2</v>
+      </c>
+      <c r="D297" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E297" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="F297" s="39"/>
+      <c r="G297" s="39"/>
+      <c r="H297" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J297" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" s="32" customFormat="1">
+      <c r="A298" s="7">
+        <v>297</v>
+      </c>
+      <c r="B298" s="38">
+        <v>49</v>
+      </c>
+      <c r="C298" s="38">
+        <v>3</v>
+      </c>
+      <c r="D298" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E298" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="G298" s="39"/>
+      <c r="H298" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="J298" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A299" s="7">
+        <v>298</v>
+      </c>
+      <c r="B299" s="38">
+        <v>49</v>
+      </c>
+      <c r="C299" s="38">
+        <v>4</v>
+      </c>
+      <c r="D299" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E299" s="38"/>
+      <c r="F299" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G299" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H299" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="J299" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" s="32" customFormat="1">
+      <c r="A300" s="7">
+        <v>299</v>
+      </c>
+      <c r="B300" s="38">
+        <v>49</v>
+      </c>
+      <c r="C300" s="38">
+        <v>5</v>
+      </c>
+      <c r="D300" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E300" s="38"/>
+      <c r="F300" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G300" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H300" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" s="32" customFormat="1">
+      <c r="A301" s="7">
+        <v>300</v>
+      </c>
+      <c r="B301" s="38">
+        <v>49</v>
+      </c>
+      <c r="C301" s="38">
+        <v>6</v>
+      </c>
+      <c r="D301" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E301" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="F301" s="39"/>
+      <c r="G301" s="39"/>
+      <c r="H301" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J301" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" s="32" customFormat="1">
+      <c r="A302" s="7">
+        <v>301</v>
+      </c>
+      <c r="B302" s="38">
+        <v>49</v>
+      </c>
+      <c r="C302" s="38">
+        <v>7</v>
+      </c>
+      <c r="D302" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E302" s="38"/>
+      <c r="F302" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="G302" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="H302" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="J302" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A303" s="7">
+        <v>302</v>
+      </c>
+      <c r="B303" s="38">
+        <v>49</v>
+      </c>
+      <c r="C303" s="38">
+        <v>8</v>
+      </c>
+      <c r="D303" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="E303" s="38"/>
+      <c r="F303" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G303" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H303" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J303" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" s="32" customFormat="1">
+      <c r="A304" s="7">
+        <v>303</v>
+      </c>
+      <c r="B304" s="38">
+        <v>50</v>
+      </c>
+      <c r="C304" s="38">
+        <v>1</v>
+      </c>
+      <c r="D304" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E304" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="F304" s="39"/>
+      <c r="G304" s="39"/>
+      <c r="H304" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="J304" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" s="32" customFormat="1">
+      <c r="A305" s="7">
+        <v>304</v>
+      </c>
+      <c r="B305" s="38">
+        <v>50</v>
+      </c>
+      <c r="C305" s="38">
+        <v>2</v>
+      </c>
+      <c r="D305" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E305" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="F305" s="39"/>
+      <c r="G305" s="39"/>
+      <c r="H305" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J305" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" s="32" customFormat="1">
+      <c r="A306" s="7">
+        <v>305</v>
+      </c>
+      <c r="B306" s="38">
+        <v>50</v>
+      </c>
+      <c r="C306" s="38">
+        <v>3</v>
+      </c>
+      <c r="D306" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E306" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="G306" s="39"/>
+      <c r="H306" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="J306" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A307" s="7">
+        <v>306</v>
+      </c>
+      <c r="B307" s="38">
+        <v>50</v>
+      </c>
+      <c r="C307" s="38">
+        <v>4</v>
+      </c>
+      <c r="D307" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E307" s="38"/>
+      <c r="F307" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G307" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H307" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="J307" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" s="32" customFormat="1">
+      <c r="A308" s="7">
+        <v>307</v>
+      </c>
+      <c r="B308" s="38">
+        <v>50</v>
+      </c>
+      <c r="C308" s="38">
+        <v>5</v>
+      </c>
+      <c r="D308" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E308" s="38"/>
+      <c r="F308" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="G308" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H308" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" s="32" customFormat="1">
+      <c r="A309" s="7">
+        <v>308</v>
+      </c>
+      <c r="B309" s="38">
+        <v>50</v>
+      </c>
+      <c r="C309" s="38">
+        <v>6</v>
+      </c>
+      <c r="D309" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E309" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="F309" s="39"/>
+      <c r="G309" s="39"/>
+      <c r="H309" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J309" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" s="32" customFormat="1">
+      <c r="A310" s="7">
+        <v>309</v>
+      </c>
+      <c r="B310" s="38">
+        <v>50</v>
+      </c>
+      <c r="C310" s="38">
+        <v>7</v>
+      </c>
+      <c r="D310" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E310" s="38"/>
+      <c r="F310" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="G310" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="H310" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="J310" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A311" s="7">
+        <v>310</v>
+      </c>
+      <c r="B311" s="38">
+        <v>50</v>
+      </c>
+      <c r="C311" s="38">
+        <v>8</v>
+      </c>
+      <c r="D311" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E311" s="38"/>
+      <c r="F311" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="G311" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H311" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J311" s="32">
         <v>3</v>
       </c>
     </row>
@@ -12231,7 +12733,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -12245,7 +12747,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -12259,7 +12761,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -12273,7 +12775,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -12315,7 +12817,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -12329,7 +12831,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -12343,7 +12845,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -12357,7 +12859,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="417">
   <si>
     <t>id|</t>
   </si>
@@ -1647,10 +1647,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>礼盒换好礼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>礼盒换好礼--cjj</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1786,118 +1782,200 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>兑换奖励--cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>春暖花开</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的空调</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为荣耀手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>880000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>6,6</t>
+  </si>
+  <si>
+    <t>月末狂欢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的微波炉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>河灯兑奖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>河灯兑奖--cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>清明有礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在河灯兑奖活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>恭喜您在河灯兑奖活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>智能按摩椅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳胶枕一对</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_nuclear_bomb_1",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>兑换奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>兑换奖励--cjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-  </si>
-  <si>
-    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
-  </si>
-  <si>
-    <t>春暖花开</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的空调</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为荣耀手机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫地机器人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>880000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>180000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫龙亲嘴烧30片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_hammer_3",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_hammer_3",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4</t>
-  </si>
-  <si>
-    <t>5,5</t>
-  </si>
-  <si>
-    <t>6,6</t>
-  </si>
-  <si>
-    <t>月末狂欢</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔记本电脑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的微波炉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯巧克力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivo手机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivo手机</t>
+    <t>actp_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fish_coin",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>130000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1984,7 +2062,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2012,6 +2090,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,7 +2145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2150,19 +2240,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2188,6 +2266,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2466,10 +2580,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:D51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2822,7 +2937,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
@@ -2855,7 +2970,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
@@ -2888,7 +3003,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
@@ -2921,7 +3036,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
@@ -2954,7 +3069,7 @@
         <v>13</v>
       </c>
       <c r="K14" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
@@ -2987,7 +3102,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
@@ -3020,7 +3135,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
@@ -3053,7 +3168,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
@@ -3084,7 +3199,7 @@
         <v>17</v>
       </c>
       <c r="K18" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="16" customFormat="1">
@@ -3115,7 +3230,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="24" customFormat="1">
@@ -3144,7 +3259,7 @@
         <v>19</v>
       </c>
       <c r="K20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="16" customFormat="1">
@@ -3175,7 +3290,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="16" customFormat="1" ht="16.5">
@@ -3204,7 +3319,7 @@
         <v>21</v>
       </c>
       <c r="K22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
@@ -3235,7 +3350,7 @@
         <v>22</v>
       </c>
       <c r="K23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
@@ -3266,7 +3381,7 @@
         <v>23</v>
       </c>
       <c r="K24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
@@ -3295,7 +3410,7 @@
         <v>24</v>
       </c>
       <c r="K25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="16" customFormat="1">
@@ -3322,7 +3437,7 @@
         <v>25</v>
       </c>
       <c r="K26" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="16" customFormat="1">
@@ -3351,7 +3466,7 @@
         <v>26</v>
       </c>
       <c r="K27" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="16" customFormat="1">
@@ -3380,7 +3495,7 @@
         <v>27</v>
       </c>
       <c r="K28" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="16" customFormat="1">
@@ -3409,7 +3524,7 @@
         <v>28</v>
       </c>
       <c r="K29" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="16" customFormat="1">
@@ -3438,7 +3553,7 @@
         <v>29</v>
       </c>
       <c r="K30" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="24" customFormat="1">
@@ -3467,7 +3582,7 @@
         <v>30</v>
       </c>
       <c r="K31" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="16" customFormat="1">
@@ -3498,7 +3613,7 @@
         <v>31</v>
       </c>
       <c r="K32" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="24" customFormat="1">
@@ -3527,7 +3642,7 @@
         <v>32</v>
       </c>
       <c r="K33" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="16" customFormat="1">
@@ -3558,7 +3673,7 @@
         <v>33</v>
       </c>
       <c r="K34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="16" customFormat="1">
@@ -3589,7 +3704,7 @@
         <v>34</v>
       </c>
       <c r="K35" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="16" customFormat="1">
@@ -3620,7 +3735,7 @@
         <v>35</v>
       </c>
       <c r="K36" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="16" customFormat="1" ht="16.5">
@@ -3649,7 +3764,7 @@
         <v>36</v>
       </c>
       <c r="K37" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -3680,7 +3795,7 @@
         <v>37</v>
       </c>
       <c r="K38" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="17"/>
       <c r="P38" s="17"/>
@@ -3711,7 +3826,7 @@
         <v>38</v>
       </c>
       <c r="K39" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
@@ -3744,7 +3859,7 @@
         <v>39</v>
       </c>
       <c r="K40" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="16" customFormat="1">
@@ -3775,7 +3890,7 @@
         <v>40</v>
       </c>
       <c r="K41" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="16" customFormat="1">
@@ -3806,7 +3921,7 @@
         <v>41</v>
       </c>
       <c r="K42" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="16" customFormat="1">
@@ -3837,64 +3952,64 @@
         <v>42</v>
       </c>
       <c r="K43" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="16" customFormat="1">
-      <c r="A44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="48" customFormat="1">
+      <c r="A44" s="43">
         <v>43</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="43">
         <v>1615248000</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="43">
         <v>2552233600</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="15" t="s">
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="H44" s="23">
-        <v>1</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="14">
+      <c r="H44" s="46">
+        <v>1</v>
+      </c>
+      <c r="I44" s="43"/>
+      <c r="J44" s="47">
         <v>43</v>
       </c>
-      <c r="K44" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="16" customFormat="1">
-      <c r="A45" s="7">
+      <c r="K44" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="48" customFormat="1">
+      <c r="A45" s="43">
         <v>44</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="43">
         <v>1615248000</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="43">
         <v>2552233600</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="15" t="s">
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="H45" s="23">
-        <v>1</v>
-      </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="14">
+      <c r="H45" s="46">
+        <v>1</v>
+      </c>
+      <c r="I45" s="43"/>
+      <c r="J45" s="47">
         <v>44</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="48">
         <v>1</v>
       </c>
     </row>
@@ -3903,7 +4018,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
       <c r="C46" s="7">
         <v>1615248000</v>
@@ -3926,7 +4041,7 @@
         <v>45</v>
       </c>
       <c r="K46" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="16" customFormat="1">
@@ -3934,7 +4049,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C47" s="7">
         <v>1615248000</v>
@@ -3957,7 +4072,7 @@
         <v>46</v>
       </c>
       <c r="K47" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="16" customFormat="1">
@@ -3965,7 +4080,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="C48" s="7">
         <v>1615852800</v>
@@ -3988,7 +4103,7 @@
         <v>47</v>
       </c>
       <c r="K48" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="16" customFormat="1">
@@ -3996,7 +4111,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C49" s="7">
         <v>1615852800</v>
@@ -4019,68 +4134,126 @@
         <v>48</v>
       </c>
       <c r="K49" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="37" customFormat="1">
-      <c r="A50" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="16" customFormat="1">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="7">
         <v>1616457600</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="7">
         <v>1617033599</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="34" t="s">
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H50" s="35">
-        <v>1</v>
-      </c>
-      <c r="I50" s="32">
+      <c r="H50" s="23">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7">
         <v>35</v>
       </c>
-      <c r="J50" s="36">
+      <c r="J50" s="14">
         <v>49</v>
       </c>
-      <c r="K50" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="37" customFormat="1">
-      <c r="A51" s="32">
+      <c r="K50" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="16" customFormat="1">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="C51" s="32">
+      <c r="B51" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C51" s="7">
         <v>1616457600</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="7">
         <v>1617033599</v>
       </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="H51" s="35">
-        <v>1</v>
-      </c>
-      <c r="I51" s="32">
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H51" s="23">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7">
         <v>36</v>
       </c>
-      <c r="J51" s="36">
+      <c r="J51" s="14">
         <v>50</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1617062400</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1617638399</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="H52" s="26">
+        <v>1</v>
+      </c>
+      <c r="I52" s="7">
+        <v>37</v>
+      </c>
+      <c r="J52" s="26">
+        <v>51</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1617062400</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1617638399</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H53" s="26">
+        <v>1</v>
+      </c>
+      <c r="I53" s="7">
+        <v>38</v>
+      </c>
+      <c r="J53" s="26">
+        <v>52</v>
+      </c>
+      <c r="K53" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4095,7 +4268,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
@@ -4476,10 +4649,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="7" customFormat="1">
@@ -4487,10 +4660,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="7" customFormat="1">
@@ -4498,10 +4671,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="7" customFormat="1">
@@ -4509,10 +4682,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="32" customFormat="1">
@@ -4520,10 +4693,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>369</v>
+        <v>389</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="32" customFormat="1">
@@ -4531,10 +4704,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>370</v>
+        <v>389</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -4547,13 +4742,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M311"/>
+  <dimension ref="A1:M327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H315" sqref="H315"/>
+      <selection pane="bottomRight" activeCell="H322" sqref="H322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11059,279 +11254,279 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10" s="42" customFormat="1">
-      <c r="A252" s="42">
+    <row r="252" spans="1:10" s="38" customFormat="1">
+      <c r="A252" s="38">
         <v>251</v>
       </c>
-      <c r="B252" s="42">
+      <c r="B252" s="38">
         <v>43</v>
       </c>
-      <c r="C252" s="42">
-        <v>1</v>
-      </c>
-      <c r="D252" s="43" t="s">
+      <c r="C252" s="38">
+        <v>1</v>
+      </c>
+      <c r="D252" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="F252" s="43" t="s">
+      <c r="F252" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="G252" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H252" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" s="38" customFormat="1">
+      <c r="A253" s="38">
+        <v>252</v>
+      </c>
+      <c r="B253" s="38">
+        <v>43</v>
+      </c>
+      <c r="C253" s="38">
+        <v>2</v>
+      </c>
+      <c r="D253" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F253" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G253" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="H253" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" s="38" customFormat="1">
+      <c r="A254" s="38">
+        <v>253</v>
+      </c>
+      <c r="B254" s="38">
+        <v>43</v>
+      </c>
+      <c r="C254" s="38">
+        <v>3</v>
+      </c>
+      <c r="D254" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F254" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="G254" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H254" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" s="38" customFormat="1">
+      <c r="A255" s="38">
+        <v>254</v>
+      </c>
+      <c r="B255" s="38">
+        <v>43</v>
+      </c>
+      <c r="C255" s="38">
+        <v>4</v>
+      </c>
+      <c r="D255" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F255" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="G255" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H255" s="39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" s="38" customFormat="1">
+      <c r="A256" s="38">
+        <v>255</v>
+      </c>
+      <c r="B256" s="38">
+        <v>43</v>
+      </c>
+      <c r="C256" s="38">
+        <v>5</v>
+      </c>
+      <c r="D256" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F256" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="G252" s="43" t="s">
+      <c r="G256" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="H252" s="43" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" s="42" customFormat="1">
-      <c r="A253" s="42">
-        <v>252</v>
-      </c>
-      <c r="B253" s="42">
+      <c r="H256" s="39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" s="38" customFormat="1">
+      <c r="A257" s="38">
+        <v>256</v>
+      </c>
+      <c r="B257" s="38">
         <v>43</v>
       </c>
-      <c r="C253" s="42">
+      <c r="C257" s="38">
+        <v>6</v>
+      </c>
+      <c r="D257" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F257" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="G257" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="H257" s="39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" s="38" customFormat="1">
+      <c r="A258" s="38">
+        <v>257</v>
+      </c>
+      <c r="B258" s="38">
+        <v>44</v>
+      </c>
+      <c r="C258" s="38">
+        <v>1</v>
+      </c>
+      <c r="D258" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F258" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="G258" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H258" s="39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" s="38" customFormat="1">
+      <c r="A259" s="38">
+        <v>258</v>
+      </c>
+      <c r="B259" s="38">
+        <v>44</v>
+      </c>
+      <c r="C259" s="38">
         <v>2</v>
       </c>
-      <c r="D253" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="F253" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="G253" s="43" t="s">
+      <c r="D259" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F259" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G259" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="H253" s="43" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" s="42" customFormat="1">
-      <c r="A254" s="42">
-        <v>253</v>
-      </c>
-      <c r="B254" s="42">
-        <v>43</v>
-      </c>
-      <c r="C254" s="42">
+      <c r="H259" s="39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" s="38" customFormat="1">
+      <c r="A260" s="38">
+        <v>259</v>
+      </c>
+      <c r="B260" s="38">
+        <v>44</v>
+      </c>
+      <c r="C260" s="38">
         <v>3</v>
       </c>
-      <c r="D254" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="F254" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="G254" s="43" t="s">
+      <c r="D260" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F260" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="G260" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="H254" s="43" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" s="42" customFormat="1">
-      <c r="A255" s="42">
-        <v>254</v>
-      </c>
-      <c r="B255" s="42">
-        <v>43</v>
-      </c>
-      <c r="C255" s="42">
+      <c r="H260" s="39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" s="38" customFormat="1">
+      <c r="A261" s="38">
+        <v>260</v>
+      </c>
+      <c r="B261" s="38">
+        <v>44</v>
+      </c>
+      <c r="C261" s="38">
         <v>4</v>
       </c>
-      <c r="D255" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="F255" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="G255" s="43" t="s">
+      <c r="D261" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F261" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="G261" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="H255" s="43" t="s">
+      <c r="H261" s="39" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="256" spans="1:10" s="42" customFormat="1">
-      <c r="A256" s="42">
-        <v>255</v>
-      </c>
-      <c r="B256" s="42">
-        <v>43</v>
-      </c>
-      <c r="C256" s="42">
+    <row r="262" spans="1:10" s="38" customFormat="1">
+      <c r="A262" s="38">
+        <v>261</v>
+      </c>
+      <c r="B262" s="38">
+        <v>44</v>
+      </c>
+      <c r="C262" s="38">
         <v>5</v>
       </c>
-      <c r="D256" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="F256" s="43" t="s">
-        <v>356</v>
-      </c>
-      <c r="G256" s="43" t="s">
+      <c r="D262" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F262" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="G262" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="H256" s="43" t="s">
+      <c r="H262" s="39" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="257" spans="1:10" s="42" customFormat="1">
-      <c r="A257" s="42">
-        <v>256</v>
-      </c>
-      <c r="B257" s="42">
-        <v>43</v>
-      </c>
-      <c r="C257" s="42">
+    <row r="263" spans="1:10" s="38" customFormat="1">
+      <c r="A263" s="38">
+        <v>262</v>
+      </c>
+      <c r="B263" s="38">
+        <v>44</v>
+      </c>
+      <c r="C263" s="38">
         <v>6</v>
       </c>
-      <c r="D257" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="F257" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="G257" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="H257" s="43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" s="42" customFormat="1">
-      <c r="A258" s="42">
-        <v>257</v>
-      </c>
-      <c r="B258" s="42">
-        <v>44</v>
-      </c>
-      <c r="C258" s="42">
-        <v>1</v>
-      </c>
-      <c r="D258" s="43" t="s">
+      <c r="D263" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="F258" s="43" t="s">
-        <v>357</v>
-      </c>
-      <c r="G258" s="43" t="s">
+      <c r="F263" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G263" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="H258" s="43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" s="42" customFormat="1">
-      <c r="A259" s="42">
-        <v>258</v>
-      </c>
-      <c r="B259" s="42">
-        <v>44</v>
-      </c>
-      <c r="C259" s="42">
-        <v>2</v>
-      </c>
-      <c r="D259" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="F259" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="G259" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="H259" s="43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" s="42" customFormat="1">
-      <c r="A260" s="42">
-        <v>259</v>
-      </c>
-      <c r="B260" s="42">
-        <v>44</v>
-      </c>
-      <c r="C260" s="42">
-        <v>3</v>
-      </c>
-      <c r="D260" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="F260" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="G260" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="H260" s="43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" s="42" customFormat="1">
-      <c r="A261" s="42">
-        <v>260</v>
-      </c>
-      <c r="B261" s="42">
-        <v>44</v>
-      </c>
-      <c r="C261" s="42">
-        <v>4</v>
-      </c>
-      <c r="D261" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="F261" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="G261" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="H261" s="43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" s="42" customFormat="1">
-      <c r="A262" s="42">
-        <v>261</v>
-      </c>
-      <c r="B262" s="42">
-        <v>44</v>
-      </c>
-      <c r="C262" s="42">
-        <v>5</v>
-      </c>
-      <c r="D262" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="F262" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="G262" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="H262" s="43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" s="42" customFormat="1">
-      <c r="A263" s="42">
-        <v>262</v>
-      </c>
-      <c r="B263" s="42">
-        <v>44</v>
-      </c>
-      <c r="C263" s="42">
-        <v>6</v>
-      </c>
-      <c r="D263" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="F263" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="G263" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="H263" s="43" t="s">
+      <c r="H263" s="39" t="s">
         <v>332</v>
       </c>
     </row>
@@ -11346,15 +11541,15 @@
         <v>1</v>
       </c>
       <c r="D264" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E264" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F264" s="20"/>
       <c r="G264" s="20"/>
       <c r="H264" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J264" s="7">
         <v>1</v>
@@ -11374,12 +11569,12 @@
         <v>130</v>
       </c>
       <c r="E265" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F265" s="20"/>
       <c r="G265" s="20"/>
       <c r="H265" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J265" s="7">
         <v>1</v>
@@ -11399,11 +11594,11 @@
         <v>130</v>
       </c>
       <c r="E266" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G266" s="20"/>
       <c r="H266" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J266" s="7">
         <v>1</v>
@@ -11427,10 +11622,10 @@
         <v>181</v>
       </c>
       <c r="G267" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H267" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="268" spans="1:10" s="7" customFormat="1">
@@ -11451,7 +11646,7 @@
         <v>41</v>
       </c>
       <c r="G268" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H268" s="15" t="s">
         <v>68</v>
@@ -11478,10 +11673,10 @@
         <v>327</v>
       </c>
       <c r="G269" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H269" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J269" s="7">
         <v>1</v>
@@ -11501,7 +11696,7 @@
         <v>130</v>
       </c>
       <c r="E270" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G270" s="20"/>
       <c r="H270" s="15" t="s">
@@ -11532,7 +11727,7 @@
         <v>174</v>
       </c>
       <c r="H271" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J271" s="7">
         <v>1</v>
@@ -11549,15 +11744,15 @@
         <v>1</v>
       </c>
       <c r="D272" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E272" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F272" s="20"/>
       <c r="G272" s="20"/>
       <c r="H272" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J272" s="7">
         <v>1</v>
@@ -11577,12 +11772,12 @@
         <v>320</v>
       </c>
       <c r="E273" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F273" s="20"/>
       <c r="G273" s="20"/>
       <c r="H273" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J273" s="7">
         <v>1</v>
@@ -11602,11 +11797,11 @@
         <v>131</v>
       </c>
       <c r="E274" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G274" s="20"/>
       <c r="H274" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J274" s="7">
         <v>1</v>
@@ -11633,7 +11828,7 @@
         <v>213</v>
       </c>
       <c r="H275" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="276" spans="1:10" s="7" customFormat="1">
@@ -11654,7 +11849,7 @@
         <v>41</v>
       </c>
       <c r="G276" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H276" s="15" t="s">
         <v>68</v>
@@ -11678,13 +11873,13 @@
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G277" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H277" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J277" s="7">
         <v>1</v>
@@ -11704,7 +11899,7 @@
         <v>131</v>
       </c>
       <c r="E278" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G278" s="20"/>
       <c r="H278" s="15" t="s">
@@ -11729,13 +11924,13 @@
       </c>
       <c r="E279" s="19"/>
       <c r="F279" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G279" s="20" t="s">
         <v>213</v>
       </c>
       <c r="H279" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J279" s="7">
         <v>1</v>
@@ -11752,15 +11947,15 @@
         <v>1</v>
       </c>
       <c r="D280" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E280" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F280" s="20"/>
       <c r="G280" s="20"/>
       <c r="H280" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J280" s="7">
         <v>1</v>
@@ -11777,15 +11972,15 @@
         <v>2</v>
       </c>
       <c r="D281" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E281" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F281" s="20"/>
       <c r="G281" s="20"/>
       <c r="H281" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J281" s="7">
         <v>1</v>
@@ -11805,11 +12000,11 @@
         <v>130</v>
       </c>
       <c r="E282" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G282" s="20"/>
       <c r="H282" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J282" s="7">
         <v>1</v>
@@ -11830,13 +12025,13 @@
       </c>
       <c r="E283" s="19"/>
       <c r="F283" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G283" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H283" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J283" s="7">
         <v>1</v>
@@ -11880,7 +12075,7 @@
         <v>130</v>
       </c>
       <c r="E285" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F285" s="20"/>
       <c r="G285" s="20"/>
@@ -11906,13 +12101,13 @@
       </c>
       <c r="E286" s="19"/>
       <c r="F286" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G286" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H286" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J286" s="7">
         <v>2</v>
@@ -11933,13 +12128,13 @@
       </c>
       <c r="E287" s="19"/>
       <c r="F287" s="22" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
       <c r="G287" s="20" t="s">
         <v>174</v>
       </c>
       <c r="H287" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J287" s="7">
         <v>3</v>
@@ -11956,15 +12151,15 @@
         <v>1</v>
       </c>
       <c r="D288" s="19" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="E288" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F288" s="20"/>
       <c r="G288" s="20"/>
       <c r="H288" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J288" s="7">
         <v>1</v>
@@ -11981,15 +12176,15 @@
         <v>2</v>
       </c>
       <c r="D289" s="19" t="s">
-        <v>320</v>
+        <v>414</v>
       </c>
       <c r="E289" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F289" s="20"/>
       <c r="G289" s="20"/>
       <c r="H289" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J289" s="7">
         <v>1</v>
@@ -12009,11 +12204,11 @@
         <v>131</v>
       </c>
       <c r="E290" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G290" s="20"/>
       <c r="H290" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J290" s="7">
         <v>1</v>
@@ -12034,13 +12229,13 @@
       </c>
       <c r="E291" s="19"/>
       <c r="F291" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G291" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H291" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J291" s="7">
         <v>1</v>
@@ -12061,7 +12256,7 @@
       </c>
       <c r="E292" s="19"/>
       <c r="F292" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G292" s="20" t="s">
         <v>62</v>
@@ -12084,7 +12279,7 @@
         <v>131</v>
       </c>
       <c r="E293" s="19" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="F293" s="20"/>
       <c r="G293" s="20"/>
@@ -12110,13 +12305,13 @@
       </c>
       <c r="E294" s="19"/>
       <c r="F294" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G294" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H294" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J294" s="7">
         <v>2</v>
@@ -12137,13 +12332,13 @@
       </c>
       <c r="E295" s="19"/>
       <c r="F295" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G295" s="20" t="s">
         <v>213</v>
       </c>
       <c r="H295" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J295" s="7">
         <v>3</v>
@@ -12153,22 +12348,22 @@
       <c r="A296" s="7">
         <v>295</v>
       </c>
-      <c r="B296" s="38">
+      <c r="B296" s="34">
         <v>49</v>
       </c>
-      <c r="C296" s="38">
-        <v>1</v>
-      </c>
-      <c r="D296" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="E296" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="F296" s="39"/>
-      <c r="G296" s="39"/>
-      <c r="H296" s="39" t="s">
-        <v>375</v>
+      <c r="C296" s="34">
+        <v>1</v>
+      </c>
+      <c r="D296" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="E296" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="F296" s="35"/>
+      <c r="G296" s="35"/>
+      <c r="H296" s="35" t="s">
+        <v>373</v>
       </c>
       <c r="J296" s="32">
         <v>1</v>
@@ -12178,22 +12373,22 @@
       <c r="A297" s="7">
         <v>296</v>
       </c>
-      <c r="B297" s="38">
+      <c r="B297" s="34">
         <v>49</v>
       </c>
-      <c r="C297" s="38">
+      <c r="C297" s="34">
         <v>2</v>
       </c>
-      <c r="D297" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="E297" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="F297" s="39"/>
-      <c r="G297" s="39"/>
-      <c r="H297" s="39" t="s">
-        <v>376</v>
+      <c r="D297" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="E297" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="F297" s="35"/>
+      <c r="G297" s="35"/>
+      <c r="H297" s="35" t="s">
+        <v>374</v>
       </c>
       <c r="J297" s="32">
         <v>1</v>
@@ -12203,21 +12398,21 @@
       <c r="A298" s="7">
         <v>297</v>
       </c>
-      <c r="B298" s="38">
+      <c r="B298" s="34">
         <v>49</v>
       </c>
-      <c r="C298" s="38">
+      <c r="C298" s="34">
         <v>3</v>
       </c>
-      <c r="D298" s="38" t="s">
+      <c r="D298" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E298" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="G298" s="39"/>
-      <c r="H298" s="39" t="s">
-        <v>377</v>
+      <c r="E298" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="G298" s="35"/>
+      <c r="H298" s="35" t="s">
+        <v>375</v>
       </c>
       <c r="J298" s="32">
         <v>1</v>
@@ -12227,24 +12422,24 @@
       <c r="A299" s="7">
         <v>298</v>
       </c>
-      <c r="B299" s="38">
+      <c r="B299" s="34">
         <v>49</v>
       </c>
-      <c r="C299" s="38">
+      <c r="C299" s="34">
         <v>4</v>
       </c>
-      <c r="D299" s="38" t="s">
+      <c r="D299" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E299" s="38"/>
-      <c r="F299" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="G299" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="H299" s="39" t="s">
-        <v>379</v>
+      <c r="E299" s="34"/>
+      <c r="F299" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G299" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="H299" s="35" t="s">
+        <v>377</v>
       </c>
       <c r="J299" s="32">
         <v>1</v>
@@ -12254,23 +12449,23 @@
       <c r="A300" s="7">
         <v>299</v>
       </c>
-      <c r="B300" s="38">
+      <c r="B300" s="34">
         <v>49</v>
       </c>
-      <c r="C300" s="38">
+      <c r="C300" s="34">
         <v>5</v>
       </c>
-      <c r="D300" s="38" t="s">
+      <c r="D300" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E300" s="38"/>
-      <c r="F300" s="39" t="s">
+      <c r="E300" s="34"/>
+      <c r="F300" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="G300" s="39" t="s">
+      <c r="G300" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H300" s="34" t="s">
+      <c r="H300" s="33" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12278,21 +12473,21 @@
       <c r="A301" s="7">
         <v>300</v>
       </c>
-      <c r="B301" s="38">
+      <c r="B301" s="34">
         <v>49</v>
       </c>
-      <c r="C301" s="38">
+      <c r="C301" s="34">
         <v>6</v>
       </c>
-      <c r="D301" s="38" t="s">
+      <c r="D301" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E301" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="F301" s="39"/>
-      <c r="G301" s="39"/>
-      <c r="H301" s="34" t="s">
+      <c r="E301" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="F301" s="35"/>
+      <c r="G301" s="35"/>
+      <c r="H301" s="33" t="s">
         <v>93</v>
       </c>
       <c r="J301" s="32">
@@ -12303,24 +12498,24 @@
       <c r="A302" s="7">
         <v>301</v>
       </c>
-      <c r="B302" s="38">
+      <c r="B302" s="34">
         <v>49</v>
       </c>
-      <c r="C302" s="38">
+      <c r="C302" s="34">
         <v>7</v>
       </c>
-      <c r="D302" s="38" t="s">
+      <c r="D302" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E302" s="38"/>
-      <c r="F302" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="G302" s="39" t="s">
+      <c r="E302" s="34"/>
+      <c r="F302" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="G302" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="H302" s="34" t="s">
-        <v>350</v>
+      <c r="H302" s="33" t="s">
+        <v>349</v>
       </c>
       <c r="J302" s="32">
         <v>2</v>
@@ -12330,24 +12525,24 @@
       <c r="A303" s="7">
         <v>302</v>
       </c>
-      <c r="B303" s="38">
+      <c r="B303" s="34">
         <v>49</v>
       </c>
-      <c r="C303" s="38">
+      <c r="C303" s="34">
         <v>8</v>
       </c>
-      <c r="D303" s="38" t="s">
+      <c r="D303" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="E303" s="38"/>
-      <c r="F303" s="40" t="s">
+      <c r="E303" s="34"/>
+      <c r="F303" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G303" s="39" t="s">
+      <c r="G303" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="H303" s="39" t="s">
-        <v>352</v>
+      <c r="H303" s="35" t="s">
+        <v>351</v>
       </c>
       <c r="J303" s="32">
         <v>3</v>
@@ -12357,22 +12552,22 @@
       <c r="A304" s="7">
         <v>303</v>
       </c>
-      <c r="B304" s="38">
+      <c r="B304" s="34">
         <v>50</v>
       </c>
-      <c r="C304" s="38">
-        <v>1</v>
-      </c>
-      <c r="D304" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="E304" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="F304" s="39"/>
-      <c r="G304" s="39"/>
-      <c r="H304" s="39" t="s">
-        <v>375</v>
+      <c r="C304" s="34">
+        <v>1</v>
+      </c>
+      <c r="D304" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E304" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="F304" s="35"/>
+      <c r="G304" s="35"/>
+      <c r="H304" s="35" t="s">
+        <v>373</v>
       </c>
       <c r="J304" s="32">
         <v>1</v>
@@ -12382,22 +12577,22 @@
       <c r="A305" s="7">
         <v>304</v>
       </c>
-      <c r="B305" s="38">
+      <c r="B305" s="34">
         <v>50</v>
       </c>
-      <c r="C305" s="38">
+      <c r="C305" s="34">
         <v>2</v>
       </c>
-      <c r="D305" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="E305" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="F305" s="39"/>
-      <c r="G305" s="39"/>
-      <c r="H305" s="39" t="s">
-        <v>376</v>
+      <c r="D305" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E305" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="F305" s="35"/>
+      <c r="G305" s="35"/>
+      <c r="H305" s="35" t="s">
+        <v>374</v>
       </c>
       <c r="J305" s="32">
         <v>1</v>
@@ -12407,21 +12602,21 @@
       <c r="A306" s="7">
         <v>305</v>
       </c>
-      <c r="B306" s="38">
+      <c r="B306" s="34">
         <v>50</v>
       </c>
-      <c r="C306" s="38">
+      <c r="C306" s="34">
         <v>3</v>
       </c>
-      <c r="D306" s="38" t="s">
+      <c r="D306" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E306" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="G306" s="39"/>
-      <c r="H306" s="39" t="s">
-        <v>377</v>
+      <c r="E306" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="G306" s="35"/>
+      <c r="H306" s="35" t="s">
+        <v>375</v>
       </c>
       <c r="J306" s="32">
         <v>1</v>
@@ -12431,24 +12626,24 @@
       <c r="A307" s="7">
         <v>306</v>
       </c>
-      <c r="B307" s="38">
+      <c r="B307" s="34">
         <v>50</v>
       </c>
-      <c r="C307" s="38">
+      <c r="C307" s="34">
         <v>4</v>
       </c>
-      <c r="D307" s="38" t="s">
+      <c r="D307" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E307" s="38"/>
-      <c r="F307" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="G307" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="H307" s="39" t="s">
-        <v>379</v>
+      <c r="E307" s="34"/>
+      <c r="F307" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G307" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="H307" s="35" t="s">
+        <v>377</v>
       </c>
       <c r="J307" s="32">
         <v>1</v>
@@ -12458,23 +12653,23 @@
       <c r="A308" s="7">
         <v>307</v>
       </c>
-      <c r="B308" s="38">
+      <c r="B308" s="34">
         <v>50</v>
       </c>
-      <c r="C308" s="38">
+      <c r="C308" s="34">
         <v>5</v>
       </c>
-      <c r="D308" s="38" t="s">
+      <c r="D308" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E308" s="38"/>
-      <c r="F308" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="G308" s="39" t="s">
+      <c r="E308" s="34"/>
+      <c r="F308" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="G308" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H308" s="34" t="s">
+      <c r="H308" s="33" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12482,21 +12677,21 @@
       <c r="A309" s="7">
         <v>308</v>
       </c>
-      <c r="B309" s="38">
+      <c r="B309" s="34">
         <v>50</v>
       </c>
-      <c r="C309" s="38">
+      <c r="C309" s="34">
         <v>6</v>
       </c>
-      <c r="D309" s="38" t="s">
+      <c r="D309" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E309" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="F309" s="39"/>
-      <c r="G309" s="39"/>
-      <c r="H309" s="34" t="s">
+      <c r="E309" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="F309" s="35"/>
+      <c r="G309" s="35"/>
+      <c r="H309" s="33" t="s">
         <v>93</v>
       </c>
       <c r="J309" s="32">
@@ -12507,24 +12702,24 @@
       <c r="A310" s="7">
         <v>309</v>
       </c>
-      <c r="B310" s="38">
+      <c r="B310" s="34">
         <v>50</v>
       </c>
-      <c r="C310" s="38">
+      <c r="C310" s="34">
         <v>7</v>
       </c>
-      <c r="D310" s="38" t="s">
+      <c r="D310" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E310" s="38"/>
-      <c r="F310" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="G310" s="39" t="s">
+      <c r="E310" s="34"/>
+      <c r="F310" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="G310" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="H310" s="34" t="s">
-        <v>350</v>
+      <c r="H310" s="33" t="s">
+        <v>349</v>
       </c>
       <c r="J310" s="32">
         <v>2</v>
@@ -12534,26 +12729,428 @@
       <c r="A311" s="7">
         <v>310</v>
       </c>
-      <c r="B311" s="38">
+      <c r="B311" s="34">
         <v>50</v>
       </c>
-      <c r="C311" s="38">
+      <c r="C311" s="34">
         <v>8</v>
       </c>
-      <c r="D311" s="38" t="s">
+      <c r="D311" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E311" s="38"/>
-      <c r="F311" s="40" t="s">
+      <c r="E311" s="34"/>
+      <c r="F311" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="G311" s="39" t="s">
+      <c r="G311" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="H311" s="39" t="s">
+      <c r="H311" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="J311" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" s="49" customFormat="1">
+      <c r="A312" s="7">
+        <v>311</v>
+      </c>
+      <c r="B312" s="49">
+        <v>51</v>
+      </c>
+      <c r="C312" s="49">
+        <v>1</v>
+      </c>
+      <c r="D312" s="53" t="s">
         <v>352</v>
       </c>
-      <c r="J311" s="32">
+      <c r="E312" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="F312" s="50"/>
+      <c r="G312" s="50"/>
+      <c r="H312" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="J312" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" s="49" customFormat="1">
+      <c r="A313" s="7">
+        <v>312</v>
+      </c>
+      <c r="B313" s="49">
+        <v>51</v>
+      </c>
+      <c r="C313" s="49">
+        <v>2</v>
+      </c>
+      <c r="D313" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="E313" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="F313" s="50"/>
+      <c r="G313" s="50"/>
+      <c r="H313" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="J313" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" s="49" customFormat="1">
+      <c r="A314" s="7">
+        <v>313</v>
+      </c>
+      <c r="B314" s="49">
+        <v>51</v>
+      </c>
+      <c r="C314" s="49">
+        <v>3</v>
+      </c>
+      <c r="D314" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E314" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="F314" s="50"/>
+      <c r="G314" s="50"/>
+      <c r="H314" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="J314" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" s="49" customFormat="1" ht="16.5">
+      <c r="A315" s="7">
+        <v>314</v>
+      </c>
+      <c r="B315" s="49">
+        <v>51</v>
+      </c>
+      <c r="C315" s="49">
+        <v>4</v>
+      </c>
+      <c r="D315" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="F315" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="G315" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="H315" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="J315" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" s="49" customFormat="1">
+      <c r="A316" s="7">
+        <v>315</v>
+      </c>
+      <c r="B316" s="49">
+        <v>51</v>
+      </c>
+      <c r="C316" s="49">
+        <v>5</v>
+      </c>
+      <c r="D316" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="F316" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="G316" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H316" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" s="49" customFormat="1">
+      <c r="A317" s="7">
+        <v>316</v>
+      </c>
+      <c r="B317" s="49">
+        <v>51</v>
+      </c>
+      <c r="C317" s="49">
+        <v>6</v>
+      </c>
+      <c r="D317" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E317" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="F317" s="50"/>
+      <c r="G317" s="50"/>
+      <c r="H317" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J317" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" s="49" customFormat="1">
+      <c r="A318" s="7">
+        <v>317</v>
+      </c>
+      <c r="B318" s="49">
+        <v>51</v>
+      </c>
+      <c r="C318" s="49">
+        <v>7</v>
+      </c>
+      <c r="D318" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="F318" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="G318" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="H318" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J318" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" s="49" customFormat="1" ht="16.5">
+      <c r="A319" s="7">
+        <v>318</v>
+      </c>
+      <c r="B319" s="49">
+        <v>51</v>
+      </c>
+      <c r="C319" s="49">
+        <v>8</v>
+      </c>
+      <c r="D319" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="F319" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="G319" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="H319" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="J319" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" s="49" customFormat="1">
+      <c r="A320" s="7">
+        <v>319</v>
+      </c>
+      <c r="B320" s="49">
+        <v>52</v>
+      </c>
+      <c r="C320" s="49">
+        <v>1</v>
+      </c>
+      <c r="D320" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="E320" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="F320" s="50"/>
+      <c r="G320" s="50"/>
+      <c r="H320" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="J320" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" s="49" customFormat="1">
+      <c r="A321" s="7">
+        <v>320</v>
+      </c>
+      <c r="B321" s="49">
+        <v>52</v>
+      </c>
+      <c r="C321" s="49">
+        <v>2</v>
+      </c>
+      <c r="D321" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="E321" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="F321" s="50"/>
+      <c r="G321" s="50"/>
+      <c r="H321" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="J321" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" s="49" customFormat="1">
+      <c r="A322" s="7">
+        <v>321</v>
+      </c>
+      <c r="B322" s="49">
+        <v>52</v>
+      </c>
+      <c r="C322" s="49">
+        <v>3</v>
+      </c>
+      <c r="D322" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E322" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="F322" s="50"/>
+      <c r="G322" s="50"/>
+      <c r="H322" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="J322" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" s="49" customFormat="1" ht="16.5">
+      <c r="A323" s="7">
+        <v>322</v>
+      </c>
+      <c r="B323" s="49">
+        <v>52</v>
+      </c>
+      <c r="C323" s="49">
+        <v>4</v>
+      </c>
+      <c r="D323" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F323" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="G323" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="H323" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="J323" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" s="49" customFormat="1">
+      <c r="A324" s="7">
+        <v>323</v>
+      </c>
+      <c r="B324" s="49">
+        <v>52</v>
+      </c>
+      <c r="C324" s="49">
+        <v>5</v>
+      </c>
+      <c r="D324" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F324" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="G324" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H324" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" s="49" customFormat="1">
+      <c r="A325" s="7">
+        <v>324</v>
+      </c>
+      <c r="B325" s="49">
+        <v>52</v>
+      </c>
+      <c r="C325" s="49">
+        <v>6</v>
+      </c>
+      <c r="D325" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E325" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="F325" s="50"/>
+      <c r="G325" s="50"/>
+      <c r="H325" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J325" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" s="49" customFormat="1">
+      <c r="A326" s="7">
+        <v>325</v>
+      </c>
+      <c r="B326" s="49">
+        <v>52</v>
+      </c>
+      <c r="C326" s="49">
+        <v>7</v>
+      </c>
+      <c r="D326" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F326" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="G326" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="H326" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J326" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" s="49" customFormat="1" ht="16.5">
+      <c r="A327" s="7">
+        <v>326</v>
+      </c>
+      <c r="B327" s="49">
+        <v>52</v>
+      </c>
+      <c r="C327" s="49">
+        <v>8</v>
+      </c>
+      <c r="D327" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F327" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="G327" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="H327" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="J327" s="49">
         <v>3</v>
       </c>
     </row>
@@ -12684,17 +13281,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>362</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12705,7 +13302,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -12719,7 +13316,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -12733,7 +13330,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -12747,7 +13344,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -12761,7 +13358,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -12775,7 +13372,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -12789,7 +13386,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -12803,7 +13400,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -12817,7 +13414,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -12831,7 +13428,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -12845,7 +13442,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -12859,7 +13456,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="445">
   <si>
     <t>id|</t>
   </si>
@@ -1971,11 +1971,122 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>130000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐兑奖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐兑奖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐兑奖活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的微波炉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>"fish_coin",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>130000,</t>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手帕纸10包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>880000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor</t>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1983,7 +2094,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2061,8 +2172,16 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2096,12 +2215,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2145,7 +2258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2242,18 +2355,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2285,22 +2386,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2580,11 +2672,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48:I49"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3955,61 +4047,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="48" customFormat="1">
-      <c r="A44" s="43">
+    <row r="44" spans="1:16" s="44" customFormat="1">
+      <c r="A44" s="39">
         <v>43</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="39">
         <v>1615248000</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="39">
         <v>2552233600</v>
       </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="45" t="s">
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="H44" s="46">
-        <v>1</v>
-      </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="47">
+      <c r="H44" s="42">
+        <v>1</v>
+      </c>
+      <c r="I44" s="39"/>
+      <c r="J44" s="43">
         <v>43</v>
       </c>
-      <c r="K44" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="48" customFormat="1">
-      <c r="A45" s="43">
+      <c r="K44" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="44" customFormat="1">
+      <c r="A45" s="39">
         <v>44</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="39">
         <v>1615248000</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="39">
         <v>2552233600</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="45" t="s">
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="H45" s="46">
-        <v>1</v>
-      </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="47">
+      <c r="H45" s="42">
+        <v>1</v>
+      </c>
+      <c r="I45" s="39"/>
+      <c r="J45" s="43">
         <v>44</v>
       </c>
-      <c r="K45" s="48">
+      <c r="K45" s="44">
         <v>1</v>
       </c>
     </row>
@@ -4225,7 +4317,7 @@
         <v>51</v>
       </c>
       <c r="K52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -4254,6 +4346,35 @@
         <v>52</v>
       </c>
       <c r="K53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1618272000</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1618847999</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H54" s="26">
+        <v>1</v>
+      </c>
+      <c r="I54" s="7">
+        <v>39</v>
+      </c>
+      <c r="J54" s="26">
+        <v>53</v>
+      </c>
+      <c r="K54" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4268,10 +4389,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4732,6 +4853,17 @@
         <v>404</v>
       </c>
     </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4742,13 +4874,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M327"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B296" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H322" sqref="H322"/>
+      <selection pane="bottomRight" activeCell="I322" sqref="I322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11254,279 +11386,279 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10" s="38" customFormat="1">
-      <c r="A252" s="38">
+    <row r="252" spans="1:10" s="34" customFormat="1">
+      <c r="A252" s="34">
         <v>251</v>
       </c>
-      <c r="B252" s="38">
+      <c r="B252" s="34">
         <v>43</v>
       </c>
-      <c r="C252" s="38">
-        <v>1</v>
-      </c>
-      <c r="D252" s="39" t="s">
+      <c r="C252" s="34">
+        <v>1</v>
+      </c>
+      <c r="D252" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="F252" s="39" t="s">
+      <c r="F252" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="G252" s="39" t="s">
+      <c r="G252" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="H252" s="39" t="s">
+      <c r="H252" s="35" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="253" spans="1:10" s="38" customFormat="1">
-      <c r="A253" s="38">
+    <row r="253" spans="1:10" s="34" customFormat="1">
+      <c r="A253" s="34">
         <v>252</v>
       </c>
-      <c r="B253" s="38">
+      <c r="B253" s="34">
         <v>43</v>
       </c>
-      <c r="C253" s="38">
+      <c r="C253" s="34">
         <v>2</v>
       </c>
-      <c r="D253" s="39" t="s">
+      <c r="D253" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="F253" s="39" t="s">
+      <c r="F253" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="G253" s="39" t="s">
+      <c r="G253" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="H253" s="39" t="s">
+      <c r="H253" s="35" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="254" spans="1:10" s="38" customFormat="1">
-      <c r="A254" s="38">
+    <row r="254" spans="1:10" s="34" customFormat="1">
+      <c r="A254" s="34">
         <v>253</v>
       </c>
-      <c r="B254" s="38">
+      <c r="B254" s="34">
         <v>43</v>
       </c>
-      <c r="C254" s="38">
+      <c r="C254" s="34">
         <v>3</v>
       </c>
-      <c r="D254" s="39" t="s">
+      <c r="D254" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="F254" s="39" t="s">
+      <c r="F254" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="G254" s="39" t="s">
+      <c r="G254" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="H254" s="39" t="s">
+      <c r="H254" s="35" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="255" spans="1:10" s="38" customFormat="1">
-      <c r="A255" s="38">
+    <row r="255" spans="1:10" s="34" customFormat="1">
+      <c r="A255" s="34">
         <v>254</v>
       </c>
-      <c r="B255" s="38">
+      <c r="B255" s="34">
         <v>43</v>
       </c>
-      <c r="C255" s="38">
+      <c r="C255" s="34">
         <v>4</v>
       </c>
-      <c r="D255" s="39" t="s">
+      <c r="D255" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="F255" s="39" t="s">
+      <c r="F255" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="G255" s="39" t="s">
+      <c r="G255" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="H255" s="39" t="s">
+      <c r="H255" s="35" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="256" spans="1:10" s="38" customFormat="1">
-      <c r="A256" s="38">
+    <row r="256" spans="1:10" s="34" customFormat="1">
+      <c r="A256" s="34">
         <v>255</v>
       </c>
-      <c r="B256" s="38">
+      <c r="B256" s="34">
         <v>43</v>
       </c>
-      <c r="C256" s="38">
+      <c r="C256" s="34">
         <v>5</v>
       </c>
-      <c r="D256" s="39" t="s">
+      <c r="D256" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="F256" s="39" t="s">
+      <c r="F256" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="G256" s="39" t="s">
+      <c r="G256" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="H256" s="39" t="s">
+      <c r="H256" s="35" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="257" spans="1:10" s="38" customFormat="1">
-      <c r="A257" s="38">
+    <row r="257" spans="1:10" s="34" customFormat="1">
+      <c r="A257" s="34">
         <v>256</v>
       </c>
-      <c r="B257" s="38">
+      <c r="B257" s="34">
         <v>43</v>
       </c>
-      <c r="C257" s="38">
+      <c r="C257" s="34">
         <v>6</v>
       </c>
-      <c r="D257" s="39" t="s">
+      <c r="D257" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="F257" s="39" t="s">
+      <c r="F257" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="G257" s="39" t="s">
+      <c r="G257" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="H257" s="39" t="s">
+      <c r="H257" s="35" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="258" spans="1:10" s="38" customFormat="1">
-      <c r="A258" s="38">
+    <row r="258" spans="1:10" s="34" customFormat="1">
+      <c r="A258" s="34">
         <v>257</v>
       </c>
-      <c r="B258" s="38">
+      <c r="B258" s="34">
         <v>44</v>
       </c>
-      <c r="C258" s="38">
-        <v>1</v>
-      </c>
-      <c r="D258" s="39" t="s">
+      <c r="C258" s="34">
+        <v>1</v>
+      </c>
+      <c r="D258" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="F258" s="39" t="s">
+      <c r="F258" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="G258" s="39" t="s">
+      <c r="G258" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="H258" s="39" t="s">
+      <c r="H258" s="35" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="259" spans="1:10" s="38" customFormat="1">
-      <c r="A259" s="38">
+    <row r="259" spans="1:10" s="34" customFormat="1">
+      <c r="A259" s="34">
         <v>258</v>
       </c>
-      <c r="B259" s="38">
+      <c r="B259" s="34">
         <v>44</v>
       </c>
-      <c r="C259" s="38">
+      <c r="C259" s="34">
         <v>2</v>
       </c>
-      <c r="D259" s="39" t="s">
+      <c r="D259" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="F259" s="39" t="s">
+      <c r="F259" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="G259" s="39" t="s">
+      <c r="G259" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="H259" s="39" t="s">
+      <c r="H259" s="35" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="260" spans="1:10" s="38" customFormat="1">
-      <c r="A260" s="38">
+    <row r="260" spans="1:10" s="34" customFormat="1">
+      <c r="A260" s="34">
         <v>259</v>
       </c>
-      <c r="B260" s="38">
+      <c r="B260" s="34">
         <v>44</v>
       </c>
-      <c r="C260" s="38">
+      <c r="C260" s="34">
         <v>3</v>
       </c>
-      <c r="D260" s="39" t="s">
+      <c r="D260" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="F260" s="39" t="s">
+      <c r="F260" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="G260" s="39" t="s">
+      <c r="G260" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="H260" s="39" t="s">
+      <c r="H260" s="35" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="261" spans="1:10" s="38" customFormat="1">
-      <c r="A261" s="38">
+    <row r="261" spans="1:10" s="34" customFormat="1">
+      <c r="A261" s="34">
         <v>260</v>
       </c>
-      <c r="B261" s="38">
+      <c r="B261" s="34">
         <v>44</v>
       </c>
-      <c r="C261" s="38">
+      <c r="C261" s="34">
         <v>4</v>
       </c>
-      <c r="D261" s="39" t="s">
+      <c r="D261" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="F261" s="39" t="s">
+      <c r="F261" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="G261" s="39" t="s">
+      <c r="G261" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="H261" s="39" t="s">
+      <c r="H261" s="35" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="262" spans="1:10" s="38" customFormat="1">
-      <c r="A262" s="38">
+    <row r="262" spans="1:10" s="34" customFormat="1">
+      <c r="A262" s="34">
         <v>261</v>
       </c>
-      <c r="B262" s="38">
+      <c r="B262" s="34">
         <v>44</v>
       </c>
-      <c r="C262" s="38">
+      <c r="C262" s="34">
         <v>5</v>
       </c>
-      <c r="D262" s="39" t="s">
+      <c r="D262" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="F262" s="39" t="s">
+      <c r="F262" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="G262" s="39" t="s">
+      <c r="G262" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="H262" s="39" t="s">
+      <c r="H262" s="35" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="263" spans="1:10" s="38" customFormat="1">
-      <c r="A263" s="38">
+    <row r="263" spans="1:10" s="34" customFormat="1">
+      <c r="A263" s="34">
         <v>262</v>
       </c>
-      <c r="B263" s="38">
+      <c r="B263" s="34">
         <v>44</v>
       </c>
-      <c r="C263" s="38">
+      <c r="C263" s="34">
         <v>6</v>
       </c>
-      <c r="D263" s="39" t="s">
+      <c r="D263" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="F263" s="39" t="s">
+      <c r="F263" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="G263" s="39" t="s">
+      <c r="G263" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="H263" s="39" t="s">
+      <c r="H263" s="35" t="s">
         <v>332</v>
       </c>
     </row>
@@ -12344,814 +12476,1014 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:10" s="32" customFormat="1">
+    <row r="296" spans="1:10" s="7" customFormat="1">
       <c r="A296" s="7">
         <v>295</v>
       </c>
-      <c r="B296" s="34">
+      <c r="B296" s="19">
         <v>49</v>
       </c>
-      <c r="C296" s="34">
-        <v>1</v>
-      </c>
-      <c r="D296" s="37" t="s">
+      <c r="C296" s="19">
+        <v>1</v>
+      </c>
+      <c r="D296" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="E296" s="34" t="s">
+      <c r="E296" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="F296" s="35"/>
-      <c r="G296" s="35"/>
-      <c r="H296" s="35" t="s">
+      <c r="F296" s="20"/>
+      <c r="G296" s="20"/>
+      <c r="H296" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="J296" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" s="32" customFormat="1">
+      <c r="J296" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" s="7" customFormat="1">
       <c r="A297" s="7">
         <v>296</v>
       </c>
-      <c r="B297" s="34">
+      <c r="B297" s="19">
         <v>49</v>
       </c>
-      <c r="C297" s="34">
+      <c r="C297" s="19">
         <v>2</v>
       </c>
-      <c r="D297" s="37" t="s">
+      <c r="D297" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="E297" s="34" t="s">
+      <c r="E297" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="F297" s="35"/>
-      <c r="G297" s="35"/>
-      <c r="H297" s="35" t="s">
+      <c r="F297" s="20"/>
+      <c r="G297" s="20"/>
+      <c r="H297" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="J297" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" s="32" customFormat="1">
+      <c r="J297" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" s="7" customFormat="1">
       <c r="A298" s="7">
         <v>297</v>
       </c>
-      <c r="B298" s="34">
+      <c r="B298" s="19">
         <v>49</v>
       </c>
-      <c r="C298" s="34">
+      <c r="C298" s="19">
         <v>3</v>
       </c>
-      <c r="D298" s="34" t="s">
+      <c r="D298" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E298" s="34" t="s">
+      <c r="E298" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="G298" s="35"/>
-      <c r="H298" s="35" t="s">
+      <c r="G298" s="20"/>
+      <c r="H298" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="J298" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="J298" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A299" s="7">
         <v>298</v>
       </c>
-      <c r="B299" s="34">
+      <c r="B299" s="19">
         <v>49</v>
       </c>
-      <c r="C299" s="34">
+      <c r="C299" s="19">
         <v>4</v>
       </c>
-      <c r="D299" s="34" t="s">
+      <c r="D299" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E299" s="34"/>
-      <c r="F299" s="36" t="s">
+      <c r="E299" s="19"/>
+      <c r="F299" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="G299" s="35" t="s">
+      <c r="G299" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="H299" s="35" t="s">
+      <c r="H299" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="J299" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" s="32" customFormat="1">
+      <c r="J299" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" s="7" customFormat="1">
       <c r="A300" s="7">
         <v>299</v>
       </c>
-      <c r="B300" s="34">
+      <c r="B300" s="19">
         <v>49</v>
       </c>
-      <c r="C300" s="34">
+      <c r="C300" s="19">
         <v>5</v>
       </c>
-      <c r="D300" s="34" t="s">
+      <c r="D300" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E300" s="34"/>
-      <c r="F300" s="35" t="s">
+      <c r="E300" s="19"/>
+      <c r="F300" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="G300" s="35" t="s">
+      <c r="G300" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H300" s="33" t="s">
+      <c r="H300" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="301" spans="1:10" s="32" customFormat="1">
+    <row r="301" spans="1:10" s="7" customFormat="1">
       <c r="A301" s="7">
         <v>300</v>
       </c>
-      <c r="B301" s="34">
+      <c r="B301" s="19">
         <v>49</v>
       </c>
-      <c r="C301" s="34">
+      <c r="C301" s="19">
         <v>6</v>
       </c>
-      <c r="D301" s="34" t="s">
+      <c r="D301" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E301" s="34" t="s">
+      <c r="E301" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="F301" s="35"/>
-      <c r="G301" s="35"/>
-      <c r="H301" s="33" t="s">
+      <c r="F301" s="20"/>
+      <c r="G301" s="20"/>
+      <c r="H301" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J301" s="32">
+      <c r="J301" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:10" s="32" customFormat="1">
+    <row r="302" spans="1:10" s="7" customFormat="1">
       <c r="A302" s="7">
         <v>301</v>
       </c>
-      <c r="B302" s="34">
+      <c r="B302" s="19">
         <v>49</v>
       </c>
-      <c r="C302" s="34">
+      <c r="C302" s="19">
         <v>7</v>
       </c>
-      <c r="D302" s="34" t="s">
+      <c r="D302" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E302" s="34"/>
-      <c r="F302" s="33" t="s">
+      <c r="E302" s="19"/>
+      <c r="F302" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="G302" s="35" t="s">
+      <c r="G302" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="H302" s="33" t="s">
+      <c r="H302" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="J302" s="32">
+      <c r="J302" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:10" s="32" customFormat="1" ht="16.5">
+    <row r="303" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A303" s="7">
         <v>302</v>
       </c>
-      <c r="B303" s="34">
+      <c r="B303" s="19">
         <v>49</v>
       </c>
-      <c r="C303" s="34">
+      <c r="C303" s="19">
         <v>8</v>
       </c>
-      <c r="D303" s="34" t="s">
+      <c r="D303" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="E303" s="34"/>
-      <c r="F303" s="36" t="s">
+      <c r="E303" s="19"/>
+      <c r="F303" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="G303" s="35" t="s">
+      <c r="G303" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="H303" s="35" t="s">
+      <c r="H303" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="J303" s="32">
+      <c r="J303" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:10" s="32" customFormat="1">
+    <row r="304" spans="1:10" s="7" customFormat="1">
       <c r="A304" s="7">
         <v>303</v>
       </c>
-      <c r="B304" s="34">
+      <c r="B304" s="19">
         <v>50</v>
       </c>
-      <c r="C304" s="34">
-        <v>1</v>
-      </c>
-      <c r="D304" s="34" t="s">
+      <c r="C304" s="19">
+        <v>1</v>
+      </c>
+      <c r="D304" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="E304" s="34" t="s">
+      <c r="E304" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="F304" s="35"/>
-      <c r="G304" s="35"/>
-      <c r="H304" s="35" t="s">
+      <c r="F304" s="20"/>
+      <c r="G304" s="20"/>
+      <c r="H304" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="J304" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" s="32" customFormat="1">
+      <c r="J304" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" s="7" customFormat="1">
       <c r="A305" s="7">
         <v>304</v>
       </c>
-      <c r="B305" s="34">
+      <c r="B305" s="19">
         <v>50</v>
       </c>
-      <c r="C305" s="34">
+      <c r="C305" s="19">
         <v>2</v>
       </c>
-      <c r="D305" s="34" t="s">
+      <c r="D305" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="E305" s="34" t="s">
+      <c r="E305" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="F305" s="35"/>
-      <c r="G305" s="35"/>
-      <c r="H305" s="35" t="s">
+      <c r="F305" s="20"/>
+      <c r="G305" s="20"/>
+      <c r="H305" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="J305" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" s="32" customFormat="1">
+      <c r="J305" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" s="7" customFormat="1">
       <c r="A306" s="7">
         <v>305</v>
       </c>
-      <c r="B306" s="34">
+      <c r="B306" s="19">
         <v>50</v>
       </c>
-      <c r="C306" s="34">
+      <c r="C306" s="19">
         <v>3</v>
       </c>
-      <c r="D306" s="34" t="s">
+      <c r="D306" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E306" s="34" t="s">
+      <c r="E306" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="G306" s="35"/>
-      <c r="H306" s="35" t="s">
+      <c r="G306" s="20"/>
+      <c r="H306" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="J306" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="J306" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A307" s="7">
         <v>306</v>
       </c>
-      <c r="B307" s="34">
+      <c r="B307" s="19">
         <v>50</v>
       </c>
-      <c r="C307" s="34">
+      <c r="C307" s="19">
         <v>4</v>
       </c>
-      <c r="D307" s="34" t="s">
+      <c r="D307" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E307" s="34"/>
-      <c r="F307" s="36" t="s">
+      <c r="E307" s="19"/>
+      <c r="F307" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="G307" s="35" t="s">
+      <c r="G307" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="H307" s="35" t="s">
+      <c r="H307" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="J307" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" s="32" customFormat="1">
+      <c r="J307" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" s="7" customFormat="1">
       <c r="A308" s="7">
         <v>307</v>
       </c>
-      <c r="B308" s="34">
+      <c r="B308" s="19">
         <v>50</v>
       </c>
-      <c r="C308" s="34">
+      <c r="C308" s="19">
         <v>5</v>
       </c>
-      <c r="D308" s="34" t="s">
+      <c r="D308" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E308" s="34"/>
-      <c r="F308" s="35" t="s">
+      <c r="E308" s="19"/>
+      <c r="F308" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="G308" s="35" t="s">
+      <c r="G308" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H308" s="33" t="s">
+      <c r="H308" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="309" spans="1:10" s="32" customFormat="1">
+    <row r="309" spans="1:10" s="7" customFormat="1">
       <c r="A309" s="7">
         <v>308</v>
       </c>
-      <c r="B309" s="34">
+      <c r="B309" s="19">
         <v>50</v>
       </c>
-      <c r="C309" s="34">
+      <c r="C309" s="19">
         <v>6</v>
       </c>
-      <c r="D309" s="34" t="s">
+      <c r="D309" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E309" s="34" t="s">
+      <c r="E309" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="F309" s="35"/>
-      <c r="G309" s="35"/>
-      <c r="H309" s="33" t="s">
+      <c r="F309" s="20"/>
+      <c r="G309" s="20"/>
+      <c r="H309" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J309" s="32">
+      <c r="J309" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:10" s="32" customFormat="1">
+    <row r="310" spans="1:10" s="7" customFormat="1">
       <c r="A310" s="7">
         <v>309</v>
       </c>
-      <c r="B310" s="34">
+      <c r="B310" s="19">
         <v>50</v>
       </c>
-      <c r="C310" s="34">
+      <c r="C310" s="19">
         <v>7</v>
       </c>
-      <c r="D310" s="34" t="s">
+      <c r="D310" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E310" s="34"/>
-      <c r="F310" s="33" t="s">
+      <c r="E310" s="19"/>
+      <c r="F310" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="G310" s="35" t="s">
+      <c r="G310" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="H310" s="33" t="s">
+      <c r="H310" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="J310" s="32">
+      <c r="J310" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:10" s="32" customFormat="1" ht="16.5">
+    <row r="311" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A311" s="7">
         <v>310</v>
       </c>
-      <c r="B311" s="34">
+      <c r="B311" s="19">
         <v>50</v>
       </c>
-      <c r="C311" s="34">
+      <c r="C311" s="19">
         <v>8</v>
       </c>
-      <c r="D311" s="34" t="s">
+      <c r="D311" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E311" s="34"/>
-      <c r="F311" s="36" t="s">
+      <c r="E311" s="19"/>
+      <c r="F311" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G311" s="35" t="s">
+      <c r="G311" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="H311" s="35" t="s">
+      <c r="H311" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="J311" s="32">
+      <c r="J311" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:10" s="49" customFormat="1">
+    <row r="312" spans="1:10" s="7" customFormat="1">
       <c r="A312" s="7">
         <v>311</v>
       </c>
-      <c r="B312" s="49">
+      <c r="B312" s="7">
         <v>51</v>
       </c>
-      <c r="C312" s="49">
-        <v>1</v>
-      </c>
-      <c r="D312" s="53" t="s">
+      <c r="C312" s="7">
+        <v>1</v>
+      </c>
+      <c r="D312" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="E312" s="50" t="s">
+      <c r="E312" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="F312" s="50"/>
-      <c r="G312" s="50"/>
-      <c r="H312" s="51" t="s">
+      <c r="F312" s="15"/>
+      <c r="G312" s="15"/>
+      <c r="H312" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="J312" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" s="49" customFormat="1">
+      <c r="J312" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" s="7" customFormat="1">
       <c r="A313" s="7">
         <v>312</v>
       </c>
-      <c r="B313" s="49">
+      <c r="B313" s="7">
         <v>51</v>
       </c>
-      <c r="C313" s="49">
+      <c r="C313" s="7">
         <v>2</v>
       </c>
-      <c r="D313" s="53" t="s">
+      <c r="D313" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="E313" s="50" t="s">
+      <c r="E313" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="F313" s="50"/>
-      <c r="G313" s="50"/>
-      <c r="H313" s="51" t="s">
+      <c r="F313" s="15"/>
+      <c r="G313" s="15"/>
+      <c r="H313" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="J313" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" s="49" customFormat="1">
+      <c r="J313" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" s="7" customFormat="1">
       <c r="A314" s="7">
         <v>313</v>
       </c>
-      <c r="B314" s="49">
+      <c r="B314" s="7">
         <v>51</v>
       </c>
-      <c r="C314" s="49">
+      <c r="C314" s="7">
         <v>3</v>
       </c>
-      <c r="D314" s="54" t="s">
+      <c r="D314" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E314" s="50" t="s">
+      <c r="E314" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="F314" s="50"/>
-      <c r="G314" s="50"/>
-      <c r="H314" s="51" t="s">
+      <c r="F314" s="15"/>
+      <c r="G314" s="15"/>
+      <c r="H314" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="J314" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" s="49" customFormat="1" ht="16.5">
+      <c r="J314" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A315" s="7">
         <v>314</v>
       </c>
-      <c r="B315" s="49">
+      <c r="B315" s="7">
         <v>51</v>
       </c>
-      <c r="C315" s="49">
+      <c r="C315" s="7">
         <v>4</v>
       </c>
-      <c r="D315" s="54" t="s">
+      <c r="D315" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F315" s="52" t="s">
+      <c r="F315" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="G315" s="51" t="s">
+      <c r="G315" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="H315" s="51" t="s">
+      <c r="H315" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="J315" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" s="49" customFormat="1">
+      <c r="J315" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" s="7" customFormat="1">
       <c r="A316" s="7">
         <v>315</v>
       </c>
-      <c r="B316" s="49">
+      <c r="B316" s="7">
         <v>51</v>
       </c>
-      <c r="C316" s="49">
+      <c r="C316" s="7">
         <v>5</v>
       </c>
-      <c r="D316" s="54" t="s">
+      <c r="D316" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F316" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="G316" s="51" t="s">
+      <c r="F316" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="G316" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H316" s="50" t="s">
+      <c r="H316" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="317" spans="1:10" s="49" customFormat="1">
+    <row r="317" spans="1:10" s="7" customFormat="1">
       <c r="A317" s="7">
         <v>316</v>
       </c>
-      <c r="B317" s="49">
+      <c r="B317" s="7">
         <v>51</v>
       </c>
-      <c r="C317" s="49">
+      <c r="C317" s="7">
         <v>6</v>
       </c>
-      <c r="D317" s="54" t="s">
+      <c r="D317" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E317" s="50" t="s">
+      <c r="E317" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="F317" s="50"/>
-      <c r="G317" s="50"/>
-      <c r="H317" s="50" t="s">
+      <c r="F317" s="15"/>
+      <c r="G317" s="15"/>
+      <c r="H317" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J317" s="49">
+      <c r="J317" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:10" s="49" customFormat="1">
+    <row r="318" spans="1:10" s="7" customFormat="1">
       <c r="A318" s="7">
         <v>317</v>
       </c>
-      <c r="B318" s="49">
+      <c r="B318" s="7">
         <v>51</v>
       </c>
-      <c r="C318" s="49">
+      <c r="C318" s="7">
         <v>7</v>
       </c>
-      <c r="D318" s="54" t="s">
+      <c r="D318" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F318" s="50" t="s">
-        <v>379</v>
-      </c>
-      <c r="G318" s="51" t="s">
+      <c r="F318" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="G318" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="H318" s="50" t="s">
+      <c r="H318" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="J318" s="49">
+      <c r="J318" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:10" s="49" customFormat="1" ht="16.5">
+    <row r="319" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A319" s="7">
         <v>318</v>
       </c>
-      <c r="B319" s="49">
+      <c r="B319" s="7">
         <v>51</v>
       </c>
-      <c r="C319" s="49">
+      <c r="C319" s="7">
         <v>8</v>
       </c>
-      <c r="D319" s="54" t="s">
+      <c r="D319" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="F319" s="52" t="s">
+      <c r="F319" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="G319" s="51" t="s">
+      <c r="G319" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="H319" s="51" t="s">
+      <c r="H319" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="J319" s="49">
+      <c r="J319" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:10" s="49" customFormat="1">
+    <row r="320" spans="1:10" s="7" customFormat="1">
       <c r="A320" s="7">
         <v>319</v>
       </c>
-      <c r="B320" s="49">
+      <c r="B320" s="7">
         <v>52</v>
       </c>
-      <c r="C320" s="49">
-        <v>1</v>
-      </c>
-      <c r="D320" s="54" t="s">
+      <c r="C320" s="7">
+        <v>1</v>
+      </c>
+      <c r="D320" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="E320" s="50" t="s">
+      <c r="E320" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="F320" s="50"/>
-      <c r="G320" s="50"/>
-      <c r="H320" s="51" t="s">
+      <c r="F320" s="15"/>
+      <c r="G320" s="15"/>
+      <c r="H320" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="J320" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10" s="49" customFormat="1">
+      <c r="J320" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" s="7" customFormat="1">
       <c r="A321" s="7">
         <v>320</v>
       </c>
-      <c r="B321" s="49">
+      <c r="B321" s="7">
         <v>52</v>
       </c>
-      <c r="C321" s="49">
+      <c r="C321" s="7">
         <v>2</v>
       </c>
-      <c r="D321" s="54" t="s">
+      <c r="D321" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="E321" s="50" t="s">
+      <c r="E321" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="F321" s="50"/>
-      <c r="G321" s="50"/>
-      <c r="H321" s="51" t="s">
+      <c r="F321" s="15"/>
+      <c r="G321" s="15"/>
+      <c r="H321" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="J321" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" s="49" customFormat="1">
+      <c r="J321" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" s="7" customFormat="1">
       <c r="A322" s="7">
         <v>321</v>
       </c>
-      <c r="B322" s="49">
+      <c r="B322" s="7">
         <v>52</v>
       </c>
-      <c r="C322" s="49">
+      <c r="C322" s="7">
         <v>3</v>
       </c>
-      <c r="D322" s="54" t="s">
+      <c r="D322" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E322" s="50" t="s">
+      <c r="E322" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="F322" s="50"/>
-      <c r="G322" s="50"/>
-      <c r="H322" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="J322" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" s="49" customFormat="1" ht="16.5">
+      <c r="F322" s="15"/>
+      <c r="G322" s="15"/>
+      <c r="H322" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="J322" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A323" s="7">
         <v>322</v>
       </c>
-      <c r="B323" s="49">
+      <c r="B323" s="7">
         <v>52</v>
       </c>
-      <c r="C323" s="49">
+      <c r="C323" s="7">
         <v>4</v>
       </c>
-      <c r="D323" s="54" t="s">
+      <c r="D323" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F323" s="52" t="s">
-        <v>384</v>
-      </c>
-      <c r="G323" s="51" t="s">
+      <c r="F323" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="G323" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="H323" s="51" t="s">
+      <c r="H323" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="J323" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" s="49" customFormat="1">
+      <c r="J323" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" s="7" customFormat="1">
       <c r="A324" s="7">
         <v>323</v>
       </c>
-      <c r="B324" s="49">
+      <c r="B324" s="7">
         <v>52</v>
       </c>
-      <c r="C324" s="49">
+      <c r="C324" s="7">
         <v>5</v>
       </c>
-      <c r="D324" s="54" t="s">
+      <c r="D324" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F324" s="51" t="s">
+      <c r="F324" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="G324" s="51" t="s">
+      <c r="G324" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H324" s="50" t="s">
+      <c r="H324" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="325" spans="1:10" s="49" customFormat="1">
+    <row r="325" spans="1:10" s="7" customFormat="1">
       <c r="A325" s="7">
         <v>324</v>
       </c>
-      <c r="B325" s="49">
+      <c r="B325" s="7">
         <v>52</v>
       </c>
-      <c r="C325" s="49">
+      <c r="C325" s="7">
         <v>6</v>
       </c>
-      <c r="D325" s="54" t="s">
+      <c r="D325" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E325" s="50" t="s">
+      <c r="E325" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="F325" s="50"/>
-      <c r="G325" s="50"/>
-      <c r="H325" s="50" t="s">
+      <c r="F325" s="15"/>
+      <c r="G325" s="15"/>
+      <c r="H325" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J325" s="49">
+      <c r="J325" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:10" s="49" customFormat="1">
+    <row r="326" spans="1:10" s="7" customFormat="1">
       <c r="A326" s="7">
         <v>325</v>
       </c>
-      <c r="B326" s="49">
+      <c r="B326" s="7">
         <v>52</v>
       </c>
-      <c r="C326" s="49">
+      <c r="C326" s="7">
         <v>7</v>
       </c>
-      <c r="D326" s="54" t="s">
+      <c r="D326" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F326" s="50" t="s">
+      <c r="F326" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="G326" s="51" t="s">
+      <c r="G326" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="H326" s="50" t="s">
+      <c r="H326" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="J326" s="49">
+      <c r="J326" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:10" s="49" customFormat="1" ht="16.5">
+    <row r="327" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A327" s="7">
         <v>326</v>
       </c>
-      <c r="B327" s="49">
+      <c r="B327" s="7">
         <v>52</v>
       </c>
-      <c r="C327" s="49">
+      <c r="C327" s="7">
         <v>8</v>
       </c>
-      <c r="D327" s="54" t="s">
+      <c r="D327" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F327" s="52" t="s">
+      <c r="F327" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="G327" s="51" t="s">
+      <c r="G327" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="H327" s="51" t="s">
+      <c r="H327" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="J327" s="49">
+      <c r="J327" s="7">
         <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" s="39" customFormat="1">
+      <c r="A328" s="39">
+        <v>327</v>
+      </c>
+      <c r="B328" s="39">
+        <v>53</v>
+      </c>
+      <c r="C328" s="39">
+        <v>1</v>
+      </c>
+      <c r="D328" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="E328" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="F328" s="41"/>
+      <c r="G328" s="41"/>
+      <c r="H328" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="J328" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" s="39" customFormat="1">
+      <c r="A329" s="39">
+        <v>328</v>
+      </c>
+      <c r="B329" s="39">
+        <v>53</v>
+      </c>
+      <c r="C329" s="39">
+        <v>2</v>
+      </c>
+      <c r="D329" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="E329" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="F329" s="41"/>
+      <c r="G329" s="41"/>
+      <c r="H329" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="J329" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" s="39" customFormat="1">
+      <c r="A330" s="39">
+        <v>329</v>
+      </c>
+      <c r="B330" s="39">
+        <v>53</v>
+      </c>
+      <c r="C330" s="39">
+        <v>3</v>
+      </c>
+      <c r="D330" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="E330" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="F330" s="41"/>
+      <c r="G330" s="41"/>
+      <c r="H330" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="J330" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" s="39" customFormat="1">
+      <c r="A331" s="39">
+        <v>330</v>
+      </c>
+      <c r="B331" s="39">
+        <v>53</v>
+      </c>
+      <c r="C331" s="39">
+        <v>4</v>
+      </c>
+      <c r="D331" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="F331" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="G331" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="H331" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="J331" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" s="39" customFormat="1">
+      <c r="A332" s="39">
+        <v>331</v>
+      </c>
+      <c r="B332" s="39">
+        <v>53</v>
+      </c>
+      <c r="C332" s="39">
+        <v>5</v>
+      </c>
+      <c r="D332" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="F332" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="G332" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="H332" s="45" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" s="39" customFormat="1">
+      <c r="A333" s="39">
+        <v>332</v>
+      </c>
+      <c r="B333" s="39">
+        <v>53</v>
+      </c>
+      <c r="C333" s="39">
+        <v>6</v>
+      </c>
+      <c r="D333" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="F333" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="G333" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="H333" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="J333" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" s="39" customFormat="1">
+      <c r="A334" s="39">
+        <v>333</v>
+      </c>
+      <c r="B334" s="39">
+        <v>53</v>
+      </c>
+      <c r="C334" s="39">
+        <v>7</v>
+      </c>
+      <c r="D334" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="E334" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="F334" s="41"/>
+      <c r="G334" s="41"/>
+      <c r="H334" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="J334" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" s="39" customFormat="1">
+      <c r="A335" s="39">
+        <v>334</v>
+      </c>
+      <c r="B335" s="39">
+        <v>53</v>
+      </c>
+      <c r="C335" s="39">
+        <v>8</v>
+      </c>
+      <c r="D335" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="E335" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="F335" s="41"/>
+      <c r="G335" s="41"/>
+      <c r="H335" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="J335" s="39">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -13281,16 +13613,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="38" t="s">
         <v>362</v>
       </c>
     </row>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="477">
   <si>
     <t>id|</t>
   </si>
@@ -2087,6 +2087,287 @@
   </si>
   <si>
     <t>actp_prop_exchange_nor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在劳动奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用沙发椅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>索尼耳机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼油</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"obj_5_coupon",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>家用棉签50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2181,7 +2462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2215,6 +2496,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2386,13 +2673,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2672,11 +2971,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4375,6 +4674,35 @@
         <v>53</v>
       </c>
       <c r="K54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="50" customFormat="1">
+      <c r="A55" s="50">
+        <v>54</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="C55" s="50">
+        <v>1619481600</v>
+      </c>
+      <c r="D55" s="50">
+        <v>1620662399</v>
+      </c>
+      <c r="G55" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="51">
+        <v>1</v>
+      </c>
+      <c r="I55" s="48">
+        <v>40</v>
+      </c>
+      <c r="J55" s="51">
+        <v>54</v>
+      </c>
+      <c r="K55" s="50">
         <v>1</v>
       </c>
     </row>
@@ -4389,10 +4717,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4864,6 +5192,17 @@
         <v>418</v>
       </c>
     </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="48">
+        <v>40</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4874,13 +5213,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M335"/>
+  <dimension ref="A1:M345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B321" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I322" sqref="I322"/>
+      <selection pane="bottomRight" activeCell="F350" sqref="F350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13200,7 +13539,7 @@
         <v>131</v>
       </c>
       <c r="F324" s="20" t="s">
-        <v>381</v>
+        <v>452</v>
       </c>
       <c r="G324" s="20" t="s">
         <v>62</v>
@@ -13286,204 +13625,450 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:10" s="39" customFormat="1">
-      <c r="A328" s="39">
+    <row r="328" spans="1:10" s="7" customFormat="1">
+      <c r="A328" s="7">
         <v>327</v>
       </c>
-      <c r="B328" s="39">
+      <c r="B328" s="7">
         <v>53</v>
       </c>
-      <c r="C328" s="39">
-        <v>1</v>
-      </c>
-      <c r="D328" s="41" t="s">
+      <c r="C328" s="7">
+        <v>1</v>
+      </c>
+      <c r="D328" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="E328" s="39" t="s">
+      <c r="E328" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F328" s="41"/>
-      <c r="G328" s="41"/>
+      <c r="F328" s="15"/>
+      <c r="G328" s="15"/>
       <c r="H328" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="J328" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" s="39" customFormat="1">
-      <c r="A329" s="39">
+      <c r="J328" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" s="7" customFormat="1">
+      <c r="A329" s="7">
         <v>328</v>
       </c>
-      <c r="B329" s="39">
+      <c r="B329" s="7">
         <v>53</v>
       </c>
-      <c r="C329" s="39">
+      <c r="C329" s="7">
         <v>2</v>
       </c>
-      <c r="D329" s="41" t="s">
+      <c r="D329" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="E329" s="39" t="s">
+      <c r="E329" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F329" s="41"/>
-      <c r="G329" s="41"/>
+      <c r="F329" s="15"/>
+      <c r="G329" s="15"/>
       <c r="H329" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="J329" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" s="39" customFormat="1">
-      <c r="A330" s="39">
+      <c r="J329" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" s="7" customFormat="1">
+      <c r="A330" s="7">
         <v>329</v>
       </c>
-      <c r="B330" s="39">
+      <c r="B330" s="7">
         <v>53</v>
       </c>
-      <c r="C330" s="39">
+      <c r="C330" s="7">
         <v>3</v>
       </c>
-      <c r="D330" s="41" t="s">
+      <c r="D330" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="E330" s="39" t="s">
+      <c r="E330" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F330" s="41"/>
-      <c r="G330" s="41"/>
+      <c r="F330" s="15"/>
+      <c r="G330" s="15"/>
       <c r="H330" s="45" t="s">
         <v>434</v>
       </c>
-      <c r="J330" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10" s="39" customFormat="1">
-      <c r="A331" s="39">
+      <c r="J330" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" s="7" customFormat="1">
+      <c r="A331" s="7">
         <v>330</v>
       </c>
-      <c r="B331" s="39">
+      <c r="B331" s="7">
         <v>53</v>
       </c>
-      <c r="C331" s="39">
+      <c r="C331" s="7">
         <v>4</v>
       </c>
-      <c r="D331" s="41" t="s">
+      <c r="D331" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="F331" s="41" t="s">
+      <c r="F331" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="G331" s="41" t="s">
+      <c r="G331" s="15" t="s">
         <v>429</v>
       </c>
       <c r="H331" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="J331" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" s="39" customFormat="1">
-      <c r="A332" s="39">
+      <c r="J331" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" s="7" customFormat="1">
+      <c r="A332" s="7">
         <v>331</v>
       </c>
-      <c r="B332" s="39">
+      <c r="B332" s="7">
         <v>53</v>
       </c>
-      <c r="C332" s="39">
+      <c r="C332" s="7">
         <v>5</v>
       </c>
-      <c r="D332" s="41" t="s">
+      <c r="D332" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="F332" s="41" t="s">
+      <c r="F332" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="G332" s="41" t="s">
+      <c r="G332" s="15" t="s">
         <v>430</v>
       </c>
       <c r="H332" s="45" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="333" spans="1:10" s="39" customFormat="1">
-      <c r="A333" s="39">
+    <row r="333" spans="1:10" s="7" customFormat="1">
+      <c r="A333" s="7">
         <v>332</v>
       </c>
-      <c r="B333" s="39">
+      <c r="B333" s="7">
         <v>53</v>
       </c>
-      <c r="C333" s="39">
+      <c r="C333" s="7">
         <v>6</v>
       </c>
-      <c r="D333" s="39" t="s">
+      <c r="D333" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="F333" s="41" t="s">
+      <c r="F333" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="G333" s="41" t="s">
+      <c r="G333" s="15" t="s">
         <v>431</v>
       </c>
       <c r="H333" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="J333" s="39">
+      <c r="J333" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:10" s="39" customFormat="1">
-      <c r="A334" s="39">
+    <row r="334" spans="1:10" s="7" customFormat="1">
+      <c r="A334" s="7">
         <v>333</v>
       </c>
-      <c r="B334" s="39">
+      <c r="B334" s="7">
         <v>53</v>
       </c>
-      <c r="C334" s="39">
+      <c r="C334" s="7">
         <v>7</v>
       </c>
-      <c r="D334" s="41" t="s">
+      <c r="D334" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="E334" s="39" t="s">
+      <c r="E334" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F334" s="41"/>
-      <c r="G334" s="41"/>
+      <c r="F334" s="15"/>
+      <c r="G334" s="15"/>
       <c r="H334" s="45" t="s">
         <v>438</v>
       </c>
-      <c r="J334" s="39">
+      <c r="J334" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:10" s="39" customFormat="1">
-      <c r="A335" s="39">
+    <row r="335" spans="1:10" s="7" customFormat="1">
+      <c r="A335" s="7">
         <v>334</v>
       </c>
-      <c r="B335" s="39">
+      <c r="B335" s="7">
         <v>53</v>
       </c>
-      <c r="C335" s="39">
+      <c r="C335" s="7">
         <v>8</v>
       </c>
-      <c r="D335" s="41" t="s">
+      <c r="D335" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="E335" s="39" t="s">
+      <c r="E335" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F335" s="41"/>
-      <c r="G335" s="41"/>
+      <c r="F335" s="15"/>
+      <c r="G335" s="15"/>
       <c r="H335" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="J335" s="39">
+      <c r="J335" s="7">
         <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" s="48" customFormat="1">
+      <c r="A336" s="48">
+        <v>335</v>
+      </c>
+      <c r="B336" s="48">
+        <v>54</v>
+      </c>
+      <c r="C336" s="48">
+        <v>1</v>
+      </c>
+      <c r="D336" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="E336" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="F336" s="49"/>
+      <c r="G336" s="49"/>
+      <c r="H336" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="J336" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" s="48" customFormat="1">
+      <c r="A337" s="48">
+        <v>336</v>
+      </c>
+      <c r="B337" s="48">
+        <v>54</v>
+      </c>
+      <c r="C337" s="48">
+        <v>2</v>
+      </c>
+      <c r="D337" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="F337" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="G337" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="H337" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" s="48" customFormat="1">
+      <c r="A338" s="48">
+        <v>337</v>
+      </c>
+      <c r="B338" s="48">
+        <v>54</v>
+      </c>
+      <c r="C338" s="48">
+        <v>3</v>
+      </c>
+      <c r="D338" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="E338" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="F338" s="49"/>
+      <c r="G338" s="49"/>
+      <c r="H338" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="J338" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" s="48" customFormat="1">
+      <c r="A339" s="48">
+        <v>338</v>
+      </c>
+      <c r="B339" s="48">
+        <v>54</v>
+      </c>
+      <c r="C339" s="48">
+        <v>4</v>
+      </c>
+      <c r="D339" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="E339" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="F339" s="49"/>
+      <c r="G339" s="49"/>
+      <c r="H339" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="J339" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" s="48" customFormat="1">
+      <c r="A340" s="48">
+        <v>339</v>
+      </c>
+      <c r="B340" s="48">
+        <v>54</v>
+      </c>
+      <c r="C340" s="48">
+        <v>5</v>
+      </c>
+      <c r="D340" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="F340" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="G340" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="H340" s="49" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" s="48" customFormat="1">
+      <c r="A341" s="48">
+        <v>340</v>
+      </c>
+      <c r="B341" s="48">
+        <v>54</v>
+      </c>
+      <c r="C341" s="48">
+        <v>6</v>
+      </c>
+      <c r="D341" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="F341" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="G341" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="H341" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="J341" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" s="48" customFormat="1">
+      <c r="A342" s="48">
+        <v>341</v>
+      </c>
+      <c r="B342" s="48">
+        <v>54</v>
+      </c>
+      <c r="C342" s="48">
+        <v>7</v>
+      </c>
+      <c r="D342" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="F342" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="G342" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="H342" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="J342" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" s="48" customFormat="1">
+      <c r="A343" s="48">
+        <v>342</v>
+      </c>
+      <c r="B343" s="48">
+        <v>54</v>
+      </c>
+      <c r="C343" s="48">
+        <v>8</v>
+      </c>
+      <c r="D343" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="E343" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="F343" s="49"/>
+      <c r="G343" s="49"/>
+      <c r="H343" s="49" t="s">
+        <v>473</v>
+      </c>
+      <c r="J343" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" s="48" customFormat="1">
+      <c r="A344" s="48">
+        <v>343</v>
+      </c>
+      <c r="B344" s="48">
+        <v>54</v>
+      </c>
+      <c r="C344" s="48">
+        <v>9</v>
+      </c>
+      <c r="D344" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="F344" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="G344" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="H344" s="49" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" s="48" customFormat="1">
+      <c r="A345" s="48">
+        <v>344</v>
+      </c>
+      <c r="B345" s="48">
+        <v>54</v>
+      </c>
+      <c r="C345" s="48">
+        <v>10</v>
+      </c>
+      <c r="D345" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="E345" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="F345" s="49"/>
+      <c r="G345" s="49"/>
+      <c r="H345" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="J345" s="48">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="353">
   <si>
     <t>id|</t>
   </si>
@@ -361,6 +361,9 @@
     <t>劳动奖励</t>
   </si>
   <si>
+    <t>六一好礼</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -527,6 +530,9 @@
   </si>
   <si>
     <t>恭喜您在劳动奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>恭喜您在六一好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
   </si>
   <si>
     <t>no|行号</t>
@@ -1514,6 +1520,33 @@
     <t>200,</t>
   </si>
   <si>
+    <t>美的智能风扇</t>
+  </si>
+  <si>
+    <t>120000,</t>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v2</t>
+  </si>
+  <si>
+    <t>大鲸鱼抱枕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40000, </t>
+  </si>
+  <si>
+    <t>旺仔牛奶*20</t>
+  </si>
+  <si>
+    <t>自动吹泡泡机</t>
+  </si>
+  <si>
+    <t>旺仔QQ糖*10</t>
+  </si>
+  <si>
+    <t>1800,</t>
+  </si>
+  <si>
     <t>act_id|兑换id</t>
   </si>
   <si>
@@ -1574,10 +1607,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1637,9 +1670,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1653,14 +1693,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1673,47 +1720,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1727,16 +1735,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1752,7 +1761,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1761,21 +1809,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1838,13 +1871,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,43 +1919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,19 +1943,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,7 +1967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1946,7 +1979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,19 +1991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,13 +2015,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2052,19 +2085,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2081,8 +2103,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2098,6 +2120,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2137,10 +2170,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2149,133 +2182,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -2746,12 +2779,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4501,13 +4534,42 @@
       <c r="H56" s="9">
         <v>1</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="9">
         <v>41</v>
       </c>
       <c r="J56" s="9">
         <v>55</v>
       </c>
       <c r="K56" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="35">
+        <v>56</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="35">
+        <v>1622505600</v>
+      </c>
+      <c r="D57" s="35">
+        <v>1623081599</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1</v>
+      </c>
+      <c r="I57" s="9">
+        <v>42</v>
+      </c>
+      <c r="J57" s="9">
+        <v>56</v>
+      </c>
+      <c r="K57" s="35">
         <v>1</v>
       </c>
     </row>
@@ -4522,10 +4584,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4539,13 +4601,13 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>11</v>
@@ -4556,13 +4618,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4570,13 +4632,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4584,13 +4646,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4598,10 +4660,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4612,7 +4674,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4623,7 +4685,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4631,10 +4693,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4642,10 +4704,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:3">
@@ -4653,10 +4715,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:3">
@@ -4664,10 +4726,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:3">
@@ -4678,7 +4740,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:3">
@@ -4689,7 +4751,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:7">
@@ -4700,7 +4762,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -4715,7 +4777,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:7">
@@ -4726,7 +4788,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -4741,7 +4803,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:3">
@@ -4752,7 +4814,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:3">
@@ -4763,7 +4825,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:3">
@@ -4774,7 +4836,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:3">
@@ -4785,7 +4847,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:3">
@@ -4796,7 +4858,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:3">
@@ -4807,7 +4869,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:3">
@@ -4815,10 +4877,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:3">
@@ -4826,10 +4888,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:3">
@@ -4837,10 +4899,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="1" spans="1:3">
@@ -4848,10 +4910,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:3">
@@ -4859,10 +4921,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:3">
@@ -4870,10 +4932,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:3">
@@ -4881,10 +4943,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="1" spans="1:3">
@@ -4892,10 +4954,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:3">
@@ -4903,10 +4965,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:3">
@@ -4914,10 +4976,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:3">
@@ -4925,10 +4987,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:3">
@@ -4936,10 +4998,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" s="28" customFormat="1" spans="1:3">
@@ -4947,10 +5009,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" s="28" customFormat="1" spans="1:3">
@@ -4958,10 +5020,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>129</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4969,10 +5031,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4980,10 +5042,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4994,7 +5056,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5005,7 +5067,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5016,7 +5078,18 @@
         <v>77</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5029,14 +5102,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M355"/>
+  <dimension ref="A1:M365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B327" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B339" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D358" sqref="D358"/>
+      <selection pane="bottomRight" activeCell="F359" sqref="F359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5056,40 +5129,40 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:13">
       <c r="A1" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>11</v>
@@ -5106,19 +5179,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5132,19 +5205,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5158,13 +5231,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -5181,13 +5254,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5201,13 +5274,13 @@
         <v>5</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
@@ -5224,13 +5297,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -5247,13 +5320,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -5270,16 +5343,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -5296,13 +5369,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -5319,13 +5392,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -5342,14 +5415,14 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -5366,15 +5439,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -5391,15 +5464,15 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -5417,13 +5490,13 @@
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J15" s="1">
         <v>3</v>
@@ -5441,13 +5514,13 @@
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
@@ -5465,13 +5538,13 @@
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -5488,15 +5561,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -5513,15 +5586,15 @@
         <v>2</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -5538,15 +5611,15 @@
         <v>3</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -5565,13 +5638,13 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5587,13 +5660,13 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
@@ -5612,13 +5685,13 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -5637,13 +5710,13 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -5660,17 +5733,17 @@
         <v>8</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -5687,15 +5760,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J26" s="5">
         <v>1</v>
@@ -5712,15 +5785,15 @@
         <v>2</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J27" s="5">
         <v>1</v>
@@ -5737,15 +5810,15 @@
         <v>3</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J28" s="5">
         <v>1</v>
@@ -5762,17 +5835,17 @@
         <v>4</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:10">
@@ -5786,17 +5859,17 @@
         <v>5</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J30" s="5">
         <v>3</v>
@@ -5813,17 +5886,17 @@
         <v>6</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J31" s="5">
         <v>2</v>
@@ -5840,17 +5913,17 @@
         <v>7</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J32" s="5">
         <v>1</v>
@@ -5867,17 +5940,17 @@
         <v>8</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J33" s="5">
         <v>1</v>
@@ -5894,15 +5967,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J34" s="5">
         <v>1</v>
@@ -5919,15 +5992,15 @@
         <v>2</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J35" s="5">
         <v>1</v>
@@ -5944,15 +6017,15 @@
         <v>3</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J36" s="5">
         <v>1</v>
@@ -5969,17 +6042,17 @@
         <v>4</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" s="5" customFormat="1" spans="1:10">
@@ -5993,17 +6066,17 @@
         <v>5</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J38" s="5">
         <v>3</v>
@@ -6020,17 +6093,17 @@
         <v>6</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J39" s="5">
         <v>2</v>
@@ -6047,17 +6120,17 @@
         <v>7</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J40" s="5">
         <v>1</v>
@@ -6074,17 +6147,17 @@
         <v>8</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J41" s="5">
         <v>1</v>
@@ -6101,15 +6174,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J42" s="5">
         <v>1</v>
@@ -6126,15 +6199,15 @@
         <v>2</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J43" s="5">
         <v>1</v>
@@ -6151,15 +6224,15 @@
         <v>3</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J44" s="5">
         <v>1</v>
@@ -6176,17 +6249,17 @@
         <v>4</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" s="5" customFormat="1" spans="1:10">
@@ -6200,17 +6273,17 @@
         <v>5</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J46" s="5">
         <v>3</v>
@@ -6227,17 +6300,17 @@
         <v>6</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J47" s="5">
         <v>2</v>
@@ -6254,17 +6327,17 @@
         <v>7</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J48" s="5">
         <v>1</v>
@@ -6281,17 +6354,17 @@
         <v>8</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J49" s="5">
         <v>1</v>
@@ -6308,15 +6381,15 @@
         <v>1</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J50" s="5">
         <v>1</v>
@@ -6333,15 +6406,15 @@
         <v>2</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J51" s="5">
         <v>1</v>
@@ -6358,15 +6431,15 @@
         <v>3</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J52" s="5">
         <v>1</v>
@@ -6383,17 +6456,17 @@
         <v>4</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" s="5" customFormat="1" spans="1:10">
@@ -6407,17 +6480,17 @@
         <v>5</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J54" s="5">
         <v>3</v>
@@ -6434,17 +6507,17 @@
         <v>6</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J55" s="5">
         <v>2</v>
@@ -6461,17 +6534,17 @@
         <v>7</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J56" s="5">
         <v>1</v>
@@ -6488,17 +6561,17 @@
         <v>8</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J57" s="5">
         <v>1</v>
@@ -6515,15 +6588,15 @@
         <v>1</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J58" s="5">
         <v>1</v>
@@ -6540,15 +6613,15 @@
         <v>2</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J59" s="5">
         <v>1</v>
@@ -6565,15 +6638,15 @@
         <v>3</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J60" s="5">
         <v>1</v>
@@ -6590,17 +6663,17 @@
         <v>4</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" s="5" customFormat="1" spans="1:10">
@@ -6614,17 +6687,17 @@
         <v>5</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J62" s="5">
         <v>3</v>
@@ -6641,17 +6714,17 @@
         <v>6</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J63" s="5">
         <v>2</v>
@@ -6668,17 +6741,17 @@
         <v>7</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J64" s="5">
         <v>1</v>
@@ -6695,17 +6768,17 @@
         <v>8</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J65" s="5">
         <v>1</v>
@@ -6722,15 +6795,15 @@
         <v>1</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J66" s="5">
         <v>1</v>
@@ -6747,15 +6820,15 @@
         <v>2</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J67" s="5">
         <v>1</v>
@@ -6772,15 +6845,15 @@
         <v>3</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J68" s="5">
         <v>1</v>
@@ -6797,17 +6870,17 @@
         <v>4</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" s="5" customFormat="1" spans="1:10">
@@ -6821,17 +6894,17 @@
         <v>5</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J70" s="5">
         <v>3</v>
@@ -6848,17 +6921,17 @@
         <v>6</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J71" s="5">
         <v>2</v>
@@ -6875,17 +6948,17 @@
         <v>7</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J72" s="5">
         <v>1</v>
@@ -6902,17 +6975,17 @@
         <v>8</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J73" s="5">
         <v>1</v>
@@ -6929,15 +7002,15 @@
         <v>1</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J74" s="5">
         <v>1</v>
@@ -6954,15 +7027,15 @@
         <v>2</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J75" s="5">
         <v>1</v>
@@ -6979,15 +7052,15 @@
         <v>3</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J76" s="5">
         <v>1</v>
@@ -7004,17 +7077,17 @@
         <v>4</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" s="5" customFormat="1" spans="1:10">
@@ -7028,17 +7101,17 @@
         <v>5</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J78" s="5">
         <v>3</v>
@@ -7055,17 +7128,17 @@
         <v>6</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J79" s="5">
         <v>2</v>
@@ -7082,17 +7155,17 @@
         <v>7</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J80" s="5">
         <v>1</v>
@@ -7109,17 +7182,17 @@
         <v>8</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J81" s="5">
         <v>1</v>
@@ -7136,15 +7209,15 @@
         <v>1</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J82" s="5">
         <v>1</v>
@@ -7161,15 +7234,15 @@
         <v>2</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J83" s="5">
         <v>1</v>
@@ -7186,15 +7259,15 @@
         <v>3</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J84" s="5">
         <v>1</v>
@@ -7211,17 +7284,17 @@
         <v>4</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" s="5" customFormat="1" spans="1:10">
@@ -7235,17 +7308,17 @@
         <v>5</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J86" s="5">
         <v>3</v>
@@ -7262,17 +7335,17 @@
         <v>6</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J87" s="5">
         <v>2</v>
@@ -7289,17 +7362,17 @@
         <v>7</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J88" s="5">
         <v>1</v>
@@ -7316,17 +7389,17 @@
         <v>8</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J89" s="5">
         <v>1</v>
@@ -7343,15 +7416,15 @@
         <v>1</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J90" s="5">
         <v>1</v>
@@ -7368,15 +7441,15 @@
         <v>2</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J91" s="5">
         <v>1</v>
@@ -7393,15 +7466,15 @@
         <v>3</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="18"/>
       <c r="H92" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J92" s="5">
         <v>1</v>
@@ -7418,17 +7491,17 @@
         <v>4</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" s="5" customFormat="1" spans="1:10">
@@ -7442,17 +7515,17 @@
         <v>5</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E94" s="17"/>
       <c r="F94" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J94" s="5">
         <v>3</v>
@@ -7469,17 +7542,17 @@
         <v>6</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E95" s="17"/>
       <c r="F95" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J95" s="5">
         <v>2</v>
@@ -7496,17 +7569,17 @@
         <v>7</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E96" s="17"/>
       <c r="F96" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J96" s="5">
         <v>1</v>
@@ -7523,17 +7596,17 @@
         <v>8</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E97" s="17"/>
       <c r="F97" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J97" s="5">
         <v>1</v>
@@ -7550,15 +7623,15 @@
         <v>1</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="18"/>
       <c r="H98" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J98" s="5">
         <v>1</v>
@@ -7575,15 +7648,15 @@
         <v>2</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
       <c r="H99" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J99" s="5">
         <v>1</v>
@@ -7600,15 +7673,15 @@
         <v>3</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J100" s="5">
         <v>1</v>
@@ -7625,17 +7698,17 @@
         <v>4</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" s="5" customFormat="1" spans="1:10">
@@ -7649,17 +7722,17 @@
         <v>5</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E102" s="17"/>
       <c r="F102" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J102" s="5">
         <v>3</v>
@@ -7676,17 +7749,17 @@
         <v>6</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J103" s="5">
         <v>2</v>
@@ -7703,17 +7776,17 @@
         <v>7</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E104" s="17"/>
       <c r="F104" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J104" s="5">
         <v>1</v>
@@ -7730,17 +7803,17 @@
         <v>8</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E105" s="17"/>
       <c r="F105" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J105" s="5">
         <v>1</v>
@@ -7757,15 +7830,15 @@
         <v>1</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
       <c r="H106" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J106" s="5">
         <v>1</v>
@@ -7782,15 +7855,15 @@
         <v>2</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
       <c r="H107" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J107" s="5">
         <v>1</v>
@@ -7807,15 +7880,15 @@
         <v>3</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
       <c r="H108" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J108" s="5">
         <v>1</v>
@@ -7832,17 +7905,17 @@
         <v>4</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -7856,17 +7929,17 @@
         <v>5</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E110" s="17"/>
       <c r="F110" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J110" s="5">
         <v>3</v>
@@ -7883,17 +7956,17 @@
         <v>6</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E111" s="17"/>
       <c r="F111" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J111" s="5">
         <v>2</v>
@@ -7910,17 +7983,17 @@
         <v>7</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J112" s="5">
         <v>1</v>
@@ -7937,17 +8010,17 @@
         <v>8</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E113" s="17"/>
       <c r="F113" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G113" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G113" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="H113" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J113" s="5">
         <v>1</v>
@@ -7964,15 +8037,15 @@
         <v>1</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
       <c r="H114" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J114" s="5">
         <v>1</v>
@@ -7989,15 +8062,15 @@
         <v>2</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
       <c r="H115" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J115" s="5">
         <v>1</v>
@@ -8014,15 +8087,15 @@
         <v>3</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
       <c r="H116" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J116" s="5">
         <v>1</v>
@@ -8039,17 +8112,17 @@
         <v>4</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118" s="5" customFormat="1" spans="1:10">
@@ -8063,17 +8136,17 @@
         <v>5</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J118" s="5">
         <v>3</v>
@@ -8090,17 +8163,17 @@
         <v>6</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J119" s="5">
         <v>2</v>
@@ -8117,17 +8190,17 @@
         <v>7</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E120" s="17"/>
       <c r="F120" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J120" s="5">
         <v>1</v>
@@ -8144,17 +8217,17 @@
         <v>8</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J121" s="5">
         <v>1</v>
@@ -8171,15 +8244,15 @@
         <v>1</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F122" s="18"/>
       <c r="G122" s="18"/>
       <c r="H122" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J122" s="5">
         <v>1</v>
@@ -8196,15 +8269,15 @@
         <v>2</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
       <c r="H123" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J123" s="5">
         <v>1</v>
@@ -8221,14 +8294,14 @@
         <v>3</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G124" s="18"/>
       <c r="H124" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J124" s="5">
         <v>1</v>
@@ -8245,17 +8318,17 @@
         <v>4</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E125" s="17"/>
       <c r="F125" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -8269,17 +8342,17 @@
         <v>5</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E126" s="17"/>
       <c r="F126" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J126" s="5">
         <v>3</v>
@@ -8296,17 +8369,17 @@
         <v>6</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E127" s="17"/>
       <c r="F127" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J127" s="5">
         <v>2</v>
@@ -8323,17 +8396,17 @@
         <v>7</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E128" s="17"/>
       <c r="F128" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J128" s="5">
         <v>1</v>
@@ -8350,17 +8423,17 @@
         <v>8</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E129" s="17"/>
       <c r="F129" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G129" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G129" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="H129" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J129" s="5">
         <v>1</v>
@@ -8377,15 +8450,15 @@
         <v>1</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F130" s="18"/>
       <c r="G130" s="18"/>
       <c r="H130" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J130" s="5">
         <v>1</v>
@@ -8402,15 +8475,15 @@
         <v>2</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F131" s="18"/>
       <c r="G131" s="18"/>
       <c r="H131" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J131" s="5">
         <v>1</v>
@@ -8427,15 +8500,15 @@
         <v>3</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F132" s="18"/>
       <c r="G132" s="18"/>
       <c r="H132" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J132" s="5">
         <v>1</v>
@@ -8452,17 +8525,17 @@
         <v>4</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E133" s="17"/>
       <c r="F133" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134" s="5" customFormat="1" spans="1:10">
@@ -8476,17 +8549,17 @@
         <v>5</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E134" s="17"/>
       <c r="F134" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H134" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J134" s="5">
         <v>3</v>
@@ -8503,17 +8576,17 @@
         <v>6</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E135" s="17"/>
       <c r="F135" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H135" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J135" s="5">
         <v>2</v>
@@ -8530,17 +8603,17 @@
         <v>7</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E136" s="17"/>
       <c r="F136" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J136" s="5">
         <v>1</v>
@@ -8557,17 +8630,17 @@
         <v>8</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E137" s="17"/>
       <c r="F137" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J137" s="5">
         <v>1</v>
@@ -8584,15 +8657,15 @@
         <v>1</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F138" s="18"/>
       <c r="G138" s="18"/>
       <c r="H138" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J138" s="5">
         <v>1</v>
@@ -8609,15 +8682,15 @@
         <v>2</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F139" s="18"/>
       <c r="G139" s="18"/>
       <c r="H139" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J139" s="5">
         <v>1</v>
@@ -8634,14 +8707,14 @@
         <v>3</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G140" s="18"/>
       <c r="H140" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J140" s="5">
         <v>1</v>
@@ -8658,17 +8731,17 @@
         <v>4</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E141" s="17"/>
       <c r="F141" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="142" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -8682,17 +8755,17 @@
         <v>5</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E142" s="17"/>
       <c r="F142" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H142" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J142" s="5">
         <v>3</v>
@@ -8709,17 +8782,17 @@
         <v>6</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E143" s="17"/>
       <c r="F143" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H143" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J143" s="5">
         <v>2</v>
@@ -8736,17 +8809,17 @@
         <v>7</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E144" s="17"/>
       <c r="F144" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H144" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J144" s="5">
         <v>1</v>
@@ -8763,17 +8836,17 @@
         <v>8</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E145" s="17"/>
       <c r="F145" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G145" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G145" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="H145" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J145" s="5">
         <v>1</v>
@@ -8790,15 +8863,15 @@
         <v>1</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F146" s="18"/>
       <c r="G146" s="18"/>
       <c r="H146" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J146" s="5">
         <v>1</v>
@@ -8815,15 +8888,15 @@
         <v>2</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F147" s="18"/>
       <c r="G147" s="18"/>
       <c r="H147" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J147" s="5">
         <v>1</v>
@@ -8840,15 +8913,15 @@
         <v>3</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F148" s="18"/>
       <c r="G148" s="18"/>
       <c r="H148" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J148" s="5">
         <v>1</v>
@@ -8865,17 +8938,17 @@
         <v>4</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E149" s="17"/>
       <c r="F149" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" s="5" customFormat="1" spans="1:10">
@@ -8889,17 +8962,17 @@
         <v>5</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E150" s="17"/>
       <c r="F150" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H150" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J150" s="5">
         <v>3</v>
@@ -8916,17 +8989,17 @@
         <v>6</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E151" s="17"/>
       <c r="F151" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H151" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J151" s="5">
         <v>2</v>
@@ -8943,17 +9016,17 @@
         <v>7</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E152" s="17"/>
       <c r="F152" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H152" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J152" s="5">
         <v>1</v>
@@ -8970,17 +9043,17 @@
         <v>8</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E153" s="17"/>
       <c r="F153" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H153" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J153" s="5">
         <v>1</v>
@@ -8997,17 +9070,17 @@
         <v>1</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E154" s="17"/>
       <c r="F154" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J154" s="5">
         <v>9999</v>
@@ -9024,17 +9097,17 @@
         <v>1</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E155" s="17"/>
       <c r="F155" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J155" s="5">
         <v>9999</v>
@@ -9051,17 +9124,17 @@
         <v>1</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E156" s="17"/>
       <c r="F156" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J156" s="5">
         <v>9999</v>
@@ -9078,17 +9151,17 @@
         <v>1</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E157" s="17"/>
       <c r="F157" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J157" s="5">
         <v>9999</v>
@@ -9105,17 +9178,17 @@
         <v>1</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E158" s="17"/>
       <c r="F158" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J158" s="5">
         <v>9999</v>
@@ -9132,17 +9205,17 @@
         <v>1</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E159" s="17"/>
       <c r="F159" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G159" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="H159" s="17" t="s">
         <v>231</v>
-      </c>
-      <c r="H159" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="J159" s="5">
         <v>9999</v>
@@ -9159,17 +9232,17 @@
         <v>1</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E160" s="17"/>
       <c r="F160" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J160" s="5">
         <v>9999</v>
@@ -9186,17 +9259,17 @@
         <v>1</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E161" s="17"/>
       <c r="F161" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J161" s="5">
         <v>9999</v>
@@ -9213,17 +9286,17 @@
         <v>1</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E162" s="17"/>
       <c r="F162" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J162" s="5">
         <v>9999</v>
@@ -9240,15 +9313,15 @@
         <v>1</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="18"/>
       <c r="H163" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J163" s="5">
         <v>1</v>
@@ -9265,15 +9338,15 @@
         <v>2</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F164" s="18"/>
       <c r="G164" s="18"/>
       <c r="H164" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J164" s="5">
         <v>1</v>
@@ -9290,14 +9363,14 @@
         <v>3</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G165" s="18"/>
       <c r="H165" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J165" s="5">
         <v>1</v>
@@ -9314,17 +9387,17 @@
         <v>4</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E166" s="17"/>
       <c r="F166" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G166" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -9338,17 +9411,17 @@
         <v>5</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E167" s="17"/>
       <c r="F167" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H167" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J167" s="5">
         <v>3</v>
@@ -9365,17 +9438,17 @@
         <v>6</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E168" s="17"/>
       <c r="F168" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G168" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H168" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J168" s="5">
         <v>2</v>
@@ -9392,17 +9465,17 @@
         <v>7</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E169" s="17"/>
       <c r="F169" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G169" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H169" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J169" s="5">
         <v>1</v>
@@ -9419,17 +9492,17 @@
         <v>8</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E170" s="17"/>
       <c r="F170" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G170" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G170" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="H170" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J170" s="5">
         <v>1</v>
@@ -9446,15 +9519,15 @@
         <v>1</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F171" s="18"/>
       <c r="G171" s="18"/>
       <c r="H171" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J171" s="5">
         <v>1</v>
@@ -9471,15 +9544,15 @@
         <v>2</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F172" s="18"/>
       <c r="G172" s="18"/>
       <c r="H172" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J172" s="5">
         <v>1</v>
@@ -9496,15 +9569,15 @@
         <v>3</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F173" s="18"/>
       <c r="G173" s="18"/>
       <c r="H173" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J173" s="5">
         <v>1</v>
@@ -9521,17 +9594,17 @@
         <v>4</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E174" s="17"/>
       <c r="F174" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G174" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" s="5" customFormat="1" spans="1:10">
@@ -9545,17 +9618,17 @@
         <v>5</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E175" s="17"/>
       <c r="F175" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G175" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J175" s="5">
         <v>3</v>
@@ -9572,17 +9645,17 @@
         <v>6</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E176" s="17"/>
       <c r="F176" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G176" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J176" s="5">
         <v>2</v>
@@ -9599,17 +9672,17 @@
         <v>7</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E177" s="17"/>
       <c r="F177" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G177" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J177" s="5">
         <v>1</v>
@@ -9626,17 +9699,17 @@
         <v>8</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E178" s="17"/>
       <c r="F178" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G178" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J178" s="5">
         <v>1</v>
@@ -9653,15 +9726,15 @@
         <v>1</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F179" s="18"/>
       <c r="G179" s="18"/>
       <c r="H179" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J179" s="5">
         <v>1</v>
@@ -9678,15 +9751,15 @@
         <v>2</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F180" s="18"/>
       <c r="G180" s="18"/>
       <c r="H180" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J180" s="5">
         <v>1</v>
@@ -9703,14 +9776,14 @@
         <v>3</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G181" s="18"/>
       <c r="H181" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J181" s="5">
         <v>1</v>
@@ -9727,17 +9800,17 @@
         <v>4</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E182" s="17"/>
       <c r="F182" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G182" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H182" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -9751,17 +9824,17 @@
         <v>5</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E183" s="17"/>
       <c r="F183" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G183" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J183" s="5">
         <v>3</v>
@@ -9778,17 +9851,17 @@
         <v>6</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E184" s="17"/>
       <c r="F184" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G184" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J184" s="5">
         <v>2</v>
@@ -9805,17 +9878,17 @@
         <v>7</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E185" s="17"/>
       <c r="F185" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G185" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J185" s="5">
         <v>1</v>
@@ -9832,17 +9905,17 @@
         <v>8</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E186" s="17"/>
       <c r="F186" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G186" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G186" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="H186" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J186" s="5">
         <v>1</v>
@@ -9859,15 +9932,15 @@
         <v>1</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F187" s="18"/>
       <c r="G187" s="18"/>
       <c r="H187" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J187" s="5">
         <v>1</v>
@@ -9884,15 +9957,15 @@
         <v>2</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F188" s="18"/>
       <c r="G188" s="18"/>
       <c r="H188" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J188" s="5">
         <v>1</v>
@@ -9909,15 +9982,15 @@
         <v>3</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F189" s="18"/>
       <c r="G189" s="18"/>
       <c r="H189" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J189" s="5">
         <v>1</v>
@@ -9934,17 +10007,17 @@
         <v>4</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E190" s="17"/>
       <c r="F190" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G190" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H190" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" s="5" customFormat="1" spans="1:10">
@@ -9958,17 +10031,17 @@
         <v>5</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E191" s="17"/>
       <c r="F191" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G191" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H191" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J191" s="5">
         <v>3</v>
@@ -9985,17 +10058,17 @@
         <v>6</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E192" s="17"/>
       <c r="F192" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G192" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H192" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J192" s="5">
         <v>2</v>
@@ -10012,17 +10085,17 @@
         <v>7</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E193" s="17"/>
       <c r="F193" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G193" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H193" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J193" s="5">
         <v>1</v>
@@ -10039,17 +10112,17 @@
         <v>8</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E194" s="17"/>
       <c r="F194" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G194" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H194" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J194" s="5">
         <v>1</v>
@@ -10066,15 +10139,15 @@
         <v>2</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F195" s="18"/>
       <c r="G195" s="18"/>
       <c r="H195" s="18" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J195" s="5">
         <v>1</v>
@@ -10091,15 +10164,15 @@
         <v>4</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F196" s="18"/>
       <c r="G196" s="18"/>
       <c r="H196" s="18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J196" s="5">
         <v>1</v>
@@ -10116,17 +10189,17 @@
         <v>6</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E197" s="17"/>
       <c r="F197" s="22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G197" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H197" s="18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J197" s="5">
         <v>1</v>
@@ -10143,17 +10216,17 @@
         <v>1</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E198" s="17"/>
       <c r="F198" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G198" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H198" s="18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="199" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -10167,17 +10240,17 @@
         <v>3</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E199" s="17"/>
       <c r="F199" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G199" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H199" s="19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J199" s="5">
         <v>3</v>
@@ -10194,17 +10267,17 @@
         <v>5</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E200" s="17"/>
       <c r="F200" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G200" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H200" s="19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J200" s="5">
         <v>2</v>
@@ -10221,17 +10294,17 @@
         <v>7</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E201" s="17"/>
       <c r="F201" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G201" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H201" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J201" s="5">
         <v>1</v>
@@ -10248,17 +10321,17 @@
         <v>8</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E202" s="17"/>
       <c r="F202" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G202" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G202" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="H202" s="18" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J202" s="5">
         <v>1</v>
@@ -10275,15 +10348,15 @@
         <v>2</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F203" s="18"/>
       <c r="G203" s="18"/>
       <c r="H203" s="18" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J203" s="5">
         <v>1</v>
@@ -10300,15 +10373,15 @@
         <v>4</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F204" s="18"/>
       <c r="G204" s="18"/>
       <c r="H204" s="18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J204" s="5">
         <v>1</v>
@@ -10325,17 +10398,17 @@
         <v>6</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E205" s="17"/>
       <c r="F205" s="22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G205" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J205" s="5">
         <v>1</v>
@@ -10352,17 +10425,17 @@
         <v>1</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E206" s="17"/>
       <c r="F206" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G206" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207" s="5" customFormat="1" spans="1:10">
@@ -10376,17 +10449,17 @@
         <v>3</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E207" s="17"/>
       <c r="F207" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G207" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H207" s="19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J207" s="5">
         <v>3</v>
@@ -10403,17 +10476,17 @@
         <v>5</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E208" s="17"/>
       <c r="F208" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G208" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H208" s="19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J208" s="5">
         <v>2</v>
@@ -10430,17 +10503,17 @@
         <v>7</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E209" s="17"/>
       <c r="F209" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G209" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H209" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J209" s="5">
         <v>1</v>
@@ -10457,17 +10530,17 @@
         <v>8</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E210" s="17"/>
       <c r="F210" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G210" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J210" s="5">
         <v>1</v>
@@ -10484,17 +10557,17 @@
         <v>1</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E211" s="17"/>
       <c r="F211" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G211" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H211" s="17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J211" s="5">
         <v>9999</v>
@@ -10511,17 +10584,17 @@
         <v>2</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E212" s="17"/>
       <c r="F212" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G212" s="18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H212" s="17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J212" s="5">
         <v>9999</v>
@@ -10538,17 +10611,17 @@
         <v>3</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E213" s="17"/>
       <c r="F213" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G213" s="18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H213" s="17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J213" s="5">
         <v>9999</v>
@@ -10565,17 +10638,17 @@
         <v>1</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E214" s="17"/>
       <c r="F214" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G214" s="18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H214" s="17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J214" s="5">
         <v>9999</v>
@@ -10592,17 +10665,17 @@
         <v>2</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E215" s="17"/>
       <c r="F215" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G215" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H215" s="17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J215" s="5">
         <v>9999</v>
@@ -10619,17 +10692,17 @@
         <v>3</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E216" s="17"/>
       <c r="F216" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G216" s="18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H216" s="17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J216" s="5">
         <v>9999</v>
@@ -10646,17 +10719,17 @@
         <v>1</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E217" s="17"/>
       <c r="F217" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G217" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H217" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J217" s="5">
         <v>9999</v>
@@ -10673,17 +10746,17 @@
         <v>2</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E218" s="17"/>
       <c r="F218" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G218" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="H218" s="17" t="s">
         <v>231</v>
-      </c>
-      <c r="H218" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="J218" s="5">
         <v>9999</v>
@@ -10700,17 +10773,17 @@
         <v>3</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E219" s="17"/>
       <c r="F219" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G219" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H219" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J219" s="5">
         <v>9999</v>
@@ -10727,15 +10800,15 @@
         <v>1</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F220" s="18"/>
       <c r="G220" s="18"/>
       <c r="H220" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J220" s="5">
         <v>1</v>
@@ -10752,15 +10825,15 @@
         <v>2</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F221" s="18"/>
       <c r="G221" s="18"/>
       <c r="H221" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J221" s="5">
         <v>1</v>
@@ -10777,14 +10850,14 @@
         <v>3</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G222" s="18"/>
       <c r="H222" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J222" s="5">
         <v>1</v>
@@ -10801,17 +10874,17 @@
         <v>4</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E223" s="17"/>
       <c r="F223" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G223" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H223" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="224" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -10825,17 +10898,17 @@
         <v>5</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E224" s="17"/>
       <c r="F224" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G224" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H224" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J224" s="5">
         <v>3</v>
@@ -10852,17 +10925,17 @@
         <v>6</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E225" s="17"/>
       <c r="F225" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G225" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H225" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J225" s="5">
         <v>2</v>
@@ -10879,17 +10952,17 @@
         <v>7</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E226" s="17"/>
       <c r="F226" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G226" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H226" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J226" s="5">
         <v>1</v>
@@ -10906,17 +10979,17 @@
         <v>8</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E227" s="17"/>
       <c r="F227" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G227" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G227" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="H227" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J227" s="5">
         <v>1</v>
@@ -10933,15 +11006,15 @@
         <v>1</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F228" s="18"/>
       <c r="G228" s="18"/>
       <c r="H228" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J228" s="5">
         <v>1</v>
@@ -10958,15 +11031,15 @@
         <v>2</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F229" s="18"/>
       <c r="G229" s="18"/>
       <c r="H229" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J229" s="5">
         <v>1</v>
@@ -10983,15 +11056,15 @@
         <v>3</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F230" s="18"/>
       <c r="G230" s="18"/>
       <c r="H230" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J230" s="5">
         <v>1</v>
@@ -11008,17 +11081,17 @@
         <v>4</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E231" s="17"/>
       <c r="F231" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G231" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H231" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="232" s="5" customFormat="1" spans="1:10">
@@ -11032,17 +11105,17 @@
         <v>5</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E232" s="17"/>
       <c r="F232" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G232" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H232" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J232" s="5">
         <v>3</v>
@@ -11059,17 +11132,17 @@
         <v>6</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E233" s="17"/>
       <c r="F233" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G233" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H233" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J233" s="5">
         <v>2</v>
@@ -11086,17 +11159,17 @@
         <v>7</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E234" s="17"/>
       <c r="F234" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G234" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H234" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J234" s="5">
         <v>1</v>
@@ -11113,17 +11186,17 @@
         <v>8</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E235" s="17"/>
       <c r="F235" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G235" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J235" s="5">
         <v>1</v>
@@ -11140,15 +11213,15 @@
         <v>1</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F236" s="18"/>
       <c r="G236" s="18"/>
       <c r="H236" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J236" s="5">
         <v>1</v>
@@ -11165,15 +11238,15 @@
         <v>2</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F237" s="18"/>
       <c r="G237" s="18"/>
       <c r="H237" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J237" s="5">
         <v>1</v>
@@ -11190,14 +11263,14 @@
         <v>3</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G238" s="18"/>
       <c r="H238" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J238" s="5">
         <v>1</v>
@@ -11214,17 +11287,17 @@
         <v>4</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E239" s="17"/>
       <c r="F239" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G239" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H239" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="240" s="5" customFormat="1" ht="16.5" spans="1:10">
@@ -11238,17 +11311,17 @@
         <v>5</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E240" s="17"/>
       <c r="F240" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G240" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H240" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J240" s="5">
         <v>3</v>
@@ -11265,17 +11338,17 @@
         <v>6</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E241" s="17"/>
       <c r="F241" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G241" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H241" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J241" s="5">
         <v>2</v>
@@ -11292,17 +11365,17 @@
         <v>7</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E242" s="17"/>
       <c r="F242" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G242" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H242" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J242" s="5">
         <v>1</v>
@@ -11319,17 +11392,17 @@
         <v>8</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E243" s="17"/>
       <c r="F243" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G243" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G243" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="H243" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J243" s="5">
         <v>1</v>
@@ -11346,15 +11419,15 @@
         <v>1</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E244" s="17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F244" s="18"/>
       <c r="G244" s="18"/>
       <c r="H244" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J244" s="5">
         <v>1</v>
@@ -11371,15 +11444,15 @@
         <v>2</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E245" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F245" s="18"/>
       <c r="G245" s="18"/>
       <c r="H245" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J245" s="5">
         <v>1</v>
@@ -11396,15 +11469,15 @@
         <v>3</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F246" s="18"/>
       <c r="G246" s="18"/>
       <c r="H246" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J246" s="5">
         <v>1</v>
@@ -11421,17 +11494,17 @@
         <v>4</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E247" s="17"/>
       <c r="F247" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G247" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H247" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="248" s="5" customFormat="1" spans="1:10">
@@ -11445,17 +11518,17 @@
         <v>5</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E248" s="17"/>
       <c r="F248" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G248" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H248" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J248" s="5">
         <v>3</v>
@@ -11472,17 +11545,17 @@
         <v>6</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E249" s="17"/>
       <c r="F249" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G249" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H249" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J249" s="5">
         <v>2</v>
@@ -11499,17 +11572,17 @@
         <v>7</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E250" s="17"/>
       <c r="F250" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G250" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J250" s="5">
         <v>1</v>
@@ -11526,17 +11599,17 @@
         <v>8</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E251" s="17"/>
       <c r="F251" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G251" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H251" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J251" s="5">
         <v>1</v>
@@ -11553,16 +11626,16 @@
         <v>1</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F252" s="23" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G252" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H252" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="253" s="10" customFormat="1" spans="1:8">
@@ -11576,16 +11649,16 @@
         <v>2</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F253" s="23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G253" s="23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H253" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="254" s="10" customFormat="1" spans="1:8">
@@ -11599,16 +11672,16 @@
         <v>3</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F254" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="G254" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="H254" s="23" t="s">
         <v>267</v>
-      </c>
-      <c r="G254" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="H254" s="23" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="255" s="10" customFormat="1" spans="1:8">
@@ -11622,16 +11695,16 @@
         <v>4</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F255" s="23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G255" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H255" s="23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="256" s="10" customFormat="1" spans="1:8">
@@ -11645,16 +11718,16 @@
         <v>5</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F256" s="23" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G256" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H256" s="23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" s="10" customFormat="1" spans="1:8">
@@ -11668,16 +11741,16 @@
         <v>6</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F257" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G257" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="H257" s="23" t="s">
         <v>271</v>
-      </c>
-      <c r="G257" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="H257" s="23" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="258" s="10" customFormat="1" spans="1:8">
@@ -11691,16 +11764,16 @@
         <v>1</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F258" s="23" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G258" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H258" s="23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="259" s="10" customFormat="1" spans="1:8">
@@ -11714,16 +11787,16 @@
         <v>2</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F259" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G259" s="23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H259" s="23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="260" s="10" customFormat="1" spans="1:8">
@@ -11737,16 +11810,16 @@
         <v>3</v>
       </c>
       <c r="D260" s="23" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F260" s="23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G260" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H260" s="23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="261" s="10" customFormat="1" spans="1:8">
@@ -11760,16 +11833,16 @@
         <v>4</v>
       </c>
       <c r="D261" s="23" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F261" s="23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G261" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H261" s="23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="262" s="10" customFormat="1" spans="1:8">
@@ -11783,16 +11856,16 @@
         <v>5</v>
       </c>
       <c r="D262" s="23" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F262" s="23" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G262" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H262" s="23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="263" s="10" customFormat="1" spans="1:8">
@@ -11806,16 +11879,16 @@
         <v>6</v>
       </c>
       <c r="D263" s="23" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F263" s="23" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G263" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H263" s="23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="264" s="5" customFormat="1" spans="1:10">
@@ -11829,15 +11902,15 @@
         <v>1</v>
       </c>
       <c r="D264" s="22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E264" s="17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F264" s="18"/>
       <c r="G264" s="18"/>
       <c r="H264" s="18" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J264" s="5">
         <v>1</v>
@@ -11854,15 +11927,15 @@
         <v>2</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E265" s="17" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F265" s="18"/>
       <c r="G265" s="18"/>
       <c r="H265" s="18" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J265" s="5">
         <v>1</v>
@@ -11879,14 +11952,14 @@
         <v>3</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G266" s="18"/>
       <c r="H266" s="18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J266" s="5">
         <v>1</v>
@@ -11903,17 +11976,17 @@
         <v>4</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E267" s="17"/>
       <c r="F267" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G267" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H267" s="18" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" s="5" customFormat="1" spans="1:10">
@@ -11927,17 +12000,17 @@
         <v>5</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E268" s="17"/>
       <c r="F268" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G268" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H268" s="19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J268" s="5">
         <v>2</v>
@@ -11954,17 +12027,17 @@
         <v>6</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E269" s="17"/>
       <c r="F269" s="18" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G269" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H269" s="19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J269" s="5">
         <v>1</v>
@@ -11981,14 +12054,14 @@
         <v>7</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E270" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G270" s="18"/>
       <c r="H270" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J270" s="5">
         <v>2</v>
@@ -12005,17 +12078,17 @@
         <v>8</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E271" s="17"/>
       <c r="F271" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G271" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G271" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="H271" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J271" s="5">
         <v>1</v>
@@ -12032,15 +12105,15 @@
         <v>1</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E272" s="17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F272" s="18"/>
       <c r="G272" s="18"/>
       <c r="H272" s="18" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J272" s="5">
         <v>1</v>
@@ -12057,15 +12130,15 @@
         <v>2</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E273" s="17" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F273" s="18"/>
       <c r="G273" s="18"/>
       <c r="H273" s="18" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J273" s="5">
         <v>1</v>
@@ -12082,14 +12155,14 @@
         <v>3</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E274" s="17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G274" s="18"/>
       <c r="H274" s="18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J274" s="5">
         <v>1</v>
@@ -12106,17 +12179,17 @@
         <v>4</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E275" s="17"/>
       <c r="F275" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G275" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H275" s="18" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="276" s="5" customFormat="1" spans="1:10">
@@ -12130,17 +12203,17 @@
         <v>5</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E276" s="17"/>
       <c r="F276" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G276" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H276" s="19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J276" s="5">
         <v>2</v>
@@ -12157,17 +12230,17 @@
         <v>6</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E277" s="17"/>
       <c r="F277" s="18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G277" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H277" s="19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J277" s="5">
         <v>1</v>
@@ -12184,14 +12257,14 @@
         <v>7</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E278" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G278" s="18"/>
       <c r="H278" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J278" s="5">
         <v>2</v>
@@ -12208,17 +12281,17 @@
         <v>8</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E279" s="17"/>
       <c r="F279" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G279" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H279" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J279" s="5">
         <v>1</v>
@@ -12235,15 +12308,15 @@
         <v>1</v>
       </c>
       <c r="D280" s="22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E280" s="17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F280" s="18"/>
       <c r="G280" s="18"/>
       <c r="H280" s="18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J280" s="5">
         <v>1</v>
@@ -12260,15 +12333,15 @@
         <v>2</v>
       </c>
       <c r="D281" s="22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E281" s="17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F281" s="18"/>
       <c r="G281" s="18"/>
       <c r="H281" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J281" s="5">
         <v>1</v>
@@ -12285,14 +12358,14 @@
         <v>3</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E282" s="17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G282" s="18"/>
       <c r="H282" s="18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J282" s="5">
         <v>1</v>
@@ -12309,17 +12382,17 @@
         <v>4</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E283" s="17"/>
       <c r="F283" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G283" s="18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H283" s="18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J283" s="5">
         <v>1</v>
@@ -12336,17 +12409,17 @@
         <v>5</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="18" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G284" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H284" s="19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="285" s="5" customFormat="1" spans="1:10">
@@ -12360,15 +12433,15 @@
         <v>6</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E285" s="17" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F285" s="18"/>
       <c r="G285" s="18"/>
       <c r="H285" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J285" s="5">
         <v>3</v>
@@ -12385,17 +12458,17 @@
         <v>7</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E286" s="17"/>
       <c r="F286" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G286" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H286" s="19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J286" s="5">
         <v>2</v>
@@ -12412,17 +12485,17 @@
         <v>8</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E287" s="17"/>
       <c r="F287" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G287" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G287" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="H287" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J287" s="5">
         <v>3</v>
@@ -12439,15 +12512,15 @@
         <v>1</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F288" s="18"/>
       <c r="G288" s="18"/>
       <c r="H288" s="18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J288" s="5">
         <v>1</v>
@@ -12464,15 +12537,15 @@
         <v>2</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E289" s="17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F289" s="18"/>
       <c r="G289" s="18"/>
       <c r="H289" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J289" s="5">
         <v>1</v>
@@ -12489,14 +12562,14 @@
         <v>3</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E290" s="17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G290" s="18"/>
       <c r="H290" s="18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J290" s="5">
         <v>1</v>
@@ -12513,17 +12586,17 @@
         <v>4</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E291" s="17"/>
       <c r="F291" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G291" s="18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H291" s="18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J291" s="5">
         <v>1</v>
@@ -12540,17 +12613,17 @@
         <v>5</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E292" s="17"/>
       <c r="F292" s="18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G292" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H292" s="19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="293" s="5" customFormat="1" spans="1:10">
@@ -12564,15 +12637,15 @@
         <v>6</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E293" s="17" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F293" s="18"/>
       <c r="G293" s="18"/>
       <c r="H293" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J293" s="5">
         <v>3</v>
@@ -12589,17 +12662,17 @@
         <v>7</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E294" s="17"/>
       <c r="F294" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G294" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H294" s="19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J294" s="5">
         <v>2</v>
@@ -12616,17 +12689,17 @@
         <v>8</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E295" s="17"/>
       <c r="F295" s="20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G295" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H295" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J295" s="5">
         <v>3</v>
@@ -12643,15 +12716,15 @@
         <v>1</v>
       </c>
       <c r="D296" s="22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E296" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F296" s="18"/>
       <c r="G296" s="18"/>
       <c r="H296" s="18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J296" s="5">
         <v>1</v>
@@ -12668,15 +12741,15 @@
         <v>2</v>
       </c>
       <c r="D297" s="22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E297" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F297" s="18"/>
       <c r="G297" s="18"/>
       <c r="H297" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J297" s="5">
         <v>1</v>
@@ -12693,14 +12766,14 @@
         <v>3</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E298" s="17" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G298" s="18"/>
       <c r="H298" s="18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J298" s="5">
         <v>1</v>
@@ -12717,17 +12790,17 @@
         <v>4</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E299" s="17"/>
       <c r="F299" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G299" s="18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H299" s="18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J299" s="5">
         <v>1</v>
@@ -12744,17 +12817,17 @@
         <v>5</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E300" s="17"/>
       <c r="F300" s="18" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G300" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H300" s="19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="301" s="5" customFormat="1" spans="1:10">
@@ -12768,15 +12841,15 @@
         <v>6</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E301" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F301" s="18"/>
       <c r="G301" s="18"/>
       <c r="H301" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J301" s="5">
         <v>3</v>
@@ -12793,17 +12866,17 @@
         <v>7</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E302" s="17"/>
       <c r="F302" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G302" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H302" s="19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J302" s="5">
         <v>2</v>
@@ -12820,17 +12893,17 @@
         <v>8</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E303" s="17"/>
       <c r="F303" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G303" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G303" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="H303" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J303" s="5">
         <v>3</v>
@@ -12847,15 +12920,15 @@
         <v>1</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E304" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F304" s="18"/>
       <c r="G304" s="18"/>
       <c r="H304" s="18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J304" s="5">
         <v>1</v>
@@ -12872,15 +12945,15 @@
         <v>2</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E305" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F305" s="18"/>
       <c r="G305" s="18"/>
       <c r="H305" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J305" s="5">
         <v>1</v>
@@ -12897,14 +12970,14 @@
         <v>3</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E306" s="17" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G306" s="18"/>
       <c r="H306" s="18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J306" s="5">
         <v>1</v>
@@ -12921,17 +12994,17 @@
         <v>4</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E307" s="17"/>
       <c r="F307" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G307" s="18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H307" s="18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J307" s="5">
         <v>1</v>
@@ -12948,17 +13021,17 @@
         <v>5</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E308" s="17"/>
       <c r="F308" s="18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G308" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H308" s="19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="309" s="5" customFormat="1" spans="1:10">
@@ -12972,15 +13045,15 @@
         <v>6</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E309" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F309" s="18"/>
       <c r="G309" s="18"/>
       <c r="H309" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J309" s="5">
         <v>3</v>
@@ -12997,17 +13070,17 @@
         <v>7</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E310" s="17"/>
       <c r="F310" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G310" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H310" s="19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J310" s="5">
         <v>2</v>
@@ -13024,17 +13097,17 @@
         <v>8</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E311" s="17"/>
       <c r="F311" s="20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G311" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H311" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J311" s="5">
         <v>3</v>
@@ -13051,15 +13124,15 @@
         <v>1</v>
       </c>
       <c r="D312" s="22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E312" s="19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F312" s="19"/>
       <c r="G312" s="19"/>
       <c r="H312" s="18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J312" s="5">
         <v>1</v>
@@ -13076,15 +13149,15 @@
         <v>2</v>
       </c>
       <c r="D313" s="22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E313" s="19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F313" s="19"/>
       <c r="G313" s="19"/>
       <c r="H313" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J313" s="5">
         <v>1</v>
@@ -13101,15 +13174,15 @@
         <v>3</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E314" s="19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F314" s="19"/>
       <c r="G314" s="19"/>
       <c r="H314" s="18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J314" s="5">
         <v>1</v>
@@ -13126,16 +13199,16 @@
         <v>4</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F315" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G315" s="18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H315" s="18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J315" s="5">
         <v>1</v>
@@ -13152,16 +13225,16 @@
         <v>5</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F316" s="18" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G316" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H316" s="19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="317" s="5" customFormat="1" spans="1:10">
@@ -13175,15 +13248,15 @@
         <v>6</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E317" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F317" s="19"/>
       <c r="G317" s="19"/>
       <c r="H317" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J317" s="5">
         <v>3</v>
@@ -13200,16 +13273,16 @@
         <v>7</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F318" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G318" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H318" s="19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J318" s="5">
         <v>2</v>
@@ -13226,16 +13299,16 @@
         <v>8</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F319" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G319" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G319" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="H319" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J319" s="5">
         <v>3</v>
@@ -13252,15 +13325,15 @@
         <v>1</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E320" s="19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F320" s="19"/>
       <c r="G320" s="19"/>
       <c r="H320" s="18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J320" s="5">
         <v>1</v>
@@ -13277,15 +13350,15 @@
         <v>2</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E321" s="19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F321" s="19"/>
       <c r="G321" s="19"/>
       <c r="H321" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J321" s="5">
         <v>1</v>
@@ -13302,15 +13375,15 @@
         <v>3</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E322" s="19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F322" s="19"/>
       <c r="G322" s="19"/>
       <c r="H322" s="18" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J322" s="5">
         <v>1</v>
@@ -13327,16 +13400,16 @@
         <v>4</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F323" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G323" s="18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H323" s="18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J323" s="5">
         <v>1</v>
@@ -13353,16 +13426,16 @@
         <v>5</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F324" s="18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G324" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H324" s="19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="325" s="5" customFormat="1" spans="1:10">
@@ -13376,15 +13449,15 @@
         <v>6</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E325" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F325" s="19"/>
       <c r="G325" s="19"/>
       <c r="H325" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J325" s="5">
         <v>3</v>
@@ -13401,16 +13474,16 @@
         <v>7</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F326" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G326" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H326" s="19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J326" s="5">
         <v>2</v>
@@ -13427,16 +13500,16 @@
         <v>8</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F327" s="20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G327" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H327" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J327" s="5">
         <v>3</v>
@@ -13453,15 +13526,15 @@
         <v>1</v>
       </c>
       <c r="D328" s="19" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F328" s="19"/>
       <c r="G328" s="19"/>
       <c r="H328" s="24" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J328" s="5">
         <v>1</v>
@@ -13478,15 +13551,15 @@
         <v>2</v>
       </c>
       <c r="D329" s="19" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F329" s="19"/>
       <c r="G329" s="19"/>
       <c r="H329" s="24" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J329" s="5">
         <v>1</v>
@@ -13503,15 +13576,15 @@
         <v>3</v>
       </c>
       <c r="D330" s="19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F330" s="19"/>
       <c r="G330" s="19"/>
       <c r="H330" s="24" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J330" s="5">
         <v>1</v>
@@ -13528,16 +13601,16 @@
         <v>4</v>
       </c>
       <c r="D331" s="19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F331" s="19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G331" s="19" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H331" s="24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J331" s="5">
         <v>1</v>
@@ -13554,16 +13627,16 @@
         <v>5</v>
       </c>
       <c r="D332" s="19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F332" s="19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G332" s="19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H332" s="24" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="333" s="5" customFormat="1" spans="1:10">
@@ -13577,16 +13650,16 @@
         <v>6</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F333" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G333" s="19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H333" s="25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J333" s="5">
         <v>2</v>
@@ -13603,15 +13676,15 @@
         <v>7</v>
       </c>
       <c r="D334" s="19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F334" s="19"/>
       <c r="G334" s="19"/>
       <c r="H334" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J334" s="5">
         <v>3</v>
@@ -13628,15 +13701,15 @@
         <v>8</v>
       </c>
       <c r="D335" s="19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F335" s="19"/>
       <c r="G335" s="19"/>
       <c r="H335" s="26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J335" s="5">
         <v>5</v>
@@ -13653,15 +13726,15 @@
         <v>1</v>
       </c>
       <c r="D336" s="27" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E336" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F336" s="27"/>
       <c r="G336" s="27"/>
       <c r="H336" s="27" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J336" s="11">
         <v>2</v>
@@ -13678,16 +13751,16 @@
         <v>2</v>
       </c>
       <c r="D337" s="27" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F337" s="27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G337" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H337" s="27" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="338" s="11" customFormat="1" spans="1:10">
@@ -13701,15 +13774,15 @@
         <v>3</v>
       </c>
       <c r="D338" s="27" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E338" s="11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F338" s="27"/>
       <c r="G338" s="27"/>
       <c r="H338" s="27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J338" s="11">
         <v>2</v>
@@ -13726,15 +13799,15 @@
         <v>4</v>
       </c>
       <c r="D339" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E339" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F339" s="27"/>
       <c r="G339" s="27"/>
       <c r="H339" s="27" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J339" s="11">
         <v>2</v>
@@ -13751,16 +13824,16 @@
         <v>5</v>
       </c>
       <c r="D340" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F340" s="27" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G340" s="27" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H340" s="27" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="341" s="11" customFormat="1" spans="1:10">
@@ -13774,16 +13847,16 @@
         <v>6</v>
       </c>
       <c r="D341" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F341" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G341" s="27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H341" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J341" s="11">
         <v>1</v>
@@ -13800,16 +13873,16 @@
         <v>7</v>
       </c>
       <c r="D342" s="11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F342" s="27" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G342" s="27" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H342" s="27" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J342" s="11">
         <v>1</v>
@@ -13826,15 +13899,15 @@
         <v>8</v>
       </c>
       <c r="D343" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E343" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F343" s="27"/>
       <c r="G343" s="27"/>
       <c r="H343" s="27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J343" s="11">
         <v>1</v>
@@ -13851,16 +13924,16 @@
         <v>9</v>
       </c>
       <c r="D344" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F344" s="27" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G344" s="27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H344" s="27" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="345" s="11" customFormat="1" spans="1:10">
@@ -13874,15 +13947,15 @@
         <v>10</v>
       </c>
       <c r="D345" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E345" s="27" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F345" s="27"/>
       <c r="G345" s="27"/>
       <c r="H345" s="27" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J345" s="11">
         <v>1</v>
@@ -13899,16 +13972,16 @@
         <v>1</v>
       </c>
       <c r="D346" s="19" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F346" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J346" s="1">
         <v>1</v>
@@ -13925,16 +13998,16 @@
         <v>2</v>
       </c>
       <c r="D347" s="27" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F347" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J347" s="1">
         <v>1</v>
@@ -13951,16 +14024,16 @@
         <v>3</v>
       </c>
       <c r="D348" s="27" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F348" s="27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="349" spans="1:10">
@@ -13974,16 +14047,16 @@
         <v>4</v>
       </c>
       <c r="D349" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F349" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J349" s="1">
         <v>1</v>
@@ -14000,16 +14073,16 @@
         <v>5</v>
       </c>
       <c r="D350" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F350" s="27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="351" spans="1:10">
@@ -14023,16 +14096,16 @@
         <v>6</v>
       </c>
       <c r="D351" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F351" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J351" s="1">
         <v>1</v>
@@ -14049,16 +14122,16 @@
         <v>7</v>
       </c>
       <c r="D352" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F352" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J352" s="1">
         <v>5</v>
@@ -14075,16 +14148,16 @@
         <v>8</v>
       </c>
       <c r="D353" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F353" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G353" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J353" s="1">
         <v>1</v>
@@ -14101,16 +14174,16 @@
         <v>9</v>
       </c>
       <c r="D354" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F354" s="19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G354" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J354" s="1">
         <v>5</v>
@@ -14127,18 +14200,254 @@
         <v>10</v>
       </c>
       <c r="D355" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F355" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G355" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H355" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J355" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10">
+      <c r="A356" s="11">
+        <v>355</v>
+      </c>
+      <c r="B356" s="1">
+        <v>56</v>
+      </c>
+      <c r="C356" s="1">
+        <v>1</v>
+      </c>
+      <c r="D356" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J356" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357" s="11">
+        <v>356</v>
+      </c>
+      <c r="B357" s="1">
+        <v>56</v>
+      </c>
+      <c r="C357" s="1">
+        <v>2</v>
+      </c>
+      <c r="D357" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="F357" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G357" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10">
+      <c r="A358" s="11">
+        <v>357</v>
+      </c>
+      <c r="B358" s="1">
+        <v>56</v>
+      </c>
+      <c r="C358" s="1">
+        <v>3</v>
+      </c>
+      <c r="D358" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J358" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10">
+      <c r="A359" s="11">
+        <v>358</v>
+      </c>
+      <c r="B359" s="1">
+        <v>56</v>
+      </c>
+      <c r="C359" s="1">
+        <v>4</v>
+      </c>
+      <c r="D359" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J359" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" s="11">
+        <v>359</v>
+      </c>
+      <c r="B360" s="1">
+        <v>56</v>
+      </c>
+      <c r="C360" s="1">
+        <v>5</v>
+      </c>
+      <c r="D360" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F360" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G360" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H360" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J355" s="1">
+    </row>
+    <row r="361" spans="1:10">
+      <c r="A361" s="11">
+        <v>360</v>
+      </c>
+      <c r="B361" s="1">
+        <v>56</v>
+      </c>
+      <c r="C361" s="1">
+        <v>6</v>
+      </c>
+      <c r="D361" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J361" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10">
+      <c r="A362" s="11">
+        <v>361</v>
+      </c>
+      <c r="B362" s="1">
+        <v>56</v>
+      </c>
+      <c r="C362" s="1">
+        <v>7</v>
+      </c>
+      <c r="D362" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F362" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="G362" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J362" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10">
+      <c r="A363" s="11">
+        <v>362</v>
+      </c>
+      <c r="B363" s="1">
+        <v>56</v>
+      </c>
+      <c r="C363" s="1">
+        <v>8</v>
+      </c>
+      <c r="D363" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J363" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" s="11">
+        <v>363</v>
+      </c>
+      <c r="B364" s="1">
+        <v>56</v>
+      </c>
+      <c r="C364" s="1">
+        <v>9</v>
+      </c>
+      <c r="D364" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F364" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G364" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10">
+      <c r="A365" s="11">
+        <v>364</v>
+      </c>
+      <c r="B365" s="1">
+        <v>56</v>
+      </c>
+      <c r="C365" s="1">
+        <v>10</v>
+      </c>
+      <c r="D365" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F365" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G365" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J365" s="1">
         <v>1</v>
       </c>
     </row>
@@ -14169,10 +14478,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -14180,7 +14489,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -14188,7 +14497,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -14259,7 +14568,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -14272,16 +14581,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14292,7 +14601,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -14306,7 +14615,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -14320,7 +14629,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -14334,7 +14643,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -14348,7 +14657,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -14362,7 +14671,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -14376,7 +14685,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -14390,7 +14699,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -14404,7 +14713,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -14418,7 +14727,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -14432,7 +14741,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -14446,7 +14755,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="353">
   <si>
     <t>id|</t>
   </si>
@@ -1607,9 +1607,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1670,8 +1670,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1679,37 +1686,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1728,18 +1715,33 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1759,6 +1761,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1768,16 +1785,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1793,22 +1809,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1865,37 +1865,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1913,19 +1925,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1943,13 +1997,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1961,73 +2021,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2067,26 +2067,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2100,11 +2100,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2135,6 +2141,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2149,31 +2164,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2182,16 +2182,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2203,13 +2203,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2218,97 +2221,94 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -2779,12 +2779,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4570,6 +4570,35 @@
         <v>56</v>
       </c>
       <c r="K57" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="35">
+        <v>57</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="35">
+        <v>1624320000</v>
+      </c>
+      <c r="D58" s="35">
+        <v>1624895999</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" s="9">
+        <v>1</v>
+      </c>
+      <c r="I58" s="9">
+        <v>43</v>
+      </c>
+      <c r="J58" s="9">
+        <v>57</v>
+      </c>
+      <c r="K58" s="35">
         <v>1</v>
       </c>
     </row>
@@ -4584,10 +4613,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5092,6 +5121,17 @@
         <v>136</v>
       </c>
     </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5102,14 +5142,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M365"/>
+  <dimension ref="A1:M375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B339" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B345" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F359" sqref="F359"/>
+      <selection pane="bottomRight" activeCell="F381" sqref="F381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -14448,6 +14488,260 @@
         <v>340</v>
       </c>
       <c r="J365" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10">
+      <c r="A366" s="11">
+        <v>365</v>
+      </c>
+      <c r="B366" s="1">
+        <v>57</v>
+      </c>
+      <c r="C366" s="1">
+        <v>1</v>
+      </c>
+      <c r="D366" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="F366" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G366" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J366" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10">
+      <c r="A367" s="11">
+        <v>366</v>
+      </c>
+      <c r="B367" s="1">
+        <v>57</v>
+      </c>
+      <c r="C367" s="1">
+        <v>2</v>
+      </c>
+      <c r="D367" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="F367" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G367" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J367" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" s="11">
+        <v>367</v>
+      </c>
+      <c r="B368" s="1">
+        <v>57</v>
+      </c>
+      <c r="C368" s="1">
+        <v>3</v>
+      </c>
+      <c r="D368" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="F368" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G368" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10">
+      <c r="A369" s="11">
+        <v>368</v>
+      </c>
+      <c r="B369" s="1">
+        <v>57</v>
+      </c>
+      <c r="C369" s="1">
+        <v>4</v>
+      </c>
+      <c r="D369" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F369" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G369" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J369" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370" s="11">
+        <v>369</v>
+      </c>
+      <c r="B370" s="1">
+        <v>57</v>
+      </c>
+      <c r="C370" s="1">
+        <v>5</v>
+      </c>
+      <c r="D370" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F370" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G370" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10">
+      <c r="A371" s="11">
+        <v>370</v>
+      </c>
+      <c r="B371" s="1">
+        <v>57</v>
+      </c>
+      <c r="C371" s="1">
+        <v>6</v>
+      </c>
+      <c r="D371" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F371" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G371" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J371" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10">
+      <c r="A372" s="11">
+        <v>371</v>
+      </c>
+      <c r="B372" s="1">
+        <v>57</v>
+      </c>
+      <c r="C372" s="1">
+        <v>7</v>
+      </c>
+      <c r="D372" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F372" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G372" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J372" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10">
+      <c r="A373" s="11">
+        <v>372</v>
+      </c>
+      <c r="B373" s="1">
+        <v>57</v>
+      </c>
+      <c r="C373" s="1">
+        <v>8</v>
+      </c>
+      <c r="D373" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F373" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G373" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J373" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10">
+      <c r="A374" s="11">
+        <v>373</v>
+      </c>
+      <c r="B374" s="1">
+        <v>57</v>
+      </c>
+      <c r="C374" s="1">
+        <v>9</v>
+      </c>
+      <c r="D374" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F374" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G374" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J374" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10">
+      <c r="A375" s="11">
+        <v>374</v>
+      </c>
+      <c r="B375" s="1">
+        <v>57</v>
+      </c>
+      <c r="C375" s="1">
+        <v>10</v>
+      </c>
+      <c r="D375" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F375" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G375" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J375" s="1">
         <v>1</v>
       </c>
     </row>

--- a/config_Release/activity_exchange_server.xlsx
+++ b/config_Release/activity_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="355">
   <si>
     <t>id|</t>
   </si>
@@ -364,6 +364,9 @@
     <t>六一好礼</t>
   </si>
   <si>
+    <t>西瓜兑奖</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -533,6 +536,9 @@
   </si>
   <si>
     <t>恭喜您在六一好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>恭喜您在西瓜兑奖活动中获得了%s，请在活动结束后7个工作日内联系客服QQ号4008882620领取，逾期视为自动放弃！</t>
   </si>
   <si>
     <t>no|行号</t>
@@ -1608,8 +1614,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1677,14 +1683,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1693,15 +1691,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1722,11 +1727,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1737,9 +1749,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1761,24 +1772,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1792,23 +1804,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1865,7 +1871,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,7 +1955,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1889,121 +2015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2015,19 +2027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2067,11 +2073,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2091,26 +2112,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2132,10 +2144,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2144,23 +2154,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2170,10 +2176,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2182,133 +2188,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -2779,12 +2785,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4599,6 +4605,35 @@
         <v>57</v>
       </c>
       <c r="K58" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="35">
+        <v>58</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="35">
+        <v>1624924800</v>
+      </c>
+      <c r="D59" s="35">
+        <v>1625500799</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" s="9">
+        <v>1</v>
+      </c>
+      <c r="I59" s="9">
+        <v>44</v>
+      </c>
+      <c r="J59" s="9">
+        <v>58</v>
+      </c>
+      <c r="K59" s="35">
         <v>1</v>
       </c>
     </row>
@@ -4613,10 +4648,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4630,13 +4665,13 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>11</v>
@@ -4647,13 +4682,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4661,13 +4696,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4675,13 +4710,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4689,10 +4724,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4703,7 +4738,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4714,7 +4749,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4722,10 +4757,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4733,10 +4768,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:3">
@@ -4744,10 +4779,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:3">
@@ -4755,10 +4790,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:3">
@@ -4769,7 +4804,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:3">
@@ -4780,7 +4815,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:7">
@@ -4791,7 +4826,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -4806,7 +4841,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:7">
@@ -4817,7 +4852,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -4832,7 +4867,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:3">
@@ -4843,7 +4878,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:3">
@@ -4854,7 +4889,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:3">
@@ -4865,7 +4900,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:3">
@@ -4876,7 +4911,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:3">
@@ -4887,7 +4922,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:3">
@@ -4898,7 +4933,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:3">
@@ -4906,10 +4941,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-       